--- a/Seasons/Football History.xlsx
+++ b/Seasons/Football History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugs&amp;Fred\Documents\Fred\ROSM\Website\public_html\Seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5F7AEA2-8BF5-4E20-9A32-9EB851D3DD3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2262875-D607-4FC4-9CBE-DAAFACAF30C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7F2BF-BA1F-4802-BC8C-4DC7AFA8B3A8}"/>
   </bookViews>
@@ -2594,50 +2594,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ken Wright was the head coach.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Despite having only four seniors Coach Wright led St. Mary's to their best record since 1962. A suffocating defense allows 100 fewer points than the previous year and records five shutout victories. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This was one of the best Irish defenses of all-time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> They had an opportunity to win the league but lose to a power Our Lady of the Lakes team. St. Mary's finishes again in second place with a 6-1-1 record.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Tom Grange was the head coach. </t>
     </r>
     <r>
@@ -2692,29 +2648,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ken Wright was the head coach. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>With a very experienced team the Irish start out the season strong with two victories over larger schools. However, QB Jeff Jablonski is injured in the loss to OL St. Mary in the third game and misses most of the season. St. Mary's goes 3-3 for the balance of the schedule, with the offense being shutout twice. As in '74 St. Mary's had a chance to win the league crown but lose to Our Lady of the Lakes in the final game. For the third year in a row St. Mary's finish second in the league with an overall 5-3 record.</t>
     </r>
   </si>
   <si>
@@ -3209,6 +3142,117 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
+      <t>Ken Wright was the head coach.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Despite having only four seniors Coach Wright led St. Mary's to their best record since 1962. A suffocating defense allows 100 fewer points than the previous year and records five shutout victories. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This was one of the best Irish defenses of all-time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> They had an opportunity to win the league but lose to a power Our Lady of the Lakes team. St. Mary's finishes again in second place with a 6-1-1 record.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ron Stachel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is named to the Detroit News Class D All-State Team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ken Wright was the head coach. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">With a very experienced team the Irish start out the season strong with two victories over larger schools. However, QB Jeff Jablonski is injured in the loss to OL St. Mary in the third game and misses most of the season. St. Mary's goes 3-3 for the balance of the schedule, with the offense being shutout twice. As in '74 St. Mary's had a chance to win the league crown but lose to Our Lady of the Lakes in the final game. For the third year in a row St. Mary's finish second in the league with an overall 5-3 record.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tom Villerot</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is named to the Detroit News Class D All-State Team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>Catholic League Champions</t>
     </r>
     <r>
@@ -3241,7 +3285,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">- the first since 1948. At the onset of the season Coach Wright stated "Defense wins games and we've got the defense that can do the job". His confidence was well-placed as the Irish shutout out 6 opponents enroute to an 8-1 season - the best record since 1946. The defense gave up only 13 points outside of the lopsided loss to OL St. Mary in the second week of the season. The offense was explosive led by Jeff Jablonski and Tim Richards - scoring 213 points. In the 2nd Division Championship game, the Irish avenge that lone loss by stunning previously undefeated OL St. Mary 8-6. 
+      <t xml:space="preserve">- the first since 1948. At the onset of the season Coach Wright stated "Defense wins games and we've got the defense that can do the job". His confidence was well-placed as the Irish shutout out 6 opponents enroute to an 8-1 season - the best record since 1946. The defense gave up only 13 points outside of the lopsided loss to OL St. Mary in the second week of the season. The offense was explosive scoring 213 points. In the 2nd Division Championship game, the Irish avenge that lone loss by stunning previously undefeated OL St. Mary 8-6. 
 </t>
     </r>
     <r>
@@ -3284,7 +3328,49 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team.
+      <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team.  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tim Richards </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jeff Jablonski </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">were named to the Detroit News Class D All-State Team.
 </t>
     </r>
     <r>
@@ -3296,7 +3382,9 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">A very good sports year- the Basketball team pushed St. Andrews (eventual Class C State Champions) to double-OT before losing in the Catholic League semi-final. The Baseball team defeated OL St. Mary 4-1 to win the 2nd Division Championship. </t>
+      <t xml:space="preserve">A very good sports year- the Basketball team pushed St. Andrews (eventual Class C State Champions) to double-OT before 
+losing in the Catholic League semi-final. The Baseball team defeated OL St. Mary 4-1 to win the 2nd Division Championship. 
+</t>
     </r>
     <r>
       <rPr>
@@ -3779,7 +3867,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3790,28 +3878,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -3823,14 +3896,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3838,11 +3926,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6489,10 +6577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2FFFC7-E182-47AD-9B1B-521106FC03D6}">
-  <dimension ref="A1:G2036"/>
+  <dimension ref="A1:G2038"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A487" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E242" sqref="E242"/>
+    <sheetView tabSelected="1" topLeftCell="A493" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I507" sqref="I507"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6519,17 +6607,17 @@
         <v>183</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F1" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="2">
@@ -6547,12 +6635,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="51" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -6568,10 +6656,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -6587,10 +6675,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -6606,37 +6694,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
@@ -6652,7 +6740,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -6668,17 +6756,17 @@
         <v>183</v>
       </c>
       <c r="E10" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F10" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="54" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="2">
@@ -6696,12 +6784,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="57" t="s">
-        <v>394</v>
+      <c r="G11" s="51" t="s">
+        <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -6717,10 +6805,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -6736,10 +6824,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -6755,10 +6843,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -6774,10 +6862,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -6793,10 +6881,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -6812,10 +6900,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -6831,10 +6919,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>46</v>
@@ -6850,7 +6938,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -6866,17 +6954,17 @@
         <v>183</v>
       </c>
       <c r="E20" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F20" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="55" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="2">
@@ -6894,12 +6982,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="51" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -6915,10 +7003,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -6934,10 +7022,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -6953,10 +7041,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -6972,10 +7060,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -6991,10 +7079,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -7010,10 +7098,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -7029,10 +7117,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -7048,10 +7136,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -7067,10 +7155,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -7086,10 +7174,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>47</v>
@@ -7105,7 +7193,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="54"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -7121,10 +7209,10 @@
         <v>183</v>
       </c>
       <c r="E33" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F33" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>9</v>
@@ -7149,7 +7237,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="51" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7170,7 +7258,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -7189,7 +7277,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="52"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -7208,7 +7296,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="53"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
@@ -7227,7 +7315,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="52"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -7246,7 +7334,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
@@ -7265,7 +7353,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="53"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
@@ -7284,7 +7372,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="53"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
@@ -7303,7 +7391,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="53"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
@@ -7322,7 +7410,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="54"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -7338,17 +7426,17 @@
         <v>183</v>
       </c>
       <c r="E44" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F44" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="2">
@@ -7536,10 +7624,10 @@
         <v>183</v>
       </c>
       <c r="E54" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F54" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G54" s="9" t="s">
         <v>9</v>
@@ -7734,10 +7822,10 @@
         <v>183</v>
       </c>
       <c r="E64" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F64" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G64" s="9" t="s">
         <v>9</v>
@@ -7945,17 +8033,17 @@
         <v>183</v>
       </c>
       <c r="E75" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F75" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G75" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="58" t="s">
         <v>190</v>
       </c>
       <c r="B76" s="2">
@@ -7973,12 +8061,12 @@
       <c r="F76" s="7">
         <v>6</v>
       </c>
-      <c r="G76" s="57" t="s">
+      <c r="G76" s="51" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="2">
         <v>12699</v>
       </c>
@@ -7994,10 +8082,10 @@
       <c r="F77" s="7">
         <v>12</v>
       </c>
-      <c r="G77" s="53"/>
+      <c r="G77" s="52"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="2">
         <v>12705</v>
       </c>
@@ -8013,10 +8101,10 @@
       <c r="F78" s="7">
         <v>15</v>
       </c>
-      <c r="G78" s="53"/>
+      <c r="G78" s="52"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="2">
         <v>12713</v>
       </c>
@@ -8032,10 +8120,10 @@
       <c r="F79" s="7">
         <v>0</v>
       </c>
-      <c r="G79" s="53"/>
+      <c r="G79" s="52"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="2">
         <v>12720</v>
       </c>
@@ -8051,10 +8139,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="53"/>
+      <c r="G80" s="52"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="2">
         <v>12727</v>
       </c>
@@ -8070,10 +8158,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="53"/>
+      <c r="G81" s="52"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="40">
         <v>12734</v>
       </c>
@@ -8089,10 +8177,10 @@
       <c r="F82" s="43">
         <v>0</v>
       </c>
-      <c r="G82" s="53"/>
+      <c r="G82" s="52"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="2">
         <v>12741</v>
       </c>
@@ -8108,27 +8196,27 @@
       <c r="F83" s="7">
         <v>0</v>
       </c>
-      <c r="G83" s="53"/>
+      <c r="G83" s="52"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="53"/>
+      <c r="G84" s="52"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="3"/>
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="22"/>
       <c r="F85" s="23"/>
-      <c r="G85" s="53"/>
+      <c r="G85" s="52"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="35"/>
       <c r="C86" s="39" t="s">
         <v>342</v>
@@ -8136,10 +8224,10 @@
       <c r="D86" s="36"/>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
-      <c r="G86" s="53"/>
+      <c r="G86" s="52"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="35"/>
       <c r="C87" s="20" t="s">
         <v>43</v>
@@ -8155,7 +8243,7 @@
         <f>SUM(F76:F86)</f>
         <v>33</v>
       </c>
-      <c r="G87" s="54"/>
+      <c r="G87" s="53"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
@@ -8171,17 +8259,17 @@
         <v>183</v>
       </c>
       <c r="E88" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F88" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G88" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="59" t="s">
         <v>191</v>
       </c>
       <c r="B89" s="2">
@@ -8200,11 +8288,11 @@
         <v>0</v>
       </c>
       <c r="G89" s="50" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="2">
         <v>13069</v>
       </c>
@@ -8223,7 +8311,7 @@
       <c r="G90" s="50"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="2">
         <v>13077</v>
       </c>
@@ -8242,7 +8330,7 @@
       <c r="G91" s="50"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="2">
         <v>13084</v>
       </c>
@@ -8261,7 +8349,7 @@
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="2">
         <v>13091</v>
       </c>
@@ -8280,7 +8368,7 @@
       <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="2">
         <v>13098</v>
       </c>
@@ -8299,7 +8387,7 @@
       <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="2">
         <v>13105</v>
       </c>
@@ -8318,7 +8406,7 @@
       <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="2">
         <v>13112</v>
       </c>
@@ -8337,7 +8425,7 @@
       <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="55"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="3"/>
       <c r="C97" s="20" t="s">
         <v>44</v>
@@ -8369,10 +8457,10 @@
         <v>183</v>
       </c>
       <c r="E98" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F98" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G98" s="9" t="s">
         <v>9</v>
@@ -8567,10 +8655,10 @@
         <v>183</v>
       </c>
       <c r="E108" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F108" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G108" s="9" t="s">
         <v>9</v>
@@ -8765,10 +8853,10 @@
         <v>183</v>
       </c>
       <c r="E118" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F118" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>9</v>
@@ -8963,10 +9051,10 @@
         <v>183</v>
       </c>
       <c r="E128" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F128" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G128" s="9" t="s">
         <v>69</v>
@@ -9155,10 +9243,10 @@
         <v>183</v>
       </c>
       <c r="E138" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F138" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G138" s="9" t="s">
         <v>9</v>
@@ -9334,10 +9422,10 @@
         <v>183</v>
       </c>
       <c r="E147" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F147" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G147" s="9" t="s">
         <v>9</v>
@@ -9362,7 +9450,7 @@
       <c r="F148" s="7">
         <v>12</v>
       </c>
-      <c r="G148" s="52" t="s">
+      <c r="G148" s="61" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9383,7 +9471,7 @@
       <c r="F149" s="7">
         <v>0</v>
       </c>
-      <c r="G149" s="53"/>
+      <c r="G149" s="52"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="45"/>
@@ -9402,7 +9490,7 @@
       <c r="F150" s="7">
         <v>13</v>
       </c>
-      <c r="G150" s="53"/>
+      <c r="G150" s="52"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="45"/>
@@ -9421,7 +9509,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="53"/>
+      <c r="G151" s="52"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
@@ -9440,7 +9528,7 @@
       <c r="F152" s="7">
         <v>31</v>
       </c>
-      <c r="G152" s="53"/>
+      <c r="G152" s="52"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="45"/>
@@ -9459,7 +9547,7 @@
       <c r="F153" s="7">
         <v>13</v>
       </c>
-      <c r="G153" s="53"/>
+      <c r="G153" s="52"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="45"/>
@@ -9478,7 +9566,7 @@
       <c r="F154" s="7">
         <v>21</v>
       </c>
-      <c r="G154" s="53"/>
+      <c r="G154" s="52"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="45"/>
@@ -9497,7 +9585,7 @@
       <c r="F155" s="7">
         <v>38</v>
       </c>
-      <c r="G155" s="53"/>
+      <c r="G155" s="52"/>
     </row>
     <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46"/>
@@ -9516,7 +9604,7 @@
         <f>SUM(F148:F155)</f>
         <v>128</v>
       </c>
-      <c r="G156" s="54"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
@@ -9532,10 +9620,10 @@
         <v>183</v>
       </c>
       <c r="E157" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F157" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G157" s="9" t="s">
         <v>9</v>
@@ -9560,7 +9648,7 @@
       <c r="F158" s="5">
         <v>7</v>
       </c>
-      <c r="G158" s="51" t="s">
+      <c r="G158" s="57" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9724,10 +9812,10 @@
         <v>183</v>
       </c>
       <c r="E167" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F167" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G167" s="9" t="s">
         <v>9</v>
@@ -9752,8 +9840,8 @@
       <c r="F168" s="5">
         <v>12</v>
       </c>
-      <c r="G168" s="51" t="s">
-        <v>395</v>
+      <c r="G168" s="57" t="s">
+        <v>393</v>
       </c>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
@@ -9922,10 +10010,10 @@
         <v>183</v>
       </c>
       <c r="E177" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F177" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G177" s="9" t="s">
         <v>9</v>
@@ -10120,10 +10208,10 @@
         <v>183</v>
       </c>
       <c r="E187" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F187" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G187" s="9" t="s">
         <v>9</v>
@@ -10148,7 +10236,7 @@
       <c r="F188" s="5">
         <v>26</v>
       </c>
-      <c r="G188" s="51" t="s">
+      <c r="G188" s="57" t="s">
         <v>352</v>
       </c>
     </row>
@@ -10318,17 +10406,17 @@
         <v>183</v>
       </c>
       <c r="E197" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F197" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G197" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="62" t="s">
+      <c r="A198" s="47" t="s">
         <v>202</v>
       </c>
       <c r="B198" s="2">
@@ -10346,8 +10434,8 @@
       <c r="F198" s="5">
         <v>7</v>
       </c>
-      <c r="G198" s="58" t="s">
-        <v>401</v>
+      <c r="G198" s="60" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
@@ -10500,7 +10588,7 @@
       <c r="F206" s="5">
         <v>7</v>
       </c>
-      <c r="G206" s="57"/>
+      <c r="G206" s="51"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="48"/>
@@ -10509,7 +10597,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="8"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="57"/>
+      <c r="G207" s="51"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="48"/>
@@ -10518,7 +10606,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="8"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="57"/>
+      <c r="G208" s="51"/>
     </row>
     <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="49"/>
@@ -10537,7 +10625,7 @@
         <f>SUM(F198:F206)</f>
         <v>16</v>
       </c>
-      <c r="G209" s="57"/>
+      <c r="G209" s="51"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
@@ -10553,10 +10641,10 @@
         <v>183</v>
       </c>
       <c r="E210" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F210" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G210" s="9" t="s">
         <v>9</v>
@@ -10581,7 +10669,7 @@
       <c r="F211" s="7">
         <v>13</v>
       </c>
-      <c r="G211" s="51" t="s">
+      <c r="G211" s="57" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10770,17 +10858,17 @@
         <v>183</v>
       </c>
       <c r="E221" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F221" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G221" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="56" t="s">
+      <c r="A222" s="58" t="s">
         <v>204</v>
       </c>
       <c r="B222" s="2">
@@ -10803,7 +10891,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="55"/>
+      <c r="A223" s="59"/>
       <c r="B223" s="2">
         <v>17802</v>
       </c>
@@ -10822,7 +10910,7 @@
       <c r="G223" s="50"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="55"/>
+      <c r="A224" s="59"/>
       <c r="B224" s="4">
         <v>17809</v>
       </c>
@@ -10841,7 +10929,7 @@
       <c r="G224" s="50"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="55"/>
+      <c r="A225" s="59"/>
       <c r="B225" s="2">
         <v>17814</v>
       </c>
@@ -10860,7 +10948,7 @@
       <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="55"/>
+      <c r="A226" s="59"/>
       <c r="B226" s="2">
         <v>17822</v>
       </c>
@@ -10879,7 +10967,7 @@
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="55"/>
+      <c r="A227" s="59"/>
       <c r="B227" s="2">
         <v>17830</v>
       </c>
@@ -10898,7 +10986,7 @@
       <c r="G227" s="50"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="55"/>
+      <c r="A228" s="59"/>
       <c r="B228" s="2">
         <v>17844</v>
       </c>
@@ -10917,7 +11005,7 @@
       <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="55"/>
+      <c r="A229" s="59"/>
       <c r="B229" s="4">
         <v>17852</v>
       </c>
@@ -10936,7 +11024,7 @@
       <c r="G229" s="50"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="55"/>
+      <c r="A230" s="59"/>
       <c r="B230" s="4"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -10945,7 +11033,7 @@
       <c r="G230" s="50"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="55"/>
+      <c r="A231" s="59"/>
       <c r="B231" s="4"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -10954,7 +11042,7 @@
       <c r="G231" s="50"/>
     </row>
     <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="55"/>
+      <c r="A232" s="59"/>
       <c r="B232" s="3"/>
       <c r="C232" s="20" t="s">
         <v>139</v>
@@ -10986,10 +11074,10 @@
         <v>183</v>
       </c>
       <c r="E233" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F233" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G233" s="9" t="s">
         <v>9</v>
@@ -11168,7 +11256,7 @@
         <f>SUM(F234:F241)</f>
         <v>82</v>
       </c>
-      <c r="G242" s="57"/>
+      <c r="G242" s="51"/>
     </row>
     <row r="243" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
@@ -11184,10 +11272,10 @@
         <v>183</v>
       </c>
       <c r="E243" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F243" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G243" s="9" t="s">
         <v>9</v>
@@ -11212,7 +11300,7 @@
       <c r="F244" s="5">
         <v>31</v>
       </c>
-      <c r="G244" s="51" t="s">
+      <c r="G244" s="57" t="s">
         <v>359</v>
       </c>
     </row>
@@ -11382,10 +11470,10 @@
         <v>183</v>
       </c>
       <c r="E253" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F253" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G253" s="9" t="s">
         <v>9</v>
@@ -11580,10 +11668,10 @@
         <v>183</v>
       </c>
       <c r="E263" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F263" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G263" s="9" t="s">
         <v>9</v>
@@ -11774,10 +11862,10 @@
         <v>183</v>
       </c>
       <c r="E273" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F273" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G273" s="9" t="s">
         <v>9</v>
@@ -11953,10 +12041,10 @@
         <v>183</v>
       </c>
       <c r="E282" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F282" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G282" s="9" t="s">
         <v>9</v>
@@ -11981,7 +12069,7 @@
       <c r="F283" s="7">
         <v>19</v>
       </c>
-      <c r="G283" s="51" t="s">
+      <c r="G283" s="57" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12151,10 +12239,10 @@
         <v>183</v>
       </c>
       <c r="E292" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F292" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G292" s="9" t="s">
         <v>9</v>
@@ -12349,10 +12437,10 @@
         <v>183</v>
       </c>
       <c r="E302" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F302" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G302" s="9" t="s">
         <v>9</v>
@@ -12377,7 +12465,7 @@
       <c r="F303" s="5">
         <v>12</v>
       </c>
-      <c r="G303" s="51" t="s">
+      <c r="G303" s="57" t="s">
         <v>366</v>
       </c>
     </row>
@@ -12547,10 +12635,10 @@
         <v>183</v>
       </c>
       <c r="E312" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F312" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G312" s="9" t="s">
         <v>9</v>
@@ -12744,7 +12832,7 @@
     </row>
     <row r="323" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B323" s="9">
         <v>1958</v>
@@ -12756,10 +12844,10 @@
         <v>183</v>
       </c>
       <c r="E323" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F323" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G323" s="9" t="s">
         <v>9</v>
@@ -12942,7 +13030,7 @@
     </row>
     <row r="333" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="28" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B333" s="9">
         <v>1959</v>
@@ -12954,10 +13042,10 @@
         <v>183</v>
       </c>
       <c r="E333" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F333" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G333" s="9" t="s">
         <v>9</v>
@@ -13152,10 +13240,10 @@
         <v>183</v>
       </c>
       <c r="E343" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F343" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G343" s="9" t="s">
         <v>9</v>
@@ -13350,10 +13438,10 @@
         <v>183</v>
       </c>
       <c r="E353" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F353" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G353" s="9" t="s">
         <v>9</v>
@@ -13548,10 +13636,10 @@
         <v>183</v>
       </c>
       <c r="E363" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F363" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G363" s="9" t="s">
         <v>9</v>
@@ -13727,10 +13815,10 @@
         <v>183</v>
       </c>
       <c r="E372" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F372" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G372" s="9" t="s">
         <v>9</v>
@@ -13906,10 +13994,10 @@
         <v>183</v>
       </c>
       <c r="E381" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F381" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G381" s="9" t="s">
         <v>9</v>
@@ -13923,7 +14011,7 @@
         <v>23640</v>
       </c>
       <c r="C382" s="3" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D382" s="3" t="s">
         <v>4</v>
@@ -14085,10 +14173,10 @@
         <v>183</v>
       </c>
       <c r="E390" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F390" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G390" s="9" t="s">
         <v>9</v>
@@ -14264,10 +14352,10 @@
         <v>183</v>
       </c>
       <c r="E399" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F399" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G399" s="9" t="s">
         <v>9</v>
@@ -14443,10 +14531,10 @@
         <v>183</v>
       </c>
       <c r="E408" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F408" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G408" s="9" t="s">
         <v>9</v>
@@ -14641,10 +14729,10 @@
         <v>183</v>
       </c>
       <c r="E418" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F418" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G418" s="9" t="s">
         <v>9</v>
@@ -14839,10 +14927,10 @@
         <v>183</v>
       </c>
       <c r="E428" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F428" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G428" s="9" t="s">
         <v>9</v>
@@ -15055,10 +15143,10 @@
         <v>183</v>
       </c>
       <c r="E440" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F440" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G440" s="9" t="s">
         <v>9</v>
@@ -15084,7 +15172,7 @@
         <v>6</v>
       </c>
       <c r="G441" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
@@ -15253,10 +15341,10 @@
         <v>183</v>
       </c>
       <c r="E450" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F450" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G450" s="9" t="s">
         <v>179</v>
@@ -15451,10 +15539,10 @@
         <v>183</v>
       </c>
       <c r="E460" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F460" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G460" s="9" t="s">
         <v>9</v>
@@ -15649,10 +15737,10 @@
         <v>183</v>
       </c>
       <c r="E470" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F470" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G470" s="9" t="s">
         <v>9</v>
@@ -15677,7 +15765,7 @@
       <c r="F471" s="5">
         <v>19</v>
       </c>
-      <c r="G471" s="51" t="s">
+      <c r="G471" s="57" t="s">
         <v>383</v>
       </c>
     </row>
@@ -15847,10 +15935,10 @@
         <v>183</v>
       </c>
       <c r="E480" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F480" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G480" s="9" t="s">
         <v>9</v>
@@ -15876,7 +15964,7 @@
         <v>6</v>
       </c>
       <c r="G481" s="50" t="s">
-        <v>384</v>
+        <v>401</v>
       </c>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
@@ -16045,10 +16133,10 @@
         <v>183</v>
       </c>
       <c r="E490" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F490" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G490" s="9" t="s">
         <v>9</v>
@@ -16074,7 +16162,7 @@
         <v>6</v>
       </c>
       <c r="G491" s="50" t="s">
-        <v>386</v>
+        <v>402</v>
       </c>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
@@ -16243,17 +16331,17 @@
         <v>183</v>
       </c>
       <c r="E500" s="26" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="F500" s="26" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="G500" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="47" t="s">
+      <c r="A501" s="62" t="s">
         <v>232</v>
       </c>
       <c r="B501" s="2">
@@ -16463,135 +16551,115 @@
       <c r="F513" s="5"/>
       <c r="G513" s="50"/>
     </row>
-    <row r="514" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A514" s="49"/>
-      <c r="B514" s="3"/>
-      <c r="C514" s="20" t="s">
+    <row r="514" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A514" s="48"/>
+      <c r="B514" s="4"/>
+      <c r="C514" s="3"/>
+      <c r="D514" s="3"/>
+      <c r="E514" s="8"/>
+      <c r="F514" s="5"/>
+      <c r="G514" s="50"/>
+    </row>
+    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A515" s="48"/>
+      <c r="B515" s="4"/>
+      <c r="C515" s="3"/>
+      <c r="D515" s="3"/>
+      <c r="E515" s="8"/>
+      <c r="F515" s="5"/>
+      <c r="G515" s="50"/>
+    </row>
+    <row r="516" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A516" s="49"/>
+      <c r="B516" s="3"/>
+      <c r="C516" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D514" s="21" t="s">
+      <c r="D516" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E514" s="33">
-        <f t="shared" ref="E514:F514" si="2">SUM(E501:E509)</f>
+      <c r="E516" s="33">
+        <f>SUM(E501:E509)</f>
         <v>213</v>
       </c>
-      <c r="F514" s="34">
-        <f t="shared" si="2"/>
+      <c r="F516" s="34">
+        <f>SUM(F501:F509)</f>
         <v>49</v>
       </c>
-      <c r="G514" s="50"/>
-    </row>
-    <row r="515" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A515" s="28" t="s">
+      <c r="G516" s="50"/>
+    </row>
+    <row r="517" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A517" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B515" s="9">
+      <c r="B517" s="9">
         <v>1977</v>
       </c>
-      <c r="C515" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D515" s="9" t="s">
+      <c r="C517" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D517" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E515" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F515" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G515" s="9" t="s">
+      <c r="E517" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F517" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G517" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="44" t="s">
+    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A518" s="44" t="s">
         <v>233</v>
       </c>
-      <c r="B516" s="2">
+      <c r="B518" s="2">
         <v>28378</v>
       </c>
-      <c r="C516" s="3" t="s">
+      <c r="C518" s="3" t="s">
         <v>111</v>
       </c>
-      <c r="D516" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E516" s="8">
-        <v>0</v>
-      </c>
-      <c r="F516" s="5">
+      <c r="D518" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E518" s="8">
+        <v>0</v>
+      </c>
+      <c r="F518" s="5">
         <v>12</v>
       </c>
-      <c r="G516" s="50" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A517" s="45"/>
-      <c r="B517" s="2">
-        <v>28386</v>
-      </c>
-      <c r="C517" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="D517" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E517" s="8">
-        <v>0</v>
-      </c>
-      <c r="F517" s="5">
-        <v>49</v>
-      </c>
-      <c r="G517" s="50"/>
-    </row>
-    <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" s="45"/>
-      <c r="B518" s="4">
-        <v>28392</v>
-      </c>
-      <c r="C518" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="D518" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E518" s="8">
-        <v>0</v>
-      </c>
-      <c r="F518" s="5">
-        <v>36</v>
-      </c>
-      <c r="G518" s="50"/>
+      <c r="G518" s="50" t="s">
+        <v>385</v>
+      </c>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="45"/>
       <c r="B519" s="2">
-        <v>28400</v>
+        <v>28386</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>105</v>
+        <v>74</v>
       </c>
       <c r="D519" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E519" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F519" s="5">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="G519" s="50"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="45"/>
-      <c r="B520" s="2">
-        <v>28407</v>
+      <c r="B520" s="4">
+        <v>28392</v>
       </c>
       <c r="C520" s="3" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="D520" s="3" t="s">
         <v>5</v>
@@ -16600,36 +16668,36 @@
         <v>0</v>
       </c>
       <c r="F520" s="5">
-        <v>25</v>
+        <v>36</v>
       </c>
       <c r="G520" s="50"/>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="45"/>
       <c r="B521" s="2">
-        <v>28412</v>
+        <v>28400</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E521" s="8">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F521" s="5">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G521" s="50"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="45"/>
       <c r="B522" s="2">
-        <v>28419</v>
+        <v>28407</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>5</v>
@@ -16638,592 +16706,592 @@
         <v>0</v>
       </c>
       <c r="F522" s="5">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="G522" s="50"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="45"/>
       <c r="B523" s="2">
-        <v>28427</v>
+        <v>28412</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>109</v>
+        <v>99</v>
       </c>
       <c r="D523" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E523" s="8">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="F523" s="5">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="G523" s="50"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="45"/>
-      <c r="B524" s="4" t="s">
+      <c r="B524" s="2">
+        <v>28419</v>
+      </c>
+      <c r="C524" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D524" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E524" s="8">
+        <v>0</v>
+      </c>
+      <c r="F524" s="5">
+        <v>22</v>
+      </c>
+      <c r="G524" s="50"/>
+    </row>
+    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A525" s="45"/>
+      <c r="B525" s="2">
+        <v>28427</v>
+      </c>
+      <c r="C525" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D525" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E525" s="8">
+        <v>30</v>
+      </c>
+      <c r="F525" s="5">
+        <v>6</v>
+      </c>
+      <c r="G525" s="50"/>
+    </row>
+    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A526" s="45"/>
+      <c r="B526" s="4" t="s">
         <v>177</v>
       </c>
-      <c r="C524" s="3" t="s">
+      <c r="C526" s="3" t="s">
         <v>93</v>
       </c>
-      <c r="D524" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E524" s="8">
-        <v>0</v>
-      </c>
-      <c r="F524" s="5">
+      <c r="D526" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E526" s="8">
+        <v>0</v>
+      </c>
+      <c r="F526" s="5">
         <v>25</v>
       </c>
-      <c r="G524" s="50"/>
-    </row>
-    <row r="525" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A525" s="46"/>
-      <c r="B525" s="3"/>
-      <c r="C525" s="20" t="s">
+      <c r="G526" s="50"/>
+    </row>
+    <row r="527" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A527" s="46"/>
+      <c r="B527" s="3"/>
+      <c r="C527" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D525" s="21" t="s">
+      <c r="D527" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E525" s="33">
-        <f t="shared" ref="E525:F525" si="3">SUM(E516:E524)</f>
+      <c r="E527" s="33">
+        <f t="shared" ref="E527:F527" si="2">SUM(E518:E526)</f>
         <v>58</v>
       </c>
-      <c r="F525" s="34">
-        <f t="shared" si="3"/>
+      <c r="F527" s="34">
+        <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="G525" s="50"/>
-    </row>
-    <row r="526" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A526" s="28" t="s">
+      <c r="G527" s="50"/>
+    </row>
+    <row r="528" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A528" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B526" s="9">
+      <c r="B528" s="9">
         <v>1978</v>
       </c>
-      <c r="C526" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D526" s="9" t="s">
+      <c r="C528" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D528" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E526" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F526" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G526" s="9" t="s">
+      <c r="E528" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F528" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G528" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A527" s="44" t="s">
+    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A529" s="44" t="s">
         <v>234</v>
       </c>
-      <c r="B527" s="2">
+      <c r="B529" s="2">
         <v>28741</v>
       </c>
-      <c r="C527" s="3" t="s">
+      <c r="C529" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D527" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E527" s="8">
+      <c r="D529" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E529" s="8">
         <v>8</v>
       </c>
-      <c r="F527" s="5">
+      <c r="F529" s="5">
         <v>40</v>
       </c>
-      <c r="G527" s="50" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A528" s="45"/>
-      <c r="B528" s="2">
-        <v>28749</v>
-      </c>
-      <c r="C528" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D528" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E528" s="8">
-        <v>22</v>
-      </c>
-      <c r="F528" s="5">
-        <v>6</v>
-      </c>
-      <c r="G528" s="50"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" s="45"/>
-      <c r="B529" s="4">
-        <v>28757</v>
-      </c>
-      <c r="C529" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D529" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E529" s="8">
-        <v>10</v>
-      </c>
-      <c r="F529" s="5">
-        <v>14</v>
-      </c>
-      <c r="G529" s="50"/>
+      <c r="G529" s="50" t="s">
+        <v>386</v>
+      </c>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="45"/>
       <c r="B530" s="2">
-        <v>28763</v>
+        <v>28749</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D530" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E530" s="8">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F530" s="5">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="G530" s="50"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="45"/>
-      <c r="B531" s="2">
-        <v>28770</v>
+      <c r="B531" s="4">
+        <v>28757</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D531" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E531" s="8">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="F531" s="5">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="G531" s="50"/>
     </row>
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="45"/>
       <c r="B532" s="2">
-        <v>28776</v>
+        <v>28763</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E532" s="8">
+        <v>24</v>
+      </c>
+      <c r="F532" s="5">
         <v>14</v>
-      </c>
-      <c r="F532" s="5">
-        <v>28</v>
       </c>
       <c r="G532" s="50"/>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="45"/>
       <c r="B533" s="2">
-        <v>28785</v>
+        <v>28770</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E533" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F533" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G533" s="50"/>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="45"/>
       <c r="B534" s="2">
+        <v>28776</v>
+      </c>
+      <c r="C534" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D534" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E534" s="8">
+        <v>14</v>
+      </c>
+      <c r="F534" s="5">
+        <v>28</v>
+      </c>
+      <c r="G534" s="50"/>
+    </row>
+    <row r="535" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A535" s="45"/>
+      <c r="B535" s="2">
+        <v>28785</v>
+      </c>
+      <c r="C535" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D535" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E535" s="8">
+        <v>12</v>
+      </c>
+      <c r="F535" s="5">
+        <v>20</v>
+      </c>
+      <c r="G535" s="50"/>
+    </row>
+    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A536" s="45"/>
+      <c r="B536" s="2">
         <v>28791</v>
       </c>
-      <c r="C534" s="3" t="s">
+      <c r="C536" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D534" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E534" s="8">
-        <v>0</v>
-      </c>
-      <c r="F534" s="5">
+      <c r="D536" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E536" s="8">
+        <v>0</v>
+      </c>
+      <c r="F536" s="5">
         <v>12</v>
       </c>
-      <c r="G534" s="50"/>
-    </row>
-    <row r="535" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A535" s="46"/>
-      <c r="B535" s="3"/>
-      <c r="C535" s="20" t="s">
+      <c r="G536" s="50"/>
+    </row>
+    <row r="537" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A537" s="46"/>
+      <c r="B537" s="3"/>
+      <c r="C537" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="D535" s="21" t="s">
+      <c r="D537" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="E535" s="33">
-        <f>SUM(E527:E534)</f>
+      <c r="E537" s="33">
+        <f>SUM(E529:E536)</f>
         <v>90</v>
       </c>
-      <c r="F535" s="34">
-        <f>SUM(F527:F534)</f>
+      <c r="F537" s="34">
+        <f>SUM(F529:F536)</f>
         <v>155</v>
       </c>
-      <c r="G535" s="50"/>
-    </row>
-    <row r="536" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A536" s="28" t="s">
+      <c r="G537" s="50"/>
+    </row>
+    <row r="538" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A538" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B536" s="9">
+      <c r="B538" s="9">
         <v>1979</v>
       </c>
-      <c r="C536" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D536" s="9" t="s">
+      <c r="C538" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D538" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E536" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F536" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G536" s="9" t="s">
+      <c r="E538" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F538" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G538" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="537" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A537" s="44" t="s">
+    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A539" s="44" t="s">
         <v>235</v>
       </c>
-      <c r="B537" s="2">
+      <c r="B539" s="2">
         <v>29106</v>
       </c>
-      <c r="C537" s="3" t="s">
+      <c r="C539" s="3" t="s">
         <v>117</v>
       </c>
-      <c r="D537" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E537" s="8">
+      <c r="D539" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E539" s="8">
         <v>8</v>
       </c>
-      <c r="F537" s="5">
+      <c r="F539" s="5">
         <v>16</v>
       </c>
-      <c r="G537" s="50" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A538" s="45"/>
-      <c r="B538" s="2">
-        <v>29113</v>
-      </c>
-      <c r="C538" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D538" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E538" s="8">
-        <v>16</v>
-      </c>
-      <c r="F538" s="5">
-        <v>14</v>
-      </c>
-      <c r="G538" s="50"/>
-    </row>
-    <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="45"/>
-      <c r="B539" s="2">
-        <v>29119</v>
-      </c>
-      <c r="C539" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D539" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E539" s="8">
-        <v>12</v>
-      </c>
-      <c r="F539" s="5">
-        <v>8</v>
-      </c>
-      <c r="G539" s="50"/>
+      <c r="G539" s="50" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="45"/>
       <c r="B540" s="2">
-        <v>29127</v>
+        <v>29113</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="D540" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E540" s="8">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="F540" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G540" s="50"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="45"/>
       <c r="B541" s="2">
-        <v>29134</v>
+        <v>29119</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D541" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E541" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F541" s="5">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="G541" s="50"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="45"/>
       <c r="B542" s="2">
-        <v>29142</v>
+        <v>29127</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>87</v>
+        <v>119</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E542" s="8">
+        <v>20</v>
+      </c>
+      <c r="F542" s="5">
         <v>6</v>
-      </c>
-      <c r="F542" s="5">
-        <v>13</v>
       </c>
       <c r="G542" s="50"/>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="45"/>
       <c r="B543" s="2">
-        <v>29147</v>
+        <v>29134</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D543" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E543" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F543" s="5">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G543" s="50"/>
     </row>
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="45"/>
       <c r="B544" s="2">
-        <v>29155</v>
+        <v>29142</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>120</v>
+        <v>87</v>
       </c>
       <c r="D544" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E544" s="8">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="F544" s="5">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="G544" s="50"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="45"/>
-      <c r="B545" s="4">
+      <c r="B545" s="2">
+        <v>29147</v>
+      </c>
+      <c r="C545" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D545" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E545" s="8">
+        <v>12</v>
+      </c>
+      <c r="F545" s="5">
+        <v>26</v>
+      </c>
+      <c r="G545" s="50"/>
+    </row>
+    <row r="546" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A546" s="45"/>
+      <c r="B546" s="2">
+        <v>29155</v>
+      </c>
+      <c r="C546" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D546" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E546" s="8">
+        <v>14</v>
+      </c>
+      <c r="F546" s="5">
+        <v>22</v>
+      </c>
+      <c r="G546" s="50"/>
+    </row>
+    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A547" s="45"/>
+      <c r="B547" s="4">
         <v>29161</v>
       </c>
-      <c r="C545" s="3" t="s">
+      <c r="C547" s="3" t="s">
         <v>110</v>
       </c>
-      <c r="D545" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E545" s="8">
+      <c r="D547" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E547" s="8">
         <v>10</v>
       </c>
-      <c r="F545" s="5">
+      <c r="F547" s="5">
         <v>20</v>
       </c>
-      <c r="G545" s="50"/>
-    </row>
-    <row r="546" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A546" s="46"/>
-      <c r="B546" s="3"/>
-      <c r="C546" s="20" t="s">
+      <c r="G547" s="50"/>
+    </row>
+    <row r="548" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A548" s="46"/>
+      <c r="B548" s="3"/>
+      <c r="C548" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D546" s="21" t="s">
+      <c r="D548" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E546" s="33">
-        <f t="shared" ref="E546:F546" si="4">SUM(E537:E545)</f>
+      <c r="E548" s="33">
+        <f t="shared" ref="E548:F548" si="3">SUM(E539:E547)</f>
         <v>98</v>
       </c>
-      <c r="F546" s="34">
-        <f t="shared" si="4"/>
+      <c r="F548" s="34">
+        <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="G546" s="50"/>
-    </row>
-    <row r="547" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A547" s="28" t="s">
+      <c r="G548" s="50"/>
+    </row>
+    <row r="549" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A549" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B547" s="9">
+      <c r="B549" s="9">
         <v>1980</v>
       </c>
-      <c r="C547" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D547" s="9" t="s">
+      <c r="C549" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D549" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E547" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F547" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G547" s="9" t="s">
+      <c r="E549" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F549" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G549" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="548" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A548" s="44" t="s">
+    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A550" s="44" t="s">
         <v>236</v>
       </c>
-      <c r="B548" s="2">
+      <c r="B550" s="2">
         <v>29470</v>
       </c>
-      <c r="C548" s="3" t="s">
+      <c r="C550" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D548" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E548" s="8">
-        <v>0</v>
-      </c>
-      <c r="F548" s="5">
+      <c r="D550" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E550" s="8">
+        <v>0</v>
+      </c>
+      <c r="F550" s="5">
         <v>39</v>
       </c>
-      <c r="G548" s="50" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A549" s="45"/>
-      <c r="B549" s="2">
-        <v>29478</v>
-      </c>
-      <c r="C549" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D549" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E549" s="8">
-        <v>12</v>
-      </c>
-      <c r="F549" s="5">
-        <v>0</v>
-      </c>
-      <c r="G549" s="50"/>
-    </row>
-    <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="45"/>
-      <c r="B550" s="4">
-        <v>29483</v>
-      </c>
-      <c r="C550" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D550" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E550" s="8">
-        <v>0</v>
-      </c>
-      <c r="F550" s="5">
-        <v>20</v>
-      </c>
-      <c r="G550" s="50"/>
+      <c r="G550" s="50" t="s">
+        <v>387</v>
+      </c>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="45"/>
       <c r="B551" s="2">
-        <v>29491</v>
+        <v>29478</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E551" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F551" s="5">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="G551" s="50"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="45"/>
-      <c r="B552" s="2">
-        <v>29498</v>
+      <c r="B552" s="4">
+        <v>29483</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D552" s="3" t="s">
         <v>5</v>
@@ -17232,432 +17300,432 @@
         <v>0</v>
       </c>
       <c r="F552" s="5">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="G552" s="50"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="45"/>
       <c r="B553" s="2">
-        <v>29505</v>
+        <v>29491</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D553" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E553" s="8">
-        <v>19</v>
+        <v>0</v>
       </c>
       <c r="F553" s="5">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="G553" s="50"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="45"/>
       <c r="B554" s="2">
-        <v>29512</v>
+        <v>29498</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D554" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E554" s="8">
+        <v>0</v>
+      </c>
+      <c r="F554" s="5">
         <v>6</v>
-      </c>
-      <c r="F554" s="5">
-        <v>14</v>
       </c>
       <c r="G554" s="50"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="45"/>
       <c r="B555" s="2">
-        <v>29519</v>
+        <v>29505</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E555" s="8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F555" s="5">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G555" s="50"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="45"/>
-      <c r="B556" s="4">
+      <c r="B556" s="2">
+        <v>29512</v>
+      </c>
+      <c r="C556" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D556" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E556" s="8">
+        <v>6</v>
+      </c>
+      <c r="F556" s="5">
+        <v>14</v>
+      </c>
+      <c r="G556" s="50"/>
+    </row>
+    <row r="557" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A557" s="45"/>
+      <c r="B557" s="2">
+        <v>29519</v>
+      </c>
+      <c r="C557" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D557" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E557" s="8">
+        <v>0</v>
+      </c>
+      <c r="F557" s="5">
+        <v>7</v>
+      </c>
+      <c r="G557" s="50"/>
+    </row>
+    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A558" s="45"/>
+      <c r="B558" s="4">
         <v>29525</v>
       </c>
-      <c r="C556" s="3" t="s">
+      <c r="C558" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D556" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E556" s="8">
-        <v>0</v>
-      </c>
-      <c r="F556" s="5">
+      <c r="D558" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E558" s="8">
+        <v>0</v>
+      </c>
+      <c r="F558" s="5">
         <v>33</v>
       </c>
-      <c r="G556" s="50"/>
-    </row>
-    <row r="557" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A557" s="46"/>
-      <c r="B557" s="3"/>
-      <c r="C557" s="20" t="s">
+      <c r="G558" s="50"/>
+    </row>
+    <row r="559" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A559" s="46"/>
+      <c r="B559" s="3"/>
+      <c r="C559" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D557" s="21" t="s">
+      <c r="D559" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E557" s="33">
-        <f t="shared" ref="E557:F557" si="5">SUM(E548:E556)</f>
+      <c r="E559" s="33">
+        <f t="shared" ref="E559:F559" si="4">SUM(E550:E558)</f>
         <v>37</v>
       </c>
-      <c r="F557" s="34">
-        <f t="shared" si="5"/>
+      <c r="F559" s="34">
+        <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="G557" s="50"/>
-    </row>
-    <row r="558" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A558" s="28" t="s">
+      <c r="G559" s="50"/>
+    </row>
+    <row r="560" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A560" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B558" s="9">
+      <c r="B560" s="9">
         <v>1981</v>
       </c>
-      <c r="C558" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D558" s="9" t="s">
+      <c r="C560" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D560" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E558" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F558" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G558" s="9" t="s">
+      <c r="E560" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F560" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G560" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="559" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A559" s="44" t="s">
+    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A561" s="44" t="s">
         <v>237</v>
       </c>
-      <c r="B559" s="2">
+      <c r="B561" s="2">
         <v>29841</v>
       </c>
-      <c r="C559" s="3" t="s">
+      <c r="C561" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="D559" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E559" s="8">
-        <v>0</v>
-      </c>
-      <c r="F559" s="5">
+      <c r="D561" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E561" s="8">
+        <v>0</v>
+      </c>
+      <c r="F561" s="5">
         <v>47</v>
       </c>
-      <c r="G559" s="50" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A560" s="45"/>
-      <c r="B560" s="2">
-        <v>29847</v>
-      </c>
-      <c r="C560" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D560" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E560" s="8">
-        <v>34</v>
-      </c>
-      <c r="F560" s="5">
-        <v>0</v>
-      </c>
-      <c r="G560" s="50"/>
-    </row>
-    <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" s="45"/>
-      <c r="B561" s="4">
-        <v>29855</v>
-      </c>
-      <c r="C561" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D561" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E561" s="8">
-        <v>0</v>
-      </c>
-      <c r="F561" s="5">
-        <v>28</v>
-      </c>
-      <c r="G561" s="50"/>
+      <c r="G561" s="50" t="s">
+        <v>388</v>
+      </c>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="45"/>
-      <c r="B562" s="4">
-        <v>29863</v>
+      <c r="B562" s="2">
+        <v>29847</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E562" s="8">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="F562" s="5">
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G562" s="50"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="45"/>
-      <c r="B563" s="2">
-        <v>29869</v>
+      <c r="B563" s="4">
+        <v>29855</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="D563" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E563" s="8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F563" s="5">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="G563" s="50"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="45"/>
-      <c r="B564" s="2">
-        <v>29875</v>
+      <c r="B564" s="4">
+        <v>29863</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>106</v>
+        <v>87</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E564" s="8">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F564" s="5">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="G564" s="50"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="45"/>
       <c r="B565" s="2">
-        <v>29883</v>
+        <v>29869</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D565" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E565" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F565" s="5">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="G565" s="50"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="45"/>
       <c r="B566" s="2">
-        <v>29890</v>
+        <v>29875</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E566" s="8">
-        <v>8</v>
+        <v>20</v>
       </c>
       <c r="F566" s="5">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="G566" s="50"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="45"/>
-      <c r="B567" s="4">
+      <c r="B567" s="2">
+        <v>29883</v>
+      </c>
+      <c r="C567" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D567" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E567" s="8">
+        <v>0</v>
+      </c>
+      <c r="F567" s="5">
+        <v>18</v>
+      </c>
+      <c r="G567" s="50"/>
+    </row>
+    <row r="568" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A568" s="45"/>
+      <c r="B568" s="2">
+        <v>29890</v>
+      </c>
+      <c r="C568" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D568" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E568" s="8">
+        <v>8</v>
+      </c>
+      <c r="F568" s="5">
+        <v>14</v>
+      </c>
+      <c r="G568" s="50"/>
+    </row>
+    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A569" s="45"/>
+      <c r="B569" s="4">
         <v>29897</v>
       </c>
-      <c r="C567" s="3" t="s">
+      <c r="C569" s="3" t="s">
         <v>96</v>
       </c>
-      <c r="D567" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E567" s="8">
+      <c r="D569" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E569" s="8">
         <v>8</v>
       </c>
-      <c r="F567" s="5">
+      <c r="F569" s="5">
         <v>43</v>
       </c>
-      <c r="G567" s="50"/>
-    </row>
-    <row r="568" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A568" s="46"/>
-      <c r="B568" s="3"/>
-      <c r="C568" s="20" t="s">
+      <c r="G569" s="50"/>
+    </row>
+    <row r="570" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A570" s="46"/>
+      <c r="B570" s="3"/>
+      <c r="C570" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D568" s="21" t="s">
+      <c r="D570" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E568" s="33">
-        <f t="shared" ref="E568:F568" si="6">SUM(E559:E567)</f>
+      <c r="E570" s="33">
+        <f t="shared" ref="E570:F570" si="5">SUM(E561:E569)</f>
         <v>92</v>
       </c>
-      <c r="F568" s="34">
-        <f t="shared" si="6"/>
+      <c r="F570" s="34">
+        <f t="shared" si="5"/>
         <v>196</v>
       </c>
-      <c r="G568" s="50"/>
-    </row>
-    <row r="569" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A569" s="28" t="s">
+      <c r="G570" s="50"/>
+    </row>
+    <row r="571" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A571" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="B569" s="9">
+      <c r="B571" s="9">
         <v>1982</v>
       </c>
-      <c r="C569" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D569" s="9" t="s">
+      <c r="C571" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D571" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E569" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F569" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G569" s="9" t="s">
+      <c r="E571" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F571" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G571" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="570" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A570" s="44" t="s">
+    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A572" s="44" t="s">
         <v>238</v>
       </c>
-      <c r="B570" s="2">
+      <c r="B572" s="2">
         <v>30204</v>
       </c>
-      <c r="C570" s="3" t="s">
+      <c r="C572" s="3" t="s">
         <v>87</v>
       </c>
-      <c r="D570" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E570" s="8">
-        <v>0</v>
-      </c>
-      <c r="F570" s="5">
+      <c r="D572" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E572" s="8">
+        <v>0</v>
+      </c>
+      <c r="F572" s="5">
         <v>36</v>
       </c>
-      <c r="G570" s="50" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A571" s="45"/>
-      <c r="B571" s="2">
-        <v>30212</v>
-      </c>
-      <c r="C571" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D571" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E571" s="8">
-        <v>14</v>
-      </c>
-      <c r="F571" s="5">
-        <v>0</v>
-      </c>
-      <c r="G571" s="50"/>
-    </row>
-    <row r="572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A572" s="45"/>
-      <c r="B572" s="2">
-        <v>30220</v>
-      </c>
-      <c r="C572" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D572" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E572" s="8">
-        <v>0</v>
-      </c>
-      <c r="F572" s="5">
-        <v>47</v>
-      </c>
-      <c r="G572" s="50"/>
+      <c r="G572" s="50" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="45"/>
-      <c r="B573" s="4">
-        <v>30233</v>
+      <c r="B573" s="2">
+        <v>30212</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E573" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F573" s="5">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="G573" s="50"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="45"/>
       <c r="B574" s="2">
-        <v>30240</v>
+        <v>30220</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>109</v>
+        <v>122</v>
       </c>
       <c r="D574" s="3" t="s">
         <v>5</v>
@@ -17666,17 +17734,17 @@
         <v>0</v>
       </c>
       <c r="F574" s="5">
-        <v>12</v>
+        <v>47</v>
       </c>
       <c r="G574" s="50"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="45"/>
-      <c r="B575" s="2">
-        <v>30247</v>
+      <c r="B575" s="4">
+        <v>30233</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D575" s="3" t="s">
         <v>5</v>
@@ -17685,17 +17753,17 @@
         <v>0</v>
       </c>
       <c r="F575" s="5">
-        <v>40</v>
+        <v>48</v>
       </c>
       <c r="G575" s="50"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="45"/>
       <c r="B576" s="2">
-        <v>30254</v>
+        <v>30240</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="D576" s="3" t="s">
         <v>5</v>
@@ -17704,196 +17772,196 @@
         <v>0</v>
       </c>
       <c r="F576" s="5">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G576" s="50"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="45"/>
-      <c r="B577" s="2" t="s">
+      <c r="B577" s="2">
+        <v>30247</v>
+      </c>
+      <c r="C577" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D577" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E577" s="8">
+        <v>0</v>
+      </c>
+      <c r="F577" s="5">
+        <v>40</v>
+      </c>
+      <c r="G577" s="50"/>
+    </row>
+    <row r="578" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A578" s="45"/>
+      <c r="B578" s="2">
+        <v>30254</v>
+      </c>
+      <c r="C578" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D578" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E578" s="8">
+        <v>0</v>
+      </c>
+      <c r="F578" s="5">
+        <v>34</v>
+      </c>
+      <c r="G578" s="50"/>
+    </row>
+    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A579" s="45"/>
+      <c r="B579" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C577" s="3" t="s">
+      <c r="C579" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="D577" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E577" s="8">
-        <v>0</v>
-      </c>
-      <c r="F577" s="5">
+      <c r="D579" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E579" s="8">
+        <v>0</v>
+      </c>
+      <c r="F579" s="5">
         <v>6</v>
       </c>
-      <c r="G577" s="50"/>
-    </row>
-    <row r="578" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A578" s="46"/>
-      <c r="B578" s="3"/>
-      <c r="C578" s="20" t="s">
+      <c r="G579" s="50"/>
+    </row>
+    <row r="580" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A580" s="46"/>
+      <c r="B580" s="3"/>
+      <c r="C580" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D578" s="21" t="s">
+      <c r="D580" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E578" s="33">
-        <f>SUM(E570:E577)</f>
+      <c r="E580" s="33">
+        <f>SUM(E572:E579)</f>
         <v>14</v>
       </c>
-      <c r="F578" s="34">
-        <f>SUM(F570:F577)</f>
+      <c r="F580" s="34">
+        <f>SUM(F572:F579)</f>
         <v>223</v>
       </c>
-      <c r="G578" s="50"/>
-    </row>
-    <row r="579" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A579" s="28" t="s">
+      <c r="G580" s="50"/>
+    </row>
+    <row r="581" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A581" s="28" t="s">
         <v>327</v>
       </c>
-      <c r="B579" s="9">
+      <c r="B581" s="9">
         <v>1983</v>
       </c>
-      <c r="C579" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D579" s="9" t="s">
+      <c r="C581" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D581" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E579" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F579" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G579" s="9" t="s">
+      <c r="E581" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F581" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G581" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="580" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A580" s="44" t="s">
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" s="44" t="s">
         <v>239</v>
       </c>
-      <c r="B580" s="2">
+      <c r="B582" s="2">
         <v>30570</v>
       </c>
-      <c r="C580" s="3" t="s">
+      <c r="C582" s="3" t="s">
         <v>125</v>
       </c>
-      <c r="D580" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E580" s="8">
+      <c r="D582" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E582" s="8">
         <v>45</v>
       </c>
-      <c r="F580" s="5">
-        <v>0</v>
-      </c>
-      <c r="G580" s="50" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A581" s="45"/>
-      <c r="B581" s="2">
-        <v>30576</v>
-      </c>
-      <c r="C581" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D581" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E581" s="8">
-        <v>6</v>
-      </c>
-      <c r="F581" s="5">
-        <v>49</v>
-      </c>
-      <c r="G581" s="50"/>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A582" s="45"/>
-      <c r="B582" s="4">
-        <v>30583</v>
-      </c>
-      <c r="C582" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D582" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E582" s="8">
-        <v>8</v>
-      </c>
       <c r="F582" s="5">
-        <v>26</v>
-      </c>
-      <c r="G582" s="50"/>
+        <v>0</v>
+      </c>
+      <c r="G582" s="50" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="45"/>
-      <c r="B583" s="4">
-        <v>30589</v>
+      <c r="B583" s="2">
+        <v>30576</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D583" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E583" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F583" s="5">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="G583" s="50"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="45"/>
-      <c r="B584" s="2">
-        <v>30596</v>
+      <c r="B584" s="4">
+        <v>30583</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="D584" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E584" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F584" s="5">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G584" s="50"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="45"/>
-      <c r="B585" s="2">
-        <v>30604</v>
+      <c r="B585" s="4">
+        <v>30589</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="D585" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E585" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F585" s="5">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G585" s="50"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="45"/>
       <c r="B586" s="2">
-        <v>30610</v>
+        <v>30596</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D586" s="3" t="s">
         <v>5</v>
@@ -17902,139 +17970,139 @@
         <v>0</v>
       </c>
       <c r="F586" s="5">
-        <v>32</v>
+        <v>51</v>
       </c>
       <c r="G586" s="50"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="45"/>
       <c r="B587" s="2">
+        <v>30604</v>
+      </c>
+      <c r="C587" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D587" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E587" s="8">
+        <v>6</v>
+      </c>
+      <c r="F587" s="5">
+        <v>26</v>
+      </c>
+      <c r="G587" s="50"/>
+    </row>
+    <row r="588" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A588" s="45"/>
+      <c r="B588" s="2">
+        <v>30610</v>
+      </c>
+      <c r="C588" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D588" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E588" s="8">
+        <v>0</v>
+      </c>
+      <c r="F588" s="5">
+        <v>32</v>
+      </c>
+      <c r="G588" s="50"/>
+    </row>
+    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A589" s="45"/>
+      <c r="B589" s="2">
         <v>30617</v>
       </c>
-      <c r="C587" s="3" t="s">
+      <c r="C589" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D587" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E587" s="8">
-        <v>0</v>
-      </c>
-      <c r="F587" s="5">
+      <c r="D589" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E589" s="8">
+        <v>0</v>
+      </c>
+      <c r="F589" s="5">
         <v>33</v>
       </c>
-      <c r="G587" s="50"/>
-    </row>
-    <row r="588" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A588" s="46"/>
-      <c r="B588" s="3"/>
-      <c r="C588" s="20" t="s">
+      <c r="G589" s="50"/>
+    </row>
+    <row r="590" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A590" s="46"/>
+      <c r="B590" s="3"/>
+      <c r="C590" s="20" t="s">
         <v>174</v>
       </c>
-      <c r="D588" s="21" t="s">
+      <c r="D590" s="21" t="s">
         <v>59</v>
       </c>
-      <c r="E588" s="33">
-        <f>SUM(E580:E587)</f>
+      <c r="E590" s="33">
+        <f>SUM(E582:E589)</f>
         <v>65</v>
       </c>
-      <c r="F588" s="34">
-        <f>SUM(F580:F587)</f>
+      <c r="F590" s="34">
+        <f>SUM(F582:F589)</f>
         <v>259</v>
       </c>
-      <c r="G588" s="50"/>
-    </row>
-    <row r="589" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A589" s="28" t="s">
+      <c r="G590" s="50"/>
+    </row>
+    <row r="591" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A591" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B589" s="9">
+      <c r="B591" s="9">
         <v>1984</v>
       </c>
-      <c r="C589" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D589" s="9" t="s">
+      <c r="C591" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D591" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E589" s="26" t="s">
-        <v>398</v>
-      </c>
-      <c r="F589" s="26" t="s">
-        <v>399</v>
-      </c>
-      <c r="G589" s="9" t="s">
+      <c r="E591" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F591" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G591" s="9" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="590" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A590" s="44" t="s">
+    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A592" s="44" t="s">
         <v>240</v>
       </c>
-      <c r="B590" s="2">
+      <c r="B592" s="2">
         <v>30933</v>
       </c>
-      <c r="C590" s="3" t="s">
+      <c r="C592" s="3" t="s">
         <v>128</v>
       </c>
-      <c r="D590" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E590" s="8">
-        <v>0</v>
-      </c>
-      <c r="F590" s="5">
+      <c r="D592" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E592" s="8">
+        <v>0</v>
+      </c>
+      <c r="F592" s="5">
         <v>48</v>
       </c>
-      <c r="G590" s="50" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A591" s="45"/>
-      <c r="B591" s="2">
-        <v>30940</v>
-      </c>
-      <c r="C591" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D591" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E591" s="8">
-        <v>0</v>
-      </c>
-      <c r="F591" s="5">
-        <v>51</v>
-      </c>
-      <c r="G591" s="50"/>
-    </row>
-    <row r="592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A592" s="45"/>
-      <c r="B592" s="4">
-        <v>30946</v>
-      </c>
-      <c r="C592" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D592" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E592" s="8">
-        <v>0</v>
-      </c>
-      <c r="F592" s="5">
-        <v>50</v>
-      </c>
-      <c r="G592" s="50"/>
+      <c r="G592" s="50" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="45"/>
-      <c r="B593" s="4">
-        <v>30961</v>
+      <c r="B593" s="2">
+        <v>30940</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="D593" s="3" t="s">
         <v>5</v>
@@ -18049,11 +18117,11 @@
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="45"/>
-      <c r="B594" s="2">
-        <v>30968</v>
+      <c r="B594" s="4">
+        <v>30946</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="D594" s="3" t="s">
         <v>5</v>
@@ -18062,17 +18130,17 @@
         <v>0</v>
       </c>
       <c r="F594" s="5">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="G594" s="50"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="45"/>
-      <c r="B595" s="2">
-        <v>30975</v>
+      <c r="B595" s="4">
+        <v>30961</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="D595" s="3" t="s">
         <v>5</v>
@@ -18081,65 +18149,85 @@
         <v>0</v>
       </c>
       <c r="F595" s="5">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="G595" s="50"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="45"/>
       <c r="B596" s="2">
+        <v>30968</v>
+      </c>
+      <c r="C596" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D596" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E596" s="8">
+        <v>0</v>
+      </c>
+      <c r="F596" s="5">
+        <v>40</v>
+      </c>
+      <c r="G596" s="50"/>
+    </row>
+    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A597" s="45"/>
+      <c r="B597" s="2">
+        <v>30975</v>
+      </c>
+      <c r="C597" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D597" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E597" s="8">
+        <v>0</v>
+      </c>
+      <c r="F597" s="5">
+        <v>38</v>
+      </c>
+      <c r="G597" s="50"/>
+    </row>
+    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A598" s="45"/>
+      <c r="B598" s="2">
         <v>30982</v>
       </c>
-      <c r="C596" s="3" t="s">
+      <c r="C598" s="3" t="s">
         <v>127</v>
       </c>
-      <c r="D596" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E596" s="8">
-        <v>0</v>
-      </c>
-      <c r="F596" s="5">
+      <c r="D598" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E598" s="8">
+        <v>0</v>
+      </c>
+      <c r="F598" s="5">
         <v>56</v>
       </c>
-      <c r="G596" s="50"/>
-    </row>
-    <row r="597" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A597" s="46"/>
-      <c r="B597" s="3"/>
-      <c r="C597" s="20" t="s">
+      <c r="G598" s="50"/>
+    </row>
+    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A599" s="46"/>
+      <c r="B599" s="3"/>
+      <c r="C599" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="D597" s="21" t="s">
+      <c r="D599" s="21" t="s">
         <v>65</v>
       </c>
-      <c r="E597" s="33">
-        <f>SUM(E590:E596)</f>
-        <v>0</v>
-      </c>
-      <c r="F597" s="34">
-        <f>SUM(F590:F596)</f>
+      <c r="E599" s="33">
+        <f>SUM(E592:E598)</f>
+        <v>0</v>
+      </c>
+      <c r="F599" s="34">
+        <f>SUM(F592:F598)</f>
         <v>334</v>
       </c>
-      <c r="G597" s="50"/>
-    </row>
-    <row r="598" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A598"/>
-      <c r="B598"/>
-      <c r="C598"/>
-      <c r="D598"/>
-      <c r="E598"/>
-      <c r="F598"/>
-      <c r="G598"/>
-    </row>
-    <row r="599" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A599"/>
-      <c r="B599"/>
-      <c r="C599"/>
-      <c r="D599"/>
-      <c r="E599"/>
-      <c r="F599"/>
-      <c r="G599"/>
+      <c r="G599" s="50"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600"/>
@@ -19646,89 +19734,77 @@
     <row r="2030" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2031" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="2032" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2033" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2034" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2035" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="2036" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="2033" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2033"/>
+      <c r="B2033"/>
+      <c r="C2033"/>
+      <c r="D2033"/>
+      <c r="E2033"/>
+      <c r="F2033"/>
+      <c r="G2033"/>
+    </row>
+    <row r="2034" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2034"/>
+      <c r="B2034"/>
+      <c r="C2034"/>
+      <c r="D2034"/>
+      <c r="E2034"/>
+      <c r="F2034"/>
+      <c r="G2034"/>
+    </row>
+    <row r="2035" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2035"/>
+      <c r="B2035"/>
+      <c r="C2035"/>
+      <c r="D2035"/>
+      <c r="E2035"/>
+      <c r="F2035"/>
+      <c r="G2035"/>
+    </row>
+    <row r="2036" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2036"/>
+      <c r="B2036"/>
+      <c r="C2036"/>
+      <c r="D2036"/>
+      <c r="E2036"/>
+      <c r="F2036"/>
+      <c r="G2036"/>
+    </row>
+    <row r="2037" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2037"/>
+      <c r="B2037"/>
+      <c r="C2037"/>
+      <c r="D2037"/>
+      <c r="E2037"/>
+      <c r="F2037"/>
+      <c r="G2037"/>
+    </row>
+    <row r="2038" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2038"/>
+      <c r="B2038"/>
+      <c r="C2038"/>
+      <c r="D2038"/>
+      <c r="E2038"/>
+      <c r="F2038"/>
+      <c r="G2038"/>
+    </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="G45:G53"/>
-    <mergeCell ref="G76:G87"/>
-    <mergeCell ref="G89:G97"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A293:A301"/>
-    <mergeCell ref="A283:A291"/>
-    <mergeCell ref="G139:G146"/>
-    <mergeCell ref="G129:G137"/>
-    <mergeCell ref="A234:A242"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="G158:G166"/>
-    <mergeCell ref="G188:G196"/>
-    <mergeCell ref="G168:G176"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="A198:A209"/>
-    <mergeCell ref="A211:A220"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="G293:G301"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="G222:G232"/>
-    <mergeCell ref="G234:G242"/>
-    <mergeCell ref="G198:G209"/>
-    <mergeCell ref="G211:G220"/>
-    <mergeCell ref="G178:G186"/>
-    <mergeCell ref="A178:A186"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="G99:G107"/>
-    <mergeCell ref="G65:G74"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="G303:G311"/>
-    <mergeCell ref="G264:G272"/>
-    <mergeCell ref="G274:G281"/>
-    <mergeCell ref="G283:G291"/>
-    <mergeCell ref="A264:A272"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="G148:G156"/>
-    <mergeCell ref="G244:G252"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A274:A281"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="G254:G262"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="G344:G352"/>
-    <mergeCell ref="G354:G362"/>
-    <mergeCell ref="G313:G322"/>
-    <mergeCell ref="G324:G332"/>
-    <mergeCell ref="G334:G342"/>
-    <mergeCell ref="G570:G578"/>
-    <mergeCell ref="G580:G588"/>
-    <mergeCell ref="G590:G597"/>
-    <mergeCell ref="G548:G557"/>
-    <mergeCell ref="G559:G568"/>
-    <mergeCell ref="G382:G389"/>
-    <mergeCell ref="G516:G525"/>
-    <mergeCell ref="G527:G535"/>
-    <mergeCell ref="G537:G546"/>
-    <mergeCell ref="G491:G499"/>
-    <mergeCell ref="G501:G514"/>
-    <mergeCell ref="G409:G417"/>
-    <mergeCell ref="G419:G427"/>
+    <mergeCell ref="A529:A537"/>
+    <mergeCell ref="A539:A548"/>
+    <mergeCell ref="A550:A559"/>
+    <mergeCell ref="A561:A570"/>
+    <mergeCell ref="A572:A580"/>
+    <mergeCell ref="A582:A590"/>
+    <mergeCell ref="A592:A599"/>
+    <mergeCell ref="A491:A499"/>
+    <mergeCell ref="A441:A449"/>
+    <mergeCell ref="A451:A459"/>
+    <mergeCell ref="A461:A469"/>
+    <mergeCell ref="A471:A479"/>
+    <mergeCell ref="A481:A489"/>
+    <mergeCell ref="A501:A516"/>
+    <mergeCell ref="A518:A527"/>
     <mergeCell ref="A334:A342"/>
     <mergeCell ref="A324:A332"/>
     <mergeCell ref="A303:A311"/>
@@ -19753,21 +19829,83 @@
     <mergeCell ref="A400:A407"/>
     <mergeCell ref="A409:A417"/>
     <mergeCell ref="A419:A427"/>
-    <mergeCell ref="A527:A535"/>
-    <mergeCell ref="A537:A546"/>
-    <mergeCell ref="A548:A557"/>
-    <mergeCell ref="A559:A568"/>
-    <mergeCell ref="A570:A578"/>
-    <mergeCell ref="A580:A588"/>
-    <mergeCell ref="A590:A597"/>
-    <mergeCell ref="A491:A499"/>
-    <mergeCell ref="A441:A449"/>
-    <mergeCell ref="A451:A459"/>
-    <mergeCell ref="A461:A469"/>
-    <mergeCell ref="A471:A479"/>
-    <mergeCell ref="A481:A489"/>
-    <mergeCell ref="A501:A514"/>
-    <mergeCell ref="A516:A525"/>
+    <mergeCell ref="G344:G352"/>
+    <mergeCell ref="G354:G362"/>
+    <mergeCell ref="G313:G322"/>
+    <mergeCell ref="G324:G332"/>
+    <mergeCell ref="G334:G342"/>
+    <mergeCell ref="G572:G580"/>
+    <mergeCell ref="G582:G590"/>
+    <mergeCell ref="G592:G599"/>
+    <mergeCell ref="G550:G559"/>
+    <mergeCell ref="G561:G570"/>
+    <mergeCell ref="G382:G389"/>
+    <mergeCell ref="G518:G527"/>
+    <mergeCell ref="G529:G537"/>
+    <mergeCell ref="G539:G548"/>
+    <mergeCell ref="G491:G499"/>
+    <mergeCell ref="G501:G516"/>
+    <mergeCell ref="G409:G417"/>
+    <mergeCell ref="G419:G427"/>
+    <mergeCell ref="G303:G311"/>
+    <mergeCell ref="G264:G272"/>
+    <mergeCell ref="G274:G281"/>
+    <mergeCell ref="G283:G291"/>
+    <mergeCell ref="A264:A272"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="G148:G156"/>
+    <mergeCell ref="G244:G252"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A274:A281"/>
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="G254:G262"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="G293:G301"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="G222:G232"/>
+    <mergeCell ref="G234:G242"/>
+    <mergeCell ref="G198:G209"/>
+    <mergeCell ref="G211:G220"/>
+    <mergeCell ref="G178:G186"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="G99:G107"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="G119:G127"/>
+    <mergeCell ref="A293:A301"/>
+    <mergeCell ref="A283:A291"/>
+    <mergeCell ref="G139:G146"/>
+    <mergeCell ref="G129:G137"/>
+    <mergeCell ref="A234:A242"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="G158:G166"/>
+    <mergeCell ref="G188:G196"/>
+    <mergeCell ref="G168:G176"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="A211:A220"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="G45:G53"/>
+    <mergeCell ref="G76:G87"/>
+    <mergeCell ref="G89:G97"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="A21:A32"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{19CFF195-F347-4DC1-882D-E27AE52E410C}"/>
@@ -19814,15 +19952,15 @@
     <hyperlink ref="A471:A479" r:id="rId42" display="Click here for the 1973 season football articles " xr:uid="{436A063C-5FC4-4122-A8B1-B61ECBE00F8E}"/>
     <hyperlink ref="A481:A489" r:id="rId43" display="Click here for the 1974 season football articles " xr:uid="{19104E73-EABC-4263-A968-B55648112002}"/>
     <hyperlink ref="A491:A499" r:id="rId44" display="Click here for the 1975 season football articles " xr:uid="{8CB6E435-CA30-4C31-8076-69EF46521C9A}"/>
-    <hyperlink ref="A501:A514" r:id="rId45" display="1976.html" xr:uid="{5CFA4086-6B49-4F90-A9DB-F8E6A323CDA0}"/>
-    <hyperlink ref="A516:A525" r:id="rId46" display="Click here for the 1977 season football articles " xr:uid="{F98ED847-3540-41F5-9FA2-673AF45C87ED}"/>
-    <hyperlink ref="A527:A535" r:id="rId47" display="Click here for the 1978 season football articles " xr:uid="{F07DEAC3-69F4-4ED4-B3C1-A8CB3A7A04FD}"/>
-    <hyperlink ref="A537:A546" r:id="rId48" display="Click here for the 1979 season football articles " xr:uid="{550E276F-77E4-4EEF-9EDD-7C8D1DE714E1}"/>
-    <hyperlink ref="A548:A557" r:id="rId49" display="Click here for the 1980 season football articles " xr:uid="{CFE61529-54CD-42C9-816E-A84BAC6EDA9C}"/>
-    <hyperlink ref="A559:A568" r:id="rId50" display="Click here for the 1981 season football articles " xr:uid="{5B8F1EB1-0BA6-4FE1-ACBF-1F42D90890FB}"/>
-    <hyperlink ref="A570:A578" r:id="rId51" display="Click here for the 1982 season football articles " xr:uid="{C197E7E2-DD4B-49B6-BF85-18F35822B489}"/>
-    <hyperlink ref="A580:A588" r:id="rId52" display="Click here for the 1983 season football articles " xr:uid="{FD8F66D2-1BC3-43C1-AA21-34AE2E7CC083}"/>
-    <hyperlink ref="A590:A597" r:id="rId53" display="Click here for the 1984 season football articles " xr:uid="{AF17B8EA-264C-4964-BE5F-D805045117EC}"/>
+    <hyperlink ref="A501:A516" r:id="rId45" display="1976.html" xr:uid="{5CFA4086-6B49-4F90-A9DB-F8E6A323CDA0}"/>
+    <hyperlink ref="A518:A527" r:id="rId46" display="Click here for the 1977 season football articles " xr:uid="{F98ED847-3540-41F5-9FA2-673AF45C87ED}"/>
+    <hyperlink ref="A529:A537" r:id="rId47" display="Click here for the 1978 season football articles " xr:uid="{F07DEAC3-69F4-4ED4-B3C1-A8CB3A7A04FD}"/>
+    <hyperlink ref="A539:A548" r:id="rId48" display="Click here for the 1979 season football articles " xr:uid="{550E276F-77E4-4EEF-9EDD-7C8D1DE714E1}"/>
+    <hyperlink ref="A550:A559" r:id="rId49" display="Click here for the 1980 season football articles " xr:uid="{CFE61529-54CD-42C9-816E-A84BAC6EDA9C}"/>
+    <hyperlink ref="A561:A570" r:id="rId50" display="Click here for the 1981 season football articles " xr:uid="{5B8F1EB1-0BA6-4FE1-ACBF-1F42D90890FB}"/>
+    <hyperlink ref="A572:A580" r:id="rId51" display="Click here for the 1982 season football articles " xr:uid="{C197E7E2-DD4B-49B6-BF85-18F35822B489}"/>
+    <hyperlink ref="A582:A590" r:id="rId52" display="Click here for the 1983 season football articles " xr:uid="{FD8F66D2-1BC3-43C1-AA21-34AE2E7CC083}"/>
+    <hyperlink ref="A592:A599" r:id="rId53" display="Click here for the 1984 season football articles " xr:uid="{AF17B8EA-264C-4964-BE5F-D805045117EC}"/>
     <hyperlink ref="A2:A9" r:id="rId54" display="Click here for the 1927 season football articles" xr:uid="{AD131308-7ED5-467B-800E-1DD040CF28DC}"/>
     <hyperlink ref="A11:A19" r:id="rId55" display="Click here for the 1928 season football articles " xr:uid="{7A69EE56-5B4D-4ADB-BC59-35D5DED730DA}"/>
     <hyperlink ref="A76:A87" r:id="rId56" display="1934.html" xr:uid="{CC6367AF-2F7A-427D-B7C2-868F1BA80C47}"/>
@@ -19874,16 +20012,16 @@
       <c r="D1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="68"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="54" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="2">
@@ -19901,12 +20039,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="51" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="59"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -19922,10 +20060,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="59"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -19941,10 +20079,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="59"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -19960,37 +20098,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="59"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="59"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="59"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
@@ -20006,7 +20144,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -20021,16 +20159,16 @@
       <c r="D10" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="59" t="s">
+      <c r="A11" s="54" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="2">
@@ -20048,12 +20186,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="51" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="59"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -20069,10 +20207,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="59"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -20088,10 +20226,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -20107,10 +20245,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -20126,10 +20264,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -20145,10 +20283,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -20164,10 +20302,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -20183,10 +20321,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="59"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>46</v>
@@ -20202,7 +20340,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -20217,16 +20355,16 @@
       <c r="D20" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="68"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="60" t="s">
+      <c r="A21" s="55" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="2">
@@ -20244,12 +20382,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="51" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="60"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -20265,10 +20403,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="60"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -20284,10 +20422,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="60"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -20303,10 +20441,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="60"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -20322,10 +20460,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="60"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -20341,10 +20479,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="60"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -20360,10 +20498,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="60"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -20379,10 +20517,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="60"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -20398,10 +20536,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="60"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -20417,10 +20555,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="60"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -20436,10 +20574,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="61"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>47</v>
@@ -20455,7 +20593,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="54"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -20470,10 +20608,10 @@
       <c r="D33" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
@@ -20497,7 +20635,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="51" t="s">
         <v>252</v>
       </c>
     </row>
@@ -20518,7 +20656,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -20537,7 +20675,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="52"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -20556,7 +20694,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="53"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
@@ -20575,7 +20713,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="52"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -20594,7 +20732,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
@@ -20613,7 +20751,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="53"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
@@ -20632,7 +20770,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="53"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
@@ -20651,7 +20789,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="53"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
@@ -20670,7 +20808,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="54"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -20685,16 +20823,16 @@
       <c r="D44" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="68"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="62" t="s">
+      <c r="A45" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="2">
@@ -20881,10 +21019,10 @@
       <c r="D54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F54" s="68"/>
+      <c r="F54" s="64"/>
       <c r="G54" s="9" t="s">
         <v>9</v>
       </c>
@@ -21295,7 +21433,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="56" t="s">
+      <c r="A76" s="58" t="s">
         <v>190</v>
       </c>
       <c r="B76" s="2">
@@ -21313,12 +21451,12 @@
       <c r="F76" s="7">
         <v>6</v>
       </c>
-      <c r="G76" s="57" t="s">
+      <c r="G76" s="51" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="55"/>
+      <c r="A77" s="59"/>
       <c r="B77" s="2">
         <v>12699</v>
       </c>
@@ -21334,10 +21472,10 @@
       <c r="F77" s="7">
         <v>12</v>
       </c>
-      <c r="G77" s="53"/>
+      <c r="G77" s="52"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="55"/>
+      <c r="A78" s="59"/>
       <c r="B78" s="2">
         <v>12705</v>
       </c>
@@ -21353,10 +21491,10 @@
       <c r="F78" s="7">
         <v>15</v>
       </c>
-      <c r="G78" s="53"/>
+      <c r="G78" s="52"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="55"/>
+      <c r="A79" s="59"/>
       <c r="B79" s="2">
         <v>12713</v>
       </c>
@@ -21372,10 +21510,10 @@
       <c r="F79" s="7">
         <v>0</v>
       </c>
-      <c r="G79" s="53"/>
+      <c r="G79" s="52"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="55"/>
+      <c r="A80" s="59"/>
       <c r="B80" s="2">
         <v>12720</v>
       </c>
@@ -21391,10 +21529,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="53"/>
+      <c r="G80" s="52"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="55"/>
+      <c r="A81" s="59"/>
       <c r="B81" s="2">
         <v>12727</v>
       </c>
@@ -21410,10 +21548,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="53"/>
+      <c r="G81" s="52"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="55"/>
+      <c r="A82" s="59"/>
       <c r="B82" s="40">
         <v>12734</v>
       </c>
@@ -21429,10 +21567,10 @@
       <c r="F82" s="43">
         <v>0</v>
       </c>
-      <c r="G82" s="53"/>
+      <c r="G82" s="52"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="55"/>
+      <c r="A83" s="59"/>
       <c r="B83" s="2">
         <v>12741</v>
       </c>
@@ -21448,18 +21586,18 @@
       <c r="F83" s="7">
         <v>0</v>
       </c>
-      <c r="G83" s="53"/>
+      <c r="G83" s="52"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="55"/>
+      <c r="A84" s="59"/>
       <c r="B84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="53"/>
+      <c r="G84" s="52"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="55"/>
+      <c r="A85" s="59"/>
       <c r="B85" s="3"/>
       <c r="C85" s="20" t="s">
         <v>13</v>
@@ -21473,10 +21611,10 @@
       <c r="F85" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="53"/>
+      <c r="G85" s="52"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="55"/>
+      <c r="A86" s="59"/>
       <c r="B86" s="35"/>
       <c r="C86" s="39" t="s">
         <v>42</v>
@@ -21484,10 +21622,10 @@
       <c r="D86" s="36"/>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
-      <c r="G86" s="53"/>
+      <c r="G86" s="52"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="55"/>
+      <c r="A87" s="59"/>
       <c r="B87" s="35"/>
       <c r="C87" s="20" t="s">
         <v>43</v>
@@ -21503,7 +21641,7 @@
         <f>SUM(F76:F86)</f>
         <v>33</v>
       </c>
-      <c r="G87" s="54"/>
+      <c r="G87" s="53"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
@@ -21527,7 +21665,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="55" t="s">
+      <c r="A89" s="59" t="s">
         <v>191</v>
       </c>
       <c r="B89" s="2">
@@ -21550,7 +21688,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="55"/>
+      <c r="A90" s="59"/>
       <c r="B90" s="2">
         <v>13069</v>
       </c>
@@ -21569,7 +21707,7 @@
       <c r="G90" s="50"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="55"/>
+      <c r="A91" s="59"/>
       <c r="B91" s="2">
         <v>13077</v>
       </c>
@@ -21588,7 +21726,7 @@
       <c r="G91" s="50"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="55"/>
+      <c r="A92" s="59"/>
       <c r="B92" s="2">
         <v>13084</v>
       </c>
@@ -21607,7 +21745,7 @@
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="55"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="2">
         <v>13091</v>
       </c>
@@ -21626,7 +21764,7 @@
       <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="55"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="2">
         <v>13098</v>
       </c>
@@ -21645,7 +21783,7 @@
       <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="55"/>
+      <c r="A95" s="59"/>
       <c r="B95" s="2">
         <v>13105</v>
       </c>
@@ -21664,7 +21802,7 @@
       <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="55"/>
+      <c r="A96" s="59"/>
       <c r="B96" s="2">
         <v>13112</v>
       </c>
@@ -21683,7 +21821,7 @@
       <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="55"/>
+      <c r="A97" s="59"/>
       <c r="B97" s="3"/>
       <c r="C97" s="20" t="s">
         <v>44</v>
@@ -22671,10 +22809,10 @@
       <c r="D147" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E147" s="63" t="s">
+      <c r="E147" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F147" s="64"/>
+      <c r="F147" s="68"/>
       <c r="G147" s="9" t="s">
         <v>9</v>
       </c>
@@ -22698,7 +22836,7 @@
       <c r="F148" s="7">
         <v>12</v>
       </c>
-      <c r="G148" s="52" t="s">
+      <c r="G148" s="61" t="s">
         <v>267</v>
       </c>
     </row>
@@ -22719,7 +22857,7 @@
       <c r="F149" s="7">
         <v>0</v>
       </c>
-      <c r="G149" s="53"/>
+      <c r="G149" s="52"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="45"/>
@@ -22738,7 +22876,7 @@
       <c r="F150" s="7">
         <v>13</v>
       </c>
-      <c r="G150" s="53"/>
+      <c r="G150" s="52"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="45"/>
@@ -22757,7 +22895,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="53"/>
+      <c r="G151" s="52"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
@@ -22776,7 +22914,7 @@
       <c r="F152" s="7">
         <v>31</v>
       </c>
-      <c r="G152" s="53"/>
+      <c r="G152" s="52"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="45"/>
@@ -22795,7 +22933,7 @@
       <c r="F153" s="7">
         <v>13</v>
       </c>
-      <c r="G153" s="53"/>
+      <c r="G153" s="52"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="45"/>
@@ -22814,7 +22952,7 @@
       <c r="F154" s="7">
         <v>21</v>
       </c>
-      <c r="G154" s="53"/>
+      <c r="G154" s="52"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="45"/>
@@ -22833,7 +22971,7 @@
       <c r="F155" s="7">
         <v>38</v>
       </c>
-      <c r="G155" s="53"/>
+      <c r="G155" s="52"/>
     </row>
     <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46"/>
@@ -22852,7 +22990,7 @@
         <f>SUM(F148:F155)</f>
         <v>128</v>
       </c>
-      <c r="G156" s="54"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
@@ -22867,10 +23005,10 @@
       <c r="D157" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E157" s="63" t="s">
+      <c r="E157" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F157" s="64"/>
+      <c r="F157" s="68"/>
       <c r="G157" s="9" t="s">
         <v>9</v>
       </c>
@@ -22894,7 +23032,7 @@
       <c r="F158" s="5">
         <v>7</v>
       </c>
-      <c r="G158" s="51" t="s">
+      <c r="G158" s="57" t="s">
         <v>269</v>
       </c>
     </row>
@@ -23057,10 +23195,10 @@
       <c r="D167" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E167" s="63" t="s">
+      <c r="E167" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F167" s="64"/>
+      <c r="F167" s="68"/>
       <c r="G167" s="9" t="s">
         <v>9</v>
       </c>
@@ -23084,7 +23222,7 @@
       <c r="F168" s="5">
         <v>12</v>
       </c>
-      <c r="G168" s="51" t="s">
+      <c r="G168" s="57" t="s">
         <v>271</v>
       </c>
     </row>
@@ -23253,10 +23391,10 @@
       <c r="D177" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E177" s="63" t="s">
+      <c r="E177" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F177" s="64"/>
+      <c r="F177" s="68"/>
       <c r="G177" s="9" t="s">
         <v>9</v>
       </c>
@@ -23449,10 +23587,10 @@
       <c r="D187" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E187" s="63" t="s">
+      <c r="E187" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F187" s="64"/>
+      <c r="F187" s="68"/>
       <c r="G187" s="9" t="s">
         <v>9</v>
       </c>
@@ -23476,7 +23614,7 @@
       <c r="F188" s="5">
         <v>26</v>
       </c>
-      <c r="G188" s="51" t="s">
+      <c r="G188" s="57" t="s">
         <v>274</v>
       </c>
     </row>
@@ -23645,16 +23783,16 @@
       <c r="D197" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E197" s="63" t="s">
+      <c r="E197" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F197" s="64"/>
+      <c r="F197" s="68"/>
       <c r="G197" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="62" t="s">
+      <c r="A198" s="47" t="s">
         <v>202</v>
       </c>
       <c r="B198" s="2">
@@ -23672,7 +23810,7 @@
       <c r="F198" s="5">
         <v>7</v>
       </c>
-      <c r="G198" s="58" t="s">
+      <c r="G198" s="60" t="s">
         <v>276</v>
       </c>
     </row>
@@ -23826,7 +23964,7 @@
       <c r="F206" s="5">
         <v>7</v>
       </c>
-      <c r="G206" s="57"/>
+      <c r="G206" s="51"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="48"/>
@@ -23835,7 +23973,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="8"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="57"/>
+      <c r="G207" s="51"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="48"/>
@@ -23844,7 +23982,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="8"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="57"/>
+      <c r="G208" s="51"/>
     </row>
     <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="49"/>
@@ -23863,7 +24001,7 @@
         <f>SUM(F198:F206)</f>
         <v>16</v>
       </c>
-      <c r="G209" s="57"/>
+      <c r="G209" s="51"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
@@ -23878,10 +24016,10 @@
       <c r="D210" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E210" s="63" t="s">
+      <c r="E210" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F210" s="64"/>
+      <c r="F210" s="68"/>
       <c r="G210" s="9" t="s">
         <v>9</v>
       </c>
@@ -23905,7 +24043,7 @@
       <c r="F211" s="7">
         <v>13</v>
       </c>
-      <c r="G211" s="51" t="s">
+      <c r="G211" s="57" t="s">
         <v>277</v>
       </c>
     </row>
@@ -24093,16 +24231,16 @@
       <c r="D221" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E221" s="63" t="s">
+      <c r="E221" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F221" s="64"/>
+      <c r="F221" s="68"/>
       <c r="G221" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="56" t="s">
+      <c r="A222" s="58" t="s">
         <v>204</v>
       </c>
       <c r="B222" s="2">
@@ -24125,7 +24263,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="55"/>
+      <c r="A223" s="59"/>
       <c r="B223" s="2">
         <v>17802</v>
       </c>
@@ -24144,7 +24282,7 @@
       <c r="G223" s="50"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="55"/>
+      <c r="A224" s="59"/>
       <c r="B224" s="4">
         <v>17809</v>
       </c>
@@ -24163,7 +24301,7 @@
       <c r="G224" s="50"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="55"/>
+      <c r="A225" s="59"/>
       <c r="B225" s="2">
         <v>17814</v>
       </c>
@@ -24182,7 +24320,7 @@
       <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="55"/>
+      <c r="A226" s="59"/>
       <c r="B226" s="2">
         <v>17822</v>
       </c>
@@ -24201,7 +24339,7 @@
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="55"/>
+      <c r="A227" s="59"/>
       <c r="B227" s="2">
         <v>17830</v>
       </c>
@@ -24220,7 +24358,7 @@
       <c r="G227" s="50"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="55"/>
+      <c r="A228" s="59"/>
       <c r="B228" s="2">
         <v>17844</v>
       </c>
@@ -24239,7 +24377,7 @@
       <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="55"/>
+      <c r="A229" s="59"/>
       <c r="B229" s="4">
         <v>17852</v>
       </c>
@@ -24258,7 +24396,7 @@
       <c r="G229" s="50"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="55"/>
+      <c r="A230" s="59"/>
       <c r="B230" s="4"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -24267,7 +24405,7 @@
       <c r="G230" s="50"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="55"/>
+      <c r="A231" s="59"/>
       <c r="B231" s="4"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -24276,7 +24414,7 @@
       <c r="G231" s="50"/>
     </row>
     <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="55"/>
+      <c r="A232" s="59"/>
       <c r="B232" s="3"/>
       <c r="C232" s="20" t="s">
         <v>139</v>
@@ -24307,10 +24445,10 @@
       <c r="D233" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E233" s="63" t="s">
+      <c r="E233" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F233" s="64"/>
+      <c r="F233" s="68"/>
       <c r="G233" s="9" t="s">
         <v>9</v>
       </c>
@@ -24488,7 +24626,7 @@
         <f>SUM(F234:F241)</f>
         <v>82</v>
       </c>
-      <c r="G242" s="57"/>
+      <c r="G242" s="51"/>
     </row>
     <row r="243" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
@@ -24503,10 +24641,10 @@
       <c r="D243" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E243" s="63" t="s">
+      <c r="E243" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F243" s="64"/>
+      <c r="F243" s="68"/>
       <c r="G243" s="9" t="s">
         <v>9</v>
       </c>
@@ -24530,7 +24668,7 @@
       <c r="F244" s="5">
         <v>31</v>
       </c>
-      <c r="G244" s="51" t="s">
+      <c r="G244" s="57" t="s">
         <v>280</v>
       </c>
     </row>
@@ -24699,10 +24837,10 @@
       <c r="D253" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E253" s="63" t="s">
+      <c r="E253" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F253" s="64"/>
+      <c r="F253" s="68"/>
       <c r="G253" s="9" t="s">
         <v>9</v>
       </c>
@@ -24895,10 +25033,10 @@
       <c r="D263" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E263" s="63" t="s">
+      <c r="E263" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F263" s="64"/>
+      <c r="F263" s="68"/>
       <c r="G263" s="9" t="s">
         <v>9</v>
       </c>
@@ -25087,10 +25225,10 @@
       <c r="D273" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E273" s="63" t="s">
+      <c r="E273" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F273" s="64"/>
+      <c r="F273" s="68"/>
       <c r="G273" s="9" t="s">
         <v>9</v>
       </c>
@@ -25264,10 +25402,10 @@
       <c r="D282" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E282" s="63" t="s">
+      <c r="E282" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F282" s="64"/>
+      <c r="F282" s="68"/>
       <c r="G282" s="9" t="s">
         <v>9</v>
       </c>
@@ -25291,7 +25429,7 @@
       <c r="F283" s="7">
         <v>19</v>
       </c>
-      <c r="G283" s="51" t="s">
+      <c r="G283" s="57" t="s">
         <v>287</v>
       </c>
     </row>
@@ -25460,10 +25598,10 @@
       <c r="D292" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E292" s="63" t="s">
+      <c r="E292" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F292" s="64"/>
+      <c r="F292" s="68"/>
       <c r="G292" s="9" t="s">
         <v>9</v>
       </c>
@@ -25656,10 +25794,10 @@
       <c r="D302" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E302" s="63" t="s">
+      <c r="E302" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F302" s="64"/>
+      <c r="F302" s="68"/>
       <c r="G302" s="9" t="s">
         <v>9</v>
       </c>
@@ -25683,7 +25821,7 @@
       <c r="F303" s="5">
         <v>12</v>
       </c>
-      <c r="G303" s="51" t="s">
+      <c r="G303" s="57" t="s">
         <v>290</v>
       </c>
     </row>
@@ -25852,10 +25990,10 @@
       <c r="D312" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E312" s="63" t="s">
+      <c r="E312" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F312" s="64"/>
+      <c r="F312" s="68"/>
       <c r="G312" s="9" t="s">
         <v>9</v>
       </c>
@@ -26059,10 +26197,10 @@
       <c r="D323" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E323" s="63" t="s">
+      <c r="E323" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F323" s="64"/>
+      <c r="F323" s="68"/>
       <c r="G323" s="9" t="s">
         <v>9</v>
       </c>
@@ -26255,10 +26393,10 @@
       <c r="D333" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E333" s="63" t="s">
+      <c r="E333" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F333" s="64"/>
+      <c r="F333" s="68"/>
       <c r="G333" s="9" t="s">
         <v>9</v>
       </c>
@@ -26451,10 +26589,10 @@
       <c r="D343" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E343" s="63" t="s">
+      <c r="E343" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F343" s="64"/>
+      <c r="F343" s="68"/>
       <c r="G343" s="9" t="s">
         <v>9</v>
       </c>
@@ -26647,10 +26785,10 @@
       <c r="D353" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E353" s="63" t="s">
+      <c r="E353" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F353" s="64"/>
+      <c r="F353" s="68"/>
       <c r="G353" s="9" t="s">
         <v>9</v>
       </c>
@@ -26843,10 +26981,10 @@
       <c r="D363" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E363" s="63" t="s">
+      <c r="E363" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F363" s="64"/>
+      <c r="F363" s="68"/>
       <c r="G363" s="9" t="s">
         <v>9</v>
       </c>
@@ -27020,10 +27158,10 @@
       <c r="D372" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E372" s="63" t="s">
+      <c r="E372" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F372" s="64"/>
+      <c r="F372" s="68"/>
       <c r="G372" s="9" t="s">
         <v>9</v>
       </c>
@@ -27197,10 +27335,10 @@
       <c r="D381" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E381" s="63" t="s">
+      <c r="E381" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F381" s="64"/>
+      <c r="F381" s="68"/>
       <c r="G381" s="9" t="s">
         <v>9</v>
       </c>
@@ -27374,10 +27512,10 @@
       <c r="D390" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E390" s="63" t="s">
+      <c r="E390" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F390" s="64"/>
+      <c r="F390" s="68"/>
       <c r="G390" s="9" t="s">
         <v>9</v>
       </c>
@@ -27551,10 +27689,10 @@
       <c r="D399" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E399" s="63" t="s">
+      <c r="E399" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F399" s="64"/>
+      <c r="F399" s="68"/>
       <c r="G399" s="9" t="s">
         <v>9</v>
       </c>
@@ -27728,10 +27866,10 @@
       <c r="D408" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E408" s="63" t="s">
+      <c r="E408" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F408" s="64"/>
+      <c r="F408" s="68"/>
       <c r="G408" s="9" t="s">
         <v>9</v>
       </c>
@@ -27924,10 +28062,10 @@
       <c r="D418" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E418" s="63" t="s">
+      <c r="E418" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F418" s="64"/>
+      <c r="F418" s="68"/>
       <c r="G418" s="9" t="s">
         <v>9</v>
       </c>
@@ -28122,10 +28260,10 @@
       <c r="D428" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E428" s="63" t="s">
+      <c r="E428" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F428" s="64"/>
+      <c r="F428" s="68"/>
       <c r="G428" s="9" t="s">
         <v>9</v>
       </c>
@@ -28336,10 +28474,10 @@
       <c r="D440" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E440" s="63" t="s">
+      <c r="E440" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F440" s="64"/>
+      <c r="F440" s="68"/>
       <c r="G440" s="9" t="s">
         <v>9</v>
       </c>
@@ -28532,10 +28670,10 @@
       <c r="D450" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E450" s="63" t="s">
+      <c r="E450" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F450" s="64"/>
+      <c r="F450" s="68"/>
       <c r="G450" s="9" t="s">
         <v>179</v>
       </c>
@@ -28728,10 +28866,10 @@
       <c r="D460" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E460" s="63" t="s">
+      <c r="E460" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F460" s="64"/>
+      <c r="F460" s="68"/>
       <c r="G460" s="9" t="s">
         <v>9</v>
       </c>
@@ -28924,10 +29062,10 @@
       <c r="D470" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E470" s="63" t="s">
+      <c r="E470" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F470" s="64"/>
+      <c r="F470" s="68"/>
       <c r="G470" s="9" t="s">
         <v>9</v>
       </c>
@@ -28951,7 +29089,7 @@
       <c r="F471" s="5">
         <v>19</v>
       </c>
-      <c r="G471" s="51" t="s">
+      <c r="G471" s="57" t="s">
         <v>314</v>
       </c>
     </row>
@@ -29120,10 +29258,10 @@
       <c r="D480" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E480" s="63" t="s">
+      <c r="E480" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F480" s="64"/>
+      <c r="F480" s="68"/>
       <c r="G480" s="9" t="s">
         <v>9</v>
       </c>
@@ -29316,10 +29454,10 @@
       <c r="D490" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E490" s="63" t="s">
+      <c r="E490" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F490" s="64"/>
+      <c r="F490" s="68"/>
       <c r="G490" s="9" t="s">
         <v>9</v>
       </c>
@@ -29512,16 +29650,16 @@
       <c r="D500" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E500" s="63" t="s">
+      <c r="E500" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F500" s="64"/>
+      <c r="F500" s="68"/>
       <c r="G500" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="47" t="s">
+      <c r="A501" s="62" t="s">
         <v>232</v>
       </c>
       <c r="B501" s="2">
@@ -29763,10 +29901,10 @@
       <c r="D515" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E515" s="63" t="s">
+      <c r="E515" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F515" s="64"/>
+      <c r="F515" s="68"/>
       <c r="G515" s="9" t="s">
         <v>9</v>
       </c>
@@ -29978,10 +30116,10 @@
       <c r="D526" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E526" s="63" t="s">
+      <c r="E526" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F526" s="64"/>
+      <c r="F526" s="68"/>
       <c r="G526" s="9" t="s">
         <v>9</v>
       </c>
@@ -30174,10 +30312,10 @@
       <c r="D536" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E536" s="63" t="s">
+      <c r="E536" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F536" s="64"/>
+      <c r="F536" s="68"/>
       <c r="G536" s="9" t="s">
         <v>9</v>
       </c>
@@ -30389,10 +30527,10 @@
       <c r="D547" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E547" s="63" t="s">
+      <c r="E547" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F547" s="64"/>
+      <c r="F547" s="68"/>
       <c r="G547" s="9" t="s">
         <v>9</v>
       </c>
@@ -30604,10 +30742,10 @@
       <c r="D558" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E558" s="63" t="s">
+      <c r="E558" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F558" s="64"/>
+      <c r="F558" s="68"/>
       <c r="G558" s="9" t="s">
         <v>9</v>
       </c>
@@ -30819,10 +30957,10 @@
       <c r="D569" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E569" s="63" t="s">
+      <c r="E569" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F569" s="64"/>
+      <c r="F569" s="68"/>
       <c r="G569" s="9" t="s">
         <v>9</v>
       </c>
@@ -31015,10 +31153,10 @@
       <c r="D579" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E579" s="63" t="s">
+      <c r="E579" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F579" s="64"/>
+      <c r="F579" s="68"/>
       <c r="G579" s="9" t="s">
         <v>9</v>
       </c>
@@ -31211,10 +31349,10 @@
       <c r="D589" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E589" s="63" t="s">
+      <c r="E589" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F589" s="64"/>
+      <c r="F589" s="68"/>
       <c r="G589" s="9" t="s">
         <v>9</v>
       </c>
@@ -32904,24 +33042,150 @@
     <row r="2036" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="G45:G53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="E579:F579"/>
+    <mergeCell ref="A580:A588"/>
+    <mergeCell ref="G580:G588"/>
+    <mergeCell ref="E589:F589"/>
+    <mergeCell ref="A590:A597"/>
+    <mergeCell ref="G590:G597"/>
+    <mergeCell ref="E558:F558"/>
+    <mergeCell ref="A559:A568"/>
+    <mergeCell ref="G559:G568"/>
+    <mergeCell ref="E569:F569"/>
+    <mergeCell ref="A570:A578"/>
+    <mergeCell ref="G570:G578"/>
+    <mergeCell ref="E536:F536"/>
+    <mergeCell ref="A537:A546"/>
+    <mergeCell ref="G537:G546"/>
+    <mergeCell ref="E547:F547"/>
+    <mergeCell ref="A548:A557"/>
+    <mergeCell ref="G548:G557"/>
+    <mergeCell ref="E515:F515"/>
+    <mergeCell ref="A516:A525"/>
+    <mergeCell ref="G516:G525"/>
+    <mergeCell ref="E526:F526"/>
+    <mergeCell ref="A527:A535"/>
+    <mergeCell ref="G527:G535"/>
+    <mergeCell ref="E490:F490"/>
+    <mergeCell ref="A491:A499"/>
+    <mergeCell ref="G491:G499"/>
+    <mergeCell ref="E500:F500"/>
+    <mergeCell ref="A501:A514"/>
+    <mergeCell ref="G501:G514"/>
+    <mergeCell ref="E470:F470"/>
+    <mergeCell ref="A471:A479"/>
+    <mergeCell ref="G471:G479"/>
+    <mergeCell ref="E480:F480"/>
+    <mergeCell ref="A481:A489"/>
+    <mergeCell ref="G481:G489"/>
+    <mergeCell ref="E450:F450"/>
+    <mergeCell ref="A451:A459"/>
+    <mergeCell ref="G451:G459"/>
+    <mergeCell ref="E460:F460"/>
+    <mergeCell ref="A461:A469"/>
+    <mergeCell ref="G461:G469"/>
+    <mergeCell ref="E428:F428"/>
+    <mergeCell ref="A429:A439"/>
+    <mergeCell ref="G429:G439"/>
+    <mergeCell ref="E440:F440"/>
+    <mergeCell ref="A441:A449"/>
+    <mergeCell ref="G441:G449"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="A409:A417"/>
+    <mergeCell ref="G409:G417"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="A419:A427"/>
+    <mergeCell ref="G419:G427"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="A391:A398"/>
+    <mergeCell ref="G391:G398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="A400:A407"/>
+    <mergeCell ref="G400:G407"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="A373:A380"/>
+    <mergeCell ref="G373:G380"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="A382:A389"/>
+    <mergeCell ref="G382:G389"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="A354:A362"/>
+    <mergeCell ref="G354:G362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="A364:A371"/>
+    <mergeCell ref="G364:G371"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="A334:A342"/>
+    <mergeCell ref="G334:G342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="A344:A352"/>
+    <mergeCell ref="G344:G352"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="A313:A322"/>
+    <mergeCell ref="G313:G322"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="A324:A332"/>
+    <mergeCell ref="G324:G332"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="A293:A301"/>
+    <mergeCell ref="G293:G301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="A303:A311"/>
+    <mergeCell ref="G303:G311"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="A274:A281"/>
+    <mergeCell ref="G274:G281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="A283:A291"/>
+    <mergeCell ref="G283:G291"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="G254:G262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="A264:A272"/>
+    <mergeCell ref="G264:G272"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="A234:A242"/>
+    <mergeCell ref="G234:G242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="G244:G252"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="A211:A220"/>
+    <mergeCell ref="G211:G220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="G222:G232"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="G188:G196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="G198:G209"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="G168:G176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="G178:G186"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="G148:G156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="G158:G166"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="G129:G137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="G139:G146"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="G119:G127"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="A89:A97"/>
     <mergeCell ref="G89:G97"/>
@@ -32934,150 +33198,24 @@
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="A76:A87"/>
     <mergeCell ref="G76:G87"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="G129:G137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="G139:G146"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="G168:G176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="A178:A186"/>
-    <mergeCell ref="G178:G186"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="G148:G156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="G158:G166"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="A211:A220"/>
-    <mergeCell ref="G211:G220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="G222:G232"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="G188:G196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="A198:A209"/>
-    <mergeCell ref="G198:G209"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="G254:G262"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="A264:A272"/>
-    <mergeCell ref="G264:G272"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="A234:A242"/>
-    <mergeCell ref="G234:G242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="G244:G252"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="A293:A301"/>
-    <mergeCell ref="G293:G301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="A303:A311"/>
-    <mergeCell ref="G303:G311"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="A274:A281"/>
-    <mergeCell ref="G274:G281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="A283:A291"/>
-    <mergeCell ref="G283:G291"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="A334:A342"/>
-    <mergeCell ref="G334:G342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="A344:A352"/>
-    <mergeCell ref="G344:G352"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="A313:A322"/>
-    <mergeCell ref="G313:G322"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="A324:A332"/>
-    <mergeCell ref="G324:G332"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="A373:A380"/>
-    <mergeCell ref="G373:G380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="A382:A389"/>
-    <mergeCell ref="G382:G389"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="A354:A362"/>
-    <mergeCell ref="G354:G362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="A364:A371"/>
-    <mergeCell ref="G364:G371"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="A409:A417"/>
-    <mergeCell ref="G409:G417"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="A419:A427"/>
-    <mergeCell ref="G419:G427"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="A391:A398"/>
-    <mergeCell ref="G391:G398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="A400:A407"/>
-    <mergeCell ref="G400:G407"/>
-    <mergeCell ref="E450:F450"/>
-    <mergeCell ref="A451:A459"/>
-    <mergeCell ref="G451:G459"/>
-    <mergeCell ref="E460:F460"/>
-    <mergeCell ref="A461:A469"/>
-    <mergeCell ref="G461:G469"/>
-    <mergeCell ref="E428:F428"/>
-    <mergeCell ref="A429:A439"/>
-    <mergeCell ref="G429:G439"/>
-    <mergeCell ref="E440:F440"/>
-    <mergeCell ref="A441:A449"/>
-    <mergeCell ref="G441:G449"/>
-    <mergeCell ref="E490:F490"/>
-    <mergeCell ref="A491:A499"/>
-    <mergeCell ref="G491:G499"/>
-    <mergeCell ref="E500:F500"/>
-    <mergeCell ref="A501:A514"/>
-    <mergeCell ref="G501:G514"/>
-    <mergeCell ref="E470:F470"/>
-    <mergeCell ref="A471:A479"/>
-    <mergeCell ref="G471:G479"/>
-    <mergeCell ref="E480:F480"/>
-    <mergeCell ref="A481:A489"/>
-    <mergeCell ref="G481:G489"/>
-    <mergeCell ref="E536:F536"/>
-    <mergeCell ref="A537:A546"/>
-    <mergeCell ref="G537:G546"/>
-    <mergeCell ref="E547:F547"/>
-    <mergeCell ref="A548:A557"/>
-    <mergeCell ref="G548:G557"/>
-    <mergeCell ref="E515:F515"/>
-    <mergeCell ref="A516:A525"/>
-    <mergeCell ref="G516:G525"/>
-    <mergeCell ref="E526:F526"/>
-    <mergeCell ref="A527:A535"/>
-    <mergeCell ref="G527:G535"/>
-    <mergeCell ref="E579:F579"/>
-    <mergeCell ref="A580:A588"/>
-    <mergeCell ref="G580:G588"/>
-    <mergeCell ref="E589:F589"/>
-    <mergeCell ref="A590:A597"/>
-    <mergeCell ref="G590:G597"/>
-    <mergeCell ref="E558:F558"/>
-    <mergeCell ref="A559:A568"/>
-    <mergeCell ref="G559:G568"/>
-    <mergeCell ref="E569:F569"/>
-    <mergeCell ref="A570:A578"/>
-    <mergeCell ref="G570:G578"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="G45:G53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{27C891E4-8C40-43BB-A88A-3796DCB1CA81}"/>

--- a/Seasons/Football History.xlsx
+++ b/Seasons/Football History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugs&amp;Fred\Documents\Fred\ROSM\Website\public_html\Seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2262875-D607-4FC4-9CBE-DAAFACAF30C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B2DB2E8-09BD-43FA-B9EB-B94BDBA1D34B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7F2BF-BA1F-4802-BC8C-4DC7AFA8B3A8}"/>
   </bookViews>
@@ -3328,7 +3328,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team.  </t>
+      <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team. </t>
     </r>
     <r>
       <rPr>
@@ -3867,7 +3867,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3878,7 +3878,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3886,6 +3889,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3896,29 +3914,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3926,11 +3926,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6577,10 +6577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2FFFC7-E182-47AD-9B1B-521106FC03D6}">
-  <dimension ref="A1:G2038"/>
+  <dimension ref="A1:G2037"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A493" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="I507" sqref="I507"/>
+      <selection activeCell="G501" sqref="G501:G515"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6617,7 +6617,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="2">
@@ -6635,12 +6635,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="57" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -6656,10 +6656,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -6675,10 +6675,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -6694,37 +6694,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
@@ -6740,7 +6740,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -6766,7 +6766,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="60" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="2">
@@ -6784,12 +6784,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="57" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -6805,10 +6805,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -6824,10 +6824,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -6843,10 +6843,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -6862,10 +6862,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -6881,10 +6881,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -6900,10 +6900,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -6919,10 +6919,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>46</v>
@@ -6938,7 +6938,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -6964,7 +6964,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="2">
@@ -6982,12 +6982,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="57" t="s">
         <v>337</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -7003,10 +7003,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -7022,10 +7022,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -7041,10 +7041,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -7060,10 +7060,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -7079,10 +7079,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -7098,10 +7098,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -7117,10 +7117,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -7136,10 +7136,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -7155,10 +7155,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -7174,10 +7174,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>47</v>
@@ -7193,7 +7193,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -7237,7 +7237,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="57" t="s">
         <v>338</v>
       </c>
     </row>
@@ -7258,7 +7258,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -7277,7 +7277,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -7296,7 +7296,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="52"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
@@ -7315,7 +7315,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -7334,7 +7334,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
@@ -7353,7 +7353,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
@@ -7372,7 +7372,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
@@ -7391,7 +7391,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
@@ -7410,7 +7410,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -7436,7 +7436,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="59" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="2">
@@ -8043,7 +8043,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="56" t="s">
         <v>190</v>
       </c>
       <c r="B76" s="2">
@@ -8061,12 +8061,12 @@
       <c r="F76" s="7">
         <v>6</v>
       </c>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="57" t="s">
         <v>341</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="2">
         <v>12699</v>
       </c>
@@ -8082,10 +8082,10 @@
       <c r="F77" s="7">
         <v>12</v>
       </c>
-      <c r="G77" s="52"/>
+      <c r="G77" s="53"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="2">
         <v>12705</v>
       </c>
@@ -8101,10 +8101,10 @@
       <c r="F78" s="7">
         <v>15</v>
       </c>
-      <c r="G78" s="52"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="2">
         <v>12713</v>
       </c>
@@ -8120,10 +8120,10 @@
       <c r="F79" s="7">
         <v>0</v>
       </c>
-      <c r="G79" s="52"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="2">
         <v>12720</v>
       </c>
@@ -8139,10 +8139,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="52"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="2">
         <v>12727</v>
       </c>
@@ -8158,10 +8158,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="52"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="40">
         <v>12734</v>
       </c>
@@ -8177,10 +8177,10 @@
       <c r="F82" s="43">
         <v>0</v>
       </c>
-      <c r="G82" s="52"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="2">
         <v>12741</v>
       </c>
@@ -8196,27 +8196,27 @@
       <c r="F83" s="7">
         <v>0</v>
       </c>
-      <c r="G83" s="52"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="52"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="3"/>
       <c r="C85" s="20"/>
       <c r="D85" s="21"/>
       <c r="E85" s="22"/>
       <c r="F85" s="23"/>
-      <c r="G85" s="52"/>
+      <c r="G85" s="53"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="35"/>
       <c r="C86" s="39" t="s">
         <v>342</v>
@@ -8224,10 +8224,10 @@
       <c r="D86" s="36"/>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
-      <c r="G86" s="52"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="59"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="35"/>
       <c r="C87" s="20" t="s">
         <v>43</v>
@@ -8243,7 +8243,7 @@
         <f>SUM(F76:F86)</f>
         <v>33</v>
       </c>
-      <c r="G87" s="53"/>
+      <c r="G87" s="54"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
@@ -8269,7 +8269,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="55" t="s">
         <v>191</v>
       </c>
       <c r="B89" s="2">
@@ -8292,7 +8292,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="2">
         <v>13069</v>
       </c>
@@ -8311,7 +8311,7 @@
       <c r="G90" s="50"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="2">
         <v>13077</v>
       </c>
@@ -8330,7 +8330,7 @@
       <c r="G91" s="50"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="2">
         <v>13084</v>
       </c>
@@ -8349,7 +8349,7 @@
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="2">
         <v>13091</v>
       </c>
@@ -8368,7 +8368,7 @@
       <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="2">
         <v>13098</v>
       </c>
@@ -8387,7 +8387,7 @@
       <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="2">
         <v>13105</v>
       </c>
@@ -8406,7 +8406,7 @@
       <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="2">
         <v>13112</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="59"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="3"/>
       <c r="C97" s="20" t="s">
         <v>44</v>
@@ -9450,7 +9450,7 @@
       <c r="F148" s="7">
         <v>12</v>
       </c>
-      <c r="G148" s="61" t="s">
+      <c r="G148" s="52" t="s">
         <v>349</v>
       </c>
     </row>
@@ -9471,7 +9471,7 @@
       <c r="F149" s="7">
         <v>0</v>
       </c>
-      <c r="G149" s="52"/>
+      <c r="G149" s="53"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="45"/>
@@ -9490,7 +9490,7 @@
       <c r="F150" s="7">
         <v>13</v>
       </c>
-      <c r="G150" s="52"/>
+      <c r="G150" s="53"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="45"/>
@@ -9509,7 +9509,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="52"/>
+      <c r="G151" s="53"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
@@ -9528,7 +9528,7 @@
       <c r="F152" s="7">
         <v>31</v>
       </c>
-      <c r="G152" s="52"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="45"/>
@@ -9547,7 +9547,7 @@
       <c r="F153" s="7">
         <v>13</v>
       </c>
-      <c r="G153" s="52"/>
+      <c r="G153" s="53"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="45"/>
@@ -9566,7 +9566,7 @@
       <c r="F154" s="7">
         <v>21</v>
       </c>
-      <c r="G154" s="52"/>
+      <c r="G154" s="53"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="45"/>
@@ -9585,7 +9585,7 @@
       <c r="F155" s="7">
         <v>38</v>
       </c>
-      <c r="G155" s="52"/>
+      <c r="G155" s="53"/>
     </row>
     <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46"/>
@@ -9604,7 +9604,7 @@
         <f>SUM(F148:F155)</f>
         <v>128</v>
       </c>
-      <c r="G156" s="53"/>
+      <c r="G156" s="54"/>
     </row>
     <row r="157" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
@@ -9648,7 +9648,7 @@
       <c r="F158" s="5">
         <v>7</v>
       </c>
-      <c r="G158" s="57" t="s">
+      <c r="G158" s="51" t="s">
         <v>350</v>
       </c>
     </row>
@@ -9840,7 +9840,7 @@
       <c r="F168" s="5">
         <v>12</v>
       </c>
-      <c r="G168" s="57" t="s">
+      <c r="G168" s="51" t="s">
         <v>393</v>
       </c>
     </row>
@@ -10236,7 +10236,7 @@
       <c r="F188" s="5">
         <v>26</v>
       </c>
-      <c r="G188" s="57" t="s">
+      <c r="G188" s="51" t="s">
         <v>352</v>
       </c>
     </row>
@@ -10416,7 +10416,7 @@
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="47" t="s">
+      <c r="A198" s="59" t="s">
         <v>202</v>
       </c>
       <c r="B198" s="2">
@@ -10434,7 +10434,7 @@
       <c r="F198" s="5">
         <v>7</v>
       </c>
-      <c r="G198" s="60" t="s">
+      <c r="G198" s="58" t="s">
         <v>399</v>
       </c>
     </row>
@@ -10588,7 +10588,7 @@
       <c r="F206" s="5">
         <v>7</v>
       </c>
-      <c r="G206" s="51"/>
+      <c r="G206" s="57"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="48"/>
@@ -10597,7 +10597,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="8"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="51"/>
+      <c r="G207" s="57"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="48"/>
@@ -10606,7 +10606,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="8"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="51"/>
+      <c r="G208" s="57"/>
     </row>
     <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="49"/>
@@ -10625,7 +10625,7 @@
         <f>SUM(F198:F206)</f>
         <v>16</v>
       </c>
-      <c r="G209" s="51"/>
+      <c r="G209" s="57"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
@@ -10669,7 +10669,7 @@
       <c r="F211" s="7">
         <v>13</v>
       </c>
-      <c r="G211" s="57" t="s">
+      <c r="G211" s="51" t="s">
         <v>354</v>
       </c>
     </row>
@@ -10868,7 +10868,7 @@
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="58" t="s">
+      <c r="A222" s="56" t="s">
         <v>204</v>
       </c>
       <c r="B222" s="2">
@@ -10891,7 +10891,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="59"/>
+      <c r="A223" s="55"/>
       <c r="B223" s="2">
         <v>17802</v>
       </c>
@@ -10910,7 +10910,7 @@
       <c r="G223" s="50"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="59"/>
+      <c r="A224" s="55"/>
       <c r="B224" s="4">
         <v>17809</v>
       </c>
@@ -10929,7 +10929,7 @@
       <c r="G224" s="50"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="59"/>
+      <c r="A225" s="55"/>
       <c r="B225" s="2">
         <v>17814</v>
       </c>
@@ -10948,7 +10948,7 @@
       <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="59"/>
+      <c r="A226" s="55"/>
       <c r="B226" s="2">
         <v>17822</v>
       </c>
@@ -10967,7 +10967,7 @@
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="59"/>
+      <c r="A227" s="55"/>
       <c r="B227" s="2">
         <v>17830</v>
       </c>
@@ -10986,7 +10986,7 @@
       <c r="G227" s="50"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="59"/>
+      <c r="A228" s="55"/>
       <c r="B228" s="2">
         <v>17844</v>
       </c>
@@ -11005,7 +11005,7 @@
       <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="59"/>
+      <c r="A229" s="55"/>
       <c r="B229" s="4">
         <v>17852</v>
       </c>
@@ -11024,7 +11024,7 @@
       <c r="G229" s="50"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="59"/>
+      <c r="A230" s="55"/>
       <c r="B230" s="4"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -11033,7 +11033,7 @@
       <c r="G230" s="50"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="59"/>
+      <c r="A231" s="55"/>
       <c r="B231" s="4"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -11042,7 +11042,7 @@
       <c r="G231" s="50"/>
     </row>
     <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="59"/>
+      <c r="A232" s="55"/>
       <c r="B232" s="3"/>
       <c r="C232" s="20" t="s">
         <v>139</v>
@@ -11256,7 +11256,7 @@
         <f>SUM(F234:F241)</f>
         <v>82</v>
       </c>
-      <c r="G242" s="51"/>
+      <c r="G242" s="57"/>
     </row>
     <row r="243" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
@@ -11300,7 +11300,7 @@
       <c r="F244" s="5">
         <v>31</v>
       </c>
-      <c r="G244" s="57" t="s">
+      <c r="G244" s="51" t="s">
         <v>359</v>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       <c r="F283" s="7">
         <v>19</v>
       </c>
-      <c r="G283" s="57" t="s">
+      <c r="G283" s="51" t="s">
         <v>364</v>
       </c>
     </row>
@@ -12465,7 +12465,7 @@
       <c r="F303" s="5">
         <v>12</v>
       </c>
-      <c r="G303" s="57" t="s">
+      <c r="G303" s="51" t="s">
         <v>366</v>
       </c>
     </row>
@@ -15765,7 +15765,7 @@
       <c r="F471" s="5">
         <v>19</v>
       </c>
-      <c r="G471" s="57" t="s">
+      <c r="G471" s="51" t="s">
         <v>383</v>
       </c>
     </row>
@@ -16341,7 +16341,7 @@
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="62" t="s">
+      <c r="A501" s="47" t="s">
         <v>232</v>
       </c>
       <c r="B501" s="2">
@@ -16560,66 +16560,78 @@
       <c r="F514" s="5"/>
       <c r="G514" s="50"/>
     </row>
-    <row r="515" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A515" s="48"/>
-      <c r="B515" s="4"/>
-      <c r="C515" s="3"/>
-      <c r="D515" s="3"/>
-      <c r="E515" s="8"/>
-      <c r="F515" s="5"/>
-      <c r="G515" s="50"/>
-    </row>
-    <row r="516" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A516" s="49"/>
-      <c r="B516" s="3"/>
-      <c r="C516" s="20" t="s">
+    <row r="515" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A515" s="49"/>
+      <c r="B515" s="3"/>
+      <c r="C515" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="D516" s="21" t="s">
+      <c r="D515" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="E516" s="33">
+      <c r="E515" s="33">
         <f>SUM(E501:E509)</f>
         <v>213</v>
       </c>
-      <c r="F516" s="34">
+      <c r="F515" s="34">
         <f>SUM(F501:F509)</f>
         <v>49</v>
       </c>
-      <c r="G516" s="50"/>
-    </row>
-    <row r="517" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A517" s="28" t="s">
+      <c r="G515" s="50"/>
+    </row>
+    <row r="516" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A516" s="28" t="s">
         <v>318</v>
       </c>
-      <c r="B517" s="9">
+      <c r="B516" s="9">
         <v>1977</v>
       </c>
-      <c r="C517" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D517" s="9" t="s">
+      <c r="C516" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D516" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E517" s="26" t="s">
+      <c r="E516" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F517" s="26" t="s">
+      <c r="F516" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G517" s="9" t="s">
+      <c r="G516" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="517" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A517" s="44" t="s">
+        <v>233</v>
+      </c>
+      <c r="B517" s="2">
+        <v>28378</v>
+      </c>
+      <c r="C517" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D517" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E517" s="8">
+        <v>0</v>
+      </c>
+      <c r="F517" s="5">
+        <v>12</v>
+      </c>
+      <c r="G517" s="50" t="s">
+        <v>385</v>
+      </c>
+    </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" s="44" t="s">
-        <v>233</v>
-      </c>
+      <c r="A518" s="45"/>
       <c r="B518" s="2">
-        <v>28378</v>
+        <v>28386</v>
       </c>
       <c r="C518" s="3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
       <c r="D518" s="3" t="s">
         <v>5</v>
@@ -16628,19 +16640,17 @@
         <v>0</v>
       </c>
       <c r="F518" s="5">
-        <v>12</v>
-      </c>
-      <c r="G518" s="50" t="s">
-        <v>385</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G518" s="50"/>
     </row>
     <row r="519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A519" s="45"/>
-      <c r="B519" s="2">
-        <v>28386</v>
+      <c r="B519" s="4">
+        <v>28392</v>
       </c>
       <c r="C519" s="3" t="s">
-        <v>74</v>
+        <v>30</v>
       </c>
       <c r="D519" s="3" t="s">
         <v>5</v>
@@ -16649,240 +16659,240 @@
         <v>0</v>
       </c>
       <c r="F519" s="5">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="G519" s="50"/>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A520" s="45"/>
-      <c r="B520" s="4">
-        <v>28392</v>
+      <c r="B520" s="2">
+        <v>28400</v>
       </c>
       <c r="C520" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D520" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E520" s="8">
+        <v>6</v>
+      </c>
+      <c r="F520" s="5">
         <v>30</v>
-      </c>
-      <c r="D520" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E520" s="8">
-        <v>0</v>
-      </c>
-      <c r="F520" s="5">
-        <v>36</v>
       </c>
       <c r="G520" s="50"/>
     </row>
     <row r="521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A521" s="45"/>
       <c r="B521" s="2">
-        <v>28400</v>
+        <v>28407</v>
       </c>
       <c r="C521" s="3" t="s">
-        <v>105</v>
+        <v>87</v>
       </c>
       <c r="D521" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E521" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F521" s="5">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="G521" s="50"/>
     </row>
     <row r="522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A522" s="45"/>
       <c r="B522" s="2">
-        <v>28407</v>
+        <v>28412</v>
       </c>
       <c r="C522" s="3" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D522" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E522" s="8">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="F522" s="5">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="G522" s="50"/>
     </row>
     <row r="523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A523" s="45"/>
       <c r="B523" s="2">
-        <v>28412</v>
+        <v>28419</v>
       </c>
       <c r="C523" s="3" t="s">
-        <v>99</v>
+        <v>110</v>
       </c>
       <c r="D523" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E523" s="8">
+        <v>0</v>
+      </c>
+      <c r="F523" s="5">
         <v>22</v>
-      </c>
-      <c r="F523" s="5">
-        <v>28</v>
       </c>
       <c r="G523" s="50"/>
     </row>
     <row r="524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A524" s="45"/>
       <c r="B524" s="2">
-        <v>28419</v>
+        <v>28427</v>
       </c>
       <c r="C524" s="3" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D524" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E524" s="8">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="F524" s="5">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="G524" s="50"/>
     </row>
     <row r="525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A525" s="45"/>
-      <c r="B525" s="2">
-        <v>28427</v>
+      <c r="B525" s="4" t="s">
+        <v>177</v>
       </c>
       <c r="C525" s="3" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="D525" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E525" s="8">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F525" s="5">
-        <v>6</v>
+        <v>25</v>
       </c>
       <c r="G525" s="50"/>
     </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A526" s="45"/>
-      <c r="B526" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="C526" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D526" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E526" s="8">
-        <v>0</v>
-      </c>
-      <c r="F526" s="5">
-        <v>25</v>
-      </c>
-      <c r="G526" s="50"/>
-    </row>
-    <row r="527" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A527" s="46"/>
-      <c r="B527" s="3"/>
-      <c r="C527" s="20" t="s">
+    <row r="526" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A526" s="46"/>
+      <c r="B526" s="3"/>
+      <c r="C526" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D527" s="21" t="s">
+      <c r="D526" s="21" t="s">
         <v>116</v>
       </c>
-      <c r="E527" s="33">
-        <f t="shared" ref="E527:F527" si="2">SUM(E518:E526)</f>
+      <c r="E526" s="33">
+        <f t="shared" ref="E526:F526" si="2">SUM(E517:E525)</f>
         <v>58</v>
       </c>
-      <c r="F527" s="34">
+      <c r="F526" s="34">
         <f t="shared" si="2"/>
         <v>233</v>
       </c>
-      <c r="G527" s="50"/>
-    </row>
-    <row r="528" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A528" s="28" t="s">
+      <c r="G526" s="50"/>
+    </row>
+    <row r="527" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A527" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B528" s="9">
+      <c r="B527" s="9">
         <v>1978</v>
       </c>
-      <c r="C528" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D528" s="9" t="s">
+      <c r="C527" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D527" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E528" s="26" t="s">
+      <c r="E527" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F528" s="26" t="s">
+      <c r="F527" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G528" s="9" t="s">
+      <c r="G527" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A528" s="44" t="s">
+        <v>234</v>
+      </c>
+      <c r="B528" s="2">
+        <v>28741</v>
+      </c>
+      <c r="C528" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D528" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E528" s="8">
+        <v>8</v>
+      </c>
+      <c r="F528" s="5">
+        <v>40</v>
+      </c>
+      <c r="G528" s="50" t="s">
+        <v>386</v>
+      </c>
+    </row>
     <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" s="44" t="s">
-        <v>234</v>
-      </c>
+      <c r="A529" s="45"/>
       <c r="B529" s="2">
-        <v>28741</v>
+        <v>28749</v>
       </c>
       <c r="C529" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D529" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E529" s="8">
-        <v>8</v>
+        <v>22</v>
       </c>
       <c r="F529" s="5">
-        <v>40</v>
-      </c>
-      <c r="G529" s="50" t="s">
-        <v>386</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="G529" s="50"/>
     </row>
     <row r="530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A530" s="45"/>
-      <c r="B530" s="2">
-        <v>28749</v>
+      <c r="B530" s="4">
+        <v>28757</v>
       </c>
       <c r="C530" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D530" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E530" s="8">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F530" s="5">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="G530" s="50"/>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A531" s="45"/>
-      <c r="B531" s="4">
-        <v>28757</v>
+      <c r="B531" s="2">
+        <v>28763</v>
       </c>
       <c r="C531" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D531" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E531" s="8">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="F531" s="5">
         <v>14</v>
@@ -16892,233 +16902,233 @@
     <row r="532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A532" s="45"/>
       <c r="B532" s="2">
-        <v>28763</v>
+        <v>28770</v>
       </c>
       <c r="C532" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D532" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E532" s="8">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="F532" s="5">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="G532" s="50"/>
     </row>
     <row r="533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A533" s="45"/>
       <c r="B533" s="2">
-        <v>28770</v>
+        <v>28776</v>
       </c>
       <c r="C533" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D533" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E533" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F533" s="5">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="G533" s="50"/>
     </row>
     <row r="534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A534" s="45"/>
       <c r="B534" s="2">
-        <v>28776</v>
+        <v>28785</v>
       </c>
       <c r="C534" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D534" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E534" s="8">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F534" s="5">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="G534" s="50"/>
     </row>
     <row r="535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A535" s="45"/>
       <c r="B535" s="2">
-        <v>28785</v>
+        <v>28791</v>
       </c>
       <c r="C535" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D535" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E535" s="8">
+        <v>0</v>
+      </c>
+      <c r="F535" s="5">
         <v>12</v>
       </c>
-      <c r="F535" s="5">
-        <v>20</v>
-      </c>
       <c r="G535" s="50"/>
     </row>
-    <row r="536" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A536" s="45"/>
-      <c r="B536" s="2">
-        <v>28791</v>
-      </c>
-      <c r="C536" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D536" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E536" s="8">
-        <v>0</v>
-      </c>
-      <c r="F536" s="5">
-        <v>12</v>
+    <row r="536" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A536" s="46"/>
+      <c r="B536" s="3"/>
+      <c r="C536" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="D536" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="E536" s="33">
+        <f>SUM(E528:E535)</f>
+        <v>90</v>
+      </c>
+      <c r="F536" s="34">
+        <f>SUM(F528:F535)</f>
+        <v>155</v>
       </c>
       <c r="G536" s="50"/>
     </row>
-    <row r="537" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A537" s="46"/>
-      <c r="B537" s="3"/>
-      <c r="C537" s="20" t="s">
-        <v>169</v>
-      </c>
-      <c r="D537" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="E537" s="33">
-        <f>SUM(E529:E536)</f>
-        <v>90</v>
-      </c>
-      <c r="F537" s="34">
-        <f>SUM(F529:F536)</f>
-        <v>155</v>
-      </c>
-      <c r="G537" s="50"/>
-    </row>
-    <row r="538" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A538" s="28" t="s">
+    <row r="537" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A537" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B538" s="9">
+      <c r="B537" s="9">
         <v>1979</v>
       </c>
-      <c r="C538" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D538" s="9" t="s">
+      <c r="C537" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D537" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E538" s="26" t="s">
+      <c r="E537" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F538" s="26" t="s">
+      <c r="F537" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G538" s="9" t="s">
+      <c r="G537" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="538" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A538" s="44" t="s">
+        <v>235</v>
+      </c>
+      <c r="B538" s="2">
+        <v>29106</v>
+      </c>
+      <c r="C538" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D538" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E538" s="8">
+        <v>8</v>
+      </c>
+      <c r="F538" s="5">
+        <v>16</v>
+      </c>
+      <c r="G538" s="50" t="s">
+        <v>395</v>
+      </c>
+    </row>
     <row r="539" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A539" s="44" t="s">
-        <v>235</v>
-      </c>
+      <c r="A539" s="45"/>
       <c r="B539" s="2">
-        <v>29106</v>
+        <v>29113</v>
       </c>
       <c r="C539" s="3" t="s">
-        <v>117</v>
+        <v>109</v>
       </c>
       <c r="D539" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E539" s="8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="F539" s="5">
-        <v>16</v>
-      </c>
-      <c r="G539" s="50" t="s">
-        <v>395</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="G539" s="50"/>
     </row>
     <row r="540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A540" s="45"/>
       <c r="B540" s="2">
-        <v>29113</v>
+        <v>29119</v>
       </c>
       <c r="C540" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D540" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E540" s="8">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F540" s="5">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G540" s="50"/>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A541" s="45"/>
       <c r="B541" s="2">
-        <v>29119</v>
+        <v>29127</v>
       </c>
       <c r="C541" s="3" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="D541" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E541" s="8">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="F541" s="5">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="G541" s="50"/>
     </row>
     <row r="542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A542" s="45"/>
       <c r="B542" s="2">
-        <v>29127</v>
+        <v>29134</v>
       </c>
       <c r="C542" s="3" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="D542" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E542" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F542" s="5">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="G542" s="50"/>
     </row>
     <row r="543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A543" s="45"/>
       <c r="B543" s="2">
-        <v>29134</v>
+        <v>29142</v>
       </c>
       <c r="C543" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D543" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E543" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F543" s="5">
         <v>13</v>
@@ -17128,170 +17138,170 @@
     <row r="544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A544" s="45"/>
       <c r="B544" s="2">
-        <v>29142</v>
+        <v>29147</v>
       </c>
       <c r="C544" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D544" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E544" s="8">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F544" s="5">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="G544" s="50"/>
     </row>
     <row r="545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A545" s="45"/>
       <c r="B545" s="2">
-        <v>29147</v>
+        <v>29155</v>
       </c>
       <c r="C545" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D545" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E545" s="8">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F545" s="5">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="G545" s="50"/>
     </row>
     <row r="546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A546" s="45"/>
-      <c r="B546" s="2">
-        <v>29155</v>
+      <c r="B546" s="4">
+        <v>29161</v>
       </c>
       <c r="C546" s="3" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="D546" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E546" s="8">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F546" s="5">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="G546" s="50"/>
     </row>
-    <row r="547" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A547" s="45"/>
-      <c r="B547" s="4">
-        <v>29161</v>
-      </c>
-      <c r="C547" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D547" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E547" s="8">
-        <v>10</v>
-      </c>
-      <c r="F547" s="5">
-        <v>20</v>
-      </c>
-      <c r="G547" s="50"/>
-    </row>
-    <row r="548" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A548" s="46"/>
-      <c r="B548" s="3"/>
-      <c r="C548" s="20" t="s">
+    <row r="547" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A547" s="46"/>
+      <c r="B547" s="3"/>
+      <c r="C547" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="D548" s="21" t="s">
+      <c r="D547" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E548" s="33">
-        <f t="shared" ref="E548:F548" si="3">SUM(E539:E547)</f>
+      <c r="E547" s="33">
+        <f t="shared" ref="E547:F547" si="3">SUM(E538:E546)</f>
         <v>98</v>
       </c>
-      <c r="F548" s="34">
+      <c r="F547" s="34">
         <f t="shared" si="3"/>
         <v>138</v>
       </c>
-      <c r="G548" s="50"/>
-    </row>
-    <row r="549" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A549" s="28" t="s">
+      <c r="G547" s="50"/>
+    </row>
+    <row r="548" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A548" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B549" s="9">
+      <c r="B548" s="9">
         <v>1980</v>
       </c>
-      <c r="C549" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D549" s="9" t="s">
+      <c r="C548" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D548" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E549" s="26" t="s">
+      <c r="E548" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F549" s="26" t="s">
+      <c r="F548" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G549" s="9" t="s">
+      <c r="G548" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="549" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A549" s="44" t="s">
+        <v>236</v>
+      </c>
+      <c r="B549" s="2">
+        <v>29470</v>
+      </c>
+      <c r="C549" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D549" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E549" s="8">
+        <v>0</v>
+      </c>
+      <c r="F549" s="5">
+        <v>39</v>
+      </c>
+      <c r="G549" s="50" t="s">
+        <v>387</v>
+      </c>
+    </row>
     <row r="550" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A550" s="44" t="s">
-        <v>236</v>
-      </c>
+      <c r="A550" s="45"/>
       <c r="B550" s="2">
-        <v>29470</v>
+        <v>29478</v>
       </c>
       <c r="C550" s="3" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D550" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E550" s="8">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="F550" s="5">
-        <v>39</v>
-      </c>
-      <c r="G550" s="50" t="s">
-        <v>387</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G550" s="50"/>
     </row>
     <row r="551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A551" s="45"/>
-      <c r="B551" s="2">
-        <v>29478</v>
+      <c r="B551" s="4">
+        <v>29483</v>
       </c>
       <c r="C551" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D551" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E551" s="8">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="F551" s="5">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="G551" s="50"/>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A552" s="45"/>
-      <c r="B552" s="4">
-        <v>29483</v>
+      <c r="B552" s="2">
+        <v>29491</v>
       </c>
       <c r="C552" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D552" s="3" t="s">
         <v>5</v>
@@ -17300,17 +17310,17 @@
         <v>0</v>
       </c>
       <c r="F552" s="5">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="G552" s="50"/>
     </row>
     <row r="553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A553" s="45"/>
       <c r="B553" s="2">
-        <v>29491</v>
+        <v>29498</v>
       </c>
       <c r="C553" s="3" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D553" s="3" t="s">
         <v>5</v>
@@ -17319,74 +17329,74 @@
         <v>0</v>
       </c>
       <c r="F553" s="5">
-        <v>33</v>
+        <v>6</v>
       </c>
       <c r="G553" s="50"/>
     </row>
     <row r="554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A554" s="45"/>
       <c r="B554" s="2">
-        <v>29498</v>
+        <v>29505</v>
       </c>
       <c r="C554" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D554" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E554" s="8">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="F554" s="5">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G554" s="50"/>
     </row>
     <row r="555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A555" s="45"/>
       <c r="B555" s="2">
-        <v>29505</v>
+        <v>29512</v>
       </c>
       <c r="C555" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D555" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E555" s="8">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F555" s="5">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="G555" s="50"/>
     </row>
     <row r="556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A556" s="45"/>
       <c r="B556" s="2">
-        <v>29512</v>
+        <v>29519</v>
       </c>
       <c r="C556" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D556" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E556" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F556" s="5">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="G556" s="50"/>
     </row>
     <row r="557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A557" s="45"/>
-      <c r="B557" s="2">
-        <v>29519</v>
+      <c r="B557" s="4">
+        <v>29525</v>
       </c>
       <c r="C557" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D557" s="3" t="s">
         <v>5</v>
@@ -17395,215 +17405,215 @@
         <v>0</v>
       </c>
       <c r="F557" s="5">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="G557" s="50"/>
     </row>
-    <row r="558" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A558" s="45"/>
-      <c r="B558" s="4">
-        <v>29525</v>
-      </c>
-      <c r="C558" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D558" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E558" s="8">
-        <v>0</v>
-      </c>
-      <c r="F558" s="5">
-        <v>33</v>
-      </c>
-      <c r="G558" s="50"/>
-    </row>
-    <row r="559" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A559" s="46"/>
-      <c r="B559" s="3"/>
-      <c r="C559" s="20" t="s">
+    <row r="558" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A558" s="46"/>
+      <c r="B558" s="3"/>
+      <c r="C558" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="D559" s="21" t="s">
+      <c r="D558" s="21" t="s">
         <v>123</v>
       </c>
-      <c r="E559" s="33">
-        <f t="shared" ref="E559:F559" si="4">SUM(E550:E558)</f>
+      <c r="E558" s="33">
+        <f t="shared" ref="E558:F558" si="4">SUM(E549:E557)</f>
         <v>37</v>
       </c>
-      <c r="F559" s="34">
+      <c r="F558" s="34">
         <f t="shared" si="4"/>
         <v>152</v>
       </c>
-      <c r="G559" s="50"/>
-    </row>
-    <row r="560" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A560" s="28" t="s">
+      <c r="G558" s="50"/>
+    </row>
+    <row r="559" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A559" s="28" t="s">
         <v>320</v>
       </c>
-      <c r="B560" s="9">
+      <c r="B559" s="9">
         <v>1981</v>
       </c>
-      <c r="C560" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D560" s="9" t="s">
+      <c r="C559" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D559" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E560" s="26" t="s">
+      <c r="E559" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F560" s="26" t="s">
+      <c r="F559" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G560" s="9" t="s">
+      <c r="G559" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="560" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A560" s="44" t="s">
+        <v>237</v>
+      </c>
+      <c r="B560" s="2">
+        <v>29841</v>
+      </c>
+      <c r="C560" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D560" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E560" s="8">
+        <v>0</v>
+      </c>
+      <c r="F560" s="5">
+        <v>47</v>
+      </c>
+      <c r="G560" s="50" t="s">
+        <v>388</v>
+      </c>
+    </row>
     <row r="561" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A561" s="44" t="s">
-        <v>237</v>
-      </c>
+      <c r="A561" s="45"/>
       <c r="B561" s="2">
-        <v>29841</v>
+        <v>29847</v>
       </c>
       <c r="C561" s="3" t="s">
-        <v>17</v>
+        <v>105</v>
       </c>
       <c r="D561" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E561" s="8">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="F561" s="5">
-        <v>47</v>
-      </c>
-      <c r="G561" s="50" t="s">
-        <v>388</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G561" s="50"/>
     </row>
     <row r="562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A562" s="45"/>
-      <c r="B562" s="2">
-        <v>29847</v>
+      <c r="B562" s="4">
+        <v>29855</v>
       </c>
       <c r="C562" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D562" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E562" s="8">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="F562" s="5">
-        <v>0</v>
+        <v>28</v>
       </c>
       <c r="G562" s="50"/>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A563" s="45"/>
       <c r="B563" s="4">
-        <v>29855</v>
+        <v>29863</v>
       </c>
       <c r="C563" s="3" t="s">
-        <v>122</v>
+        <v>87</v>
       </c>
       <c r="D563" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E563" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F563" s="5">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G563" s="50"/>
     </row>
     <row r="564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A564" s="45"/>
-      <c r="B564" s="4">
-        <v>29863</v>
+      <c r="B564" s="2">
+        <v>29869</v>
       </c>
       <c r="C564" s="3" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="D564" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E564" s="8">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="F564" s="5">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="G564" s="50"/>
     </row>
     <row r="565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A565" s="45"/>
       <c r="B565" s="2">
-        <v>29869</v>
+        <v>29875</v>
       </c>
       <c r="C565" s="3" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
       <c r="D565" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E565" s="8">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="F565" s="5">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="G565" s="50"/>
     </row>
     <row r="566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A566" s="45"/>
       <c r="B566" s="2">
-        <v>29875</v>
+        <v>29883</v>
       </c>
       <c r="C566" s="3" t="s">
-        <v>106</v>
+        <v>120</v>
       </c>
       <c r="D566" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E566" s="8">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="F566" s="5">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G566" s="50"/>
     </row>
     <row r="567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A567" s="45"/>
       <c r="B567" s="2">
-        <v>29883</v>
+        <v>29890</v>
       </c>
       <c r="C567" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D567" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E567" s="8">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F567" s="5">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="G567" s="50"/>
     </row>
     <row r="568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A568" s="45"/>
-      <c r="B568" s="2">
-        <v>29890</v>
+      <c r="B568" s="4">
+        <v>29897</v>
       </c>
       <c r="C568" s="3" t="s">
-        <v>109</v>
+        <v>96</v>
       </c>
       <c r="D568" s="3" t="s">
         <v>5</v>
@@ -17612,120 +17622,120 @@
         <v>8</v>
       </c>
       <c r="F568" s="5">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="G568" s="50"/>
     </row>
-    <row r="569" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A569" s="45"/>
-      <c r="B569" s="4">
-        <v>29897</v>
-      </c>
-      <c r="C569" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="D569" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E569" s="8">
-        <v>8</v>
-      </c>
-      <c r="F569" s="5">
-        <v>43</v>
-      </c>
-      <c r="G569" s="50"/>
-    </row>
-    <row r="570" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A570" s="46"/>
-      <c r="B570" s="3"/>
-      <c r="C570" s="20" t="s">
+    <row r="569" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A569" s="46"/>
+      <c r="B569" s="3"/>
+      <c r="C569" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="D570" s="21" t="s">
+      <c r="D569" s="21" t="s">
         <v>121</v>
       </c>
-      <c r="E570" s="33">
-        <f t="shared" ref="E570:F570" si="5">SUM(E561:E569)</f>
+      <c r="E569" s="33">
+        <f t="shared" ref="E569:F569" si="5">SUM(E560:E568)</f>
         <v>92</v>
       </c>
-      <c r="F570" s="34">
+      <c r="F569" s="34">
         <f t="shared" si="5"/>
         <v>196</v>
       </c>
-      <c r="G570" s="50"/>
-    </row>
-    <row r="571" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A571" s="28" t="s">
+      <c r="G569" s="50"/>
+    </row>
+    <row r="570" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A570" s="28" t="s">
         <v>325</v>
       </c>
-      <c r="B571" s="9">
+      <c r="B570" s="9">
         <v>1982</v>
       </c>
-      <c r="C571" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D571" s="9" t="s">
+      <c r="C570" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D570" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E571" s="26" t="s">
+      <c r="E570" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F571" s="26" t="s">
+      <c r="F570" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G571" s="9" t="s">
+      <c r="G570" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="571" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A571" s="44" t="s">
+        <v>238</v>
+      </c>
+      <c r="B571" s="2">
+        <v>30204</v>
+      </c>
+      <c r="C571" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D571" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E571" s="8">
+        <v>0</v>
+      </c>
+      <c r="F571" s="5">
+        <v>36</v>
+      </c>
+      <c r="G571" s="50" t="s">
+        <v>389</v>
+      </c>
+    </row>
     <row r="572" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A572" s="44" t="s">
-        <v>238</v>
-      </c>
+      <c r="A572" s="45"/>
       <c r="B572" s="2">
-        <v>30204</v>
+        <v>30212</v>
       </c>
       <c r="C572" s="3" t="s">
-        <v>87</v>
+        <v>105</v>
       </c>
       <c r="D572" s="3" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E572" s="8">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="F572" s="5">
-        <v>36</v>
-      </c>
-      <c r="G572" s="50" t="s">
-        <v>389</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="G572" s="50"/>
     </row>
     <row r="573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A573" s="45"/>
       <c r="B573" s="2">
-        <v>30212</v>
+        <v>30220</v>
       </c>
       <c r="C573" s="3" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="D573" s="3" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E573" s="8">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="F573" s="5">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="G573" s="50"/>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A574" s="45"/>
-      <c r="B574" s="2">
-        <v>30220</v>
+      <c r="B574" s="4">
+        <v>30233</v>
       </c>
       <c r="C574" s="3" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D574" s="3" t="s">
         <v>5</v>
@@ -17734,17 +17744,17 @@
         <v>0</v>
       </c>
       <c r="F574" s="5">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="G574" s="50"/>
     </row>
     <row r="575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A575" s="45"/>
-      <c r="B575" s="4">
-        <v>30233</v>
+      <c r="B575" s="2">
+        <v>30240</v>
       </c>
       <c r="C575" s="3" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="D575" s="3" t="s">
         <v>5</v>
@@ -17753,17 +17763,17 @@
         <v>0</v>
       </c>
       <c r="F575" s="5">
-        <v>48</v>
+        <v>12</v>
       </c>
       <c r="G575" s="50"/>
     </row>
     <row r="576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A576" s="45"/>
       <c r="B576" s="2">
-        <v>30240</v>
+        <v>30247</v>
       </c>
       <c r="C576" s="3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="D576" s="3" t="s">
         <v>5</v>
@@ -17772,17 +17782,17 @@
         <v>0</v>
       </c>
       <c r="F576" s="5">
-        <v>12</v>
+        <v>40</v>
       </c>
       <c r="G576" s="50"/>
     </row>
     <row r="577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A577" s="45"/>
       <c r="B577" s="2">
-        <v>30247</v>
+        <v>30254</v>
       </c>
       <c r="C577" s="3" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="D577" s="3" t="s">
         <v>5</v>
@@ -17791,17 +17801,17 @@
         <v>0</v>
       </c>
       <c r="F577" s="5">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="G577" s="50"/>
     </row>
     <row r="578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A578" s="45"/>
-      <c r="B578" s="2">
-        <v>30254</v>
+      <c r="B578" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="C578" s="3" t="s">
-        <v>118</v>
+        <v>105</v>
       </c>
       <c r="D578" s="3" t="s">
         <v>5</v>
@@ -17810,139 +17820,139 @@
         <v>0</v>
       </c>
       <c r="F578" s="5">
-        <v>34</v>
+        <v>6</v>
       </c>
       <c r="G578" s="50"/>
     </row>
-    <row r="579" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A579" s="45"/>
-      <c r="B579" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="C579" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D579" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E579" s="8">
-        <v>0</v>
-      </c>
-      <c r="F579" s="5">
+    <row r="579" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A579" s="46"/>
+      <c r="B579" s="3"/>
+      <c r="C579" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="D579" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E579" s="33">
+        <f>SUM(E571:E578)</f>
+        <v>14</v>
+      </c>
+      <c r="F579" s="34">
+        <f>SUM(F571:F578)</f>
+        <v>223</v>
+      </c>
+      <c r="G579" s="50"/>
+    </row>
+    <row r="580" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A580" s="28" t="s">
+        <v>327</v>
+      </c>
+      <c r="B580" s="9">
+        <v>1983</v>
+      </c>
+      <c r="C580" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D580" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="E580" s="26" t="s">
+        <v>396</v>
+      </c>
+      <c r="F580" s="26" t="s">
+        <v>397</v>
+      </c>
+      <c r="G580" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="581" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A581" s="44" t="s">
+        <v>239</v>
+      </c>
+      <c r="B581" s="2">
+        <v>30570</v>
+      </c>
+      <c r="C581" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D581" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E581" s="8">
+        <v>45</v>
+      </c>
+      <c r="F581" s="5">
+        <v>0</v>
+      </c>
+      <c r="G581" s="50" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A582" s="45"/>
+      <c r="B582" s="2">
+        <v>30576</v>
+      </c>
+      <c r="C582" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D582" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E582" s="8">
         <v>6</v>
       </c>
-      <c r="G579" s="50"/>
-    </row>
-    <row r="580" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A580" s="46"/>
-      <c r="B580" s="3"/>
-      <c r="C580" s="20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D580" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E580" s="33">
-        <f>SUM(E572:E579)</f>
-        <v>14</v>
-      </c>
-      <c r="F580" s="34">
-        <f>SUM(F572:F579)</f>
-        <v>223</v>
-      </c>
-      <c r="G580" s="50"/>
-    </row>
-    <row r="581" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A581" s="28" t="s">
-        <v>327</v>
-      </c>
-      <c r="B581" s="9">
-        <v>1983</v>
-      </c>
-      <c r="C581" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D581" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="E581" s="26" t="s">
-        <v>396</v>
-      </c>
-      <c r="F581" s="26" t="s">
-        <v>397</v>
-      </c>
-      <c r="G581" s="9" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="582" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A582" s="44" t="s">
-        <v>239</v>
-      </c>
-      <c r="B582" s="2">
-        <v>30570</v>
-      </c>
-      <c r="C582" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D582" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E582" s="8">
-        <v>45</v>
-      </c>
       <c r="F582" s="5">
-        <v>0</v>
-      </c>
-      <c r="G582" s="50" t="s">
-        <v>391</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="G582" s="50"/>
     </row>
     <row r="583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A583" s="45"/>
-      <c r="B583" s="2">
-        <v>30576</v>
+      <c r="B583" s="4">
+        <v>30583</v>
       </c>
       <c r="C583" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D583" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E583" s="8">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="F583" s="5">
-        <v>49</v>
+        <v>26</v>
       </c>
       <c r="G583" s="50"/>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A584" s="45"/>
       <c r="B584" s="4">
-        <v>30583</v>
+        <v>30589</v>
       </c>
       <c r="C584" s="3" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="D584" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E584" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F584" s="5">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="G584" s="50"/>
     </row>
     <row r="585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A585" s="45"/>
-      <c r="B585" s="4">
-        <v>30589</v>
+      <c r="B585" s="2">
+        <v>30596</v>
       </c>
       <c r="C585" s="3" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="D585" s="3" t="s">
         <v>5</v>
@@ -17951,55 +17961,55 @@
         <v>0</v>
       </c>
       <c r="F585" s="5">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="G585" s="50"/>
     </row>
     <row r="586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A586" s="45"/>
       <c r="B586" s="2">
-        <v>30596</v>
+        <v>30604</v>
       </c>
       <c r="C586" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D586" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E586" s="8">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="F586" s="5">
-        <v>51</v>
+        <v>26</v>
       </c>
       <c r="G586" s="50"/>
     </row>
     <row r="587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A587" s="45"/>
       <c r="B587" s="2">
-        <v>30604</v>
+        <v>30610</v>
       </c>
       <c r="C587" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D587" s="3" t="s">
         <v>5</v>
       </c>
       <c r="E587" s="8">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="F587" s="5">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="G587" s="50"/>
     </row>
     <row r="588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A588" s="45"/>
       <c r="B588" s="2">
-        <v>30610</v>
+        <v>30617</v>
       </c>
       <c r="C588" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D588" s="3" t="s">
         <v>5</v>
@@ -18008,80 +18018,82 @@
         <v>0</v>
       </c>
       <c r="F588" s="5">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G588" s="50"/>
     </row>
-    <row r="589" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A589" s="45"/>
-      <c r="B589" s="2">
-        <v>30617</v>
-      </c>
-      <c r="C589" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D589" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E589" s="8">
-        <v>0</v>
-      </c>
-      <c r="F589" s="5">
-        <v>33</v>
+    <row r="589" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A589" s="46"/>
+      <c r="B589" s="3"/>
+      <c r="C589" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="D589" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="E589" s="33">
+        <f>SUM(E581:E588)</f>
+        <v>65</v>
+      </c>
+      <c r="F589" s="34">
+        <f>SUM(F581:F588)</f>
+        <v>259</v>
       </c>
       <c r="G589" s="50"/>
     </row>
-    <row r="590" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A590" s="46"/>
-      <c r="B590" s="3"/>
-      <c r="C590" s="20" t="s">
-        <v>174</v>
-      </c>
-      <c r="D590" s="21" t="s">
-        <v>59</v>
-      </c>
-      <c r="E590" s="33">
-        <f>SUM(E582:E589)</f>
-        <v>65</v>
-      </c>
-      <c r="F590" s="34">
-        <f>SUM(F582:F589)</f>
-        <v>259</v>
-      </c>
-      <c r="G590" s="50"/>
-    </row>
-    <row r="591" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A591" s="28" t="s">
+    <row r="590" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A590" s="28" t="s">
         <v>329</v>
       </c>
-      <c r="B591" s="9">
+      <c r="B590" s="9">
         <v>1984</v>
       </c>
-      <c r="C591" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="D591" s="9" t="s">
+      <c r="C590" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="D590" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E591" s="26" t="s">
+      <c r="E590" s="26" t="s">
         <v>396</v>
       </c>
-      <c r="F591" s="26" t="s">
+      <c r="F590" s="26" t="s">
         <v>397</v>
       </c>
-      <c r="G591" s="9" t="s">
+      <c r="G590" s="9" t="s">
         <v>9</v>
       </c>
     </row>
+    <row r="591" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A591" s="44" t="s">
+        <v>240</v>
+      </c>
+      <c r="B591" s="2">
+        <v>30933</v>
+      </c>
+      <c r="C591" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D591" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="E591" s="8">
+        <v>0</v>
+      </c>
+      <c r="F591" s="5">
+        <v>48</v>
+      </c>
+      <c r="G591" s="50" t="s">
+        <v>390</v>
+      </c>
+    </row>
     <row r="592" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A592" s="44" t="s">
-        <v>240</v>
-      </c>
+      <c r="A592" s="45"/>
       <c r="B592" s="2">
-        <v>30933</v>
+        <v>30940</v>
       </c>
       <c r="C592" s="3" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="D592" s="3" t="s">
         <v>5</v>
@@ -18090,19 +18102,17 @@
         <v>0</v>
       </c>
       <c r="F592" s="5">
-        <v>48</v>
-      </c>
-      <c r="G592" s="50" t="s">
-        <v>390</v>
-      </c>
+        <v>51</v>
+      </c>
+      <c r="G592" s="50"/>
     </row>
     <row r="593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A593" s="45"/>
-      <c r="B593" s="2">
-        <v>30940</v>
+      <c r="B593" s="4">
+        <v>30946</v>
       </c>
       <c r="C593" s="3" t="s">
-        <v>124</v>
+        <v>105</v>
       </c>
       <c r="D593" s="3" t="s">
         <v>5</v>
@@ -18111,17 +18121,17 @@
         <v>0</v>
       </c>
       <c r="F593" s="5">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G593" s="50"/>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A594" s="45"/>
       <c r="B594" s="4">
-        <v>30946</v>
+        <v>30961</v>
       </c>
       <c r="C594" s="3" t="s">
-        <v>105</v>
+        <v>120</v>
       </c>
       <c r="D594" s="3" t="s">
         <v>5</v>
@@ -18130,17 +18140,17 @@
         <v>0</v>
       </c>
       <c r="F594" s="5">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="G594" s="50"/>
     </row>
     <row r="595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A595" s="45"/>
-      <c r="B595" s="4">
-        <v>30961</v>
+      <c r="B595" s="2">
+        <v>30968</v>
       </c>
       <c r="C595" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="D595" s="3" t="s">
         <v>5</v>
@@ -18149,17 +18159,17 @@
         <v>0</v>
       </c>
       <c r="F595" s="5">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="G595" s="50"/>
     </row>
     <row r="596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A596" s="45"/>
       <c r="B596" s="2">
-        <v>30968</v>
+        <v>30975</v>
       </c>
       <c r="C596" s="3" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="D596" s="3" t="s">
         <v>5</v>
@@ -18168,17 +18178,17 @@
         <v>0</v>
       </c>
       <c r="F596" s="5">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G596" s="50"/>
     </row>
     <row r="597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A597" s="45"/>
       <c r="B597" s="2">
-        <v>30975</v>
+        <v>30982</v>
       </c>
       <c r="C597" s="3" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="D597" s="3" t="s">
         <v>5</v>
@@ -18187,47 +18197,37 @@
         <v>0</v>
       </c>
       <c r="F597" s="5">
-        <v>38</v>
+        <v>56</v>
       </c>
       <c r="G597" s="50"/>
     </row>
     <row r="598" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A598" s="45"/>
-      <c r="B598" s="2">
-        <v>30982</v>
-      </c>
-      <c r="C598" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D598" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="E598" s="8">
-        <v>0</v>
-      </c>
-      <c r="F598" s="5">
-        <v>56</v>
+      <c r="A598" s="46"/>
+      <c r="B598" s="3"/>
+      <c r="C598" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D598" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="E598" s="33">
+        <f>SUM(E591:E597)</f>
+        <v>0</v>
+      </c>
+      <c r="F598" s="34">
+        <f>SUM(F591:F597)</f>
+        <v>334</v>
       </c>
       <c r="G598" s="50"/>
     </row>
     <row r="599" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A599" s="46"/>
-      <c r="B599" s="3"/>
-      <c r="C599" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="D599" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="E599" s="33">
-        <f>SUM(E592:E598)</f>
-        <v>0</v>
-      </c>
-      <c r="F599" s="34">
-        <f>SUM(F592:F598)</f>
-        <v>334</v>
-      </c>
-      <c r="G599" s="50"/>
+      <c r="A599"/>
+      <c r="B599"/>
+      <c r="C599"/>
+      <c r="D599"/>
+      <c r="E599"/>
+      <c r="F599"/>
+      <c r="G599"/>
     </row>
     <row r="600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A600"/>
@@ -19779,32 +19779,85 @@
       <c r="F2037"/>
       <c r="G2037"/>
     </row>
-    <row r="2038" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2038"/>
-      <c r="B2038"/>
-      <c r="C2038"/>
-      <c r="D2038"/>
-      <c r="E2038"/>
-      <c r="F2038"/>
-      <c r="G2038"/>
-    </row>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A529:A537"/>
-    <mergeCell ref="A539:A548"/>
-    <mergeCell ref="A550:A559"/>
-    <mergeCell ref="A561:A570"/>
-    <mergeCell ref="A572:A580"/>
-    <mergeCell ref="A582:A590"/>
-    <mergeCell ref="A592:A599"/>
-    <mergeCell ref="A491:A499"/>
-    <mergeCell ref="A441:A449"/>
-    <mergeCell ref="A451:A459"/>
-    <mergeCell ref="A461:A469"/>
-    <mergeCell ref="A471:A479"/>
-    <mergeCell ref="A481:A489"/>
-    <mergeCell ref="A501:A516"/>
-    <mergeCell ref="A518:A527"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="G45:G53"/>
+    <mergeCell ref="G76:G87"/>
+    <mergeCell ref="G89:G97"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="G222:G232"/>
+    <mergeCell ref="G234:G242"/>
+    <mergeCell ref="G198:G209"/>
+    <mergeCell ref="G211:G220"/>
+    <mergeCell ref="G178:G186"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="G99:G107"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="G119:G127"/>
+    <mergeCell ref="G139:G146"/>
+    <mergeCell ref="G129:G137"/>
+    <mergeCell ref="A234:A242"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="G158:G166"/>
+    <mergeCell ref="G188:G196"/>
+    <mergeCell ref="G168:G176"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="A211:A220"/>
+    <mergeCell ref="G303:G311"/>
+    <mergeCell ref="G264:G272"/>
+    <mergeCell ref="G274:G281"/>
+    <mergeCell ref="G283:G291"/>
+    <mergeCell ref="A264:A272"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="G148:G156"/>
+    <mergeCell ref="G244:G252"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="A274:A281"/>
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="G254:G262"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="G293:G301"/>
+    <mergeCell ref="A293:A301"/>
+    <mergeCell ref="A283:A291"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="G344:G352"/>
+    <mergeCell ref="G354:G362"/>
+    <mergeCell ref="G313:G322"/>
+    <mergeCell ref="G324:G332"/>
+    <mergeCell ref="G334:G342"/>
+    <mergeCell ref="G571:G579"/>
+    <mergeCell ref="G581:G589"/>
+    <mergeCell ref="G591:G598"/>
+    <mergeCell ref="G549:G558"/>
+    <mergeCell ref="G560:G569"/>
+    <mergeCell ref="G382:G389"/>
+    <mergeCell ref="G517:G526"/>
+    <mergeCell ref="G528:G536"/>
+    <mergeCell ref="G538:G547"/>
+    <mergeCell ref="G491:G499"/>
+    <mergeCell ref="G501:G515"/>
+    <mergeCell ref="G409:G417"/>
+    <mergeCell ref="G419:G427"/>
     <mergeCell ref="A334:A342"/>
     <mergeCell ref="A324:A332"/>
     <mergeCell ref="A303:A311"/>
@@ -19829,83 +19882,21 @@
     <mergeCell ref="A400:A407"/>
     <mergeCell ref="A409:A417"/>
     <mergeCell ref="A419:A427"/>
-    <mergeCell ref="G344:G352"/>
-    <mergeCell ref="G354:G362"/>
-    <mergeCell ref="G313:G322"/>
-    <mergeCell ref="G324:G332"/>
-    <mergeCell ref="G334:G342"/>
-    <mergeCell ref="G572:G580"/>
-    <mergeCell ref="G582:G590"/>
-    <mergeCell ref="G592:G599"/>
-    <mergeCell ref="G550:G559"/>
-    <mergeCell ref="G561:G570"/>
-    <mergeCell ref="G382:G389"/>
-    <mergeCell ref="G518:G527"/>
-    <mergeCell ref="G529:G537"/>
-    <mergeCell ref="G539:G548"/>
-    <mergeCell ref="G491:G499"/>
-    <mergeCell ref="G501:G516"/>
-    <mergeCell ref="G409:G417"/>
-    <mergeCell ref="G419:G427"/>
-    <mergeCell ref="G303:G311"/>
-    <mergeCell ref="G264:G272"/>
-    <mergeCell ref="G274:G281"/>
-    <mergeCell ref="G283:G291"/>
-    <mergeCell ref="A264:A272"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="G148:G156"/>
-    <mergeCell ref="G244:G252"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="A274:A281"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="G254:G262"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="G293:G301"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="G222:G232"/>
-    <mergeCell ref="G234:G242"/>
-    <mergeCell ref="G198:G209"/>
-    <mergeCell ref="G211:G220"/>
-    <mergeCell ref="G178:G186"/>
-    <mergeCell ref="A178:A186"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="G99:G107"/>
-    <mergeCell ref="G65:G74"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="A293:A301"/>
-    <mergeCell ref="A283:A291"/>
-    <mergeCell ref="G139:G146"/>
-    <mergeCell ref="G129:G137"/>
-    <mergeCell ref="A234:A242"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="G158:G166"/>
-    <mergeCell ref="G188:G196"/>
-    <mergeCell ref="G168:G176"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="A198:A209"/>
-    <mergeCell ref="A211:A220"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="G45:G53"/>
-    <mergeCell ref="G76:G87"/>
-    <mergeCell ref="G89:G97"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A528:A536"/>
+    <mergeCell ref="A538:A547"/>
+    <mergeCell ref="A549:A558"/>
+    <mergeCell ref="A560:A569"/>
+    <mergeCell ref="A571:A579"/>
+    <mergeCell ref="A581:A589"/>
+    <mergeCell ref="A591:A598"/>
+    <mergeCell ref="A491:A499"/>
+    <mergeCell ref="A441:A449"/>
+    <mergeCell ref="A451:A459"/>
+    <mergeCell ref="A461:A469"/>
+    <mergeCell ref="A471:A479"/>
+    <mergeCell ref="A481:A489"/>
+    <mergeCell ref="A501:A515"/>
+    <mergeCell ref="A517:A526"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{19CFF195-F347-4DC1-882D-E27AE52E410C}"/>
@@ -19952,15 +19943,15 @@
     <hyperlink ref="A471:A479" r:id="rId42" display="Click here for the 1973 season football articles " xr:uid="{436A063C-5FC4-4122-A8B1-B61ECBE00F8E}"/>
     <hyperlink ref="A481:A489" r:id="rId43" display="Click here for the 1974 season football articles " xr:uid="{19104E73-EABC-4263-A968-B55648112002}"/>
     <hyperlink ref="A491:A499" r:id="rId44" display="Click here for the 1975 season football articles " xr:uid="{8CB6E435-CA30-4C31-8076-69EF46521C9A}"/>
-    <hyperlink ref="A501:A516" r:id="rId45" display="1976.html" xr:uid="{5CFA4086-6B49-4F90-A9DB-F8E6A323CDA0}"/>
-    <hyperlink ref="A518:A527" r:id="rId46" display="Click here for the 1977 season football articles " xr:uid="{F98ED847-3540-41F5-9FA2-673AF45C87ED}"/>
-    <hyperlink ref="A529:A537" r:id="rId47" display="Click here for the 1978 season football articles " xr:uid="{F07DEAC3-69F4-4ED4-B3C1-A8CB3A7A04FD}"/>
-    <hyperlink ref="A539:A548" r:id="rId48" display="Click here for the 1979 season football articles " xr:uid="{550E276F-77E4-4EEF-9EDD-7C8D1DE714E1}"/>
-    <hyperlink ref="A550:A559" r:id="rId49" display="Click here for the 1980 season football articles " xr:uid="{CFE61529-54CD-42C9-816E-A84BAC6EDA9C}"/>
-    <hyperlink ref="A561:A570" r:id="rId50" display="Click here for the 1981 season football articles " xr:uid="{5B8F1EB1-0BA6-4FE1-ACBF-1F42D90890FB}"/>
-    <hyperlink ref="A572:A580" r:id="rId51" display="Click here for the 1982 season football articles " xr:uid="{C197E7E2-DD4B-49B6-BF85-18F35822B489}"/>
-    <hyperlink ref="A582:A590" r:id="rId52" display="Click here for the 1983 season football articles " xr:uid="{FD8F66D2-1BC3-43C1-AA21-34AE2E7CC083}"/>
-    <hyperlink ref="A592:A599" r:id="rId53" display="Click here for the 1984 season football articles " xr:uid="{AF17B8EA-264C-4964-BE5F-D805045117EC}"/>
+    <hyperlink ref="A501:A515" r:id="rId45" display="1976.html" xr:uid="{5CFA4086-6B49-4F90-A9DB-F8E6A323CDA0}"/>
+    <hyperlink ref="A517:A526" r:id="rId46" display="Click here for the 1977 season football articles " xr:uid="{F98ED847-3540-41F5-9FA2-673AF45C87ED}"/>
+    <hyperlink ref="A528:A536" r:id="rId47" display="Click here for the 1978 season football articles " xr:uid="{F07DEAC3-69F4-4ED4-B3C1-A8CB3A7A04FD}"/>
+    <hyperlink ref="A538:A547" r:id="rId48" display="Click here for the 1979 season football articles " xr:uid="{550E276F-77E4-4EEF-9EDD-7C8D1DE714E1}"/>
+    <hyperlink ref="A549:A558" r:id="rId49" display="Click here for the 1980 season football articles " xr:uid="{CFE61529-54CD-42C9-816E-A84BAC6EDA9C}"/>
+    <hyperlink ref="A560:A569" r:id="rId50" display="Click here for the 1981 season football articles " xr:uid="{5B8F1EB1-0BA6-4FE1-ACBF-1F42D90890FB}"/>
+    <hyperlink ref="A571:A579" r:id="rId51" display="Click here for the 1982 season football articles " xr:uid="{C197E7E2-DD4B-49B6-BF85-18F35822B489}"/>
+    <hyperlink ref="A581:A589" r:id="rId52" display="Click here for the 1983 season football articles " xr:uid="{FD8F66D2-1BC3-43C1-AA21-34AE2E7CC083}"/>
+    <hyperlink ref="A591:A598" r:id="rId53" display="Click here for the 1984 season football articles " xr:uid="{AF17B8EA-264C-4964-BE5F-D805045117EC}"/>
     <hyperlink ref="A2:A9" r:id="rId54" display="Click here for the 1927 season football articles" xr:uid="{AD131308-7ED5-467B-800E-1DD040CF28DC}"/>
     <hyperlink ref="A11:A19" r:id="rId55" display="Click here for the 1928 season football articles " xr:uid="{7A69EE56-5B4D-4ADB-BC59-35D5DED730DA}"/>
     <hyperlink ref="A76:A87" r:id="rId56" display="1934.html" xr:uid="{CC6367AF-2F7A-427D-B7C2-868F1BA80C47}"/>
@@ -20012,16 +20003,16 @@
       <c r="D1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="64"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="2">
@@ -20039,12 +20030,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="57" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -20060,10 +20051,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -20079,10 +20070,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -20098,37 +20089,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
@@ -20144,7 +20135,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -20159,16 +20150,16 @@
       <c r="D10" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="60" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="2">
@@ -20186,12 +20177,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -20207,10 +20198,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -20226,10 +20217,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -20245,10 +20236,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -20264,10 +20255,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -20283,10 +20274,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -20302,10 +20293,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -20321,10 +20312,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>46</v>
@@ -20340,7 +20331,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -20355,16 +20346,16 @@
       <c r="D20" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="2">
@@ -20382,12 +20373,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="57" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -20403,10 +20394,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -20422,10 +20413,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -20441,10 +20432,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -20460,10 +20451,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -20479,10 +20470,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -20498,10 +20489,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -20517,10 +20508,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -20536,10 +20527,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -20555,10 +20546,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -20574,10 +20565,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>47</v>
@@ -20593,7 +20584,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -20608,10 +20599,10 @@
       <c r="D33" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
@@ -20635,7 +20626,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="57" t="s">
         <v>252</v>
       </c>
     </row>
@@ -20656,7 +20647,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -20675,7 +20666,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -20694,7 +20685,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="52"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
@@ -20713,7 +20704,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -20732,7 +20723,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
@@ -20751,7 +20742,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
@@ -20770,7 +20761,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
@@ -20789,7 +20780,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
@@ -20808,7 +20799,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -20823,16 +20814,16 @@
       <c r="D44" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="64"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="59" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="2">
@@ -21019,10 +21010,10 @@
       <c r="D54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="63" t="s">
+      <c r="E54" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F54" s="64"/>
+      <c r="F54" s="68"/>
       <c r="G54" s="9" t="s">
         <v>9</v>
       </c>
@@ -21433,7 +21424,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="56" t="s">
         <v>190</v>
       </c>
       <c r="B76" s="2">
@@ -21451,12 +21442,12 @@
       <c r="F76" s="7">
         <v>6</v>
       </c>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="57" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="59"/>
+      <c r="A77" s="55"/>
       <c r="B77" s="2">
         <v>12699</v>
       </c>
@@ -21472,10 +21463,10 @@
       <c r="F77" s="7">
         <v>12</v>
       </c>
-      <c r="G77" s="52"/>
+      <c r="G77" s="53"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="59"/>
+      <c r="A78" s="55"/>
       <c r="B78" s="2">
         <v>12705</v>
       </c>
@@ -21491,10 +21482,10 @@
       <c r="F78" s="7">
         <v>15</v>
       </c>
-      <c r="G78" s="52"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="59"/>
+      <c r="A79" s="55"/>
       <c r="B79" s="2">
         <v>12713</v>
       </c>
@@ -21510,10 +21501,10 @@
       <c r="F79" s="7">
         <v>0</v>
       </c>
-      <c r="G79" s="52"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="59"/>
+      <c r="A80" s="55"/>
       <c r="B80" s="2">
         <v>12720</v>
       </c>
@@ -21529,10 +21520,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="52"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="59"/>
+      <c r="A81" s="55"/>
       <c r="B81" s="2">
         <v>12727</v>
       </c>
@@ -21548,10 +21539,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="52"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="59"/>
+      <c r="A82" s="55"/>
       <c r="B82" s="40">
         <v>12734</v>
       </c>
@@ -21567,10 +21558,10 @@
       <c r="F82" s="43">
         <v>0</v>
       </c>
-      <c r="G82" s="52"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="59"/>
+      <c r="A83" s="55"/>
       <c r="B83" s="2">
         <v>12741</v>
       </c>
@@ -21586,18 +21577,18 @@
       <c r="F83" s="7">
         <v>0</v>
       </c>
-      <c r="G83" s="52"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="59"/>
+      <c r="A84" s="55"/>
       <c r="B84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="52"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="59"/>
+      <c r="A85" s="55"/>
       <c r="B85" s="3"/>
       <c r="C85" s="20" t="s">
         <v>13</v>
@@ -21611,10 +21602,10 @@
       <c r="F85" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="52"/>
+      <c r="G85" s="53"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="59"/>
+      <c r="A86" s="55"/>
       <c r="B86" s="35"/>
       <c r="C86" s="39" t="s">
         <v>42</v>
@@ -21622,10 +21613,10 @@
       <c r="D86" s="36"/>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
-      <c r="G86" s="52"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="59"/>
+      <c r="A87" s="55"/>
       <c r="B87" s="35"/>
       <c r="C87" s="20" t="s">
         <v>43</v>
@@ -21641,7 +21632,7 @@
         <f>SUM(F76:F86)</f>
         <v>33</v>
       </c>
-      <c r="G87" s="53"/>
+      <c r="G87" s="54"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
@@ -21665,7 +21656,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="59" t="s">
+      <c r="A89" s="55" t="s">
         <v>191</v>
       </c>
       <c r="B89" s="2">
@@ -21688,7 +21679,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="59"/>
+      <c r="A90" s="55"/>
       <c r="B90" s="2">
         <v>13069</v>
       </c>
@@ -21707,7 +21698,7 @@
       <c r="G90" s="50"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="59"/>
+      <c r="A91" s="55"/>
       <c r="B91" s="2">
         <v>13077</v>
       </c>
@@ -21726,7 +21717,7 @@
       <c r="G91" s="50"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="59"/>
+      <c r="A92" s="55"/>
       <c r="B92" s="2">
         <v>13084</v>
       </c>
@@ -21745,7 +21736,7 @@
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="59"/>
+      <c r="A93" s="55"/>
       <c r="B93" s="2">
         <v>13091</v>
       </c>
@@ -21764,7 +21755,7 @@
       <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="59"/>
+      <c r="A94" s="55"/>
       <c r="B94" s="2">
         <v>13098</v>
       </c>
@@ -21783,7 +21774,7 @@
       <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="59"/>
+      <c r="A95" s="55"/>
       <c r="B95" s="2">
         <v>13105</v>
       </c>
@@ -21802,7 +21793,7 @@
       <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="59"/>
+      <c r="A96" s="55"/>
       <c r="B96" s="2">
         <v>13112</v>
       </c>
@@ -21821,7 +21812,7 @@
       <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="59"/>
+      <c r="A97" s="55"/>
       <c r="B97" s="3"/>
       <c r="C97" s="20" t="s">
         <v>44</v>
@@ -22809,10 +22800,10 @@
       <c r="D147" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E147" s="67" t="s">
+      <c r="E147" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F147" s="68"/>
+      <c r="F147" s="64"/>
       <c r="G147" s="9" t="s">
         <v>9</v>
       </c>
@@ -22836,7 +22827,7 @@
       <c r="F148" s="7">
         <v>12</v>
       </c>
-      <c r="G148" s="61" t="s">
+      <c r="G148" s="52" t="s">
         <v>267</v>
       </c>
     </row>
@@ -22857,7 +22848,7 @@
       <c r="F149" s="7">
         <v>0</v>
       </c>
-      <c r="G149" s="52"/>
+      <c r="G149" s="53"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="45"/>
@@ -22876,7 +22867,7 @@
       <c r="F150" s="7">
         <v>13</v>
       </c>
-      <c r="G150" s="52"/>
+      <c r="G150" s="53"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="45"/>
@@ -22895,7 +22886,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="52"/>
+      <c r="G151" s="53"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
@@ -22914,7 +22905,7 @@
       <c r="F152" s="7">
         <v>31</v>
       </c>
-      <c r="G152" s="52"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="45"/>
@@ -22933,7 +22924,7 @@
       <c r="F153" s="7">
         <v>13</v>
       </c>
-      <c r="G153" s="52"/>
+      <c r="G153" s="53"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="45"/>
@@ -22952,7 +22943,7 @@
       <c r="F154" s="7">
         <v>21</v>
       </c>
-      <c r="G154" s="52"/>
+      <c r="G154" s="53"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="45"/>
@@ -22971,7 +22962,7 @@
       <c r="F155" s="7">
         <v>38</v>
       </c>
-      <c r="G155" s="52"/>
+      <c r="G155" s="53"/>
     </row>
     <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46"/>
@@ -22990,7 +22981,7 @@
         <f>SUM(F148:F155)</f>
         <v>128</v>
       </c>
-      <c r="G156" s="53"/>
+      <c r="G156" s="54"/>
     </row>
     <row r="157" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
@@ -23005,10 +22996,10 @@
       <c r="D157" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E157" s="67" t="s">
+      <c r="E157" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F157" s="68"/>
+      <c r="F157" s="64"/>
       <c r="G157" s="9" t="s">
         <v>9</v>
       </c>
@@ -23032,7 +23023,7 @@
       <c r="F158" s="5">
         <v>7</v>
       </c>
-      <c r="G158" s="57" t="s">
+      <c r="G158" s="51" t="s">
         <v>269</v>
       </c>
     </row>
@@ -23195,10 +23186,10 @@
       <c r="D167" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E167" s="67" t="s">
+      <c r="E167" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F167" s="68"/>
+      <c r="F167" s="64"/>
       <c r="G167" s="9" t="s">
         <v>9</v>
       </c>
@@ -23222,7 +23213,7 @@
       <c r="F168" s="5">
         <v>12</v>
       </c>
-      <c r="G168" s="57" t="s">
+      <c r="G168" s="51" t="s">
         <v>271</v>
       </c>
     </row>
@@ -23391,10 +23382,10 @@
       <c r="D177" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E177" s="67" t="s">
+      <c r="E177" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F177" s="68"/>
+      <c r="F177" s="64"/>
       <c r="G177" s="9" t="s">
         <v>9</v>
       </c>
@@ -23587,10 +23578,10 @@
       <c r="D187" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E187" s="67" t="s">
+      <c r="E187" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F187" s="68"/>
+      <c r="F187" s="64"/>
       <c r="G187" s="9" t="s">
         <v>9</v>
       </c>
@@ -23614,7 +23605,7 @@
       <c r="F188" s="5">
         <v>26</v>
       </c>
-      <c r="G188" s="57" t="s">
+      <c r="G188" s="51" t="s">
         <v>274</v>
       </c>
     </row>
@@ -23783,16 +23774,16 @@
       <c r="D197" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E197" s="67" t="s">
+      <c r="E197" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F197" s="68"/>
+      <c r="F197" s="64"/>
       <c r="G197" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="47" t="s">
+      <c r="A198" s="59" t="s">
         <v>202</v>
       </c>
       <c r="B198" s="2">
@@ -23810,7 +23801,7 @@
       <c r="F198" s="5">
         <v>7</v>
       </c>
-      <c r="G198" s="60" t="s">
+      <c r="G198" s="58" t="s">
         <v>276</v>
       </c>
     </row>
@@ -23964,7 +23955,7 @@
       <c r="F206" s="5">
         <v>7</v>
       </c>
-      <c r="G206" s="51"/>
+      <c r="G206" s="57"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="48"/>
@@ -23973,7 +23964,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="8"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="51"/>
+      <c r="G207" s="57"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="48"/>
@@ -23982,7 +23973,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="8"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="51"/>
+      <c r="G208" s="57"/>
     </row>
     <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="49"/>
@@ -24001,7 +23992,7 @@
         <f>SUM(F198:F206)</f>
         <v>16</v>
       </c>
-      <c r="G209" s="51"/>
+      <c r="G209" s="57"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
@@ -24016,10 +24007,10 @@
       <c r="D210" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E210" s="67" t="s">
+      <c r="E210" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F210" s="68"/>
+      <c r="F210" s="64"/>
       <c r="G210" s="9" t="s">
         <v>9</v>
       </c>
@@ -24043,7 +24034,7 @@
       <c r="F211" s="7">
         <v>13</v>
       </c>
-      <c r="G211" s="57" t="s">
+      <c r="G211" s="51" t="s">
         <v>277</v>
       </c>
     </row>
@@ -24231,16 +24222,16 @@
       <c r="D221" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E221" s="67" t="s">
+      <c r="E221" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F221" s="68"/>
+      <c r="F221" s="64"/>
       <c r="G221" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="58" t="s">
+      <c r="A222" s="56" t="s">
         <v>204</v>
       </c>
       <c r="B222" s="2">
@@ -24263,7 +24254,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="59"/>
+      <c r="A223" s="55"/>
       <c r="B223" s="2">
         <v>17802</v>
       </c>
@@ -24282,7 +24273,7 @@
       <c r="G223" s="50"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="59"/>
+      <c r="A224" s="55"/>
       <c r="B224" s="4">
         <v>17809</v>
       </c>
@@ -24301,7 +24292,7 @@
       <c r="G224" s="50"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="59"/>
+      <c r="A225" s="55"/>
       <c r="B225" s="2">
         <v>17814</v>
       </c>
@@ -24320,7 +24311,7 @@
       <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="59"/>
+      <c r="A226" s="55"/>
       <c r="B226" s="2">
         <v>17822</v>
       </c>
@@ -24339,7 +24330,7 @@
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="59"/>
+      <c r="A227" s="55"/>
       <c r="B227" s="2">
         <v>17830</v>
       </c>
@@ -24358,7 +24349,7 @@
       <c r="G227" s="50"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="59"/>
+      <c r="A228" s="55"/>
       <c r="B228" s="2">
         <v>17844</v>
       </c>
@@ -24377,7 +24368,7 @@
       <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="59"/>
+      <c r="A229" s="55"/>
       <c r="B229" s="4">
         <v>17852</v>
       </c>
@@ -24396,7 +24387,7 @@
       <c r="G229" s="50"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="59"/>
+      <c r="A230" s="55"/>
       <c r="B230" s="4"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -24405,7 +24396,7 @@
       <c r="G230" s="50"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="59"/>
+      <c r="A231" s="55"/>
       <c r="B231" s="4"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -24414,7 +24405,7 @@
       <c r="G231" s="50"/>
     </row>
     <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="59"/>
+      <c r="A232" s="55"/>
       <c r="B232" s="3"/>
       <c r="C232" s="20" t="s">
         <v>139</v>
@@ -24445,10 +24436,10 @@
       <c r="D233" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E233" s="67" t="s">
+      <c r="E233" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F233" s="68"/>
+      <c r="F233" s="64"/>
       <c r="G233" s="9" t="s">
         <v>9</v>
       </c>
@@ -24626,7 +24617,7 @@
         <f>SUM(F234:F241)</f>
         <v>82</v>
       </c>
-      <c r="G242" s="51"/>
+      <c r="G242" s="57"/>
     </row>
     <row r="243" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
@@ -24641,10 +24632,10 @@
       <c r="D243" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E243" s="67" t="s">
+      <c r="E243" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F243" s="68"/>
+      <c r="F243" s="64"/>
       <c r="G243" s="9" t="s">
         <v>9</v>
       </c>
@@ -24668,7 +24659,7 @@
       <c r="F244" s="5">
         <v>31</v>
       </c>
-      <c r="G244" s="57" t="s">
+      <c r="G244" s="51" t="s">
         <v>280</v>
       </c>
     </row>
@@ -24837,10 +24828,10 @@
       <c r="D253" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E253" s="67" t="s">
+      <c r="E253" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F253" s="68"/>
+      <c r="F253" s="64"/>
       <c r="G253" s="9" t="s">
         <v>9</v>
       </c>
@@ -25033,10 +25024,10 @@
       <c r="D263" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E263" s="67" t="s">
+      <c r="E263" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F263" s="68"/>
+      <c r="F263" s="64"/>
       <c r="G263" s="9" t="s">
         <v>9</v>
       </c>
@@ -25225,10 +25216,10 @@
       <c r="D273" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E273" s="67" t="s">
+      <c r="E273" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F273" s="68"/>
+      <c r="F273" s="64"/>
       <c r="G273" s="9" t="s">
         <v>9</v>
       </c>
@@ -25402,10 +25393,10 @@
       <c r="D282" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E282" s="67" t="s">
+      <c r="E282" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F282" s="68"/>
+      <c r="F282" s="64"/>
       <c r="G282" s="9" t="s">
         <v>9</v>
       </c>
@@ -25429,7 +25420,7 @@
       <c r="F283" s="7">
         <v>19</v>
       </c>
-      <c r="G283" s="57" t="s">
+      <c r="G283" s="51" t="s">
         <v>287</v>
       </c>
     </row>
@@ -25598,10 +25589,10 @@
       <c r="D292" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E292" s="67" t="s">
+      <c r="E292" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F292" s="68"/>
+      <c r="F292" s="64"/>
       <c r="G292" s="9" t="s">
         <v>9</v>
       </c>
@@ -25794,10 +25785,10 @@
       <c r="D302" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E302" s="67" t="s">
+      <c r="E302" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F302" s="68"/>
+      <c r="F302" s="64"/>
       <c r="G302" s="9" t="s">
         <v>9</v>
       </c>
@@ -25821,7 +25812,7 @@
       <c r="F303" s="5">
         <v>12</v>
       </c>
-      <c r="G303" s="57" t="s">
+      <c r="G303" s="51" t="s">
         <v>290</v>
       </c>
     </row>
@@ -25990,10 +25981,10 @@
       <c r="D312" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E312" s="67" t="s">
+      <c r="E312" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F312" s="68"/>
+      <c r="F312" s="64"/>
       <c r="G312" s="9" t="s">
         <v>9</v>
       </c>
@@ -26197,10 +26188,10 @@
       <c r="D323" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E323" s="67" t="s">
+      <c r="E323" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F323" s="68"/>
+      <c r="F323" s="64"/>
       <c r="G323" s="9" t="s">
         <v>9</v>
       </c>
@@ -26393,10 +26384,10 @@
       <c r="D333" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E333" s="67" t="s">
+      <c r="E333" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F333" s="68"/>
+      <c r="F333" s="64"/>
       <c r="G333" s="9" t="s">
         <v>9</v>
       </c>
@@ -26589,10 +26580,10 @@
       <c r="D343" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E343" s="67" t="s">
+      <c r="E343" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F343" s="68"/>
+      <c r="F343" s="64"/>
       <c r="G343" s="9" t="s">
         <v>9</v>
       </c>
@@ -26785,10 +26776,10 @@
       <c r="D353" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E353" s="67" t="s">
+      <c r="E353" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F353" s="68"/>
+      <c r="F353" s="64"/>
       <c r="G353" s="9" t="s">
         <v>9</v>
       </c>
@@ -26981,10 +26972,10 @@
       <c r="D363" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E363" s="67" t="s">
+      <c r="E363" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F363" s="68"/>
+      <c r="F363" s="64"/>
       <c r="G363" s="9" t="s">
         <v>9</v>
       </c>
@@ -27158,10 +27149,10 @@
       <c r="D372" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E372" s="67" t="s">
+      <c r="E372" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F372" s="68"/>
+      <c r="F372" s="64"/>
       <c r="G372" s="9" t="s">
         <v>9</v>
       </c>
@@ -27335,10 +27326,10 @@
       <c r="D381" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E381" s="67" t="s">
+      <c r="E381" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F381" s="68"/>
+      <c r="F381" s="64"/>
       <c r="G381" s="9" t="s">
         <v>9</v>
       </c>
@@ -27512,10 +27503,10 @@
       <c r="D390" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E390" s="67" t="s">
+      <c r="E390" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F390" s="68"/>
+      <c r="F390" s="64"/>
       <c r="G390" s="9" t="s">
         <v>9</v>
       </c>
@@ -27689,10 +27680,10 @@
       <c r="D399" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E399" s="67" t="s">
+      <c r="E399" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F399" s="68"/>
+      <c r="F399" s="64"/>
       <c r="G399" s="9" t="s">
         <v>9</v>
       </c>
@@ -27866,10 +27857,10 @@
       <c r="D408" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E408" s="67" t="s">
+      <c r="E408" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F408" s="68"/>
+      <c r="F408" s="64"/>
       <c r="G408" s="9" t="s">
         <v>9</v>
       </c>
@@ -28062,10 +28053,10 @@
       <c r="D418" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E418" s="67" t="s">
+      <c r="E418" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F418" s="68"/>
+      <c r="F418" s="64"/>
       <c r="G418" s="9" t="s">
         <v>9</v>
       </c>
@@ -28260,10 +28251,10 @@
       <c r="D428" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E428" s="67" t="s">
+      <c r="E428" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F428" s="68"/>
+      <c r="F428" s="64"/>
       <c r="G428" s="9" t="s">
         <v>9</v>
       </c>
@@ -28474,10 +28465,10 @@
       <c r="D440" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E440" s="67" t="s">
+      <c r="E440" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F440" s="68"/>
+      <c r="F440" s="64"/>
       <c r="G440" s="9" t="s">
         <v>9</v>
       </c>
@@ -28670,10 +28661,10 @@
       <c r="D450" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E450" s="67" t="s">
+      <c r="E450" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F450" s="68"/>
+      <c r="F450" s="64"/>
       <c r="G450" s="9" t="s">
         <v>179</v>
       </c>
@@ -28866,10 +28857,10 @@
       <c r="D460" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E460" s="67" t="s">
+      <c r="E460" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F460" s="68"/>
+      <c r="F460" s="64"/>
       <c r="G460" s="9" t="s">
         <v>9</v>
       </c>
@@ -29062,10 +29053,10 @@
       <c r="D470" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E470" s="67" t="s">
+      <c r="E470" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F470" s="68"/>
+      <c r="F470" s="64"/>
       <c r="G470" s="9" t="s">
         <v>9</v>
       </c>
@@ -29089,7 +29080,7 @@
       <c r="F471" s="5">
         <v>19</v>
       </c>
-      <c r="G471" s="57" t="s">
+      <c r="G471" s="51" t="s">
         <v>314</v>
       </c>
     </row>
@@ -29258,10 +29249,10 @@
       <c r="D480" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E480" s="67" t="s">
+      <c r="E480" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F480" s="68"/>
+      <c r="F480" s="64"/>
       <c r="G480" s="9" t="s">
         <v>9</v>
       </c>
@@ -29454,10 +29445,10 @@
       <c r="D490" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E490" s="67" t="s">
+      <c r="E490" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F490" s="68"/>
+      <c r="F490" s="64"/>
       <c r="G490" s="9" t="s">
         <v>9</v>
       </c>
@@ -29650,16 +29641,16 @@
       <c r="D500" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E500" s="67" t="s">
+      <c r="E500" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F500" s="68"/>
+      <c r="F500" s="64"/>
       <c r="G500" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="62" t="s">
+      <c r="A501" s="47" t="s">
         <v>232</v>
       </c>
       <c r="B501" s="2">
@@ -29901,10 +29892,10 @@
       <c r="D515" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E515" s="67" t="s">
+      <c r="E515" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F515" s="68"/>
+      <c r="F515" s="64"/>
       <c r="G515" s="9" t="s">
         <v>9</v>
       </c>
@@ -30116,10 +30107,10 @@
       <c r="D526" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E526" s="67" t="s">
+      <c r="E526" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F526" s="68"/>
+      <c r="F526" s="64"/>
       <c r="G526" s="9" t="s">
         <v>9</v>
       </c>
@@ -30312,10 +30303,10 @@
       <c r="D536" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E536" s="67" t="s">
+      <c r="E536" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F536" s="68"/>
+      <c r="F536" s="64"/>
       <c r="G536" s="9" t="s">
         <v>9</v>
       </c>
@@ -30527,10 +30518,10 @@
       <c r="D547" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E547" s="67" t="s">
+      <c r="E547" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F547" s="68"/>
+      <c r="F547" s="64"/>
       <c r="G547" s="9" t="s">
         <v>9</v>
       </c>
@@ -30742,10 +30733,10 @@
       <c r="D558" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E558" s="67" t="s">
+      <c r="E558" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F558" s="68"/>
+      <c r="F558" s="64"/>
       <c r="G558" s="9" t="s">
         <v>9</v>
       </c>
@@ -30957,10 +30948,10 @@
       <c r="D569" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E569" s="67" t="s">
+      <c r="E569" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F569" s="68"/>
+      <c r="F569" s="64"/>
       <c r="G569" s="9" t="s">
         <v>9</v>
       </c>
@@ -31153,10 +31144,10 @@
       <c r="D579" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E579" s="67" t="s">
+      <c r="E579" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F579" s="68"/>
+      <c r="F579" s="64"/>
       <c r="G579" s="9" t="s">
         <v>9</v>
       </c>
@@ -31349,10 +31340,10 @@
       <c r="D589" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E589" s="67" t="s">
+      <c r="E589" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F589" s="68"/>
+      <c r="F589" s="64"/>
       <c r="G589" s="9" t="s">
         <v>9</v>
       </c>
@@ -33042,6 +33033,168 @@
     <row r="2036" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="G45:G53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="G89:G97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="G99:G107"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="G76:G87"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="G129:G137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="G139:G146"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="G119:G127"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="G168:G176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="G178:G186"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="G148:G156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="G158:G166"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="A211:A220"/>
+    <mergeCell ref="G211:G220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="G222:G232"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="G188:G196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="G198:G209"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="G254:G262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="A264:A272"/>
+    <mergeCell ref="G264:G272"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="A234:A242"/>
+    <mergeCell ref="G234:G242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="G244:G252"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="A293:A301"/>
+    <mergeCell ref="G293:G301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="A303:A311"/>
+    <mergeCell ref="G303:G311"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="A274:A281"/>
+    <mergeCell ref="G274:G281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="A283:A291"/>
+    <mergeCell ref="G283:G291"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="A334:A342"/>
+    <mergeCell ref="G334:G342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="A344:A352"/>
+    <mergeCell ref="G344:G352"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="A313:A322"/>
+    <mergeCell ref="G313:G322"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="A324:A332"/>
+    <mergeCell ref="G324:G332"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="A373:A380"/>
+    <mergeCell ref="G373:G380"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="A382:A389"/>
+    <mergeCell ref="G382:G389"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="A354:A362"/>
+    <mergeCell ref="G354:G362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="A364:A371"/>
+    <mergeCell ref="G364:G371"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="A409:A417"/>
+    <mergeCell ref="G409:G417"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="A419:A427"/>
+    <mergeCell ref="G419:G427"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="A391:A398"/>
+    <mergeCell ref="G391:G398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="A400:A407"/>
+    <mergeCell ref="G400:G407"/>
+    <mergeCell ref="E450:F450"/>
+    <mergeCell ref="A451:A459"/>
+    <mergeCell ref="G451:G459"/>
+    <mergeCell ref="E460:F460"/>
+    <mergeCell ref="A461:A469"/>
+    <mergeCell ref="G461:G469"/>
+    <mergeCell ref="E428:F428"/>
+    <mergeCell ref="A429:A439"/>
+    <mergeCell ref="G429:G439"/>
+    <mergeCell ref="E440:F440"/>
+    <mergeCell ref="A441:A449"/>
+    <mergeCell ref="G441:G449"/>
+    <mergeCell ref="E490:F490"/>
+    <mergeCell ref="A491:A499"/>
+    <mergeCell ref="G491:G499"/>
+    <mergeCell ref="E500:F500"/>
+    <mergeCell ref="A501:A514"/>
+    <mergeCell ref="G501:G514"/>
+    <mergeCell ref="E470:F470"/>
+    <mergeCell ref="A471:A479"/>
+    <mergeCell ref="G471:G479"/>
+    <mergeCell ref="E480:F480"/>
+    <mergeCell ref="A481:A489"/>
+    <mergeCell ref="G481:G489"/>
+    <mergeCell ref="E536:F536"/>
+    <mergeCell ref="A537:A546"/>
+    <mergeCell ref="G537:G546"/>
+    <mergeCell ref="E547:F547"/>
+    <mergeCell ref="A548:A557"/>
+    <mergeCell ref="G548:G557"/>
+    <mergeCell ref="E515:F515"/>
+    <mergeCell ref="A516:A525"/>
+    <mergeCell ref="G516:G525"/>
+    <mergeCell ref="E526:F526"/>
+    <mergeCell ref="A527:A535"/>
+    <mergeCell ref="G527:G535"/>
     <mergeCell ref="E579:F579"/>
     <mergeCell ref="A580:A588"/>
     <mergeCell ref="G580:G588"/>
@@ -33054,168 +33207,6 @@
     <mergeCell ref="E569:F569"/>
     <mergeCell ref="A570:A578"/>
     <mergeCell ref="G570:G578"/>
-    <mergeCell ref="E536:F536"/>
-    <mergeCell ref="A537:A546"/>
-    <mergeCell ref="G537:G546"/>
-    <mergeCell ref="E547:F547"/>
-    <mergeCell ref="A548:A557"/>
-    <mergeCell ref="G548:G557"/>
-    <mergeCell ref="E515:F515"/>
-    <mergeCell ref="A516:A525"/>
-    <mergeCell ref="G516:G525"/>
-    <mergeCell ref="E526:F526"/>
-    <mergeCell ref="A527:A535"/>
-    <mergeCell ref="G527:G535"/>
-    <mergeCell ref="E490:F490"/>
-    <mergeCell ref="A491:A499"/>
-    <mergeCell ref="G491:G499"/>
-    <mergeCell ref="E500:F500"/>
-    <mergeCell ref="A501:A514"/>
-    <mergeCell ref="G501:G514"/>
-    <mergeCell ref="E470:F470"/>
-    <mergeCell ref="A471:A479"/>
-    <mergeCell ref="G471:G479"/>
-    <mergeCell ref="E480:F480"/>
-    <mergeCell ref="A481:A489"/>
-    <mergeCell ref="G481:G489"/>
-    <mergeCell ref="E450:F450"/>
-    <mergeCell ref="A451:A459"/>
-    <mergeCell ref="G451:G459"/>
-    <mergeCell ref="E460:F460"/>
-    <mergeCell ref="A461:A469"/>
-    <mergeCell ref="G461:G469"/>
-    <mergeCell ref="E428:F428"/>
-    <mergeCell ref="A429:A439"/>
-    <mergeCell ref="G429:G439"/>
-    <mergeCell ref="E440:F440"/>
-    <mergeCell ref="A441:A449"/>
-    <mergeCell ref="G441:G449"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="A409:A417"/>
-    <mergeCell ref="G409:G417"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="A419:A427"/>
-    <mergeCell ref="G419:G427"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="A391:A398"/>
-    <mergeCell ref="G391:G398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="A400:A407"/>
-    <mergeCell ref="G400:G407"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="A373:A380"/>
-    <mergeCell ref="G373:G380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="A382:A389"/>
-    <mergeCell ref="G382:G389"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="A354:A362"/>
-    <mergeCell ref="G354:G362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="A364:A371"/>
-    <mergeCell ref="G364:G371"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="A334:A342"/>
-    <mergeCell ref="G334:G342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="A344:A352"/>
-    <mergeCell ref="G344:G352"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="A313:A322"/>
-    <mergeCell ref="G313:G322"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="A324:A332"/>
-    <mergeCell ref="G324:G332"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="A293:A301"/>
-    <mergeCell ref="G293:G301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="A303:A311"/>
-    <mergeCell ref="G303:G311"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="A274:A281"/>
-    <mergeCell ref="G274:G281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="A283:A291"/>
-    <mergeCell ref="G283:G291"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="G254:G262"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="A264:A272"/>
-    <mergeCell ref="G264:G272"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="A234:A242"/>
-    <mergeCell ref="G234:G242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="G244:G252"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="A211:A220"/>
-    <mergeCell ref="G211:G220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="G222:G232"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="G188:G196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="A198:A209"/>
-    <mergeCell ref="G198:G209"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="G168:G176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="A178:A186"/>
-    <mergeCell ref="G178:G186"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="G148:G156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="G158:G166"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="G129:G137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="G139:G146"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="G89:G97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="G99:G107"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="G65:G74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="G76:G87"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="G45:G53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{27C891E4-8C40-43BB-A88A-3796DCB1CA81}"/>

--- a/Seasons/Football History.xlsx
+++ b/Seasons/Football History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugs&amp;Fred\Documents\Fred\ROSM\Website\public_html\Seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{50134A08-FCDB-4D13-AF28-AADBC961BF05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD695F4-B645-42B2-BC42-432C39DCAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7F2BF-BA1F-4802-BC8C-4DC7AFA8B3A8}"/>
   </bookViews>
@@ -3330,72 +3330,6 @@
     </r>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ken Wright was the head coach.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Despite having only four seniors Coach Wright led St. Mary's to their best record since 1962. A suffocating defense allows 100 fewer points than the previous year and records five shutout victories. </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>This was one of the best Irish defenses of all-time.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> They had an opportunity to win the league but lose to a power Our Lady of the Lakes team. St. Mary's finishes again in second place with a 6-1-1 record.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ron Stachel </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>was named to the Detroit News Class D All-State Team.</t>
-    </r>
-  </si>
-  <si>
     <t>Detroit Catholic Central</t>
   </si>
   <si>
@@ -3445,6 +3379,72 @@
       </rPr>
       <t xml:space="preserve">
 Continuing on the success from the 1930 team, the stingy St. Mary's defense surrendered only 16 points all season while recording 6 shutouts. The undefeated St. Mary's team was crowned Co-Champions of the Catholic League Third Division along with Highland Park St. Benedict. They played two scoreless ties with St. Benedict in the 1931 season. The offense came alive with big victories over St. Paul and St. Cecelia, scoring a total of 140 points during the season. In addition, St. Mary's defeated Detroit Catholic Central in a non-league game - the only time they played CC in football.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ken Wright was the head coach.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Despite having only four seniors Coach Wright led St. Mary's to their best record since 1962. A suffocating defense allows 100 fewer points than the previous year and records five shutout victories. </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>This was one of the best Irish defenses of all-time.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> They had an opportunity to win the league but lose to a powerful Our Lady of the Lakes team. St. Mary's finishes again in second place with a 6-1-1 record.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ron Stachel </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was named to the Detroit News Class D All-State Team.</t>
     </r>
   </si>
 </sst>
@@ -3916,7 +3916,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3927,10 +3927,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3938,21 +3935,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3963,11 +3945,29 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3975,11 +3975,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6628,8 +6628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2FFFC7-E182-47AD-9B1B-521106FC03D6}">
   <dimension ref="A1:G2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G45" sqref="G45:G54"/>
+    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G483" sqref="G483:G491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6666,7 +6666,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="54" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="2">
@@ -6684,12 +6684,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="51" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -6705,10 +6705,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -6724,10 +6724,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -6743,37 +6743,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
@@ -6789,7 +6789,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -6815,7 +6815,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="54" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="2">
@@ -6833,12 +6833,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="51" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -6854,10 +6854,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -6873,10 +6873,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -6892,10 +6892,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -6911,10 +6911,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -6930,10 +6930,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -6949,10 +6949,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -6968,10 +6968,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>46</v>
@@ -6987,7 +6987,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -7013,7 +7013,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="55" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="2">
@@ -7031,12 +7031,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="51" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -7052,10 +7052,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -7071,10 +7071,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -7090,10 +7090,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -7109,10 +7109,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -7128,10 +7128,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -7147,10 +7147,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -7166,10 +7166,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -7185,10 +7185,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -7204,10 +7204,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -7223,10 +7223,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>47</v>
@@ -7242,7 +7242,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="54"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -7286,7 +7286,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="51" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7307,7 +7307,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -7326,7 +7326,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="52"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -7345,7 +7345,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="53"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
@@ -7364,7 +7364,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="52"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -7383,7 +7383,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
@@ -7402,7 +7402,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="53"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
@@ -7421,7 +7421,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="53"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
@@ -7440,7 +7440,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="53"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
@@ -7459,7 +7459,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="54"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -7485,7 +7485,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="2">
@@ -7504,7 +7504,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -7551,7 +7551,7 @@
         <v>11619</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
@@ -7666,7 +7666,7 @@
         <v>49</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="E54" s="22">
         <f>SUM(E45:E53)</f>
@@ -8111,7 +8111,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="55" t="s">
+      <c r="A77" s="58" t="s">
         <v>190</v>
       </c>
       <c r="B77" s="2">
@@ -8129,12 +8129,12 @@
       <c r="F77" s="7">
         <v>6</v>
       </c>
-      <c r="G77" s="57" t="s">
+      <c r="G77" s="51" t="s">
         <v>399</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="2">
         <v>12699</v>
       </c>
@@ -8150,10 +8150,10 @@
       <c r="F78" s="7">
         <v>12</v>
       </c>
-      <c r="G78" s="53"/>
+      <c r="G78" s="52"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="2">
         <v>12705</v>
       </c>
@@ -8169,10 +8169,10 @@
       <c r="F79" s="7">
         <v>15</v>
       </c>
-      <c r="G79" s="53"/>
+      <c r="G79" s="52"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="2">
         <v>12713</v>
       </c>
@@ -8188,10 +8188,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="53"/>
+      <c r="G80" s="52"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="2">
         <v>12720</v>
       </c>
@@ -8207,10 +8207,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="53"/>
+      <c r="G81" s="52"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="2">
         <v>12727</v>
       </c>
@@ -8226,10 +8226,10 @@
       <c r="F82" s="7">
         <v>0</v>
       </c>
-      <c r="G82" s="53"/>
+      <c r="G82" s="52"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="40">
         <v>12734</v>
       </c>
@@ -8245,10 +8245,10 @@
       <c r="F83" s="43">
         <v>0</v>
       </c>
-      <c r="G83" s="53"/>
+      <c r="G83" s="52"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="2">
         <v>12741</v>
       </c>
@@ -8264,35 +8264,35 @@
       <c r="F84" s="7">
         <v>0</v>
       </c>
-      <c r="G84" s="53"/>
+      <c r="G84" s="52"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="53"/>
+      <c r="G85" s="52"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="53"/>
+      <c r="G86" s="52"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="56"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="3"/>
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="22"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="53"/>
+      <c r="G87" s="52"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="56"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="35"/>
       <c r="C88" s="39" t="s">
         <v>339</v>
@@ -8300,10 +8300,10 @@
       <c r="D88" s="36"/>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
-      <c r="G88" s="53"/>
+      <c r="G88" s="52"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="56"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="35"/>
       <c r="C89" s="20" t="s">
         <v>43</v>
@@ -8319,7 +8319,7 @@
         <f>SUM(F77:F88)</f>
         <v>33</v>
       </c>
-      <c r="G89" s="54"/>
+      <c r="G89" s="53"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
@@ -8345,7 +8345,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="56" t="s">
+      <c r="A91" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B91" s="2">
@@ -8368,7 +8368,7 @@
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="2">
         <v>13069</v>
       </c>
@@ -8387,7 +8387,7 @@
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="2">
         <v>13077</v>
       </c>
@@ -8406,7 +8406,7 @@
       <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="2">
         <v>13084</v>
       </c>
@@ -8425,7 +8425,7 @@
       <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="2">
         <v>13091</v>
       </c>
@@ -8444,7 +8444,7 @@
       <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="2">
         <v>13098</v>
       </c>
@@ -8463,7 +8463,7 @@
       <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="56"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="2">
         <v>13105</v>
       </c>
@@ -8482,7 +8482,7 @@
       <c r="G97" s="50"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="56"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="2">
         <v>13112</v>
       </c>
@@ -8501,7 +8501,7 @@
       <c r="G98" s="50"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="56"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="3"/>
       <c r="C99" s="20" t="s">
         <v>44</v>
@@ -9526,7 +9526,7 @@
       <c r="F150" s="7">
         <v>12</v>
       </c>
-      <c r="G150" s="52" t="s">
+      <c r="G150" s="61" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9547,7 +9547,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="53"/>
+      <c r="G151" s="52"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
@@ -9566,7 +9566,7 @@
       <c r="F152" s="7">
         <v>13</v>
       </c>
-      <c r="G152" s="53"/>
+      <c r="G152" s="52"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="45"/>
@@ -9585,7 +9585,7 @@
       <c r="F153" s="7">
         <v>0</v>
       </c>
-      <c r="G153" s="53"/>
+      <c r="G153" s="52"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="45"/>
@@ -9604,7 +9604,7 @@
       <c r="F154" s="7">
         <v>31</v>
       </c>
-      <c r="G154" s="53"/>
+      <c r="G154" s="52"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="45"/>
@@ -9623,7 +9623,7 @@
       <c r="F155" s="7">
         <v>13</v>
       </c>
-      <c r="G155" s="53"/>
+      <c r="G155" s="52"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="45"/>
@@ -9642,7 +9642,7 @@
       <c r="F156" s="7">
         <v>21</v>
       </c>
-      <c r="G156" s="53"/>
+      <c r="G156" s="52"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="45"/>
@@ -9661,7 +9661,7 @@
       <c r="F157" s="7">
         <v>38</v>
       </c>
-      <c r="G157" s="53"/>
+      <c r="G157" s="52"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="46"/>
@@ -9680,7 +9680,7 @@
         <f>SUM(F150:F157)</f>
         <v>128</v>
       </c>
-      <c r="G158" s="54"/>
+      <c r="G158" s="53"/>
     </row>
     <row r="159" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
@@ -9724,7 +9724,7 @@
       <c r="F160" s="5">
         <v>7</v>
       </c>
-      <c r="G160" s="51" t="s">
+      <c r="G160" s="60" t="s">
         <v>347</v>
       </c>
     </row>
@@ -9916,7 +9916,7 @@
       <c r="F170" s="5">
         <v>12</v>
       </c>
-      <c r="G170" s="51" t="s">
+      <c r="G170" s="60" t="s">
         <v>390</v>
       </c>
     </row>
@@ -10312,7 +10312,7 @@
       <c r="F190" s="5">
         <v>26</v>
       </c>
-      <c r="G190" s="51" t="s">
+      <c r="G190" s="60" t="s">
         <v>349</v>
       </c>
     </row>
@@ -10492,7 +10492,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="59" t="s">
+      <c r="A200" s="47" t="s">
         <v>202</v>
       </c>
       <c r="B200" s="2">
@@ -10510,7 +10510,7 @@
       <c r="F200" s="5">
         <v>7</v>
       </c>
-      <c r="G200" s="58" t="s">
+      <c r="G200" s="59" t="s">
         <v>396</v>
       </c>
     </row>
@@ -10664,7 +10664,7 @@
       <c r="F208" s="5">
         <v>7</v>
       </c>
-      <c r="G208" s="57"/>
+      <c r="G208" s="51"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="48"/>
@@ -10673,7 +10673,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="8"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="57"/>
+      <c r="G209" s="51"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="48"/>
@@ -10682,7 +10682,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="8"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="57"/>
+      <c r="G210" s="51"/>
     </row>
     <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="49"/>
@@ -10701,7 +10701,7 @@
         <f>SUM(F200:F208)</f>
         <v>16</v>
       </c>
-      <c r="G211" s="57"/>
+      <c r="G211" s="51"/>
     </row>
     <row r="212" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
@@ -10745,7 +10745,7 @@
       <c r="F213" s="7">
         <v>13</v>
       </c>
-      <c r="G213" s="51" t="s">
+      <c r="G213" s="60" t="s">
         <v>351</v>
       </c>
     </row>
@@ -10944,7 +10944,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="55" t="s">
+      <c r="A224" s="58" t="s">
         <v>204</v>
       </c>
       <c r="B224" s="2">
@@ -10967,7 +10967,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="56"/>
+      <c r="A225" s="57"/>
       <c r="B225" s="2">
         <v>17802</v>
       </c>
@@ -10986,7 +10986,7 @@
       <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="56"/>
+      <c r="A226" s="57"/>
       <c r="B226" s="4">
         <v>17809</v>
       </c>
@@ -11005,7 +11005,7 @@
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="56"/>
+      <c r="A227" s="57"/>
       <c r="B227" s="2">
         <v>17814</v>
       </c>
@@ -11024,7 +11024,7 @@
       <c r="G227" s="50"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="56"/>
+      <c r="A228" s="57"/>
       <c r="B228" s="2">
         <v>17822</v>
       </c>
@@ -11043,7 +11043,7 @@
       <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="56"/>
+      <c r="A229" s="57"/>
       <c r="B229" s="2">
         <v>17830</v>
       </c>
@@ -11062,7 +11062,7 @@
       <c r="G229" s="50"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="56"/>
+      <c r="A230" s="57"/>
       <c r="B230" s="2">
         <v>17844</v>
       </c>
@@ -11081,7 +11081,7 @@
       <c r="G230" s="50"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="56"/>
+      <c r="A231" s="57"/>
       <c r="B231" s="4">
         <v>17852</v>
       </c>
@@ -11100,7 +11100,7 @@
       <c r="G231" s="50"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="56"/>
+      <c r="A232" s="57"/>
       <c r="B232" s="4"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -11109,7 +11109,7 @@
       <c r="G232" s="50"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="56"/>
+      <c r="A233" s="57"/>
       <c r="B233" s="4"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -11118,7 +11118,7 @@
       <c r="G233" s="50"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="56"/>
+      <c r="A234" s="57"/>
       <c r="B234" s="3"/>
       <c r="C234" s="20" t="s">
         <v>139</v>
@@ -11332,7 +11332,7 @@
         <f>SUM(F236:F243)</f>
         <v>82</v>
       </c>
-      <c r="G244" s="57"/>
+      <c r="G244" s="51"/>
     </row>
     <row r="245" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
@@ -11376,7 +11376,7 @@
       <c r="F246" s="5">
         <v>31</v>
       </c>
-      <c r="G246" s="51" t="s">
+      <c r="G246" s="60" t="s">
         <v>356</v>
       </c>
     </row>
@@ -12145,7 +12145,7 @@
       <c r="F285" s="7">
         <v>19</v>
       </c>
-      <c r="G285" s="51" t="s">
+      <c r="G285" s="60" t="s">
         <v>361</v>
       </c>
     </row>
@@ -12541,7 +12541,7 @@
       <c r="F305" s="5">
         <v>12</v>
       </c>
-      <c r="G305" s="51" t="s">
+      <c r="G305" s="60" t="s">
         <v>363</v>
       </c>
     </row>
@@ -15841,7 +15841,7 @@
       <c r="F473" s="5">
         <v>19</v>
       </c>
-      <c r="G473" s="51" t="s">
+      <c r="G473" s="60" t="s">
         <v>380</v>
       </c>
     </row>
@@ -16040,7 +16040,7 @@
         <v>6</v>
       </c>
       <c r="G483" s="50" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -16417,7 +16417,7 @@
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="47" t="s">
+      <c r="A503" s="62" t="s">
         <v>232</v>
       </c>
       <c r="B503" s="2">
@@ -19801,83 +19801,21 @@
     <row r="2039" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="G45:G54"/>
-    <mergeCell ref="G77:G89"/>
-    <mergeCell ref="G91:G99"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="G66:G75"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A77:A89"/>
-    <mergeCell ref="G224:G234"/>
-    <mergeCell ref="G236:G244"/>
-    <mergeCell ref="G200:G211"/>
-    <mergeCell ref="G213:G222"/>
-    <mergeCell ref="G180:G188"/>
-    <mergeCell ref="A180:A188"/>
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="G101:G109"/>
-    <mergeCell ref="G121:G129"/>
-    <mergeCell ref="G141:G148"/>
-    <mergeCell ref="G131:G139"/>
-    <mergeCell ref="A236:A244"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="G160:G168"/>
-    <mergeCell ref="G190:G198"/>
-    <mergeCell ref="G170:G178"/>
-    <mergeCell ref="A190:A198"/>
-    <mergeCell ref="A200:A211"/>
-    <mergeCell ref="A213:A222"/>
-    <mergeCell ref="G305:G313"/>
-    <mergeCell ref="G266:G274"/>
-    <mergeCell ref="G276:G283"/>
-    <mergeCell ref="G285:G293"/>
-    <mergeCell ref="A266:A274"/>
-    <mergeCell ref="G111:G119"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="G150:G158"/>
-    <mergeCell ref="G246:G254"/>
-    <mergeCell ref="A246:A254"/>
-    <mergeCell ref="A276:A283"/>
-    <mergeCell ref="A131:A139"/>
-    <mergeCell ref="G256:G264"/>
-    <mergeCell ref="A256:A264"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="G295:G303"/>
-    <mergeCell ref="A295:A303"/>
-    <mergeCell ref="A285:A293"/>
-    <mergeCell ref="A224:A234"/>
-    <mergeCell ref="A160:A168"/>
-    <mergeCell ref="G346:G354"/>
-    <mergeCell ref="G356:G364"/>
-    <mergeCell ref="G315:G324"/>
-    <mergeCell ref="G326:G334"/>
-    <mergeCell ref="G336:G344"/>
-    <mergeCell ref="G573:G581"/>
-    <mergeCell ref="G583:G591"/>
-    <mergeCell ref="G593:G600"/>
-    <mergeCell ref="G551:G560"/>
-    <mergeCell ref="G562:G571"/>
-    <mergeCell ref="G384:G391"/>
-    <mergeCell ref="G519:G528"/>
-    <mergeCell ref="G530:G538"/>
-    <mergeCell ref="G540:G549"/>
-    <mergeCell ref="G493:G501"/>
-    <mergeCell ref="G503:G517"/>
-    <mergeCell ref="G411:G419"/>
-    <mergeCell ref="G421:G429"/>
+    <mergeCell ref="A530:A538"/>
+    <mergeCell ref="A540:A549"/>
+    <mergeCell ref="A551:A560"/>
+    <mergeCell ref="A562:A571"/>
+    <mergeCell ref="A573:A581"/>
+    <mergeCell ref="A583:A591"/>
+    <mergeCell ref="A593:A600"/>
+    <mergeCell ref="A493:A501"/>
+    <mergeCell ref="A443:A451"/>
+    <mergeCell ref="A453:A461"/>
+    <mergeCell ref="A463:A471"/>
+    <mergeCell ref="A473:A481"/>
+    <mergeCell ref="A483:A491"/>
+    <mergeCell ref="A503:A517"/>
+    <mergeCell ref="A519:A528"/>
     <mergeCell ref="A336:A344"/>
     <mergeCell ref="A326:A334"/>
     <mergeCell ref="A305:A313"/>
@@ -19902,21 +19840,83 @@
     <mergeCell ref="A402:A409"/>
     <mergeCell ref="A411:A419"/>
     <mergeCell ref="A421:A429"/>
-    <mergeCell ref="A530:A538"/>
-    <mergeCell ref="A540:A549"/>
-    <mergeCell ref="A551:A560"/>
-    <mergeCell ref="A562:A571"/>
-    <mergeCell ref="A573:A581"/>
-    <mergeCell ref="A583:A591"/>
-    <mergeCell ref="A593:A600"/>
-    <mergeCell ref="A493:A501"/>
-    <mergeCell ref="A443:A451"/>
-    <mergeCell ref="A453:A461"/>
-    <mergeCell ref="A463:A471"/>
-    <mergeCell ref="A473:A481"/>
-    <mergeCell ref="A483:A491"/>
-    <mergeCell ref="A503:A517"/>
-    <mergeCell ref="A519:A528"/>
+    <mergeCell ref="G346:G354"/>
+    <mergeCell ref="G356:G364"/>
+    <mergeCell ref="G315:G324"/>
+    <mergeCell ref="G326:G334"/>
+    <mergeCell ref="G336:G344"/>
+    <mergeCell ref="G573:G581"/>
+    <mergeCell ref="G583:G591"/>
+    <mergeCell ref="G593:G600"/>
+    <mergeCell ref="G551:G560"/>
+    <mergeCell ref="G562:G571"/>
+    <mergeCell ref="G384:G391"/>
+    <mergeCell ref="G519:G528"/>
+    <mergeCell ref="G530:G538"/>
+    <mergeCell ref="G540:G549"/>
+    <mergeCell ref="G493:G501"/>
+    <mergeCell ref="G503:G517"/>
+    <mergeCell ref="G411:G419"/>
+    <mergeCell ref="G421:G429"/>
+    <mergeCell ref="G305:G313"/>
+    <mergeCell ref="G266:G274"/>
+    <mergeCell ref="G276:G283"/>
+    <mergeCell ref="G285:G293"/>
+    <mergeCell ref="A266:A274"/>
+    <mergeCell ref="G111:G119"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="G150:G158"/>
+    <mergeCell ref="G246:G254"/>
+    <mergeCell ref="A246:A254"/>
+    <mergeCell ref="A276:A283"/>
+    <mergeCell ref="A131:A139"/>
+    <mergeCell ref="G256:G264"/>
+    <mergeCell ref="A256:A264"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="G295:G303"/>
+    <mergeCell ref="A295:A303"/>
+    <mergeCell ref="A285:A293"/>
+    <mergeCell ref="A224:A234"/>
+    <mergeCell ref="A160:A168"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="G224:G234"/>
+    <mergeCell ref="G236:G244"/>
+    <mergeCell ref="G200:G211"/>
+    <mergeCell ref="G213:G222"/>
+    <mergeCell ref="G180:G188"/>
+    <mergeCell ref="A180:A188"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="G101:G109"/>
+    <mergeCell ref="G121:G129"/>
+    <mergeCell ref="G141:G148"/>
+    <mergeCell ref="G131:G139"/>
+    <mergeCell ref="A236:A244"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="G160:G168"/>
+    <mergeCell ref="G190:G198"/>
+    <mergeCell ref="G170:G178"/>
+    <mergeCell ref="A190:A198"/>
+    <mergeCell ref="A200:A211"/>
+    <mergeCell ref="A213:A222"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="G77:G89"/>
+    <mergeCell ref="G91:G99"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="G66:G75"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{19CFF195-F347-4DC1-882D-E27AE52E410C}"/>
@@ -20023,16 +20023,16 @@
       <c r="D1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="67" t="s">
+      <c r="E1" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="68"/>
+      <c r="F1" s="64"/>
       <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="60" t="s">
+      <c r="A2" s="54" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="2">
@@ -20050,12 +20050,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="57" t="s">
+      <c r="G2" s="51" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="60"/>
+      <c r="A3" s="54"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -20071,10 +20071,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="52"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="60"/>
+      <c r="A4" s="54"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -20090,10 +20090,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="52"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="60"/>
+      <c r="A5" s="54"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -20109,37 +20109,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="52"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="60"/>
+      <c r="A6" s="54"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="52"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="60"/>
+      <c r="A7" s="54"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="52"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="60"/>
+      <c r="A8" s="54"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="52"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="60"/>
+      <c r="A9" s="54"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
@@ -20155,7 +20155,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="53"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -20170,16 +20170,16 @@
       <c r="D10" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="67" t="s">
+      <c r="E10" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="68"/>
+      <c r="F10" s="64"/>
       <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="60" t="s">
+      <c r="A11" s="54" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="2">
@@ -20197,12 +20197,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="57" t="s">
+      <c r="G11" s="51" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="60"/>
+      <c r="A12" s="54"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -20218,10 +20218,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="52"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="60"/>
+      <c r="A13" s="54"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -20237,10 +20237,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="52"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="60"/>
+      <c r="A14" s="54"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -20256,10 +20256,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="52"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="60"/>
+      <c r="A15" s="54"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -20275,10 +20275,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="52"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="60"/>
+      <c r="A16" s="54"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -20294,10 +20294,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="52"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="60"/>
+      <c r="A17" s="54"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -20313,10 +20313,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="52"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="60"/>
+      <c r="A18" s="54"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -20332,10 +20332,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="52"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="60"/>
+      <c r="A19" s="54"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>46</v>
@@ -20351,7 +20351,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="53"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -20366,16 +20366,16 @@
       <c r="D20" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="67" t="s">
+      <c r="E20" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="68"/>
+      <c r="F20" s="64"/>
       <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="61" t="s">
+      <c r="A21" s="55" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="2">
@@ -20393,12 +20393,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="G21" s="51" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="61"/>
+      <c r="A22" s="55"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -20414,10 +20414,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="52"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="61"/>
+      <c r="A23" s="55"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -20433,10 +20433,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
+      <c r="G23" s="52"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="61"/>
+      <c r="A24" s="55"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -20452,10 +20452,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="52"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="61"/>
+      <c r="A25" s="55"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -20471,10 +20471,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="52"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="61"/>
+      <c r="A26" s="55"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -20490,10 +20490,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="52"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="61"/>
+      <c r="A27" s="55"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -20509,10 +20509,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="52"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="61"/>
+      <c r="A28" s="55"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -20528,10 +20528,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="52"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="61"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -20547,10 +20547,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="52"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="61"/>
+      <c r="A30" s="55"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -20566,10 +20566,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="52"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="61"/>
+      <c r="A31" s="55"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -20585,10 +20585,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="52"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="62"/>
+      <c r="A32" s="56"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>47</v>
@@ -20604,7 +20604,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="54"/>
+      <c r="G32" s="53"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -20619,10 +20619,10 @@
       <c r="D33" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="67" t="s">
+      <c r="E33" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="68"/>
+      <c r="F33" s="64"/>
       <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
@@ -20646,7 +20646,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="57" t="s">
+      <c r="G34" s="51" t="s">
         <v>252</v>
       </c>
     </row>
@@ -20667,7 +20667,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="52"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -20686,7 +20686,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="52"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -20705,7 +20705,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="53"/>
+      <c r="G37" s="52"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
@@ -20724,7 +20724,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="52"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -20743,7 +20743,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="52"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
@@ -20762,7 +20762,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="53"/>
+      <c r="G40" s="52"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
@@ -20781,7 +20781,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="53"/>
+      <c r="G41" s="52"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
@@ -20800,7 +20800,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="53"/>
+      <c r="G42" s="52"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
@@ -20819,7 +20819,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="54"/>
+      <c r="G43" s="53"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -20834,16 +20834,16 @@
       <c r="D44" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="67" t="s">
+      <c r="E44" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="68"/>
+      <c r="F44" s="64"/>
       <c r="G44" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="59" t="s">
+      <c r="A45" s="47" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="2">
@@ -21030,10 +21030,10 @@
       <c r="D54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="67" t="s">
+      <c r="E54" s="63" t="s">
         <v>248</v>
       </c>
-      <c r="F54" s="68"/>
+      <c r="F54" s="64"/>
       <c r="G54" s="9" t="s">
         <v>9</v>
       </c>
@@ -21444,7 +21444,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="58" t="s">
         <v>190</v>
       </c>
       <c r="B76" s="2">
@@ -21462,12 +21462,12 @@
       <c r="F76" s="7">
         <v>6</v>
       </c>
-      <c r="G76" s="57" t="s">
+      <c r="G76" s="51" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="56"/>
+      <c r="A77" s="57"/>
       <c r="B77" s="2">
         <v>12699</v>
       </c>
@@ -21483,10 +21483,10 @@
       <c r="F77" s="7">
         <v>12</v>
       </c>
-      <c r="G77" s="53"/>
+      <c r="G77" s="52"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="56"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="2">
         <v>12705</v>
       </c>
@@ -21502,10 +21502,10 @@
       <c r="F78" s="7">
         <v>15</v>
       </c>
-      <c r="G78" s="53"/>
+      <c r="G78" s="52"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="56"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="2">
         <v>12713</v>
       </c>
@@ -21521,10 +21521,10 @@
       <c r="F79" s="7">
         <v>0</v>
       </c>
-      <c r="G79" s="53"/>
+      <c r="G79" s="52"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="56"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="2">
         <v>12720</v>
       </c>
@@ -21540,10 +21540,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="53"/>
+      <c r="G80" s="52"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="56"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="2">
         <v>12727</v>
       </c>
@@ -21559,10 +21559,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="53"/>
+      <c r="G81" s="52"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="56"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="40">
         <v>12734</v>
       </c>
@@ -21578,10 +21578,10 @@
       <c r="F82" s="43">
         <v>0</v>
       </c>
-      <c r="G82" s="53"/>
+      <c r="G82" s="52"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="56"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="2">
         <v>12741</v>
       </c>
@@ -21597,18 +21597,18 @@
       <c r="F83" s="7">
         <v>0</v>
       </c>
-      <c r="G83" s="53"/>
+      <c r="G83" s="52"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="56"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="53"/>
+      <c r="G84" s="52"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="56"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="3"/>
       <c r="C85" s="20" t="s">
         <v>13</v>
@@ -21622,10 +21622,10 @@
       <c r="F85" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="53"/>
+      <c r="G85" s="52"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="56"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="35"/>
       <c r="C86" s="39" t="s">
         <v>42</v>
@@ -21633,10 +21633,10 @@
       <c r="D86" s="36"/>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
-      <c r="G86" s="53"/>
+      <c r="G86" s="52"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="56"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="35"/>
       <c r="C87" s="20" t="s">
         <v>43</v>
@@ -21652,7 +21652,7 @@
         <f>SUM(F76:F86)</f>
         <v>33</v>
       </c>
-      <c r="G87" s="54"/>
+      <c r="G87" s="53"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
@@ -21676,7 +21676,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="56" t="s">
+      <c r="A89" s="57" t="s">
         <v>191</v>
       </c>
       <c r="B89" s="2">
@@ -21699,7 +21699,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="56"/>
+      <c r="A90" s="57"/>
       <c r="B90" s="2">
         <v>13069</v>
       </c>
@@ -21718,7 +21718,7 @@
       <c r="G90" s="50"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="56"/>
+      <c r="A91" s="57"/>
       <c r="B91" s="2">
         <v>13077</v>
       </c>
@@ -21737,7 +21737,7 @@
       <c r="G91" s="50"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="56"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="2">
         <v>13084</v>
       </c>
@@ -21756,7 +21756,7 @@
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="56"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="2">
         <v>13091</v>
       </c>
@@ -21775,7 +21775,7 @@
       <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="56"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="2">
         <v>13098</v>
       </c>
@@ -21794,7 +21794,7 @@
       <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="56"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="2">
         <v>13105</v>
       </c>
@@ -21813,7 +21813,7 @@
       <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="56"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="2">
         <v>13112</v>
       </c>
@@ -21832,7 +21832,7 @@
       <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="56"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="3"/>
       <c r="C97" s="20" t="s">
         <v>44</v>
@@ -22820,10 +22820,10 @@
       <c r="D147" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E147" s="63" t="s">
+      <c r="E147" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F147" s="64"/>
+      <c r="F147" s="68"/>
       <c r="G147" s="9" t="s">
         <v>9</v>
       </c>
@@ -22847,7 +22847,7 @@
       <c r="F148" s="7">
         <v>12</v>
       </c>
-      <c r="G148" s="52" t="s">
+      <c r="G148" s="61" t="s">
         <v>267</v>
       </c>
     </row>
@@ -22868,7 +22868,7 @@
       <c r="F149" s="7">
         <v>0</v>
       </c>
-      <c r="G149" s="53"/>
+      <c r="G149" s="52"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="45"/>
@@ -22887,7 +22887,7 @@
       <c r="F150" s="7">
         <v>13</v>
       </c>
-      <c r="G150" s="53"/>
+      <c r="G150" s="52"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="45"/>
@@ -22906,7 +22906,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="53"/>
+      <c r="G151" s="52"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
@@ -22925,7 +22925,7 @@
       <c r="F152" s="7">
         <v>31</v>
       </c>
-      <c r="G152" s="53"/>
+      <c r="G152" s="52"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="45"/>
@@ -22944,7 +22944,7 @@
       <c r="F153" s="7">
         <v>13</v>
       </c>
-      <c r="G153" s="53"/>
+      <c r="G153" s="52"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="45"/>
@@ -22963,7 +22963,7 @@
       <c r="F154" s="7">
         <v>21</v>
       </c>
-      <c r="G154" s="53"/>
+      <c r="G154" s="52"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="45"/>
@@ -22982,7 +22982,7 @@
       <c r="F155" s="7">
         <v>38</v>
       </c>
-      <c r="G155" s="53"/>
+      <c r="G155" s="52"/>
     </row>
     <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46"/>
@@ -23001,7 +23001,7 @@
         <f>SUM(F148:F155)</f>
         <v>128</v>
       </c>
-      <c r="G156" s="54"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
@@ -23016,10 +23016,10 @@
       <c r="D157" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E157" s="63" t="s">
+      <c r="E157" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F157" s="64"/>
+      <c r="F157" s="68"/>
       <c r="G157" s="9" t="s">
         <v>9</v>
       </c>
@@ -23043,7 +23043,7 @@
       <c r="F158" s="5">
         <v>7</v>
       </c>
-      <c r="G158" s="51" t="s">
+      <c r="G158" s="60" t="s">
         <v>269</v>
       </c>
     </row>
@@ -23206,10 +23206,10 @@
       <c r="D167" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E167" s="63" t="s">
+      <c r="E167" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F167" s="64"/>
+      <c r="F167" s="68"/>
       <c r="G167" s="9" t="s">
         <v>9</v>
       </c>
@@ -23233,7 +23233,7 @@
       <c r="F168" s="5">
         <v>12</v>
       </c>
-      <c r="G168" s="51" t="s">
+      <c r="G168" s="60" t="s">
         <v>271</v>
       </c>
     </row>
@@ -23402,10 +23402,10 @@
       <c r="D177" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E177" s="63" t="s">
+      <c r="E177" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F177" s="64"/>
+      <c r="F177" s="68"/>
       <c r="G177" s="9" t="s">
         <v>9</v>
       </c>
@@ -23598,10 +23598,10 @@
       <c r="D187" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E187" s="63" t="s">
+      <c r="E187" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F187" s="64"/>
+      <c r="F187" s="68"/>
       <c r="G187" s="9" t="s">
         <v>9</v>
       </c>
@@ -23625,7 +23625,7 @@
       <c r="F188" s="5">
         <v>26</v>
       </c>
-      <c r="G188" s="51" t="s">
+      <c r="G188" s="60" t="s">
         <v>274</v>
       </c>
     </row>
@@ -23794,16 +23794,16 @@
       <c r="D197" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E197" s="63" t="s">
+      <c r="E197" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F197" s="64"/>
+      <c r="F197" s="68"/>
       <c r="G197" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="59" t="s">
+      <c r="A198" s="47" t="s">
         <v>202</v>
       </c>
       <c r="B198" s="2">
@@ -23821,7 +23821,7 @@
       <c r="F198" s="5">
         <v>7</v>
       </c>
-      <c r="G198" s="58" t="s">
+      <c r="G198" s="59" t="s">
         <v>276</v>
       </c>
     </row>
@@ -23975,7 +23975,7 @@
       <c r="F206" s="5">
         <v>7</v>
       </c>
-      <c r="G206" s="57"/>
+      <c r="G206" s="51"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="48"/>
@@ -23984,7 +23984,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="8"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="57"/>
+      <c r="G207" s="51"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="48"/>
@@ -23993,7 +23993,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="8"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="57"/>
+      <c r="G208" s="51"/>
     </row>
     <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="49"/>
@@ -24012,7 +24012,7 @@
         <f>SUM(F198:F206)</f>
         <v>16</v>
       </c>
-      <c r="G209" s="57"/>
+      <c r="G209" s="51"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
@@ -24027,10 +24027,10 @@
       <c r="D210" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E210" s="63" t="s">
+      <c r="E210" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F210" s="64"/>
+      <c r="F210" s="68"/>
       <c r="G210" s="9" t="s">
         <v>9</v>
       </c>
@@ -24054,7 +24054,7 @@
       <c r="F211" s="7">
         <v>13</v>
       </c>
-      <c r="G211" s="51" t="s">
+      <c r="G211" s="60" t="s">
         <v>277</v>
       </c>
     </row>
@@ -24242,16 +24242,16 @@
       <c r="D221" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E221" s="63" t="s">
+      <c r="E221" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F221" s="64"/>
+      <c r="F221" s="68"/>
       <c r="G221" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="55" t="s">
+      <c r="A222" s="58" t="s">
         <v>204</v>
       </c>
       <c r="B222" s="2">
@@ -24274,7 +24274,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="56"/>
+      <c r="A223" s="57"/>
       <c r="B223" s="2">
         <v>17802</v>
       </c>
@@ -24293,7 +24293,7 @@
       <c r="G223" s="50"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="56"/>
+      <c r="A224" s="57"/>
       <c r="B224" s="4">
         <v>17809</v>
       </c>
@@ -24312,7 +24312,7 @@
       <c r="G224" s="50"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="56"/>
+      <c r="A225" s="57"/>
       <c r="B225" s="2">
         <v>17814</v>
       </c>
@@ -24331,7 +24331,7 @@
       <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="56"/>
+      <c r="A226" s="57"/>
       <c r="B226" s="2">
         <v>17822</v>
       </c>
@@ -24350,7 +24350,7 @@
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="56"/>
+      <c r="A227" s="57"/>
       <c r="B227" s="2">
         <v>17830</v>
       </c>
@@ -24369,7 +24369,7 @@
       <c r="G227" s="50"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="56"/>
+      <c r="A228" s="57"/>
       <c r="B228" s="2">
         <v>17844</v>
       </c>
@@ -24388,7 +24388,7 @@
       <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="56"/>
+      <c r="A229" s="57"/>
       <c r="B229" s="4">
         <v>17852</v>
       </c>
@@ -24407,7 +24407,7 @@
       <c r="G229" s="50"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="56"/>
+      <c r="A230" s="57"/>
       <c r="B230" s="4"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -24416,7 +24416,7 @@
       <c r="G230" s="50"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="56"/>
+      <c r="A231" s="57"/>
       <c r="B231" s="4"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -24425,7 +24425,7 @@
       <c r="G231" s="50"/>
     </row>
     <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="56"/>
+      <c r="A232" s="57"/>
       <c r="B232" s="3"/>
       <c r="C232" s="20" t="s">
         <v>139</v>
@@ -24456,10 +24456,10 @@
       <c r="D233" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E233" s="63" t="s">
+      <c r="E233" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F233" s="64"/>
+      <c r="F233" s="68"/>
       <c r="G233" s="9" t="s">
         <v>9</v>
       </c>
@@ -24637,7 +24637,7 @@
         <f>SUM(F234:F241)</f>
         <v>82</v>
       </c>
-      <c r="G242" s="57"/>
+      <c r="G242" s="51"/>
     </row>
     <row r="243" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
@@ -24652,10 +24652,10 @@
       <c r="D243" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E243" s="63" t="s">
+      <c r="E243" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F243" s="64"/>
+      <c r="F243" s="68"/>
       <c r="G243" s="9" t="s">
         <v>9</v>
       </c>
@@ -24679,7 +24679,7 @@
       <c r="F244" s="5">
         <v>31</v>
       </c>
-      <c r="G244" s="51" t="s">
+      <c r="G244" s="60" t="s">
         <v>280</v>
       </c>
     </row>
@@ -24848,10 +24848,10 @@
       <c r="D253" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E253" s="63" t="s">
+      <c r="E253" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F253" s="64"/>
+      <c r="F253" s="68"/>
       <c r="G253" s="9" t="s">
         <v>9</v>
       </c>
@@ -25044,10 +25044,10 @@
       <c r="D263" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E263" s="63" t="s">
+      <c r="E263" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F263" s="64"/>
+      <c r="F263" s="68"/>
       <c r="G263" s="9" t="s">
         <v>9</v>
       </c>
@@ -25236,10 +25236,10 @@
       <c r="D273" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E273" s="63" t="s">
+      <c r="E273" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F273" s="64"/>
+      <c r="F273" s="68"/>
       <c r="G273" s="9" t="s">
         <v>9</v>
       </c>
@@ -25413,10 +25413,10 @@
       <c r="D282" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E282" s="63" t="s">
+      <c r="E282" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F282" s="64"/>
+      <c r="F282" s="68"/>
       <c r="G282" s="9" t="s">
         <v>9</v>
       </c>
@@ -25440,7 +25440,7 @@
       <c r="F283" s="7">
         <v>19</v>
       </c>
-      <c r="G283" s="51" t="s">
+      <c r="G283" s="60" t="s">
         <v>287</v>
       </c>
     </row>
@@ -25609,10 +25609,10 @@
       <c r="D292" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E292" s="63" t="s">
+      <c r="E292" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F292" s="64"/>
+      <c r="F292" s="68"/>
       <c r="G292" s="9" t="s">
         <v>9</v>
       </c>
@@ -25805,10 +25805,10 @@
       <c r="D302" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E302" s="63" t="s">
+      <c r="E302" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F302" s="64"/>
+      <c r="F302" s="68"/>
       <c r="G302" s="9" t="s">
         <v>9</v>
       </c>
@@ -25832,7 +25832,7 @@
       <c r="F303" s="5">
         <v>12</v>
       </c>
-      <c r="G303" s="51" t="s">
+      <c r="G303" s="60" t="s">
         <v>290</v>
       </c>
     </row>
@@ -26001,10 +26001,10 @@
       <c r="D312" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E312" s="63" t="s">
+      <c r="E312" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F312" s="64"/>
+      <c r="F312" s="68"/>
       <c r="G312" s="9" t="s">
         <v>9</v>
       </c>
@@ -26208,10 +26208,10 @@
       <c r="D323" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E323" s="63" t="s">
+      <c r="E323" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F323" s="64"/>
+      <c r="F323" s="68"/>
       <c r="G323" s="9" t="s">
         <v>9</v>
       </c>
@@ -26404,10 +26404,10 @@
       <c r="D333" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E333" s="63" t="s">
+      <c r="E333" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F333" s="64"/>
+      <c r="F333" s="68"/>
       <c r="G333" s="9" t="s">
         <v>9</v>
       </c>
@@ -26600,10 +26600,10 @@
       <c r="D343" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E343" s="63" t="s">
+      <c r="E343" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F343" s="64"/>
+      <c r="F343" s="68"/>
       <c r="G343" s="9" t="s">
         <v>9</v>
       </c>
@@ -26796,10 +26796,10 @@
       <c r="D353" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E353" s="63" t="s">
+      <c r="E353" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F353" s="64"/>
+      <c r="F353" s="68"/>
       <c r="G353" s="9" t="s">
         <v>9</v>
       </c>
@@ -26992,10 +26992,10 @@
       <c r="D363" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E363" s="63" t="s">
+      <c r="E363" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F363" s="64"/>
+      <c r="F363" s="68"/>
       <c r="G363" s="9" t="s">
         <v>9</v>
       </c>
@@ -27169,10 +27169,10 @@
       <c r="D372" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E372" s="63" t="s">
+      <c r="E372" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F372" s="64"/>
+      <c r="F372" s="68"/>
       <c r="G372" s="9" t="s">
         <v>9</v>
       </c>
@@ -27346,10 +27346,10 @@
       <c r="D381" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E381" s="63" t="s">
+      <c r="E381" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F381" s="64"/>
+      <c r="F381" s="68"/>
       <c r="G381" s="9" t="s">
         <v>9</v>
       </c>
@@ -27523,10 +27523,10 @@
       <c r="D390" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E390" s="63" t="s">
+      <c r="E390" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F390" s="64"/>
+      <c r="F390" s="68"/>
       <c r="G390" s="9" t="s">
         <v>9</v>
       </c>
@@ -27700,10 +27700,10 @@
       <c r="D399" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E399" s="63" t="s">
+      <c r="E399" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F399" s="64"/>
+      <c r="F399" s="68"/>
       <c r="G399" s="9" t="s">
         <v>9</v>
       </c>
@@ -27877,10 +27877,10 @@
       <c r="D408" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E408" s="63" t="s">
+      <c r="E408" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F408" s="64"/>
+      <c r="F408" s="68"/>
       <c r="G408" s="9" t="s">
         <v>9</v>
       </c>
@@ -28073,10 +28073,10 @@
       <c r="D418" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E418" s="63" t="s">
+      <c r="E418" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F418" s="64"/>
+      <c r="F418" s="68"/>
       <c r="G418" s="9" t="s">
         <v>9</v>
       </c>
@@ -28271,10 +28271,10 @@
       <c r="D428" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E428" s="63" t="s">
+      <c r="E428" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F428" s="64"/>
+      <c r="F428" s="68"/>
       <c r="G428" s="9" t="s">
         <v>9</v>
       </c>
@@ -28485,10 +28485,10 @@
       <c r="D440" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E440" s="63" t="s">
+      <c r="E440" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F440" s="64"/>
+      <c r="F440" s="68"/>
       <c r="G440" s="9" t="s">
         <v>9</v>
       </c>
@@ -28681,10 +28681,10 @@
       <c r="D450" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E450" s="63" t="s">
+      <c r="E450" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F450" s="64"/>
+      <c r="F450" s="68"/>
       <c r="G450" s="9" t="s">
         <v>179</v>
       </c>
@@ -28877,10 +28877,10 @@
       <c r="D460" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E460" s="63" t="s">
+      <c r="E460" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F460" s="64"/>
+      <c r="F460" s="68"/>
       <c r="G460" s="9" t="s">
         <v>9</v>
       </c>
@@ -29073,10 +29073,10 @@
       <c r="D470" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E470" s="63" t="s">
+      <c r="E470" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F470" s="64"/>
+      <c r="F470" s="68"/>
       <c r="G470" s="9" t="s">
         <v>9</v>
       </c>
@@ -29100,7 +29100,7 @@
       <c r="F471" s="5">
         <v>19</v>
       </c>
-      <c r="G471" s="51" t="s">
+      <c r="G471" s="60" t="s">
         <v>314</v>
       </c>
     </row>
@@ -29269,10 +29269,10 @@
       <c r="D480" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E480" s="63" t="s">
+      <c r="E480" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F480" s="64"/>
+      <c r="F480" s="68"/>
       <c r="G480" s="9" t="s">
         <v>9</v>
       </c>
@@ -29465,10 +29465,10 @@
       <c r="D490" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E490" s="63" t="s">
+      <c r="E490" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F490" s="64"/>
+      <c r="F490" s="68"/>
       <c r="G490" s="9" t="s">
         <v>9</v>
       </c>
@@ -29661,16 +29661,16 @@
       <c r="D500" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E500" s="63" t="s">
+      <c r="E500" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F500" s="64"/>
+      <c r="F500" s="68"/>
       <c r="G500" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="47" t="s">
+      <c r="A501" s="62" t="s">
         <v>232</v>
       </c>
       <c r="B501" s="2">
@@ -29912,10 +29912,10 @@
       <c r="D515" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E515" s="63" t="s">
+      <c r="E515" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F515" s="64"/>
+      <c r="F515" s="68"/>
       <c r="G515" s="9" t="s">
         <v>9</v>
       </c>
@@ -30127,10 +30127,10 @@
       <c r="D526" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E526" s="63" t="s">
+      <c r="E526" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F526" s="64"/>
+      <c r="F526" s="68"/>
       <c r="G526" s="9" t="s">
         <v>9</v>
       </c>
@@ -30323,10 +30323,10 @@
       <c r="D536" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E536" s="63" t="s">
+      <c r="E536" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F536" s="64"/>
+      <c r="F536" s="68"/>
       <c r="G536" s="9" t="s">
         <v>9</v>
       </c>
@@ -30538,10 +30538,10 @@
       <c r="D547" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E547" s="63" t="s">
+      <c r="E547" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F547" s="64"/>
+      <c r="F547" s="68"/>
       <c r="G547" s="9" t="s">
         <v>9</v>
       </c>
@@ -30753,10 +30753,10 @@
       <c r="D558" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E558" s="63" t="s">
+      <c r="E558" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F558" s="64"/>
+      <c r="F558" s="68"/>
       <c r="G558" s="9" t="s">
         <v>9</v>
       </c>
@@ -30968,10 +30968,10 @@
       <c r="D569" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E569" s="63" t="s">
+      <c r="E569" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F569" s="64"/>
+      <c r="F569" s="68"/>
       <c r="G569" s="9" t="s">
         <v>9</v>
       </c>
@@ -31164,10 +31164,10 @@
       <c r="D579" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E579" s="63" t="s">
+      <c r="E579" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F579" s="64"/>
+      <c r="F579" s="68"/>
       <c r="G579" s="9" t="s">
         <v>9</v>
       </c>
@@ -31360,10 +31360,10 @@
       <c r="D589" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E589" s="63" t="s">
+      <c r="E589" s="67" t="s">
         <v>255</v>
       </c>
-      <c r="F589" s="64"/>
+      <c r="F589" s="68"/>
       <c r="G589" s="9" t="s">
         <v>9</v>
       </c>
@@ -33053,24 +33053,150 @@
     <row r="2036" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="174">
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="G45:G53"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="E579:F579"/>
+    <mergeCell ref="A580:A588"/>
+    <mergeCell ref="G580:G588"/>
+    <mergeCell ref="E589:F589"/>
+    <mergeCell ref="A590:A597"/>
+    <mergeCell ref="G590:G597"/>
+    <mergeCell ref="E558:F558"/>
+    <mergeCell ref="A559:A568"/>
+    <mergeCell ref="G559:G568"/>
+    <mergeCell ref="E569:F569"/>
+    <mergeCell ref="A570:A578"/>
+    <mergeCell ref="G570:G578"/>
+    <mergeCell ref="E536:F536"/>
+    <mergeCell ref="A537:A546"/>
+    <mergeCell ref="G537:G546"/>
+    <mergeCell ref="E547:F547"/>
+    <mergeCell ref="A548:A557"/>
+    <mergeCell ref="G548:G557"/>
+    <mergeCell ref="E515:F515"/>
+    <mergeCell ref="A516:A525"/>
+    <mergeCell ref="G516:G525"/>
+    <mergeCell ref="E526:F526"/>
+    <mergeCell ref="A527:A535"/>
+    <mergeCell ref="G527:G535"/>
+    <mergeCell ref="E490:F490"/>
+    <mergeCell ref="A491:A499"/>
+    <mergeCell ref="G491:G499"/>
+    <mergeCell ref="E500:F500"/>
+    <mergeCell ref="A501:A514"/>
+    <mergeCell ref="G501:G514"/>
+    <mergeCell ref="E470:F470"/>
+    <mergeCell ref="A471:A479"/>
+    <mergeCell ref="G471:G479"/>
+    <mergeCell ref="E480:F480"/>
+    <mergeCell ref="A481:A489"/>
+    <mergeCell ref="G481:G489"/>
+    <mergeCell ref="E450:F450"/>
+    <mergeCell ref="A451:A459"/>
+    <mergeCell ref="G451:G459"/>
+    <mergeCell ref="E460:F460"/>
+    <mergeCell ref="A461:A469"/>
+    <mergeCell ref="G461:G469"/>
+    <mergeCell ref="E428:F428"/>
+    <mergeCell ref="A429:A439"/>
+    <mergeCell ref="G429:G439"/>
+    <mergeCell ref="E440:F440"/>
+    <mergeCell ref="A441:A449"/>
+    <mergeCell ref="G441:G449"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="A409:A417"/>
+    <mergeCell ref="G409:G417"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="A419:A427"/>
+    <mergeCell ref="G419:G427"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="A391:A398"/>
+    <mergeCell ref="G391:G398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="A400:A407"/>
+    <mergeCell ref="G400:G407"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="A373:A380"/>
+    <mergeCell ref="G373:G380"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="A382:A389"/>
+    <mergeCell ref="G382:G389"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="A354:A362"/>
+    <mergeCell ref="G354:G362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="A364:A371"/>
+    <mergeCell ref="G364:G371"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="A334:A342"/>
+    <mergeCell ref="G334:G342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="A344:A352"/>
+    <mergeCell ref="G344:G352"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="A313:A322"/>
+    <mergeCell ref="G313:G322"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="A324:A332"/>
+    <mergeCell ref="G324:G332"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="A293:A301"/>
+    <mergeCell ref="G293:G301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="A303:A311"/>
+    <mergeCell ref="G303:G311"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="A274:A281"/>
+    <mergeCell ref="G274:G281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="A283:A291"/>
+    <mergeCell ref="G283:G291"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="G254:G262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="A264:A272"/>
+    <mergeCell ref="G264:G272"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="A234:A242"/>
+    <mergeCell ref="G234:G242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="G244:G252"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="A211:A220"/>
+    <mergeCell ref="G211:G220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="G222:G232"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="G188:G196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="G198:G209"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="G168:G176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="G178:G186"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="G148:G156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="G158:G166"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="G129:G137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="G139:G146"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="G119:G127"/>
     <mergeCell ref="E88:F88"/>
     <mergeCell ref="A89:A97"/>
     <mergeCell ref="G89:G97"/>
@@ -33083,150 +33209,24 @@
     <mergeCell ref="E75:F75"/>
     <mergeCell ref="A76:A87"/>
     <mergeCell ref="G76:G87"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="G129:G137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="G139:G146"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="G168:G176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="A178:A186"/>
-    <mergeCell ref="G178:G186"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="G148:G156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="G158:G166"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="A211:A220"/>
-    <mergeCell ref="G211:G220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="G222:G232"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="G188:G196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="A198:A209"/>
-    <mergeCell ref="G198:G209"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="G254:G262"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="A264:A272"/>
-    <mergeCell ref="G264:G272"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="A234:A242"/>
-    <mergeCell ref="G234:G242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="G244:G252"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="A293:A301"/>
-    <mergeCell ref="G293:G301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="A303:A311"/>
-    <mergeCell ref="G303:G311"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="A274:A281"/>
-    <mergeCell ref="G274:G281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="A283:A291"/>
-    <mergeCell ref="G283:G291"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="A334:A342"/>
-    <mergeCell ref="G334:G342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="A344:A352"/>
-    <mergeCell ref="G344:G352"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="A313:A322"/>
-    <mergeCell ref="G313:G322"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="A324:A332"/>
-    <mergeCell ref="G324:G332"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="A373:A380"/>
-    <mergeCell ref="G373:G380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="A382:A389"/>
-    <mergeCell ref="G382:G389"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="A354:A362"/>
-    <mergeCell ref="G354:G362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="A364:A371"/>
-    <mergeCell ref="G364:G371"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="A409:A417"/>
-    <mergeCell ref="G409:G417"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="A419:A427"/>
-    <mergeCell ref="G419:G427"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="A391:A398"/>
-    <mergeCell ref="G391:G398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="A400:A407"/>
-    <mergeCell ref="G400:G407"/>
-    <mergeCell ref="E450:F450"/>
-    <mergeCell ref="A451:A459"/>
-    <mergeCell ref="G451:G459"/>
-    <mergeCell ref="E460:F460"/>
-    <mergeCell ref="A461:A469"/>
-    <mergeCell ref="G461:G469"/>
-    <mergeCell ref="E428:F428"/>
-    <mergeCell ref="A429:A439"/>
-    <mergeCell ref="G429:G439"/>
-    <mergeCell ref="E440:F440"/>
-    <mergeCell ref="A441:A449"/>
-    <mergeCell ref="G441:G449"/>
-    <mergeCell ref="E490:F490"/>
-    <mergeCell ref="A491:A499"/>
-    <mergeCell ref="G491:G499"/>
-    <mergeCell ref="E500:F500"/>
-    <mergeCell ref="A501:A514"/>
-    <mergeCell ref="G501:G514"/>
-    <mergeCell ref="E470:F470"/>
-    <mergeCell ref="A471:A479"/>
-    <mergeCell ref="G471:G479"/>
-    <mergeCell ref="E480:F480"/>
-    <mergeCell ref="A481:A489"/>
-    <mergeCell ref="G481:G489"/>
-    <mergeCell ref="E536:F536"/>
-    <mergeCell ref="A537:A546"/>
-    <mergeCell ref="G537:G546"/>
-    <mergeCell ref="E547:F547"/>
-    <mergeCell ref="A548:A557"/>
-    <mergeCell ref="G548:G557"/>
-    <mergeCell ref="E515:F515"/>
-    <mergeCell ref="A516:A525"/>
-    <mergeCell ref="G516:G525"/>
-    <mergeCell ref="E526:F526"/>
-    <mergeCell ref="A527:A535"/>
-    <mergeCell ref="G527:G535"/>
-    <mergeCell ref="E579:F579"/>
-    <mergeCell ref="A580:A588"/>
-    <mergeCell ref="G580:G588"/>
-    <mergeCell ref="E589:F589"/>
-    <mergeCell ref="A590:A597"/>
-    <mergeCell ref="G590:G597"/>
-    <mergeCell ref="E558:F558"/>
-    <mergeCell ref="A559:A568"/>
-    <mergeCell ref="G559:G568"/>
-    <mergeCell ref="E569:F569"/>
-    <mergeCell ref="A570:A578"/>
-    <mergeCell ref="G570:G578"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="G45:G53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{27C891E4-8C40-43BB-A88A-3796DCB1CA81}"/>

--- a/Seasons/Football History.xlsx
+++ b/Seasons/Football History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugs&amp;Fred\Documents\Fred\ROSM\Website\public_html\Seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AD695F4-B645-42B2-BC42-432C39DCAAC9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F5B623-1C0C-40C7-95C6-87F424F5B009}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7F2BF-BA1F-4802-BC8C-4DC7AFA8B3A8}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="406">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2969" uniqueCount="407">
   <si>
     <t>Opponent</t>
   </si>
@@ -1674,34 +1674,6 @@
         <scheme val="minor"/>
       </rPr>
       <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Al Chevalier and Ed Casey (Class of '49) served as the head coach. Coach Chevalier, a former Pro Canadian Football player, had high expectations with the 13 returning letterman. After 3 games Al Chevalier resigns, stating the time and travel as the factors (he was commuting daily from Windsor). He had become the first coach on the faculty of St. Mary's and left with the shortest tenure. Ed Casey, a star player from the 1948 2nd Division Co-Champs, was installed as the interim coach. Casey was to be inducted into the Navy in December of 1952. He later returned as the Irish head coach in 1957. The team finishes with a 3-3-1 record. While the defense was solid in all but one game, the offense never got untracked scoring only 45 points all season. A season highlight was upsetting rival St. James in the season finale 12-6.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Dick Parker</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team.
-</t>
     </r>
   </si>
   <si>
@@ -3445,6 +3417,55 @@
         <scheme val="minor"/>
       </rPr>
       <t>was named to the Detroit News Class D All-State Team.</t>
+    </r>
+  </si>
+  <si>
+    <t>1961 Final Record</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Al Chevalier and Ed Casey (Class of '49) served as the head coach.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Coach Chevalier, a former Pro Canadian Football player, had high expectations with the 13 returning letterman. After 3 games Al Chevalier resigns, stating the time and travel as the factors (he was commuting daily from Windsor). He had become the first coach on the faculty of St. Mary's and left with the shortest tenure. Ed Casey, a star player from the 1948 2nd Division Co-Champs, was installed as the interim coach. Casey was to be inducted into the Navy in December of 1952. He later returned as the Irish head coach in 1957. The team finishes with a 3-3-1 record. While the defense was solid in all but one game, the offense never got untracked scoring only 45 points all season. A season highlight was upsetting rival St. James in the season finale 12-6.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Dick Parker</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team.
+</t>
     </r>
   </si>
 </sst>
@@ -3916,7 +3937,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3927,7 +3948,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3935,6 +3959,21 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -3945,29 +3984,11 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -3975,11 +3996,11 @@
     <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6628,8 +6649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2FFFC7-E182-47AD-9B1B-521106FC03D6}">
   <dimension ref="A1:G2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A475" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G483" sqref="G483:G491"/>
+    <sheetView tabSelected="1" topLeftCell="A247" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G266" sqref="G266:G274"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6656,17 +6677,17 @@
         <v>183</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="2">
@@ -6684,12 +6705,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="57" t="s">
         <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -6705,10 +6726,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -6724,10 +6745,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -6743,37 +6764,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
@@ -6789,7 +6810,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -6805,17 +6826,17 @@
         <v>183</v>
       </c>
       <c r="E10" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="60" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="2">
@@ -6833,12 +6854,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="51" t="s">
-        <v>389</v>
+      <c r="G11" s="57" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -6854,10 +6875,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -6873,10 +6894,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -6892,10 +6913,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -6911,10 +6932,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -6930,10 +6951,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -6949,10 +6970,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -6968,10 +6989,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>46</v>
@@ -6987,7 +7008,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -7003,17 +7024,17 @@
         <v>183</v>
       </c>
       <c r="E20" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="2">
@@ -7031,12 +7052,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="57" t="s">
         <v>336</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -7052,10 +7073,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -7071,10 +7092,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -7090,10 +7111,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -7109,10 +7130,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -7128,10 +7149,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -7147,10 +7168,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -7166,10 +7187,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -7185,10 +7206,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -7204,10 +7225,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -7223,10 +7244,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>47</v>
@@ -7242,7 +7263,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -7258,10 +7279,10 @@
         <v>183</v>
       </c>
       <c r="E33" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>9</v>
@@ -7286,7 +7307,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="57" t="s">
         <v>337</v>
       </c>
     </row>
@@ -7307,7 +7328,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -7326,7 +7347,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -7345,7 +7366,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="52"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
@@ -7364,7 +7385,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -7383,7 +7404,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
@@ -7402,7 +7423,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
@@ -7421,7 +7442,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
@@ -7440,7 +7461,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
@@ -7459,7 +7480,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -7475,17 +7496,17 @@
         <v>183</v>
       </c>
       <c r="E44" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="59" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="2">
@@ -7504,7 +7525,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="50" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -7551,7 +7572,7 @@
         <v>11619</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
@@ -7666,7 +7687,7 @@
         <v>49</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="E54" s="22">
         <f>SUM(E45:E53)</f>
@@ -7692,10 +7713,10 @@
         <v>183</v>
       </c>
       <c r="E55" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>9</v>
@@ -7890,10 +7911,10 @@
         <v>183</v>
       </c>
       <c r="E65" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F65" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>9</v>
@@ -7919,7 +7940,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="50" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -8101,17 +8122,17 @@
         <v>183</v>
       </c>
       <c r="E76" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F76" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="58" t="s">
+      <c r="A77" s="55" t="s">
         <v>190</v>
       </c>
       <c r="B77" s="2">
@@ -8129,12 +8150,12 @@
       <c r="F77" s="7">
         <v>6</v>
       </c>
-      <c r="G77" s="51" t="s">
-        <v>399</v>
+      <c r="G77" s="57" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="2">
         <v>12699</v>
       </c>
@@ -8150,10 +8171,10 @@
       <c r="F78" s="7">
         <v>12</v>
       </c>
-      <c r="G78" s="52"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="2">
         <v>12705</v>
       </c>
@@ -8169,10 +8190,10 @@
       <c r="F79" s="7">
         <v>15</v>
       </c>
-      <c r="G79" s="52"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="2">
         <v>12713</v>
       </c>
@@ -8188,10 +8209,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="52"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="2">
         <v>12720</v>
       </c>
@@ -8207,10 +8228,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="52"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="2">
         <v>12727</v>
       </c>
@@ -8226,10 +8247,10 @@
       <c r="F82" s="7">
         <v>0</v>
       </c>
-      <c r="G82" s="52"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="40">
         <v>12734</v>
       </c>
@@ -8245,10 +8266,10 @@
       <c r="F83" s="43">
         <v>0</v>
       </c>
-      <c r="G83" s="52"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="2">
         <v>12741</v>
       </c>
@@ -8264,35 +8285,35 @@
       <c r="F84" s="7">
         <v>0</v>
       </c>
-      <c r="G84" s="52"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="52"/>
+      <c r="G85" s="53"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="52"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="3"/>
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="22"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="52"/>
+      <c r="G87" s="53"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
+      <c r="A88" s="56"/>
       <c r="B88" s="35"/>
       <c r="C88" s="39" t="s">
         <v>339</v>
@@ -8300,10 +8321,10 @@
       <c r="D88" s="36"/>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
-      <c r="G88" s="52"/>
+      <c r="G88" s="53"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
+      <c r="A89" s="56"/>
       <c r="B89" s="35"/>
       <c r="C89" s="20" t="s">
         <v>43</v>
@@ -8319,7 +8340,7 @@
         <f>SUM(F77:F88)</f>
         <v>33</v>
       </c>
-      <c r="G89" s="53"/>
+      <c r="G89" s="54"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
@@ -8335,17 +8356,17 @@
         <v>183</v>
       </c>
       <c r="E90" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="56" t="s">
         <v>191</v>
       </c>
       <c r="B91" s="2">
@@ -8364,11 +8385,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="50" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="2">
         <v>13069</v>
       </c>
@@ -8387,7 +8408,7 @@
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="2">
         <v>13077</v>
       </c>
@@ -8406,7 +8427,7 @@
       <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="2">
         <v>13084</v>
       </c>
@@ -8425,7 +8446,7 @@
       <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="2">
         <v>13091</v>
       </c>
@@ -8444,7 +8465,7 @@
       <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="2">
         <v>13098</v>
       </c>
@@ -8463,7 +8484,7 @@
       <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="2">
         <v>13105</v>
       </c>
@@ -8482,7 +8503,7 @@
       <c r="G97" s="50"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
+      <c r="A98" s="56"/>
       <c r="B98" s="2">
         <v>13112</v>
       </c>
@@ -8501,7 +8522,7 @@
       <c r="G98" s="50"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
+      <c r="A99" s="56"/>
       <c r="B99" s="3"/>
       <c r="C99" s="20" t="s">
         <v>44</v>
@@ -8533,10 +8554,10 @@
         <v>183</v>
       </c>
       <c r="E100" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>9</v>
@@ -8731,10 +8752,10 @@
         <v>183</v>
       </c>
       <c r="E110" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F110" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>9</v>
@@ -8929,10 +8950,10 @@
         <v>183</v>
       </c>
       <c r="E120" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F120" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>9</v>
@@ -9127,10 +9148,10 @@
         <v>183</v>
       </c>
       <c r="E130" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F130" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F130" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G130" s="9" t="s">
         <v>69</v>
@@ -9319,10 +9340,10 @@
         <v>183</v>
       </c>
       <c r="E140" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F140" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G140" s="9" t="s">
         <v>9</v>
@@ -9498,10 +9519,10 @@
         <v>183</v>
       </c>
       <c r="E149" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F149" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F149" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G149" s="9" t="s">
         <v>9</v>
@@ -9526,7 +9547,7 @@
       <c r="F150" s="7">
         <v>12</v>
       </c>
-      <c r="G150" s="61" t="s">
+      <c r="G150" s="52" t="s">
         <v>346</v>
       </c>
     </row>
@@ -9547,7 +9568,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="52"/>
+      <c r="G151" s="53"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
@@ -9566,7 +9587,7 @@
       <c r="F152" s="7">
         <v>13</v>
       </c>
-      <c r="G152" s="52"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="45"/>
@@ -9585,7 +9606,7 @@
       <c r="F153" s="7">
         <v>0</v>
       </c>
-      <c r="G153" s="52"/>
+      <c r="G153" s="53"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="45"/>
@@ -9604,7 +9625,7 @@
       <c r="F154" s="7">
         <v>31</v>
       </c>
-      <c r="G154" s="52"/>
+      <c r="G154" s="53"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="45"/>
@@ -9623,7 +9644,7 @@
       <c r="F155" s="7">
         <v>13</v>
       </c>
-      <c r="G155" s="52"/>
+      <c r="G155" s="53"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="45"/>
@@ -9642,7 +9663,7 @@
       <c r="F156" s="7">
         <v>21</v>
       </c>
-      <c r="G156" s="52"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="45"/>
@@ -9661,7 +9682,7 @@
       <c r="F157" s="7">
         <v>38</v>
       </c>
-      <c r="G157" s="52"/>
+      <c r="G157" s="53"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="46"/>
@@ -9680,7 +9701,7 @@
         <f>SUM(F150:F157)</f>
         <v>128</v>
       </c>
-      <c r="G158" s="53"/>
+      <c r="G158" s="54"/>
     </row>
     <row r="159" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
@@ -9696,10 +9717,10 @@
         <v>183</v>
       </c>
       <c r="E159" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F159" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F159" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G159" s="9" t="s">
         <v>9</v>
@@ -9724,7 +9745,7 @@
       <c r="F160" s="5">
         <v>7</v>
       </c>
-      <c r="G160" s="60" t="s">
+      <c r="G160" s="51" t="s">
         <v>347</v>
       </c>
     </row>
@@ -9888,10 +9909,10 @@
         <v>183</v>
       </c>
       <c r="E169" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F169" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F169" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G169" s="9" t="s">
         <v>9</v>
@@ -9916,8 +9937,8 @@
       <c r="F170" s="5">
         <v>12</v>
       </c>
-      <c r="G170" s="60" t="s">
-        <v>390</v>
+      <c r="G170" s="51" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -10086,10 +10107,10 @@
         <v>183</v>
       </c>
       <c r="E179" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F179" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F179" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G179" s="9" t="s">
         <v>9</v>
@@ -10284,10 +10305,10 @@
         <v>183</v>
       </c>
       <c r="E189" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F189" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F189" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G189" s="9" t="s">
         <v>9</v>
@@ -10312,7 +10333,7 @@
       <c r="F190" s="5">
         <v>26</v>
       </c>
-      <c r="G190" s="60" t="s">
+      <c r="G190" s="51" t="s">
         <v>349</v>
       </c>
     </row>
@@ -10482,17 +10503,17 @@
         <v>183</v>
       </c>
       <c r="E199" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F199" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F199" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G199" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="47" t="s">
+      <c r="A200" s="59" t="s">
         <v>202</v>
       </c>
       <c r="B200" s="2">
@@ -10510,8 +10531,8 @@
       <c r="F200" s="5">
         <v>7</v>
       </c>
-      <c r="G200" s="59" t="s">
-        <v>396</v>
+      <c r="G200" s="58" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -10664,7 +10685,7 @@
       <c r="F208" s="5">
         <v>7</v>
       </c>
-      <c r="G208" s="51"/>
+      <c r="G208" s="57"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="48"/>
@@ -10673,7 +10694,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="8"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="51"/>
+      <c r="G209" s="57"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="48"/>
@@ -10682,7 +10703,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="8"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="51"/>
+      <c r="G210" s="57"/>
     </row>
     <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="49"/>
@@ -10701,7 +10722,7 @@
         <f>SUM(F200:F208)</f>
         <v>16</v>
       </c>
-      <c r="G211" s="51"/>
+      <c r="G211" s="57"/>
     </row>
     <row r="212" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
@@ -10717,10 +10738,10 @@
         <v>183</v>
       </c>
       <c r="E212" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F212" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G212" s="9" t="s">
         <v>9</v>
@@ -10745,7 +10766,7 @@
       <c r="F213" s="7">
         <v>13</v>
       </c>
-      <c r="G213" s="60" t="s">
+      <c r="G213" s="51" t="s">
         <v>351</v>
       </c>
     </row>
@@ -10934,17 +10955,17 @@
         <v>183</v>
       </c>
       <c r="E223" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F223" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F223" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G223" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="58" t="s">
+      <c r="A224" s="55" t="s">
         <v>204</v>
       </c>
       <c r="B224" s="2">
@@ -10967,7 +10988,7 @@
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="57"/>
+      <c r="A225" s="56"/>
       <c r="B225" s="2">
         <v>17802</v>
       </c>
@@ -10986,7 +11007,7 @@
       <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="57"/>
+      <c r="A226" s="56"/>
       <c r="B226" s="4">
         <v>17809</v>
       </c>
@@ -11005,7 +11026,7 @@
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="57"/>
+      <c r="A227" s="56"/>
       <c r="B227" s="2">
         <v>17814</v>
       </c>
@@ -11024,7 +11045,7 @@
       <c r="G227" s="50"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="57"/>
+      <c r="A228" s="56"/>
       <c r="B228" s="2">
         <v>17822</v>
       </c>
@@ -11043,7 +11064,7 @@
       <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="57"/>
+      <c r="A229" s="56"/>
       <c r="B229" s="2">
         <v>17830</v>
       </c>
@@ -11062,7 +11083,7 @@
       <c r="G229" s="50"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="57"/>
+      <c r="A230" s="56"/>
       <c r="B230" s="2">
         <v>17844</v>
       </c>
@@ -11081,7 +11102,7 @@
       <c r="G230" s="50"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="57"/>
+      <c r="A231" s="56"/>
       <c r="B231" s="4">
         <v>17852</v>
       </c>
@@ -11100,7 +11121,7 @@
       <c r="G231" s="50"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="57"/>
+      <c r="A232" s="56"/>
       <c r="B232" s="4"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -11109,7 +11130,7 @@
       <c r="G232" s="50"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="57"/>
+      <c r="A233" s="56"/>
       <c r="B233" s="4"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -11118,7 +11139,7 @@
       <c r="G233" s="50"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="57"/>
+      <c r="A234" s="56"/>
       <c r="B234" s="3"/>
       <c r="C234" s="20" t="s">
         <v>139</v>
@@ -11150,10 +11171,10 @@
         <v>183</v>
       </c>
       <c r="E235" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F235" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F235" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G235" s="9" t="s">
         <v>9</v>
@@ -11332,7 +11353,7 @@
         <f>SUM(F236:F243)</f>
         <v>82</v>
       </c>
-      <c r="G244" s="51"/>
+      <c r="G244" s="57"/>
     </row>
     <row r="245" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
@@ -11348,10 +11369,10 @@
         <v>183</v>
       </c>
       <c r="E245" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F245" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F245" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>9</v>
@@ -11376,7 +11397,7 @@
       <c r="F246" s="5">
         <v>31</v>
       </c>
-      <c r="G246" s="60" t="s">
+      <c r="G246" s="51" t="s">
         <v>356</v>
       </c>
     </row>
@@ -11546,10 +11567,10 @@
         <v>183</v>
       </c>
       <c r="E255" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F255" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F255" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G255" s="9" t="s">
         <v>9</v>
@@ -11744,10 +11765,10 @@
         <v>183</v>
       </c>
       <c r="E265" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F265" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F265" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G265" s="9" t="s">
         <v>9</v>
@@ -11773,7 +11794,7 @@
         <v>6</v>
       </c>
       <c r="G266" s="50" t="s">
-        <v>358</v>
+        <v>406</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -11926,7 +11947,7 @@
     </row>
     <row r="275" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B275" s="9">
         <v>1953</v>
@@ -11938,10 +11959,10 @@
         <v>183</v>
       </c>
       <c r="E275" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F275" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F275" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G275" s="9" t="s">
         <v>9</v>
@@ -11967,7 +11988,7 @@
         <v>0</v>
       </c>
       <c r="G276" s="50" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -12105,7 +12126,7 @@
     </row>
     <row r="284" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B284" s="9">
         <v>1954</v>
@@ -12117,10 +12138,10 @@
         <v>183</v>
       </c>
       <c r="E284" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F284" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F284" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G284" s="9" t="s">
         <v>9</v>
@@ -12145,8 +12166,8 @@
       <c r="F285" s="7">
         <v>19</v>
       </c>
-      <c r="G285" s="60" t="s">
-        <v>361</v>
+      <c r="G285" s="51" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -12315,10 +12336,10 @@
         <v>183</v>
       </c>
       <c r="E294" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F294" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F294" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G294" s="9" t="s">
         <v>9</v>
@@ -12344,7 +12365,7 @@
         <v>12</v>
       </c>
       <c r="G295" s="50" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -12513,10 +12534,10 @@
         <v>183</v>
       </c>
       <c r="E304" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F304" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F304" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G304" s="9" t="s">
         <v>9</v>
@@ -12541,8 +12562,8 @@
       <c r="F305" s="5">
         <v>12</v>
       </c>
-      <c r="G305" s="60" t="s">
-        <v>363</v>
+      <c r="G305" s="51" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -12711,10 +12732,10 @@
         <v>183</v>
       </c>
       <c r="E314" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F314" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F314" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G314" s="9" t="s">
         <v>9</v>
@@ -12740,7 +12761,7 @@
         <v>7</v>
       </c>
       <c r="G315" s="50" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -12908,7 +12929,7 @@
     </row>
     <row r="325" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B325" s="9">
         <v>1958</v>
@@ -12920,10 +12941,10 @@
         <v>183</v>
       </c>
       <c r="E325" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F325" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F325" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G325" s="9" t="s">
         <v>9</v>
@@ -12949,7 +12970,7 @@
         <v>18</v>
       </c>
       <c r="G326" s="50" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -13106,7 +13127,7 @@
     </row>
     <row r="335" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B335" s="9">
         <v>1959</v>
@@ -13118,10 +13139,10 @@
         <v>183</v>
       </c>
       <c r="E335" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F335" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F335" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G335" s="9" t="s">
         <v>9</v>
@@ -13147,7 +13168,7 @@
         <v>20</v>
       </c>
       <c r="G336" s="50" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -13316,10 +13337,10 @@
         <v>183</v>
       </c>
       <c r="E345" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F345" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F345" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G345" s="9" t="s">
         <v>9</v>
@@ -13345,7 +13366,7 @@
         <v>19</v>
       </c>
       <c r="G346" s="50" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -13514,10 +13535,10 @@
         <v>183</v>
       </c>
       <c r="E355" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F355" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F355" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G355" s="9" t="s">
         <v>9</v>
@@ -13543,7 +13564,7 @@
         <v>6</v>
       </c>
       <c r="G356" s="50" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -13683,7 +13704,7 @@
       <c r="A364" s="46"/>
       <c r="B364" s="3"/>
       <c r="C364" s="20" t="s">
-        <v>152</v>
+        <v>405</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>75</v>
@@ -13712,10 +13733,10 @@
         <v>183</v>
       </c>
       <c r="E365" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F365" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F365" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G365" s="9" t="s">
         <v>9</v>
@@ -13741,7 +13762,7 @@
         <v>7</v>
       </c>
       <c r="G366" s="50" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -13750,7 +13771,7 @@
         <v>22919</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>5</v>
@@ -13891,10 +13912,10 @@
         <v>183</v>
       </c>
       <c r="E374" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F374" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F374" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G374" s="9" t="s">
         <v>9</v>
@@ -13920,7 +13941,7 @@
         <v>20</v>
       </c>
       <c r="G375" s="50" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -13948,7 +13969,7 @@
         <v>23283</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>1</v>
@@ -14070,10 +14091,10 @@
         <v>183</v>
       </c>
       <c r="E383" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F383" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F383" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G383" s="9" t="s">
         <v>9</v>
@@ -14087,7 +14108,7 @@
         <v>23640</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>4</v>
@@ -14099,7 +14120,7 @@
         <v>0</v>
       </c>
       <c r="G384" s="50" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
@@ -14249,10 +14270,10 @@
         <v>183</v>
       </c>
       <c r="E392" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F392" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F392" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G392" s="9" t="s">
         <v>9</v>
@@ -14278,7 +14299,7 @@
         <v>6</v>
       </c>
       <c r="G393" s="50" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
@@ -14428,10 +14449,10 @@
         <v>183</v>
       </c>
       <c r="E401" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F401" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F401" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G401" s="9" t="s">
         <v>9</v>
@@ -14457,7 +14478,7 @@
         <v>19</v>
       </c>
       <c r="G402" s="50" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -14607,10 +14628,10 @@
         <v>183</v>
       </c>
       <c r="E410" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F410" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F410" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G410" s="9" t="s">
         <v>9</v>
@@ -14636,7 +14657,7 @@
         <v>6</v>
       </c>
       <c r="G411" s="50" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -14805,10 +14826,10 @@
         <v>183</v>
       </c>
       <c r="E420" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F420" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F420" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G420" s="9" t="s">
         <v>9</v>
@@ -14834,7 +14855,7 @@
         <v>14</v>
       </c>
       <c r="G421" s="50" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -15003,10 +15024,10 @@
         <v>183</v>
       </c>
       <c r="E430" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F430" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F430" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G430" s="9" t="s">
         <v>9</v>
@@ -15032,7 +15053,7 @@
         <v>38</v>
       </c>
       <c r="G431" s="50" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -15219,10 +15240,10 @@
         <v>183</v>
       </c>
       <c r="E442" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F442" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F442" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G442" s="9" t="s">
         <v>9</v>
@@ -15248,7 +15269,7 @@
         <v>6</v>
       </c>
       <c r="G443" s="50" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -15417,10 +15438,10 @@
         <v>183</v>
       </c>
       <c r="E452" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F452" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F452" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G452" s="9" t="s">
         <v>179</v>
@@ -15446,7 +15467,7 @@
         <v>0</v>
       </c>
       <c r="G453" s="50" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -15615,10 +15636,10 @@
         <v>183</v>
       </c>
       <c r="E462" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F462" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F462" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G462" s="9" t="s">
         <v>9</v>
@@ -15644,7 +15665,7 @@
         <v>28</v>
       </c>
       <c r="G463" s="50" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -15813,10 +15834,10 @@
         <v>183</v>
       </c>
       <c r="E472" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F472" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F472" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G472" s="9" t="s">
         <v>9</v>
@@ -15841,8 +15862,8 @@
       <c r="F473" s="5">
         <v>19</v>
       </c>
-      <c r="G473" s="60" t="s">
-        <v>380</v>
+      <c r="G473" s="51" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -16011,10 +16032,10 @@
         <v>183</v>
       </c>
       <c r="E482" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F482" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F482" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G482" s="9" t="s">
         <v>9</v>
@@ -16040,7 +16061,7 @@
         <v>6</v>
       </c>
       <c r="G483" s="50" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -16209,10 +16230,10 @@
         <v>183</v>
       </c>
       <c r="E492" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F492" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F492" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G492" s="9" t="s">
         <v>9</v>
@@ -16238,7 +16259,7 @@
         <v>6</v>
       </c>
       <c r="G493" s="50" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -16407,17 +16428,17 @@
         <v>183</v>
       </c>
       <c r="E502" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F502" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F502" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G502" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="62" t="s">
+      <c r="A503" s="47" t="s">
         <v>232</v>
       </c>
       <c r="B503" s="2">
@@ -16436,7 +16457,7 @@
         <v>0</v>
       </c>
       <c r="G503" s="50" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -16669,10 +16690,10 @@
         <v>183</v>
       </c>
       <c r="E518" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F518" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F518" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G518" s="9" t="s">
         <v>9</v>
@@ -16698,7 +16719,7 @@
         <v>12</v>
       </c>
       <c r="G519" s="50" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -16886,10 +16907,10 @@
         <v>183</v>
       </c>
       <c r="E529" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F529" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F529" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G529" s="9" t="s">
         <v>9</v>
@@ -16915,7 +16936,7 @@
         <v>40</v>
       </c>
       <c r="G530" s="50" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -17084,10 +17105,10 @@
         <v>183</v>
       </c>
       <c r="E539" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F539" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F539" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G539" s="9" t="s">
         <v>9</v>
@@ -17113,7 +17134,7 @@
         <v>16</v>
       </c>
       <c r="G540" s="50" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -17301,10 +17322,10 @@
         <v>183</v>
       </c>
       <c r="E550" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F550" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F550" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G550" s="9" t="s">
         <v>9</v>
@@ -17330,7 +17351,7 @@
         <v>39</v>
       </c>
       <c r="G551" s="50" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -17518,10 +17539,10 @@
         <v>183</v>
       </c>
       <c r="E561" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F561" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F561" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G561" s="9" t="s">
         <v>9</v>
@@ -17547,7 +17568,7 @@
         <v>47</v>
       </c>
       <c r="G562" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -17735,10 +17756,10 @@
         <v>183</v>
       </c>
       <c r="E572" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F572" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F572" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G572" s="9" t="s">
         <v>9</v>
@@ -17764,7 +17785,7 @@
         <v>36</v>
       </c>
       <c r="G573" s="50" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -17933,10 +17954,10 @@
         <v>183</v>
       </c>
       <c r="E582" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F582" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F582" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G582" s="9" t="s">
         <v>9</v>
@@ -17962,7 +17983,7 @@
         <v>0</v>
       </c>
       <c r="G583" s="50" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -18131,10 +18152,10 @@
         <v>183</v>
       </c>
       <c r="E592" s="26" t="s">
+        <v>392</v>
+      </c>
+      <c r="F592" s="26" t="s">
         <v>393</v>
-      </c>
-      <c r="F592" s="26" t="s">
-        <v>394</v>
       </c>
       <c r="G592" s="9" t="s">
         <v>9</v>
@@ -18160,7 +18181,7 @@
         <v>48</v>
       </c>
       <c r="G593" s="50" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
@@ -19801,21 +19822,83 @@
     <row r="2039" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A530:A538"/>
-    <mergeCell ref="A540:A549"/>
-    <mergeCell ref="A551:A560"/>
-    <mergeCell ref="A562:A571"/>
-    <mergeCell ref="A573:A581"/>
-    <mergeCell ref="A583:A591"/>
-    <mergeCell ref="A593:A600"/>
-    <mergeCell ref="A493:A501"/>
-    <mergeCell ref="A443:A451"/>
-    <mergeCell ref="A453:A461"/>
-    <mergeCell ref="A463:A471"/>
-    <mergeCell ref="A473:A481"/>
-    <mergeCell ref="A483:A491"/>
-    <mergeCell ref="A503:A517"/>
-    <mergeCell ref="A519:A528"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="G77:G89"/>
+    <mergeCell ref="G91:G99"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="G66:G75"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="G224:G234"/>
+    <mergeCell ref="G236:G244"/>
+    <mergeCell ref="G200:G211"/>
+    <mergeCell ref="G213:G222"/>
+    <mergeCell ref="G180:G188"/>
+    <mergeCell ref="A180:A188"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="G101:G109"/>
+    <mergeCell ref="G121:G129"/>
+    <mergeCell ref="G141:G148"/>
+    <mergeCell ref="G131:G139"/>
+    <mergeCell ref="A236:A244"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="G160:G168"/>
+    <mergeCell ref="G190:G198"/>
+    <mergeCell ref="G170:G178"/>
+    <mergeCell ref="A190:A198"/>
+    <mergeCell ref="A200:A211"/>
+    <mergeCell ref="A213:A222"/>
+    <mergeCell ref="G305:G313"/>
+    <mergeCell ref="G266:G274"/>
+    <mergeCell ref="G276:G283"/>
+    <mergeCell ref="G285:G293"/>
+    <mergeCell ref="A266:A274"/>
+    <mergeCell ref="G111:G119"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="G150:G158"/>
+    <mergeCell ref="G246:G254"/>
+    <mergeCell ref="A246:A254"/>
+    <mergeCell ref="A276:A283"/>
+    <mergeCell ref="A131:A139"/>
+    <mergeCell ref="G256:G264"/>
+    <mergeCell ref="A256:A264"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="G295:G303"/>
+    <mergeCell ref="A295:A303"/>
+    <mergeCell ref="A285:A293"/>
+    <mergeCell ref="A224:A234"/>
+    <mergeCell ref="A160:A168"/>
+    <mergeCell ref="G346:G354"/>
+    <mergeCell ref="G356:G364"/>
+    <mergeCell ref="G315:G324"/>
+    <mergeCell ref="G326:G334"/>
+    <mergeCell ref="G336:G344"/>
+    <mergeCell ref="G573:G581"/>
+    <mergeCell ref="G583:G591"/>
+    <mergeCell ref="G593:G600"/>
+    <mergeCell ref="G551:G560"/>
+    <mergeCell ref="G562:G571"/>
+    <mergeCell ref="G384:G391"/>
+    <mergeCell ref="G519:G528"/>
+    <mergeCell ref="G530:G538"/>
+    <mergeCell ref="G540:G549"/>
+    <mergeCell ref="G493:G501"/>
+    <mergeCell ref="G503:G517"/>
+    <mergeCell ref="G411:G419"/>
+    <mergeCell ref="G421:G429"/>
     <mergeCell ref="A336:A344"/>
     <mergeCell ref="A326:A334"/>
     <mergeCell ref="A305:A313"/>
@@ -19840,83 +19923,21 @@
     <mergeCell ref="A402:A409"/>
     <mergeCell ref="A411:A419"/>
     <mergeCell ref="A421:A429"/>
-    <mergeCell ref="G346:G354"/>
-    <mergeCell ref="G356:G364"/>
-    <mergeCell ref="G315:G324"/>
-    <mergeCell ref="G326:G334"/>
-    <mergeCell ref="G336:G344"/>
-    <mergeCell ref="G573:G581"/>
-    <mergeCell ref="G583:G591"/>
-    <mergeCell ref="G593:G600"/>
-    <mergeCell ref="G551:G560"/>
-    <mergeCell ref="G562:G571"/>
-    <mergeCell ref="G384:G391"/>
-    <mergeCell ref="G519:G528"/>
-    <mergeCell ref="G530:G538"/>
-    <mergeCell ref="G540:G549"/>
-    <mergeCell ref="G493:G501"/>
-    <mergeCell ref="G503:G517"/>
-    <mergeCell ref="G411:G419"/>
-    <mergeCell ref="G421:G429"/>
-    <mergeCell ref="G305:G313"/>
-    <mergeCell ref="G266:G274"/>
-    <mergeCell ref="G276:G283"/>
-    <mergeCell ref="G285:G293"/>
-    <mergeCell ref="A266:A274"/>
-    <mergeCell ref="G111:G119"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="G150:G158"/>
-    <mergeCell ref="G246:G254"/>
-    <mergeCell ref="A246:A254"/>
-    <mergeCell ref="A276:A283"/>
-    <mergeCell ref="A131:A139"/>
-    <mergeCell ref="G256:G264"/>
-    <mergeCell ref="A256:A264"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="G295:G303"/>
-    <mergeCell ref="A295:A303"/>
-    <mergeCell ref="A285:A293"/>
-    <mergeCell ref="A224:A234"/>
-    <mergeCell ref="A160:A168"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A77:A89"/>
-    <mergeCell ref="G224:G234"/>
-    <mergeCell ref="G236:G244"/>
-    <mergeCell ref="G200:G211"/>
-    <mergeCell ref="G213:G222"/>
-    <mergeCell ref="G180:G188"/>
-    <mergeCell ref="A180:A188"/>
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="G101:G109"/>
-    <mergeCell ref="G121:G129"/>
-    <mergeCell ref="G141:G148"/>
-    <mergeCell ref="G131:G139"/>
-    <mergeCell ref="A236:A244"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="G160:G168"/>
-    <mergeCell ref="G190:G198"/>
-    <mergeCell ref="G170:G178"/>
-    <mergeCell ref="A190:A198"/>
-    <mergeCell ref="A200:A211"/>
-    <mergeCell ref="A213:A222"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="G45:G54"/>
-    <mergeCell ref="G77:G89"/>
-    <mergeCell ref="G91:G99"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="G66:G75"/>
+    <mergeCell ref="A530:A538"/>
+    <mergeCell ref="A540:A549"/>
+    <mergeCell ref="A551:A560"/>
+    <mergeCell ref="A562:A571"/>
+    <mergeCell ref="A573:A581"/>
+    <mergeCell ref="A583:A591"/>
+    <mergeCell ref="A593:A600"/>
+    <mergeCell ref="A493:A501"/>
+    <mergeCell ref="A443:A451"/>
+    <mergeCell ref="A453:A461"/>
+    <mergeCell ref="A463:A471"/>
+    <mergeCell ref="A473:A481"/>
+    <mergeCell ref="A483:A491"/>
+    <mergeCell ref="A503:A517"/>
+    <mergeCell ref="A519:A528"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{19CFF195-F347-4DC1-882D-E27AE52E410C}"/>
@@ -20023,16 +20044,16 @@
       <c r="D1" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E1" s="63" t="s">
+      <c r="E1" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="64"/>
+      <c r="F1" s="68"/>
       <c r="G1" s="26" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="54" t="s">
+      <c r="A2" s="60" t="s">
         <v>182</v>
       </c>
       <c r="B2" s="2">
@@ -20050,12 +20071,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="51" t="s">
+      <c r="G2" s="57" t="s">
         <v>249</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="60"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -20071,10 +20092,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="52"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="54"/>
+      <c r="A4" s="60"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -20090,10 +20111,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="52"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
+      <c r="A5" s="60"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -20109,37 +20130,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="52"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="54"/>
+      <c r="A6" s="60"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="52"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="54"/>
+      <c r="A7" s="60"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="52"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="54"/>
+      <c r="A8" s="60"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="52"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="54"/>
+      <c r="A9" s="60"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>45</v>
@@ -20155,7 +20176,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="53"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -20170,16 +20191,16 @@
       <c r="D10" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="63" t="s">
+      <c r="E10" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F10" s="64"/>
+      <c r="F10" s="68"/>
       <c r="G10" s="11" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="54" t="s">
+      <c r="A11" s="60" t="s">
         <v>184</v>
       </c>
       <c r="B11" s="2">
@@ -20197,12 +20218,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="51" t="s">
+      <c r="G11" s="57" t="s">
         <v>250</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="54"/>
+      <c r="A12" s="60"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -20218,10 +20239,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="52"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="54"/>
+      <c r="A13" s="60"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -20237,10 +20258,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="52"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="54"/>
+      <c r="A14" s="60"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -20256,10 +20277,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="52"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="54"/>
+      <c r="A15" s="60"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -20275,10 +20296,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="52"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="54"/>
+      <c r="A16" s="60"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -20294,10 +20315,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="52"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="54"/>
+      <c r="A17" s="60"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -20313,10 +20334,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="52"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="54"/>
+      <c r="A18" s="60"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -20332,10 +20353,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="52"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="54"/>
+      <c r="A19" s="60"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>46</v>
@@ -20351,7 +20372,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="53"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -20366,16 +20387,16 @@
       <c r="D20" s="26" t="s">
         <v>183</v>
       </c>
-      <c r="E20" s="63" t="s">
+      <c r="E20" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F20" s="64"/>
+      <c r="F20" s="68"/>
       <c r="G20" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="55" t="s">
+      <c r="A21" s="61" t="s">
         <v>185</v>
       </c>
       <c r="B21" s="2">
@@ -20393,12 +20414,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="51" t="s">
+      <c r="G21" s="57" t="s">
         <v>251</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="55"/>
+      <c r="A22" s="61"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -20414,10 +20435,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="52"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="55"/>
+      <c r="A23" s="61"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -20433,10 +20454,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="52"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="55"/>
+      <c r="A24" s="61"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -20452,10 +20473,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="52"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="55"/>
+      <c r="A25" s="61"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -20471,10 +20492,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="52"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="55"/>
+      <c r="A26" s="61"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -20490,10 +20511,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="52"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="55"/>
+      <c r="A27" s="61"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -20509,10 +20530,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="52"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="55"/>
+      <c r="A28" s="61"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -20528,10 +20549,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="52"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="55"/>
+      <c r="A29" s="61"/>
       <c r="B29" s="2" t="s">
         <v>78</v>
       </c>
@@ -20547,10 +20568,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="52"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="55"/>
+      <c r="A30" s="61"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -20566,10 +20587,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="52"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="55"/>
+      <c r="A31" s="61"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -20585,10 +20606,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="52"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="56"/>
+      <c r="A32" s="62"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>47</v>
@@ -20604,7 +20625,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="53"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -20619,10 +20640,10 @@
       <c r="D33" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E33" s="63" t="s">
+      <c r="E33" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F33" s="64"/>
+      <c r="F33" s="68"/>
       <c r="G33" s="9" t="s">
         <v>9</v>
       </c>
@@ -20646,7 +20667,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="51" t="s">
+      <c r="G34" s="57" t="s">
         <v>252</v>
       </c>
     </row>
@@ -20667,7 +20688,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="52"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="45"/>
@@ -20686,7 +20707,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="52"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="45"/>
@@ -20705,7 +20726,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="52"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="45"/>
@@ -20724,7 +20745,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="52"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="45"/>
@@ -20743,7 +20764,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="52"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="45"/>
@@ -20762,7 +20783,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="52"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="45"/>
@@ -20781,7 +20802,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="52"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="45"/>
@@ -20800,7 +20821,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="52"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="46"/>
@@ -20819,7 +20840,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="53"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -20834,16 +20855,16 @@
       <c r="D44" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E44" s="63" t="s">
+      <c r="E44" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F44" s="64"/>
+      <c r="F44" s="68"/>
       <c r="G44" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="47" t="s">
+      <c r="A45" s="59" t="s">
         <v>187</v>
       </c>
       <c r="B45" s="2">
@@ -21030,10 +21051,10 @@
       <c r="D54" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E54" s="63" t="s">
+      <c r="E54" s="67" t="s">
         <v>248</v>
       </c>
-      <c r="F54" s="64"/>
+      <c r="F54" s="68"/>
       <c r="G54" s="9" t="s">
         <v>9</v>
       </c>
@@ -21444,7 +21465,7 @@
       </c>
     </row>
     <row r="76" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A76" s="58" t="s">
+      <c r="A76" s="55" t="s">
         <v>190</v>
       </c>
       <c r="B76" s="2">
@@ -21462,12 +21483,12 @@
       <c r="F76" s="7">
         <v>6</v>
       </c>
-      <c r="G76" s="51" t="s">
+      <c r="G76" s="57" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="57"/>
+      <c r="A77" s="56"/>
       <c r="B77" s="2">
         <v>12699</v>
       </c>
@@ -21483,10 +21504,10 @@
       <c r="F77" s="7">
         <v>12</v>
       </c>
-      <c r="G77" s="52"/>
+      <c r="G77" s="53"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
+      <c r="A78" s="56"/>
       <c r="B78" s="2">
         <v>12705</v>
       </c>
@@ -21502,10 +21523,10 @@
       <c r="F78" s="7">
         <v>15</v>
       </c>
-      <c r="G78" s="52"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="56"/>
       <c r="B79" s="2">
         <v>12713</v>
       </c>
@@ -21521,10 +21542,10 @@
       <c r="F79" s="7">
         <v>0</v>
       </c>
-      <c r="G79" s="52"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
+      <c r="A80" s="56"/>
       <c r="B80" s="2">
         <v>12720</v>
       </c>
@@ -21540,10 +21561,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="52"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="56"/>
       <c r="B81" s="2">
         <v>12727</v>
       </c>
@@ -21559,10 +21580,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="52"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+      <c r="A82" s="56"/>
       <c r="B82" s="40">
         <v>12734</v>
       </c>
@@ -21578,10 +21599,10 @@
       <c r="F82" s="43">
         <v>0</v>
       </c>
-      <c r="G82" s="52"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="56"/>
       <c r="B83" s="2">
         <v>12741</v>
       </c>
@@ -21597,18 +21618,18 @@
       <c r="F83" s="7">
         <v>0</v>
       </c>
-      <c r="G83" s="52"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
+      <c r="A84" s="56"/>
       <c r="B84" s="2"/>
       <c r="D84" s="3"/>
       <c r="E84" s="6"/>
       <c r="F84" s="7"/>
-      <c r="G84" s="52"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="56"/>
       <c r="B85" s="3"/>
       <c r="C85" s="20" t="s">
         <v>13</v>
@@ -21622,10 +21643,10 @@
       <c r="F85" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="52"/>
+      <c r="G85" s="53"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
+      <c r="A86" s="56"/>
       <c r="B86" s="35"/>
       <c r="C86" s="39" t="s">
         <v>42</v>
@@ -21633,10 +21654,10 @@
       <c r="D86" s="36"/>
       <c r="E86" s="37"/>
       <c r="F86" s="38"/>
-      <c r="G86" s="52"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A87" s="57"/>
+      <c r="A87" s="56"/>
       <c r="B87" s="35"/>
       <c r="C87" s="20" t="s">
         <v>43</v>
@@ -21652,7 +21673,7 @@
         <f>SUM(F76:F86)</f>
         <v>33</v>
       </c>
-      <c r="G87" s="53"/>
+      <c r="G87" s="54"/>
     </row>
     <row r="88" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="28" t="s">
@@ -21676,7 +21697,7 @@
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="57" t="s">
+      <c r="A89" s="56" t="s">
         <v>191</v>
       </c>
       <c r="B89" s="2">
@@ -21699,7 +21720,7 @@
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="57"/>
+      <c r="A90" s="56"/>
       <c r="B90" s="2">
         <v>13069</v>
       </c>
@@ -21718,7 +21739,7 @@
       <c r="G90" s="50"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="57"/>
+      <c r="A91" s="56"/>
       <c r="B91" s="2">
         <v>13077</v>
       </c>
@@ -21737,7 +21758,7 @@
       <c r="G91" s="50"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
+      <c r="A92" s="56"/>
       <c r="B92" s="2">
         <v>13084</v>
       </c>
@@ -21756,7 +21777,7 @@
       <c r="G92" s="50"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
+      <c r="A93" s="56"/>
       <c r="B93" s="2">
         <v>13091</v>
       </c>
@@ -21775,7 +21796,7 @@
       <c r="G93" s="50"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
+      <c r="A94" s="56"/>
       <c r="B94" s="2">
         <v>13098</v>
       </c>
@@ -21794,7 +21815,7 @@
       <c r="G94" s="50"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="A95" s="56"/>
       <c r="B95" s="2">
         <v>13105</v>
       </c>
@@ -21813,7 +21834,7 @@
       <c r="G95" s="50"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
+      <c r="A96" s="56"/>
       <c r="B96" s="2">
         <v>13112</v>
       </c>
@@ -21832,7 +21853,7 @@
       <c r="G96" s="50"/>
     </row>
     <row r="97" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="57"/>
+      <c r="A97" s="56"/>
       <c r="B97" s="3"/>
       <c r="C97" s="20" t="s">
         <v>44</v>
@@ -22820,10 +22841,10 @@
       <c r="D147" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E147" s="67" t="s">
+      <c r="E147" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F147" s="68"/>
+      <c r="F147" s="64"/>
       <c r="G147" s="9" t="s">
         <v>9</v>
       </c>
@@ -22847,7 +22868,7 @@
       <c r="F148" s="7">
         <v>12</v>
       </c>
-      <c r="G148" s="61" t="s">
+      <c r="G148" s="52" t="s">
         <v>267</v>
       </c>
     </row>
@@ -22868,7 +22889,7 @@
       <c r="F149" s="7">
         <v>0</v>
       </c>
-      <c r="G149" s="52"/>
+      <c r="G149" s="53"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A150" s="45"/>
@@ -22887,7 +22908,7 @@
       <c r="F150" s="7">
         <v>13</v>
       </c>
-      <c r="G150" s="52"/>
+      <c r="G150" s="53"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A151" s="45"/>
@@ -22906,7 +22927,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="52"/>
+      <c r="G151" s="53"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="45"/>
@@ -22925,7 +22946,7 @@
       <c r="F152" s="7">
         <v>31</v>
       </c>
-      <c r="G152" s="52"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="45"/>
@@ -22944,7 +22965,7 @@
       <c r="F153" s="7">
         <v>13</v>
       </c>
-      <c r="G153" s="52"/>
+      <c r="G153" s="53"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="45"/>
@@ -22963,7 +22984,7 @@
       <c r="F154" s="7">
         <v>21</v>
       </c>
-      <c r="G154" s="52"/>
+      <c r="G154" s="53"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="45"/>
@@ -22982,7 +23003,7 @@
       <c r="F155" s="7">
         <v>38</v>
       </c>
-      <c r="G155" s="52"/>
+      <c r="G155" s="53"/>
     </row>
     <row r="156" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A156" s="46"/>
@@ -23001,7 +23022,7 @@
         <f>SUM(F148:F155)</f>
         <v>128</v>
       </c>
-      <c r="G156" s="53"/>
+      <c r="G156" s="54"/>
     </row>
     <row r="157" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="28" t="s">
@@ -23016,10 +23037,10 @@
       <c r="D157" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E157" s="67" t="s">
+      <c r="E157" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F157" s="68"/>
+      <c r="F157" s="64"/>
       <c r="G157" s="9" t="s">
         <v>9</v>
       </c>
@@ -23043,7 +23064,7 @@
       <c r="F158" s="5">
         <v>7</v>
       </c>
-      <c r="G158" s="60" t="s">
+      <c r="G158" s="51" t="s">
         <v>269</v>
       </c>
     </row>
@@ -23206,10 +23227,10 @@
       <c r="D167" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E167" s="67" t="s">
+      <c r="E167" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F167" s="68"/>
+      <c r="F167" s="64"/>
       <c r="G167" s="9" t="s">
         <v>9</v>
       </c>
@@ -23233,7 +23254,7 @@
       <c r="F168" s="5">
         <v>12</v>
       </c>
-      <c r="G168" s="60" t="s">
+      <c r="G168" s="51" t="s">
         <v>271</v>
       </c>
     </row>
@@ -23402,10 +23423,10 @@
       <c r="D177" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E177" s="67" t="s">
+      <c r="E177" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F177" s="68"/>
+      <c r="F177" s="64"/>
       <c r="G177" s="9" t="s">
         <v>9</v>
       </c>
@@ -23598,10 +23619,10 @@
       <c r="D187" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E187" s="67" t="s">
+      <c r="E187" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F187" s="68"/>
+      <c r="F187" s="64"/>
       <c r="G187" s="9" t="s">
         <v>9</v>
       </c>
@@ -23625,7 +23646,7 @@
       <c r="F188" s="5">
         <v>26</v>
       </c>
-      <c r="G188" s="60" t="s">
+      <c r="G188" s="51" t="s">
         <v>274</v>
       </c>
     </row>
@@ -23794,16 +23815,16 @@
       <c r="D197" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E197" s="67" t="s">
+      <c r="E197" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F197" s="68"/>
+      <c r="F197" s="64"/>
       <c r="G197" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="47" t="s">
+      <c r="A198" s="59" t="s">
         <v>202</v>
       </c>
       <c r="B198" s="2">
@@ -23821,7 +23842,7 @@
       <c r="F198" s="5">
         <v>7</v>
       </c>
-      <c r="G198" s="59" t="s">
+      <c r="G198" s="58" t="s">
         <v>276</v>
       </c>
     </row>
@@ -23975,7 +23996,7 @@
       <c r="F206" s="5">
         <v>7</v>
       </c>
-      <c r="G206" s="51"/>
+      <c r="G206" s="57"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A207" s="48"/>
@@ -23984,7 +24005,7 @@
       <c r="D207" s="3"/>
       <c r="E207" s="8"/>
       <c r="F207" s="5"/>
-      <c r="G207" s="51"/>
+      <c r="G207" s="57"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A208" s="48"/>
@@ -23993,7 +24014,7 @@
       <c r="D208" s="3"/>
       <c r="E208" s="8"/>
       <c r="F208" s="5"/>
-      <c r="G208" s="51"/>
+      <c r="G208" s="57"/>
     </row>
     <row r="209" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A209" s="49"/>
@@ -24012,7 +24033,7 @@
         <f>SUM(F198:F206)</f>
         <v>16</v>
       </c>
-      <c r="G209" s="51"/>
+      <c r="G209" s="57"/>
     </row>
     <row r="210" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="28" t="s">
@@ -24027,10 +24048,10 @@
       <c r="D210" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E210" s="67" t="s">
+      <c r="E210" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F210" s="68"/>
+      <c r="F210" s="64"/>
       <c r="G210" s="9" t="s">
         <v>9</v>
       </c>
@@ -24054,7 +24075,7 @@
       <c r="F211" s="7">
         <v>13</v>
       </c>
-      <c r="G211" s="60" t="s">
+      <c r="G211" s="51" t="s">
         <v>277</v>
       </c>
     </row>
@@ -24242,16 +24263,16 @@
       <c r="D221" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E221" s="67" t="s">
+      <c r="E221" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F221" s="68"/>
+      <c r="F221" s="64"/>
       <c r="G221" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="58" t="s">
+      <c r="A222" s="55" t="s">
         <v>204</v>
       </c>
       <c r="B222" s="2">
@@ -24274,7 +24295,7 @@
       </c>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="57"/>
+      <c r="A223" s="56"/>
       <c r="B223" s="2">
         <v>17802</v>
       </c>
@@ -24293,7 +24314,7 @@
       <c r="G223" s="50"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="57"/>
+      <c r="A224" s="56"/>
       <c r="B224" s="4">
         <v>17809</v>
       </c>
@@ -24312,7 +24333,7 @@
       <c r="G224" s="50"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="57"/>
+      <c r="A225" s="56"/>
       <c r="B225" s="2">
         <v>17814</v>
       </c>
@@ -24331,7 +24352,7 @@
       <c r="G225" s="50"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="57"/>
+      <c r="A226" s="56"/>
       <c r="B226" s="2">
         <v>17822</v>
       </c>
@@ -24350,7 +24371,7 @@
       <c r="G226" s="50"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="57"/>
+      <c r="A227" s="56"/>
       <c r="B227" s="2">
         <v>17830</v>
       </c>
@@ -24369,7 +24390,7 @@
       <c r="G227" s="50"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="57"/>
+      <c r="A228" s="56"/>
       <c r="B228" s="2">
         <v>17844</v>
       </c>
@@ -24388,7 +24409,7 @@
       <c r="G228" s="50"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="57"/>
+      <c r="A229" s="56"/>
       <c r="B229" s="4">
         <v>17852</v>
       </c>
@@ -24407,7 +24428,7 @@
       <c r="G229" s="50"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="57"/>
+      <c r="A230" s="56"/>
       <c r="B230" s="4"/>
       <c r="C230" s="3"/>
       <c r="D230" s="3"/>
@@ -24416,7 +24437,7 @@
       <c r="G230" s="50"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="57"/>
+      <c r="A231" s="56"/>
       <c r="B231" s="4"/>
       <c r="C231" s="3"/>
       <c r="D231" s="3"/>
@@ -24425,7 +24446,7 @@
       <c r="G231" s="50"/>
     </row>
     <row r="232" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A232" s="57"/>
+      <c r="A232" s="56"/>
       <c r="B232" s="3"/>
       <c r="C232" s="20" t="s">
         <v>139</v>
@@ -24456,10 +24477,10 @@
       <c r="D233" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E233" s="67" t="s">
+      <c r="E233" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F233" s="68"/>
+      <c r="F233" s="64"/>
       <c r="G233" s="9" t="s">
         <v>9</v>
       </c>
@@ -24637,7 +24658,7 @@
         <f>SUM(F234:F241)</f>
         <v>82</v>
       </c>
-      <c r="G242" s="51"/>
+      <c r="G242" s="57"/>
     </row>
     <row r="243" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="28" t="s">
@@ -24652,10 +24673,10 @@
       <c r="D243" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E243" s="67" t="s">
+      <c r="E243" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F243" s="68"/>
+      <c r="F243" s="64"/>
       <c r="G243" s="9" t="s">
         <v>9</v>
       </c>
@@ -24679,7 +24700,7 @@
       <c r="F244" s="5">
         <v>31</v>
       </c>
-      <c r="G244" s="60" t="s">
+      <c r="G244" s="51" t="s">
         <v>280</v>
       </c>
     </row>
@@ -24848,10 +24869,10 @@
       <c r="D253" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E253" s="67" t="s">
+      <c r="E253" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F253" s="68"/>
+      <c r="F253" s="64"/>
       <c r="G253" s="9" t="s">
         <v>9</v>
       </c>
@@ -25044,10 +25065,10 @@
       <c r="D263" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E263" s="67" t="s">
+      <c r="E263" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F263" s="68"/>
+      <c r="F263" s="64"/>
       <c r="G263" s="9" t="s">
         <v>9</v>
       </c>
@@ -25236,10 +25257,10 @@
       <c r="D273" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E273" s="67" t="s">
+      <c r="E273" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F273" s="68"/>
+      <c r="F273" s="64"/>
       <c r="G273" s="9" t="s">
         <v>9</v>
       </c>
@@ -25413,10 +25434,10 @@
       <c r="D282" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E282" s="67" t="s">
+      <c r="E282" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F282" s="68"/>
+      <c r="F282" s="64"/>
       <c r="G282" s="9" t="s">
         <v>9</v>
       </c>
@@ -25440,7 +25461,7 @@
       <c r="F283" s="7">
         <v>19</v>
       </c>
-      <c r="G283" s="60" t="s">
+      <c r="G283" s="51" t="s">
         <v>287</v>
       </c>
     </row>
@@ -25609,10 +25630,10 @@
       <c r="D292" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E292" s="67" t="s">
+      <c r="E292" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F292" s="68"/>
+      <c r="F292" s="64"/>
       <c r="G292" s="9" t="s">
         <v>9</v>
       </c>
@@ -25805,10 +25826,10 @@
       <c r="D302" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E302" s="67" t="s">
+      <c r="E302" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F302" s="68"/>
+      <c r="F302" s="64"/>
       <c r="G302" s="9" t="s">
         <v>9</v>
       </c>
@@ -25832,7 +25853,7 @@
       <c r="F303" s="5">
         <v>12</v>
       </c>
-      <c r="G303" s="60" t="s">
+      <c r="G303" s="51" t="s">
         <v>290</v>
       </c>
     </row>
@@ -26001,10 +26022,10 @@
       <c r="D312" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E312" s="67" t="s">
+      <c r="E312" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F312" s="68"/>
+      <c r="F312" s="64"/>
       <c r="G312" s="9" t="s">
         <v>9</v>
       </c>
@@ -26208,10 +26229,10 @@
       <c r="D323" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E323" s="67" t="s">
+      <c r="E323" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F323" s="68"/>
+      <c r="F323" s="64"/>
       <c r="G323" s="9" t="s">
         <v>9</v>
       </c>
@@ -26404,10 +26425,10 @@
       <c r="D333" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E333" s="67" t="s">
+      <c r="E333" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F333" s="68"/>
+      <c r="F333" s="64"/>
       <c r="G333" s="9" t="s">
         <v>9</v>
       </c>
@@ -26600,10 +26621,10 @@
       <c r="D343" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E343" s="67" t="s">
+      <c r="E343" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F343" s="68"/>
+      <c r="F343" s="64"/>
       <c r="G343" s="9" t="s">
         <v>9</v>
       </c>
@@ -26796,10 +26817,10 @@
       <c r="D353" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E353" s="67" t="s">
+      <c r="E353" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F353" s="68"/>
+      <c r="F353" s="64"/>
       <c r="G353" s="9" t="s">
         <v>9</v>
       </c>
@@ -26992,10 +27013,10 @@
       <c r="D363" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E363" s="67" t="s">
+      <c r="E363" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F363" s="68"/>
+      <c r="F363" s="64"/>
       <c r="G363" s="9" t="s">
         <v>9</v>
       </c>
@@ -27169,10 +27190,10 @@
       <c r="D372" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E372" s="67" t="s">
+      <c r="E372" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F372" s="68"/>
+      <c r="F372" s="64"/>
       <c r="G372" s="9" t="s">
         <v>9</v>
       </c>
@@ -27346,10 +27367,10 @@
       <c r="D381" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E381" s="67" t="s">
+      <c r="E381" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F381" s="68"/>
+      <c r="F381" s="64"/>
       <c r="G381" s="9" t="s">
         <v>9</v>
       </c>
@@ -27523,10 +27544,10 @@
       <c r="D390" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E390" s="67" t="s">
+      <c r="E390" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F390" s="68"/>
+      <c r="F390" s="64"/>
       <c r="G390" s="9" t="s">
         <v>9</v>
       </c>
@@ -27700,10 +27721,10 @@
       <c r="D399" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E399" s="67" t="s">
+      <c r="E399" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F399" s="68"/>
+      <c r="F399" s="64"/>
       <c r="G399" s="9" t="s">
         <v>9</v>
       </c>
@@ -27877,10 +27898,10 @@
       <c r="D408" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E408" s="67" t="s">
+      <c r="E408" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F408" s="68"/>
+      <c r="F408" s="64"/>
       <c r="G408" s="9" t="s">
         <v>9</v>
       </c>
@@ -28073,10 +28094,10 @@
       <c r="D418" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E418" s="67" t="s">
+      <c r="E418" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F418" s="68"/>
+      <c r="F418" s="64"/>
       <c r="G418" s="9" t="s">
         <v>9</v>
       </c>
@@ -28271,10 +28292,10 @@
       <c r="D428" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E428" s="67" t="s">
+      <c r="E428" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F428" s="68"/>
+      <c r="F428" s="64"/>
       <c r="G428" s="9" t="s">
         <v>9</v>
       </c>
@@ -28485,10 +28506,10 @@
       <c r="D440" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E440" s="67" t="s">
+      <c r="E440" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F440" s="68"/>
+      <c r="F440" s="64"/>
       <c r="G440" s="9" t="s">
         <v>9</v>
       </c>
@@ -28681,10 +28702,10 @@
       <c r="D450" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E450" s="67" t="s">
+      <c r="E450" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F450" s="68"/>
+      <c r="F450" s="64"/>
       <c r="G450" s="9" t="s">
         <v>179</v>
       </c>
@@ -28877,10 +28898,10 @@
       <c r="D460" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E460" s="67" t="s">
+      <c r="E460" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F460" s="68"/>
+      <c r="F460" s="64"/>
       <c r="G460" s="9" t="s">
         <v>9</v>
       </c>
@@ -29073,10 +29094,10 @@
       <c r="D470" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E470" s="67" t="s">
+      <c r="E470" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F470" s="68"/>
+      <c r="F470" s="64"/>
       <c r="G470" s="9" t="s">
         <v>9</v>
       </c>
@@ -29100,7 +29121,7 @@
       <c r="F471" s="5">
         <v>19</v>
       </c>
-      <c r="G471" s="60" t="s">
+      <c r="G471" s="51" t="s">
         <v>314</v>
       </c>
     </row>
@@ -29269,10 +29290,10 @@
       <c r="D480" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E480" s="67" t="s">
+      <c r="E480" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F480" s="68"/>
+      <c r="F480" s="64"/>
       <c r="G480" s="9" t="s">
         <v>9</v>
       </c>
@@ -29465,10 +29486,10 @@
       <c r="D490" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E490" s="67" t="s">
+      <c r="E490" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F490" s="68"/>
+      <c r="F490" s="64"/>
       <c r="G490" s="9" t="s">
         <v>9</v>
       </c>
@@ -29661,16 +29682,16 @@
       <c r="D500" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E500" s="67" t="s">
+      <c r="E500" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F500" s="68"/>
+      <c r="F500" s="64"/>
       <c r="G500" s="9" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="62" t="s">
+      <c r="A501" s="47" t="s">
         <v>232</v>
       </c>
       <c r="B501" s="2">
@@ -29912,10 +29933,10 @@
       <c r="D515" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E515" s="67" t="s">
+      <c r="E515" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F515" s="68"/>
+      <c r="F515" s="64"/>
       <c r="G515" s="9" t="s">
         <v>9</v>
       </c>
@@ -30127,10 +30148,10 @@
       <c r="D526" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E526" s="67" t="s">
+      <c r="E526" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F526" s="68"/>
+      <c r="F526" s="64"/>
       <c r="G526" s="9" t="s">
         <v>9</v>
       </c>
@@ -30323,10 +30344,10 @@
       <c r="D536" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E536" s="67" t="s">
+      <c r="E536" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F536" s="68"/>
+      <c r="F536" s="64"/>
       <c r="G536" s="9" t="s">
         <v>9</v>
       </c>
@@ -30538,10 +30559,10 @@
       <c r="D547" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E547" s="67" t="s">
+      <c r="E547" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F547" s="68"/>
+      <c r="F547" s="64"/>
       <c r="G547" s="9" t="s">
         <v>9</v>
       </c>
@@ -30753,10 +30774,10 @@
       <c r="D558" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E558" s="67" t="s">
+      <c r="E558" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F558" s="68"/>
+      <c r="F558" s="64"/>
       <c r="G558" s="9" t="s">
         <v>9</v>
       </c>
@@ -30968,10 +30989,10 @@
       <c r="D569" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E569" s="67" t="s">
+      <c r="E569" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F569" s="68"/>
+      <c r="F569" s="64"/>
       <c r="G569" s="9" t="s">
         <v>9</v>
       </c>
@@ -31164,10 +31185,10 @@
       <c r="D579" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E579" s="67" t="s">
+      <c r="E579" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F579" s="68"/>
+      <c r="F579" s="64"/>
       <c r="G579" s="9" t="s">
         <v>9</v>
       </c>
@@ -31360,10 +31381,10 @@
       <c r="D589" s="9" t="s">
         <v>183</v>
       </c>
-      <c r="E589" s="67" t="s">
+      <c r="E589" s="63" t="s">
         <v>255</v>
       </c>
-      <c r="F589" s="68"/>
+      <c r="F589" s="64"/>
       <c r="G589" s="9" t="s">
         <v>9</v>
       </c>
@@ -33053,6 +33074,168 @@
     <row r="2036" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="E10:F10"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="E44:F44"/>
+    <mergeCell ref="A45:A53"/>
+    <mergeCell ref="G45:G53"/>
+    <mergeCell ref="E54:F54"/>
+    <mergeCell ref="A55:A63"/>
+    <mergeCell ref="G55:G63"/>
+    <mergeCell ref="E20:F20"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="E33:F33"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="E88:F88"/>
+    <mergeCell ref="A89:A97"/>
+    <mergeCell ref="G89:G97"/>
+    <mergeCell ref="E98:F98"/>
+    <mergeCell ref="A99:A107"/>
+    <mergeCell ref="G99:G107"/>
+    <mergeCell ref="E64:F64"/>
+    <mergeCell ref="A65:A74"/>
+    <mergeCell ref="G65:G74"/>
+    <mergeCell ref="E75:F75"/>
+    <mergeCell ref="A76:A87"/>
+    <mergeCell ref="G76:G87"/>
+    <mergeCell ref="E128:F128"/>
+    <mergeCell ref="A129:A137"/>
+    <mergeCell ref="G129:G137"/>
+    <mergeCell ref="E138:F138"/>
+    <mergeCell ref="A139:A146"/>
+    <mergeCell ref="G139:G146"/>
+    <mergeCell ref="E108:F108"/>
+    <mergeCell ref="A109:A117"/>
+    <mergeCell ref="G109:G117"/>
+    <mergeCell ref="E118:F118"/>
+    <mergeCell ref="A119:A127"/>
+    <mergeCell ref="G119:G127"/>
+    <mergeCell ref="E167:F167"/>
+    <mergeCell ref="A168:A176"/>
+    <mergeCell ref="G168:G176"/>
+    <mergeCell ref="E177:F177"/>
+    <mergeCell ref="A178:A186"/>
+    <mergeCell ref="G178:G186"/>
+    <mergeCell ref="E147:F147"/>
+    <mergeCell ref="A148:A156"/>
+    <mergeCell ref="G148:G156"/>
+    <mergeCell ref="E157:F157"/>
+    <mergeCell ref="A158:A166"/>
+    <mergeCell ref="G158:G166"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="A211:A220"/>
+    <mergeCell ref="G211:G220"/>
+    <mergeCell ref="E221:F221"/>
+    <mergeCell ref="A222:A232"/>
+    <mergeCell ref="G222:G232"/>
+    <mergeCell ref="E187:F187"/>
+    <mergeCell ref="A188:A196"/>
+    <mergeCell ref="G188:G196"/>
+    <mergeCell ref="E197:F197"/>
+    <mergeCell ref="A198:A209"/>
+    <mergeCell ref="G198:G209"/>
+    <mergeCell ref="E253:F253"/>
+    <mergeCell ref="A254:A262"/>
+    <mergeCell ref="G254:G262"/>
+    <mergeCell ref="E263:F263"/>
+    <mergeCell ref="A264:A272"/>
+    <mergeCell ref="G264:G272"/>
+    <mergeCell ref="E233:F233"/>
+    <mergeCell ref="A234:A242"/>
+    <mergeCell ref="G234:G242"/>
+    <mergeCell ref="E243:F243"/>
+    <mergeCell ref="A244:A252"/>
+    <mergeCell ref="G244:G252"/>
+    <mergeCell ref="E292:F292"/>
+    <mergeCell ref="A293:A301"/>
+    <mergeCell ref="G293:G301"/>
+    <mergeCell ref="E302:F302"/>
+    <mergeCell ref="A303:A311"/>
+    <mergeCell ref="G303:G311"/>
+    <mergeCell ref="E273:F273"/>
+    <mergeCell ref="A274:A281"/>
+    <mergeCell ref="G274:G281"/>
+    <mergeCell ref="E282:F282"/>
+    <mergeCell ref="A283:A291"/>
+    <mergeCell ref="G283:G291"/>
+    <mergeCell ref="E333:F333"/>
+    <mergeCell ref="A334:A342"/>
+    <mergeCell ref="G334:G342"/>
+    <mergeCell ref="E343:F343"/>
+    <mergeCell ref="A344:A352"/>
+    <mergeCell ref="G344:G352"/>
+    <mergeCell ref="E312:F312"/>
+    <mergeCell ref="A313:A322"/>
+    <mergeCell ref="G313:G322"/>
+    <mergeCell ref="E323:F323"/>
+    <mergeCell ref="A324:A332"/>
+    <mergeCell ref="G324:G332"/>
+    <mergeCell ref="E372:F372"/>
+    <mergeCell ref="A373:A380"/>
+    <mergeCell ref="G373:G380"/>
+    <mergeCell ref="E381:F381"/>
+    <mergeCell ref="A382:A389"/>
+    <mergeCell ref="G382:G389"/>
+    <mergeCell ref="E353:F353"/>
+    <mergeCell ref="A354:A362"/>
+    <mergeCell ref="G354:G362"/>
+    <mergeCell ref="E363:F363"/>
+    <mergeCell ref="A364:A371"/>
+    <mergeCell ref="G364:G371"/>
+    <mergeCell ref="E408:F408"/>
+    <mergeCell ref="A409:A417"/>
+    <mergeCell ref="G409:G417"/>
+    <mergeCell ref="E418:F418"/>
+    <mergeCell ref="A419:A427"/>
+    <mergeCell ref="G419:G427"/>
+    <mergeCell ref="E390:F390"/>
+    <mergeCell ref="A391:A398"/>
+    <mergeCell ref="G391:G398"/>
+    <mergeCell ref="E399:F399"/>
+    <mergeCell ref="A400:A407"/>
+    <mergeCell ref="G400:G407"/>
+    <mergeCell ref="E450:F450"/>
+    <mergeCell ref="A451:A459"/>
+    <mergeCell ref="G451:G459"/>
+    <mergeCell ref="E460:F460"/>
+    <mergeCell ref="A461:A469"/>
+    <mergeCell ref="G461:G469"/>
+    <mergeCell ref="E428:F428"/>
+    <mergeCell ref="A429:A439"/>
+    <mergeCell ref="G429:G439"/>
+    <mergeCell ref="E440:F440"/>
+    <mergeCell ref="A441:A449"/>
+    <mergeCell ref="G441:G449"/>
+    <mergeCell ref="E490:F490"/>
+    <mergeCell ref="A491:A499"/>
+    <mergeCell ref="G491:G499"/>
+    <mergeCell ref="E500:F500"/>
+    <mergeCell ref="A501:A514"/>
+    <mergeCell ref="G501:G514"/>
+    <mergeCell ref="E470:F470"/>
+    <mergeCell ref="A471:A479"/>
+    <mergeCell ref="G471:G479"/>
+    <mergeCell ref="E480:F480"/>
+    <mergeCell ref="A481:A489"/>
+    <mergeCell ref="G481:G489"/>
+    <mergeCell ref="E536:F536"/>
+    <mergeCell ref="A537:A546"/>
+    <mergeCell ref="G537:G546"/>
+    <mergeCell ref="E547:F547"/>
+    <mergeCell ref="A548:A557"/>
+    <mergeCell ref="G548:G557"/>
+    <mergeCell ref="E515:F515"/>
+    <mergeCell ref="A516:A525"/>
+    <mergeCell ref="G516:G525"/>
+    <mergeCell ref="E526:F526"/>
+    <mergeCell ref="A527:A535"/>
+    <mergeCell ref="G527:G535"/>
     <mergeCell ref="E579:F579"/>
     <mergeCell ref="A580:A588"/>
     <mergeCell ref="G580:G588"/>
@@ -33065,168 +33248,6 @@
     <mergeCell ref="E569:F569"/>
     <mergeCell ref="A570:A578"/>
     <mergeCell ref="G570:G578"/>
-    <mergeCell ref="E536:F536"/>
-    <mergeCell ref="A537:A546"/>
-    <mergeCell ref="G537:G546"/>
-    <mergeCell ref="E547:F547"/>
-    <mergeCell ref="A548:A557"/>
-    <mergeCell ref="G548:G557"/>
-    <mergeCell ref="E515:F515"/>
-    <mergeCell ref="A516:A525"/>
-    <mergeCell ref="G516:G525"/>
-    <mergeCell ref="E526:F526"/>
-    <mergeCell ref="A527:A535"/>
-    <mergeCell ref="G527:G535"/>
-    <mergeCell ref="E490:F490"/>
-    <mergeCell ref="A491:A499"/>
-    <mergeCell ref="G491:G499"/>
-    <mergeCell ref="E500:F500"/>
-    <mergeCell ref="A501:A514"/>
-    <mergeCell ref="G501:G514"/>
-    <mergeCell ref="E470:F470"/>
-    <mergeCell ref="A471:A479"/>
-    <mergeCell ref="G471:G479"/>
-    <mergeCell ref="E480:F480"/>
-    <mergeCell ref="A481:A489"/>
-    <mergeCell ref="G481:G489"/>
-    <mergeCell ref="E450:F450"/>
-    <mergeCell ref="A451:A459"/>
-    <mergeCell ref="G451:G459"/>
-    <mergeCell ref="E460:F460"/>
-    <mergeCell ref="A461:A469"/>
-    <mergeCell ref="G461:G469"/>
-    <mergeCell ref="E428:F428"/>
-    <mergeCell ref="A429:A439"/>
-    <mergeCell ref="G429:G439"/>
-    <mergeCell ref="E440:F440"/>
-    <mergeCell ref="A441:A449"/>
-    <mergeCell ref="G441:G449"/>
-    <mergeCell ref="E408:F408"/>
-    <mergeCell ref="A409:A417"/>
-    <mergeCell ref="G409:G417"/>
-    <mergeCell ref="E418:F418"/>
-    <mergeCell ref="A419:A427"/>
-    <mergeCell ref="G419:G427"/>
-    <mergeCell ref="E390:F390"/>
-    <mergeCell ref="A391:A398"/>
-    <mergeCell ref="G391:G398"/>
-    <mergeCell ref="E399:F399"/>
-    <mergeCell ref="A400:A407"/>
-    <mergeCell ref="G400:G407"/>
-    <mergeCell ref="E372:F372"/>
-    <mergeCell ref="A373:A380"/>
-    <mergeCell ref="G373:G380"/>
-    <mergeCell ref="E381:F381"/>
-    <mergeCell ref="A382:A389"/>
-    <mergeCell ref="G382:G389"/>
-    <mergeCell ref="E353:F353"/>
-    <mergeCell ref="A354:A362"/>
-    <mergeCell ref="G354:G362"/>
-    <mergeCell ref="E363:F363"/>
-    <mergeCell ref="A364:A371"/>
-    <mergeCell ref="G364:G371"/>
-    <mergeCell ref="E333:F333"/>
-    <mergeCell ref="A334:A342"/>
-    <mergeCell ref="G334:G342"/>
-    <mergeCell ref="E343:F343"/>
-    <mergeCell ref="A344:A352"/>
-    <mergeCell ref="G344:G352"/>
-    <mergeCell ref="E312:F312"/>
-    <mergeCell ref="A313:A322"/>
-    <mergeCell ref="G313:G322"/>
-    <mergeCell ref="E323:F323"/>
-    <mergeCell ref="A324:A332"/>
-    <mergeCell ref="G324:G332"/>
-    <mergeCell ref="E292:F292"/>
-    <mergeCell ref="A293:A301"/>
-    <mergeCell ref="G293:G301"/>
-    <mergeCell ref="E302:F302"/>
-    <mergeCell ref="A303:A311"/>
-    <mergeCell ref="G303:G311"/>
-    <mergeCell ref="E273:F273"/>
-    <mergeCell ref="A274:A281"/>
-    <mergeCell ref="G274:G281"/>
-    <mergeCell ref="E282:F282"/>
-    <mergeCell ref="A283:A291"/>
-    <mergeCell ref="G283:G291"/>
-    <mergeCell ref="E253:F253"/>
-    <mergeCell ref="A254:A262"/>
-    <mergeCell ref="G254:G262"/>
-    <mergeCell ref="E263:F263"/>
-    <mergeCell ref="A264:A272"/>
-    <mergeCell ref="G264:G272"/>
-    <mergeCell ref="E233:F233"/>
-    <mergeCell ref="A234:A242"/>
-    <mergeCell ref="G234:G242"/>
-    <mergeCell ref="E243:F243"/>
-    <mergeCell ref="A244:A252"/>
-    <mergeCell ref="G244:G252"/>
-    <mergeCell ref="E210:F210"/>
-    <mergeCell ref="A211:A220"/>
-    <mergeCell ref="G211:G220"/>
-    <mergeCell ref="E221:F221"/>
-    <mergeCell ref="A222:A232"/>
-    <mergeCell ref="G222:G232"/>
-    <mergeCell ref="E187:F187"/>
-    <mergeCell ref="A188:A196"/>
-    <mergeCell ref="G188:G196"/>
-    <mergeCell ref="E197:F197"/>
-    <mergeCell ref="A198:A209"/>
-    <mergeCell ref="G198:G209"/>
-    <mergeCell ref="E167:F167"/>
-    <mergeCell ref="A168:A176"/>
-    <mergeCell ref="G168:G176"/>
-    <mergeCell ref="E177:F177"/>
-    <mergeCell ref="A178:A186"/>
-    <mergeCell ref="G178:G186"/>
-    <mergeCell ref="E147:F147"/>
-    <mergeCell ref="A148:A156"/>
-    <mergeCell ref="G148:G156"/>
-    <mergeCell ref="E157:F157"/>
-    <mergeCell ref="A158:A166"/>
-    <mergeCell ref="G158:G166"/>
-    <mergeCell ref="E128:F128"/>
-    <mergeCell ref="A129:A137"/>
-    <mergeCell ref="G129:G137"/>
-    <mergeCell ref="E138:F138"/>
-    <mergeCell ref="A139:A146"/>
-    <mergeCell ref="G139:G146"/>
-    <mergeCell ref="E108:F108"/>
-    <mergeCell ref="A109:A117"/>
-    <mergeCell ref="G109:G117"/>
-    <mergeCell ref="E118:F118"/>
-    <mergeCell ref="A119:A127"/>
-    <mergeCell ref="G119:G127"/>
-    <mergeCell ref="E88:F88"/>
-    <mergeCell ref="A89:A97"/>
-    <mergeCell ref="G89:G97"/>
-    <mergeCell ref="E98:F98"/>
-    <mergeCell ref="A99:A107"/>
-    <mergeCell ref="G99:G107"/>
-    <mergeCell ref="E64:F64"/>
-    <mergeCell ref="A65:A74"/>
-    <mergeCell ref="G65:G74"/>
-    <mergeCell ref="E75:F75"/>
-    <mergeCell ref="A76:A87"/>
-    <mergeCell ref="G76:G87"/>
-    <mergeCell ref="E54:F54"/>
-    <mergeCell ref="A55:A63"/>
-    <mergeCell ref="G55:G63"/>
-    <mergeCell ref="E20:F20"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="E33:F33"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="E10:F10"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="E44:F44"/>
-    <mergeCell ref="A45:A53"/>
-    <mergeCell ref="G45:G53"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{27C891E4-8C40-43BB-A88A-3796DCB1CA81}"/>

--- a/Seasons/Football History.xlsx
+++ b/Seasons/Football History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugs&amp;Fred\Documents\Fred\ROSM\Website\public_html\Seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAEB96F1-96B1-42FE-8B3F-7CDBBD74E4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FADFE4A-239E-4150-868A-E64EC88CDA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7F2BF-BA1F-4802-BC8C-4DC7AFA8B3A8}"/>
   </bookViews>
@@ -2045,29 +2045,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Ted Mac was the head coach.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> St. Mary's had another difficult season,  losing all 8 games. This was a young and inexperienced team that just could not find the offensive output or defense to win games. Hopefully, better days are ahead for the Irish Football Team!</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Rev Richard Noon was the head coach.</t>
     </r>
     <r>
@@ -2094,42 +2071,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Glen Goode was the head coach.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> In his first season he led a young and inexperienced St. Mary's team to respectable 4-2-1 record and a third-place finish in the 2nd Division Northwest League. After a slow start, the Irish were 1-2-1 at the midpoint of the campaign.  The team rebounded nicely and ended the season on positive note by winning the last 3 games, including a rare victory over Farmington Our Lady of Sorrows.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>St. Mary's had a dominating stretch across football, basketball and baseball from 1962 - 64. They win 6 of the possible 9 league titles in this 3-year span.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t xml:space="preserve">Rev Richard Noon was the head coach. </t>
     </r>
     <r>
@@ -2188,52 +2129,6 @@
       </rPr>
       <t xml:space="preserve">
 Continuing on the success from the 1930 team, the stingy St. Mary's defense surrendered only 16 points all season while recording 6 shutouts. The undefeated St. Mary's team was crowned Co-Champions of the Catholic League Third Division along with Highland Park St. Benedict. They played two scoreless ties with St. Benedict in the 1931 season - the last game was a charity game played on Thanksgiving. The offense came alive with big victories over St. Paul and St. Cecelia, scoring a total of 140 points during the season. In addition, St. Mary's defeated Detroit Catholic Central in a non-league game - the only time they played the Shamrocks in football.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Carl Gussin was the head coach with Rev Richard Noon serving as Athletic Director.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-The offense came alive in 1933 scoring 143 points - they scored more points in the opening game than all of the 1932 season. An upset of St. James and a thrashing of St. Cecelia and Madison paved the way for St. Mary to end the season on a 5-game winning streak, tying for 3rd place in the Catholic League. With only one senior on the squad the hopes for next season were high. The game against St. Patrick originally scheduled on Nov 12 had been moved to Nov 26.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jimm Collins</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> was named to the Detroit Free Press First-team All-Catholic.   </t>
     </r>
   </si>
   <si>
@@ -2282,30 +2177,6 @@
       </rPr>
       <t>was named to the Detroit Free Press First-team All-Catholic.
 Carl Gussin was an outstanding athlete at Alma College. He leaves St. Mary to study dentistry at Univ of Detroit and practices for close to 20 years. He served as an Army captain during WW2.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Catholic League Champions
-Paul Janness, former St. Mary athlete (Class of '30) was the head coach as he guided St. Mary's to their second consecutive Catholic League 2nd Division Championship</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. The only loss was the 18-0 defeat to the powerful Royal Oak High School football team. Royal Oak High went on to win the Class A Football Championship in 1935. Defense was the cornerstone of the St. Mary football team as they gave up only 7 points in Catholic League play. The Daily Tribune article on Dec 4 indicated the team banquet was held at Gurnsey's Chop House in Detroit.  Coach Janness is the first alumnus to coach St. Mary's football team.</t>
     </r>
   </si>
   <si>
@@ -3150,6 +3021,76 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Carl Gussin was the head coach with Rev Richard Noon serving as Athletic Director.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+The offense came alive in 1933 scoring 143 points - they scored more points in the opening game than all of the 1932 season. An upset of St. James and a thrashing of St. Cecelia and Madison paved the way for St. Mary to end the season on a 5-game winning streak, tying for 3rd place in the Catholic League. With only one senior on the squad the hopes for next season were high. The game against St. Patrick originally scheduled on Nov 12 had been moved to Nov 26.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jimm Collins</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was named to the Detroit Free Press First-team All-Catholic.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catholic League Champions
+Paul Janness, former St. Mary athlete (Class of '30) was the head coach as he guided St. Mary's to their second consecutive Catholic League 2nd Division Championship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The only loss was the 18-0 defeat to the powerful Royal Oak High School football team. Royal Oak High went on to win the Class A Football Championship in 1935. Defense was the cornerstone of the St. Mary football team as they gave up only 7 points in Catholic League play. The Daily Tribune article on Dec 4 indicated the team banquet was held at Gurnsey's Chop House in Detroit. Coach Janness is the first alumnus to coach St. Mary's football team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">Joey Smith was the head coach. </t>
     </r>
     <r>
@@ -3160,9 +3101,67 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Tom Dorais, who coached the team in '46 left to become a scout and backfield coach for the Detroit Lions (his father was Gus Dorais, the Detroit Lions' head coach). It's the only time a coach left St. Mary's and ended up in NFL!  
-Coach Smith had been an outstanding athlete at Detroit St. Theresa - he had been a 3x Detroit Free Press First-Team               All-Catholic Football selection and led St. Theresa to the Catholic League and Goodfellow championships in 1940.  He was a First Team All-State Basketball player, leading St. Theresa to the Class B title in 1941.   
+      <t>Tom Dorais, who coached the team in '46 left to become a scout and backfield coach for the Detroit Lions (his father was Gus Dorais, the Detroit Lions' head coach). It's the only time a coach left St. Mary's and ended up in NFL! Coach Smith had been an outstanding athlete at Detroit St. Theresa - he had been a 3x Detroit Free Press First-Team All-Catholic Football selection and led St. Theresa to the Catholic League and Goodfellow championships in 1940. He was a First Team All-State Basketball player, leading St. Theresa to the MHSAA Class B title in 1941.
 The defending 2nd Division Champions had lost many of their experienced players to graduation. Nonetheless, after dropping the first 3 games the team finished strong, going 4-2 in the final 6 games and an overall 4-5 mark on the seaon.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ted Mac was the head coach.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> St. Mary's had another difficult season, losing all 8 games. This was a young and inexperienced team that just could not find the offensive output or defense to win games. Hopefully, better days are ahead for the Irish Football Team!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Glen Goode was the head coach.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> In his first season he led a young and inexperienced St. Mary's team to respectable 4-2-1 record and a third-place finish in the 2nd Division Northwest League. After a slow start, the Irish were 1-2-1 at the midpoint of the campaign. The team rebounded nicely and ended the season on positive note by winning the last 3 games, including a rare victory over Farmington Our Lady of Sorrows.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>St. Mary's had a dominating stretch across football, basketball and baseball from 1962 - 64. They win 6 of the possible 9 league titles in this 3-year span.</t>
     </r>
   </si>
 </sst>
@@ -5153,8 +5152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2FFFC7-E182-47AD-9B1B-521106FC03D6}">
   <dimension ref="A1:H2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A272" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L233" sqref="L232:L233"/>
+    <sheetView tabSelected="1" topLeftCell="A371" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G384" sqref="G384:G391"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5557,7 +5556,7 @@
         <v>27</v>
       </c>
       <c r="G21" s="52" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
@@ -5812,7 +5811,7 @@
         <v>0</v>
       </c>
       <c r="G34" s="52" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -6029,7 +6028,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6444,7 +6443,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="51" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -6655,7 +6654,7 @@
         <v>6</v>
       </c>
       <c r="G77" s="52" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
@@ -6889,7 +6888,7 @@
         <v>0</v>
       </c>
       <c r="G91" s="51" t="s">
-        <v>303</v>
+        <v>322</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -7483,7 +7482,7 @@
         <v>6</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -7681,7 +7680,7 @@
         <v>7</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -7873,7 +7872,7 @@
         <v>37</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -8250,7 +8249,7 @@
         <v>7</v>
       </c>
       <c r="G160" s="61" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -8442,7 +8441,7 @@
         <v>12</v>
       </c>
       <c r="G170" s="61" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -8640,7 +8639,7 @@
         <v>19</v>
       </c>
       <c r="G180" s="51" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -8838,7 +8837,7 @@
         <v>26</v>
       </c>
       <c r="G190" s="61" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -9036,7 +9035,7 @@
         <v>7</v>
       </c>
       <c r="G200" s="60" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -9271,7 +9270,7 @@
         <v>13</v>
       </c>
       <c r="G213" s="61" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -9704,7 +9703,7 @@
         <v>6</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -10298,7 +10297,7 @@
         <v>6</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -10671,7 +10670,7 @@
         <v>19</v>
       </c>
       <c r="G285" s="61" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -10869,7 +10868,7 @@
         <v>12</v>
       </c>
       <c r="G295" s="51" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -11067,7 +11066,7 @@
         <v>12</v>
       </c>
       <c r="G305" s="61" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -11265,7 +11264,7 @@
         <v>7</v>
       </c>
       <c r="G315" s="51" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -11474,7 +11473,7 @@
         <v>18</v>
       </c>
       <c r="G326" s="51" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -11672,7 +11671,7 @@
         <v>20</v>
       </c>
       <c r="G336" s="51" t="s">
-        <v>296</v>
+        <v>324</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -11870,7 +11869,7 @@
         <v>19</v>
       </c>
       <c r="G346" s="51" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -12266,7 +12265,7 @@
         <v>7</v>
       </c>
       <c r="G366" s="51" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -12624,7 +12623,7 @@
         <v>0</v>
       </c>
       <c r="G384" s="51" t="s">
-        <v>298</v>
+        <v>325</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -13558,7 +13557,7 @@
         <v>38</v>
       </c>
       <c r="G431" s="51" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -13972,7 +13971,7 @@
         <v>0</v>
       </c>
       <c r="G453" s="51" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -14170,7 +14169,7 @@
         <v>28</v>
       </c>
       <c r="G463" s="51" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -14368,7 +14367,7 @@
         <v>19</v>
       </c>
       <c r="G473" s="61" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">

--- a/Seasons/Football History.xlsx
+++ b/Seasons/Football History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugs&amp;Fred\Documents\Fred\ROSM\Website\public_html\Seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FADFE4A-239E-4150-868A-E64EC88CDA4A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055B6C8-DE3C-48C1-B4D2-143C633E1751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7F2BF-BA1F-4802-BC8C-4DC7AFA8B3A8}"/>
   </bookViews>
@@ -947,74 +947,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Catholic League Champions
-Joey Smith was the head coach. He led St. Mary's to the Catholic League 2nd Division Co-Championship</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">. This marked the second championship in 3 years for St. Mary's. The only loss came in a close game with Shrine, with the Irish losing by a single point. Early in the season Coach Smith noted the lack of depth could be a factor. But the team pulled through the season with a 5-1-2 record. One big highlight was the smashing 32-6 victory over St. James in the first night game played a Memorial Park. In the Catholic League Championship game they settled for a 0-0 tie with Detroit St. Martin of Tours.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ed Casey</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jim Wagner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> were named to the All-SOC (South Oakland County) Football team. Wager was the leading scorer in SOC.
-Apparently, there had been an agreement with St. Martin that in case of a tie the team with the most yards gained would be crowned champion. St. Martin had gained 12 more yards than St. Mary, but as Coach Smith said later at the team banquet "co-champions" was a fairer way. St. Mary earned the co-championship!</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Joey Smith was the head coach. </t>
     </r>
     <r>
@@ -1759,161 +1691,6 @@
   </si>
   <si>
     <t>Coach: Ted Mac</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Catholic League Champions</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Ken Wright was the head coach and he guided to the team to 2nd Division Championship </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">- the first since 1948. At the onset of the season Coach Wright stated "Defense wins games and we've got the defense that can do the job". His confidence was well-placed as the Irish shutout out 6 opponents enroute to an 8-1 season - the best record since 1946. The defense gave up only 13 points outside of the lopsided loss to OL St. Mary in the second week of the season. The offense was explosive scoring 213 points. In the 2nd Division Championship game, the Irish avenge that lone loss by stunning previously undefeated OL St. Mary 8-6. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Ken Wright</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> was named "Coach of the Year" and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Jeff Jablonski</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team. </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tim Richards </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">and </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Jeff Jablonski </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">were named to the Detroit News Class D All-State Team.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">A very good sports year- the Basketball team pushed St. Andrews (eventual Class C State Champions) to double-OT before 
-losing in the Catholic League semi-final. The Baseball team defeated OL St. Mary 4-1 to win the 2nd Division Championship. 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Ken Wright left St. Mary's after 5 seasons with the best overall record of any football coach 24-16-1, going 19-5-1 in his last 3 seasons. He became an assistant coach at Birmingham Seaholm.</t>
-    </r>
   </si>
   <si>
     <r>
@@ -2215,30 +1992,6 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Frank Buchanan, former St. Mary athlete (Class of '34) was the head coach.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Yet another difficult season for St. Mary's, which was in the midst of a 16-game losing. In the last 3 seasons St. Mary had a 1-22 record. Incredible as it may seem, the offense was worse than '38 and could only manage 7 points all season. There was no article posted for the Nov 12 game against Sacred Heart - the game may have been cancelled as the Tribune's final standings showed St. Mary with an 0-7 record. 
-A few items to note ... the first Daily Tribune photo of game action and of Coach Buchanan appears in the Daily Tribune Oct 2 article.  This is the only season Frank Buchanan coached.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>Frank Kennedy was the head coach.</t>
     </r>
     <r>
@@ -2320,30 +2073,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>John French was the head coach.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> The team falls to a 2-6 record for the season. In the 6 losses the team manged to score only 34 points while giving up 122. There a couple of highlights - St. Mary's had been the first team to score against the league leading St. Rita team. A thoroughly convincing 31-0 triumph over Royal Oak Shrine. With only 5 seniors on the team the future was looking brighter for the Irish.
-John French resigns in 1945, but continued in an advisory capacity - according to the Sep 10 1945 Daily Tribune article. </t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Tom Bean was the head coach. </t>
     </r>
     <r>
@@ -2355,108 +2084,6 @@
         <scheme val="minor"/>
       </rPr>
       <t>After he had been an assistant coach in football the previous 7 years, the long-time AD and Basketball/Baseball coach took the head job in football in 1945. This was the only season which Tom Bean served as the head footlball coach at the High School. Through the years Tom Bean would coach various sports at St. Mary's Grade School and High School. The team showed a slight improvement over the 1944 season.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Catholic League Champions
-Tom Dorais was the head coach. In his only season coaching at St. Mary's, Tom Dorais, the son of Detroit Lions coach Gus Dorais, led the team to the Catholic League 2nd Division Championship.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This had been the first championship season since 1935. This was the best football team St. Mary's and marks the only season where the team obtained a perfect 9-0 record. The offense scores an astonishing 251 points while the Irish defense allows only 16. In a thrilling championship game they beat St. Paul, scoring with just under 3 minutes to take the lead.
-Post-season platitudes were plenty - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tom Dorais </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>was named Coach of the Year while 3 players were named to the All-SOC (South Oakland County) team</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Al DuFresne, Ken Barnowski and Bill Wagner. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>St. Mary's was in the midst of their greatest athletic accomplishments going 39-0 in two sports while winning 3 Catholic League 2nd Divion titles - '46 Basketball (14-0), '46 Football (9-0) and '47 Basketball (16-0).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -3162,6 +2789,400 @@
         <scheme val="minor"/>
       </rPr>
       <t>St. Mary's had a dominating stretch across football, basketball and baseball from 1962 - 64. They win 6 of the possible 9 league titles in this 3-year span.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Frank Buchanan, former St. Mary athlete (Class of '34) was the head coach.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Yet another difficult season for St. Mary's, which was in the midst of a 16-game losing. In the last 3 seasons St. Mary had a 1-22 record. Incredible as it may seem, the offense was worse than '38 and could only manage 7 points all season. There was no article posted for the Nov 12 game against Sacred Heart - the game may have been cancelled as the Tribune's final standings showed St. Mary with an 0-7 record. 
+A few items to note ... the first Daily Tribune photo of game action and of Coach Buchanan appears in the Daily Tribune Oct 2 article. This is the only season Frank Buchanan coached St. Mary's Football team.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>John French was the head coach.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> The team falls to a 2-6 record for the season. In the 6 losses the team manged to score only 34 points while giving up 122. There a couple of highlights - St. Mary's had been the first team to score against the league leading St. Rita team. A thoroughly convincing 31-0 triumph over Royal Oak Shrine. With only 5 seniors on the team the future was looking brighter for the Irish.
+John French resigns in 1945, but continued in an advisory capacity - according to the Sep 10 1945 Daily Tribune article.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catholic League Champions
+Tom Dorais was the head coach. In his only season coaching at St. Mary's, Tom Dorais, the son of Detroit Lions coach Gus Dorais, led the team to the Catholic League 2nd Division Championship.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This had been the first championship season since 1935. This was the best football team St. Mary's produced and marks the only season where the team obtained a perfect 9-0 record. The offense scores an astonishing 251 points while the Irish defense allows only 16. In a thrilling championship game they beat St. Paul, scoring with just under 3 minutes to take the lead.
+Post-season platitudes were plenty - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tom Dorais </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was named Coach of the Year while 3 players were named to the All-SOC (South Oakland County) team</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Al DuFresne, Ken Barnowski and Bill Wagner. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>St. Mary's was in the midst of their greatest athletic accomplishments going 39-0 in two sports while winning 3 Catholic League 2nd Divion titles - '46 Basketball (14-0), '46 Football (9-0) and '47 Basketball (16-0).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catholic League Champions
+Joey Smith was the head coach. He led St. Mary's to the Catholic League 2nd Division Co-Championship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">. This marked the second championship in 3 years for St. Mary's. The only loss came in a close game with Shrine, with the Irish losing by a single point. Early in the season Coach Smith noted the lack of depth could be a factor. But the team pulled through the season with a 5-1-2 record. One big highlight was the smashing 32-6 victory over St. James in the first night game played a Memorial Park. In the Catholic League Championship game they settled for a 0-0 tie with Detroit St. Martin of Tours.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ed Casey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jim Wagner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> were named to the All-SOC (South Oakland County) Football team. Wager was the leading scorer in SOC and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ed Casey</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was also named to the Class C All-State Second Team.
+Apparently, there had been an agreement with St. Martin that in case of a tie the team with the most yards gained would be crowned champion. St. Martin had gained 12 more yards than St. Mary, but as Coach Smith said later at the team banquet "co-champions" was a fairer way. St. Mary earned the co-championship!</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catholic League Champions</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Ken Wright was the head coach and he guided the team to the 2nd Division Championship </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">- the first since 1948. At the onset of the season Coach Wright stated "Defense wins games and we've got the defense that can do the job". His confidence was well-placed as the Irish shutout out 6 opponents enroute to an 8-1 season - the best record since 1946. The defense gave up only 13 points outside of the lopsided loss to OL St. Mary in the second week of the season. The offense was explosive scoring 213 points. In the 2nd Division Championship game, the Irish avenge that lone loss by stunning previously undefeated OL St. Mary 8-6. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Ken Wright</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was named "Coach of the Year" and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Jeff Jablonski</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> was named to the All-SOC (South Oakland County) Football team. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tim Richards </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Jeff Jablonski </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">were named to the Detroit News Class D All-State Team.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">A very good sports year- the Basketball team pushed St. Andrews (eventual Class C State Champions) to double-OT before 
+losing in the Catholic League semi-final. The Baseball team defeated OL St. Mary 4-1 to win the 2nd Division Championship. 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+Ken Wright left St. Mary's after 5 seasons with the best overall record of any football coach 24-16-1, going 19-5-1 in his last 3 seasons. He became an assistant coach at Birmingham Seaholm.</t>
     </r>
   </si>
 </sst>
@@ -3621,7 +3642,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3632,7 +3653,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3642,6 +3666,21 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3649,24 +3688,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5152,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2FFFC7-E182-47AD-9B1B-521106FC03D6}">
   <dimension ref="A1:H2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A371" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G384" sqref="G384:G391"/>
+    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G503" sqref="G503:G517"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5180,17 +5201,17 @@
         <v>169</v>
       </c>
       <c r="E1" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F1" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F1" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G1" s="26" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="55" t="s">
+      <c r="A2" s="61" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="2">
@@ -5208,12 +5229,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="52" t="s">
+      <c r="G2" s="58" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="55"/>
+      <c r="A3" s="61"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -5229,10 +5250,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="53"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="55"/>
+      <c r="A4" s="61"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -5248,10 +5269,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="53"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="55"/>
+      <c r="A5" s="61"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -5267,37 +5288,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="53"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="55"/>
+      <c r="A6" s="61"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="53"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="55"/>
+      <c r="A7" s="61"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="53"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="55"/>
+      <c r="A8" s="61"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="53"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+      <c r="A9" s="61"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>37</v>
@@ -5313,7 +5334,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="54"/>
+      <c r="G9" s="55"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -5329,17 +5350,17 @@
         <v>169</v>
       </c>
       <c r="E10" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F10" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F10" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G10" s="11" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="55" t="s">
+      <c r="A11" s="61" t="s">
         <v>170</v>
       </c>
       <c r="B11" s="2">
@@ -5357,12 +5378,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="52" t="s">
-        <v>284</v>
+      <c r="G11" s="58" t="s">
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="55"/>
+      <c r="A12" s="61"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -5378,10 +5399,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="53"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="55"/>
+      <c r="A13" s="61"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -5397,10 +5418,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="53"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="55"/>
+      <c r="A14" s="61"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -5416,10 +5437,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="53"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="55"/>
+      <c r="A15" s="61"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -5435,10 +5456,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="53"/>
+      <c r="G15" s="54"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="55"/>
+      <c r="A16" s="61"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -5454,10 +5475,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="53"/>
+      <c r="G16" s="54"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="55"/>
+      <c r="A17" s="61"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -5473,10 +5494,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="53"/>
+      <c r="G17" s="54"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="55"/>
+      <c r="A18" s="61"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -5492,10 +5513,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="53"/>
+      <c r="G18" s="54"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="55"/>
+      <c r="A19" s="61"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>38</v>
@@ -5511,7 +5532,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="54"/>
+      <c r="G19" s="55"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -5527,17 +5548,17 @@
         <v>169</v>
       </c>
       <c r="E20" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F20" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G20" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="56" t="s">
+      <c r="A21" s="62" t="s">
         <v>171</v>
       </c>
       <c r="B21" s="2">
@@ -5555,12 +5576,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="52" t="s">
-        <v>296</v>
+      <c r="G21" s="58" t="s">
+        <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="56"/>
+      <c r="A22" s="62"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -5576,10 +5597,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="53"/>
+      <c r="G22" s="54"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="56"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -5595,10 +5616,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="53"/>
+      <c r="G23" s="54"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="56"/>
+      <c r="A24" s="62"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -5614,10 +5635,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="53"/>
+      <c r="G24" s="54"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="56"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -5633,10 +5654,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="53"/>
+      <c r="G25" s="54"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="56"/>
+      <c r="A26" s="62"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -5652,10 +5673,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="53"/>
+      <c r="G26" s="54"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="56"/>
+      <c r="A27" s="62"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -5671,10 +5692,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="53"/>
+      <c r="G27" s="54"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="56"/>
+      <c r="A28" s="62"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -5690,10 +5711,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="53"/>
+      <c r="G28" s="54"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="56"/>
+      <c r="A29" s="62"/>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
@@ -5709,10 +5730,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="53"/>
+      <c r="G29" s="54"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="56"/>
+      <c r="A30" s="62"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -5728,10 +5749,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="53"/>
+      <c r="G30" s="54"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="56"/>
+      <c r="A31" s="62"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -5747,10 +5768,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="53"/>
+      <c r="G31" s="54"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="57"/>
+      <c r="A32" s="63"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>39</v>
@@ -5766,7 +5787,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="54"/>
+      <c r="G32" s="55"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -5782,10 +5803,10 @@
         <v>169</v>
       </c>
       <c r="E33" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F33" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F33" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G33" s="9" t="s">
         <v>8</v>
@@ -5810,8 +5831,8 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="52" t="s">
-        <v>297</v>
+      <c r="G34" s="58" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
@@ -5831,7 +5852,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="53"/>
+      <c r="G35" s="54"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
@@ -5850,7 +5871,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="53"/>
+      <c r="G36" s="54"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
@@ -5869,7 +5890,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="53"/>
+      <c r="G37" s="54"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="46"/>
@@ -5888,7 +5909,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="53"/>
+      <c r="G38" s="54"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
@@ -5907,7 +5928,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="53"/>
+      <c r="G39" s="54"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
@@ -5926,7 +5947,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="53"/>
+      <c r="G40" s="54"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
@@ -5945,7 +5966,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="53"/>
+      <c r="G41" s="54"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -5964,7 +5985,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="53"/>
+      <c r="G42" s="54"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
@@ -5983,7 +6004,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="54"/>
+      <c r="G43" s="55"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -5999,17 +6020,17 @@
         <v>169</v>
       </c>
       <c r="E44" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F44" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F44" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G44" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="48" t="s">
+      <c r="A45" s="60" t="s">
         <v>173</v>
       </c>
       <c r="B45" s="2">
@@ -6028,7 +6049,7 @@
         <v>7</v>
       </c>
       <c r="G45" s="51" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
@@ -6075,7 +6096,7 @@
         <v>11619</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="D48" s="3" t="s">
         <v>1</v>
@@ -6190,7 +6211,7 @@
         <v>41</v>
       </c>
       <c r="D54" s="21" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="E54" s="22">
         <f>SUM(E45:E53)</f>
@@ -6216,10 +6237,10 @@
         <v>169</v>
       </c>
       <c r="E55" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F55" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F55" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G55" s="9" t="s">
         <v>8</v>
@@ -6414,10 +6435,10 @@
         <v>169</v>
       </c>
       <c r="E65" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F65" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F65" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G65" s="9" t="s">
         <v>8</v>
@@ -6443,7 +6464,7 @@
         <v>0</v>
       </c>
       <c r="G66" s="51" t="s">
-        <v>321</v>
+        <v>316</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
@@ -6625,17 +6646,17 @@
         <v>169</v>
       </c>
       <c r="E76" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F76" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F76" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G76" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="59" t="s">
+      <c r="A77" s="56" t="s">
         <v>176</v>
       </c>
       <c r="B77" s="2">
@@ -6653,12 +6674,12 @@
       <c r="F77" s="7">
         <v>6</v>
       </c>
-      <c r="G77" s="52" t="s">
-        <v>299</v>
+      <c r="G77" s="58" t="s">
+        <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="58"/>
+      <c r="A78" s="57"/>
       <c r="B78" s="2">
         <v>12699</v>
       </c>
@@ -6674,10 +6695,10 @@
       <c r="F78" s="7">
         <v>12</v>
       </c>
-      <c r="G78" s="53"/>
+      <c r="G78" s="54"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="58"/>
+      <c r="A79" s="57"/>
       <c r="B79" s="2">
         <v>12705</v>
       </c>
@@ -6693,10 +6714,10 @@
       <c r="F79" s="7">
         <v>15</v>
       </c>
-      <c r="G79" s="53"/>
+      <c r="G79" s="54"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="58"/>
+      <c r="A80" s="57"/>
       <c r="B80" s="2">
         <v>12713</v>
       </c>
@@ -6712,10 +6733,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="53"/>
+      <c r="G80" s="54"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="58"/>
+      <c r="A81" s="57"/>
       <c r="B81" s="2">
         <v>12720</v>
       </c>
@@ -6731,10 +6752,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="53"/>
+      <c r="G81" s="54"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="58"/>
+      <c r="A82" s="57"/>
       <c r="B82" s="2">
         <v>12727</v>
       </c>
@@ -6750,10 +6771,10 @@
       <c r="F82" s="7">
         <v>0</v>
       </c>
-      <c r="G82" s="53"/>
+      <c r="G82" s="54"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="58"/>
+      <c r="A83" s="57"/>
       <c r="B83" s="40">
         <v>12734</v>
       </c>
@@ -6769,10 +6790,10 @@
       <c r="F83" s="43">
         <v>0</v>
       </c>
-      <c r="G83" s="53"/>
+      <c r="G83" s="54"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="58"/>
+      <c r="A84" s="57"/>
       <c r="B84" s="2">
         <v>12741</v>
       </c>
@@ -6788,35 +6809,35 @@
       <c r="F84" s="7">
         <v>0</v>
       </c>
-      <c r="G84" s="53"/>
+      <c r="G84" s="54"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="58"/>
+      <c r="A85" s="57"/>
       <c r="B85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="53"/>
+      <c r="G85" s="54"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="58"/>
+      <c r="A86" s="57"/>
       <c r="B86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="53"/>
+      <c r="G86" s="54"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="58"/>
+      <c r="A87" s="57"/>
       <c r="B87" s="3"/>
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="22"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="53"/>
+      <c r="G87" s="54"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="58"/>
+      <c r="A88" s="57"/>
       <c r="B88" s="35"/>
       <c r="C88" s="39" t="s">
         <v>256</v>
@@ -6824,10 +6845,10 @@
       <c r="D88" s="36"/>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
-      <c r="G88" s="53"/>
+      <c r="G88" s="54"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="58"/>
+      <c r="A89" s="57"/>
       <c r="B89" s="35"/>
       <c r="C89" s="20" t="s">
         <v>35</v>
@@ -6843,7 +6864,7 @@
         <f>SUM(F77:F88)</f>
         <v>33</v>
       </c>
-      <c r="G89" s="54"/>
+      <c r="G89" s="55"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
@@ -6859,17 +6880,17 @@
         <v>169</v>
       </c>
       <c r="E90" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F90" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F90" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G90" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="58" t="s">
+      <c r="A91" s="57" t="s">
         <v>177</v>
       </c>
       <c r="B91" s="2">
@@ -6888,11 +6909,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="51" t="s">
-        <v>322</v>
+        <v>317</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="58"/>
+      <c r="A92" s="57"/>
       <c r="B92" s="2">
         <v>13069</v>
       </c>
@@ -6911,7 +6932,7 @@
       <c r="G92" s="51"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="58"/>
+      <c r="A93" s="57"/>
       <c r="B93" s="2">
         <v>13077</v>
       </c>
@@ -6930,7 +6951,7 @@
       <c r="G93" s="51"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="58"/>
+      <c r="A94" s="57"/>
       <c r="B94" s="2">
         <v>13084</v>
       </c>
@@ -6949,7 +6970,7 @@
       <c r="G94" s="51"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="58"/>
+      <c r="A95" s="57"/>
       <c r="B95" s="2">
         <v>13091</v>
       </c>
@@ -6968,7 +6989,7 @@
       <c r="G95" s="51"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="58"/>
+      <c r="A96" s="57"/>
       <c r="B96" s="2">
         <v>13098</v>
       </c>
@@ -6987,7 +7008,7 @@
       <c r="G96" s="51"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="58"/>
+      <c r="A97" s="57"/>
       <c r="B97" s="2">
         <v>13105</v>
       </c>
@@ -7006,7 +7027,7 @@
       <c r="G97" s="51"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="58"/>
+      <c r="A98" s="57"/>
       <c r="B98" s="2">
         <v>13112</v>
       </c>
@@ -7025,7 +7046,7 @@
       <c r="G98" s="51"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="58"/>
+      <c r="A99" s="57"/>
       <c r="B99" s="3"/>
       <c r="C99" s="20" t="s">
         <v>36</v>
@@ -7057,10 +7078,10 @@
         <v>169</v>
       </c>
       <c r="E100" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F100" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F100" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G100" s="9" t="s">
         <v>8</v>
@@ -7255,10 +7276,10 @@
         <v>169</v>
       </c>
       <c r="E110" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F110" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F110" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>8</v>
@@ -7453,10 +7474,10 @@
         <v>169</v>
       </c>
       <c r="E120" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F120" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F120" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>8</v>
@@ -7482,7 +7503,7 @@
         <v>6</v>
       </c>
       <c r="G121" s="51" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
@@ -7651,10 +7672,10 @@
         <v>169</v>
       </c>
       <c r="E130" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F130" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F130" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G130" s="9" t="s">
         <v>59</v>
@@ -7680,7 +7701,7 @@
         <v>7</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -7843,10 +7864,10 @@
         <v>169</v>
       </c>
       <c r="E140" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F140" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F140" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G140" s="9" t="s">
         <v>8</v>
@@ -7872,7 +7893,7 @@
         <v>37</v>
       </c>
       <c r="G141" s="51" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
@@ -8022,10 +8043,10 @@
         <v>169</v>
       </c>
       <c r="E149" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F149" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F149" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G149" s="9" t="s">
         <v>8</v>
@@ -8050,7 +8071,7 @@
       <c r="F150" s="7">
         <v>12</v>
       </c>
-      <c r="G150" s="62" t="s">
+      <c r="G150" s="53" t="s">
         <v>260</v>
       </c>
     </row>
@@ -8071,7 +8092,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="53"/>
+      <c r="G151" s="54"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="46"/>
@@ -8090,7 +8111,7 @@
       <c r="F152" s="7">
         <v>13</v>
       </c>
-      <c r="G152" s="53"/>
+      <c r="G152" s="54"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="46"/>
@@ -8109,7 +8130,7 @@
       <c r="F153" s="7">
         <v>0</v>
       </c>
-      <c r="G153" s="53"/>
+      <c r="G153" s="54"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="46"/>
@@ -8128,7 +8149,7 @@
       <c r="F154" s="7">
         <v>31</v>
       </c>
-      <c r="G154" s="53"/>
+      <c r="G154" s="54"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="46"/>
@@ -8147,7 +8168,7 @@
       <c r="F155" s="7">
         <v>13</v>
       </c>
-      <c r="G155" s="53"/>
+      <c r="G155" s="54"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="46"/>
@@ -8166,7 +8187,7 @@
       <c r="F156" s="7">
         <v>21</v>
       </c>
-      <c r="G156" s="53"/>
+      <c r="G156" s="54"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="46"/>
@@ -8185,7 +8206,7 @@
       <c r="F157" s="7">
         <v>38</v>
       </c>
-      <c r="G157" s="53"/>
+      <c r="G157" s="54"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="47"/>
@@ -8204,7 +8225,7 @@
         <f>SUM(F150:F157)</f>
         <v>128</v>
       </c>
-      <c r="G158" s="54"/>
+      <c r="G158" s="55"/>
     </row>
     <row r="159" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
@@ -8220,10 +8241,10 @@
         <v>169</v>
       </c>
       <c r="E159" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F159" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F159" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G159" s="9" t="s">
         <v>8</v>
@@ -8248,8 +8269,8 @@
       <c r="F160" s="5">
         <v>7</v>
       </c>
-      <c r="G160" s="61" t="s">
-        <v>303</v>
+      <c r="G160" s="52" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
@@ -8412,10 +8433,10 @@
         <v>169</v>
       </c>
       <c r="E169" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F169" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F169" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G169" s="9" t="s">
         <v>8</v>
@@ -8440,8 +8461,8 @@
       <c r="F170" s="5">
         <v>12</v>
       </c>
-      <c r="G170" s="61" t="s">
-        <v>304</v>
+      <c r="G170" s="52" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
@@ -8610,10 +8631,10 @@
         <v>169</v>
       </c>
       <c r="E179" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F179" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F179" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G179" s="9" t="s">
         <v>8</v>
@@ -8639,7 +8660,7 @@
         <v>19</v>
       </c>
       <c r="G180" s="51" t="s">
-        <v>305</v>
+        <v>322</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -8808,10 +8829,10 @@
         <v>169</v>
       </c>
       <c r="E189" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F189" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F189" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G189" s="9" t="s">
         <v>8</v>
@@ -8836,8 +8857,8 @@
       <c r="F190" s="5">
         <v>26</v>
       </c>
-      <c r="G190" s="61" t="s">
-        <v>306</v>
+      <c r="G190" s="52" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
@@ -9006,17 +9027,17 @@
         <v>169</v>
       </c>
       <c r="E199" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F199" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F199" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G199" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="48" t="s">
+      <c r="A200" s="60" t="s">
         <v>188</v>
       </c>
       <c r="B200" s="2">
@@ -9034,8 +9055,8 @@
       <c r="F200" s="5">
         <v>7</v>
       </c>
-      <c r="G200" s="60" t="s">
-        <v>307</v>
+      <c r="G200" s="59" t="s">
+        <v>323</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -9188,7 +9209,7 @@
       <c r="F208" s="5">
         <v>7</v>
       </c>
-      <c r="G208" s="52"/>
+      <c r="G208" s="58"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="49"/>
@@ -9197,7 +9218,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="8"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="52"/>
+      <c r="G209" s="58"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="49"/>
@@ -9206,7 +9227,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="8"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="52"/>
+      <c r="G210" s="58"/>
     </row>
     <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="50"/>
@@ -9225,7 +9246,7 @@
         <f>SUM(F200:F208)</f>
         <v>16</v>
       </c>
-      <c r="G211" s="52"/>
+      <c r="G211" s="58"/>
     </row>
     <row r="212" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
@@ -9241,10 +9262,10 @@
         <v>169</v>
       </c>
       <c r="E212" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F212" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F212" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G212" s="9" t="s">
         <v>8</v>
@@ -9269,8 +9290,8 @@
       <c r="F213" s="7">
         <v>13</v>
       </c>
-      <c r="G213" s="61" t="s">
-        <v>323</v>
+      <c r="G213" s="52" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -9458,17 +9479,17 @@
         <v>169</v>
       </c>
       <c r="E223" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F223" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F223" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G223" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="59" t="s">
+      <c r="A224" s="56" t="s">
         <v>190</v>
       </c>
       <c r="B224" s="2">
@@ -9487,11 +9508,11 @@
         <v>6</v>
       </c>
       <c r="G224" s="51" t="s">
-        <v>264</v>
+        <v>324</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="58"/>
+      <c r="A225" s="57"/>
       <c r="B225" s="2">
         <v>17802</v>
       </c>
@@ -9510,7 +9531,7 @@
       <c r="G225" s="51"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="58"/>
+      <c r="A226" s="57"/>
       <c r="B226" s="4">
         <v>17809</v>
       </c>
@@ -9529,7 +9550,7 @@
       <c r="G226" s="51"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="58"/>
+      <c r="A227" s="57"/>
       <c r="B227" s="2">
         <v>17814</v>
       </c>
@@ -9548,7 +9569,7 @@
       <c r="G227" s="51"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="58"/>
+      <c r="A228" s="57"/>
       <c r="B228" s="2">
         <v>17822</v>
       </c>
@@ -9567,7 +9588,7 @@
       <c r="G228" s="51"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="58"/>
+      <c r="A229" s="57"/>
       <c r="B229" s="2">
         <v>17830</v>
       </c>
@@ -9586,7 +9607,7 @@
       <c r="G229" s="51"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="58"/>
+      <c r="A230" s="57"/>
       <c r="B230" s="2">
         <v>17844</v>
       </c>
@@ -9605,7 +9626,7 @@
       <c r="G230" s="51"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="58"/>
+      <c r="A231" s="57"/>
       <c r="B231" s="4">
         <v>17852</v>
       </c>
@@ -9624,7 +9645,7 @@
       <c r="G231" s="51"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="58"/>
+      <c r="A232" s="57"/>
       <c r="B232" s="4"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -9633,7 +9654,7 @@
       <c r="G232" s="51"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="58"/>
+      <c r="A233" s="57"/>
       <c r="B233" s="4"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -9642,7 +9663,7 @@
       <c r="G233" s="51"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="58"/>
+      <c r="A234" s="57"/>
       <c r="B234" s="3"/>
       <c r="C234" s="20" t="s">
         <v>126</v>
@@ -9674,10 +9695,10 @@
         <v>169</v>
       </c>
       <c r="E235" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F235" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F235" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G235" s="9" t="s">
         <v>8</v>
@@ -9703,7 +9724,7 @@
         <v>6</v>
       </c>
       <c r="G236" s="51" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
@@ -9856,7 +9877,7 @@
         <f>SUM(F236:F243)</f>
         <v>82</v>
       </c>
-      <c r="G244" s="52"/>
+      <c r="G244" s="58"/>
     </row>
     <row r="245" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
@@ -9872,10 +9893,10 @@
         <v>169</v>
       </c>
       <c r="E245" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F245" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F245" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>8</v>
@@ -9900,8 +9921,8 @@
       <c r="F246" s="5">
         <v>31</v>
       </c>
-      <c r="G246" s="61" t="s">
-        <v>265</v>
+      <c r="G246" s="52" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
@@ -10070,10 +10091,10 @@
         <v>169</v>
       </c>
       <c r="E255" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F255" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F255" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G255" s="9" t="s">
         <v>8</v>
@@ -10099,7 +10120,7 @@
         <v>0</v>
       </c>
       <c r="G256" s="51" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
@@ -10268,10 +10289,10 @@
         <v>169</v>
       </c>
       <c r="E265" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F265" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F265" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G265" s="9" t="s">
         <v>8</v>
@@ -10297,7 +10318,7 @@
         <v>6</v>
       </c>
       <c r="G266" s="51" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
@@ -10450,7 +10471,7 @@
     </row>
     <row r="275" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B275" s="9">
         <v>1953</v>
@@ -10462,10 +10483,10 @@
         <v>169</v>
       </c>
       <c r="E275" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F275" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F275" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G275" s="9" t="s">
         <v>8</v>
@@ -10491,7 +10512,7 @@
         <v>0</v>
       </c>
       <c r="G276" s="51" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
@@ -10629,7 +10650,7 @@
     </row>
     <row r="284" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B284" s="9">
         <v>1954</v>
@@ -10641,10 +10662,10 @@
         <v>169</v>
       </c>
       <c r="E284" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F284" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F284" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G284" s="9" t="s">
         <v>8</v>
@@ -10669,8 +10690,8 @@
       <c r="F285" s="7">
         <v>19</v>
       </c>
-      <c r="G285" s="61" t="s">
-        <v>310</v>
+      <c r="G285" s="52" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
@@ -10839,10 +10860,10 @@
         <v>169</v>
       </c>
       <c r="E294" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F294" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F294" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G294" s="9" t="s">
         <v>8</v>
@@ -10868,7 +10889,7 @@
         <v>12</v>
       </c>
       <c r="G295" s="51" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
@@ -11037,10 +11058,10 @@
         <v>169</v>
       </c>
       <c r="E304" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F304" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F304" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G304" s="9" t="s">
         <v>8</v>
@@ -11065,8 +11086,8 @@
       <c r="F305" s="5">
         <v>12</v>
       </c>
-      <c r="G305" s="61" t="s">
-        <v>313</v>
+      <c r="G305" s="52" t="s">
+        <v>308</v>
       </c>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
@@ -11235,10 +11256,10 @@
         <v>169</v>
       </c>
       <c r="E314" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F314" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F314" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G314" s="9" t="s">
         <v>8</v>
@@ -11264,7 +11285,7 @@
         <v>7</v>
       </c>
       <c r="G315" s="51" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
@@ -11432,7 +11453,7 @@
     </row>
     <row r="325" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B325" s="9">
         <v>1958</v>
@@ -11444,10 +11465,10 @@
         <v>169</v>
       </c>
       <c r="E325" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F325" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F325" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G325" s="9" t="s">
         <v>8</v>
@@ -11473,7 +11494,7 @@
         <v>18</v>
       </c>
       <c r="G326" s="51" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
@@ -11630,7 +11651,7 @@
     </row>
     <row r="335" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="28" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B335" s="9">
         <v>1959</v>
@@ -11642,10 +11663,10 @@
         <v>169</v>
       </c>
       <c r="E335" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F335" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F335" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G335" s="9" t="s">
         <v>8</v>
@@ -11671,7 +11692,7 @@
         <v>20</v>
       </c>
       <c r="G336" s="51" t="s">
-        <v>324</v>
+        <v>319</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -11840,10 +11861,10 @@
         <v>169</v>
       </c>
       <c r="E345" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F345" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F345" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G345" s="9" t="s">
         <v>8</v>
@@ -11869,7 +11890,7 @@
         <v>19</v>
       </c>
       <c r="G346" s="51" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
@@ -12038,10 +12059,10 @@
         <v>169</v>
       </c>
       <c r="E355" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F355" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F355" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G355" s="9" t="s">
         <v>8</v>
@@ -12067,7 +12088,7 @@
         <v>6</v>
       </c>
       <c r="G356" s="51" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
@@ -12207,7 +12228,7 @@
       <c r="A364" s="47"/>
       <c r="B364" s="3"/>
       <c r="C364" s="20" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="D364" s="21" t="s">
         <v>63</v>
@@ -12236,10 +12257,10 @@
         <v>169</v>
       </c>
       <c r="E365" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F365" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F365" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G365" s="9" t="s">
         <v>8</v>
@@ -12265,7 +12286,7 @@
         <v>7</v>
       </c>
       <c r="G366" s="51" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
@@ -12274,7 +12295,7 @@
         <v>22919</v>
       </c>
       <c r="C367" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D367" s="3" t="s">
         <v>5</v>
@@ -12415,10 +12436,10 @@
         <v>169</v>
       </c>
       <c r="E374" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F374" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F374" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G374" s="9" t="s">
         <v>8</v>
@@ -12444,7 +12465,7 @@
         <v>20</v>
       </c>
       <c r="G375" s="51" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
@@ -12472,7 +12493,7 @@
         <v>23283</v>
       </c>
       <c r="C377" s="3" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D377" s="3" t="s">
         <v>1</v>
@@ -12594,10 +12615,10 @@
         <v>169</v>
       </c>
       <c r="E383" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F383" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F383" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G383" s="9" t="s">
         <v>8</v>
@@ -12611,7 +12632,7 @@
         <v>23640</v>
       </c>
       <c r="C384" s="3" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D384" s="3" t="s">
         <v>4</v>
@@ -12623,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="G384" s="51" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -12773,10 +12794,10 @@
         <v>169</v>
       </c>
       <c r="E392" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F392" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F392" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G392" s="9" t="s">
         <v>8</v>
@@ -12802,7 +12823,7 @@
         <v>6</v>
       </c>
       <c r="G393" s="51" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H393" s="44"/>
     </row>
@@ -12953,10 +12974,10 @@
         <v>169</v>
       </c>
       <c r="E401" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F401" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F401" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G401" s="9" t="s">
         <v>8</v>
@@ -12982,7 +13003,7 @@
         <v>19</v>
       </c>
       <c r="G402" s="51" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
@@ -13132,10 +13153,10 @@
         <v>169</v>
       </c>
       <c r="E410" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F410" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F410" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G410" s="9" t="s">
         <v>8</v>
@@ -13161,7 +13182,7 @@
         <v>6</v>
       </c>
       <c r="G411" s="51" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
@@ -13330,10 +13351,10 @@
         <v>169</v>
       </c>
       <c r="E420" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F420" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F420" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G420" s="9" t="s">
         <v>8</v>
@@ -13359,7 +13380,7 @@
         <v>14</v>
       </c>
       <c r="G421" s="51" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
@@ -13528,10 +13549,10 @@
         <v>169</v>
       </c>
       <c r="E430" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F430" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F430" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G430" s="9" t="s">
         <v>8</v>
@@ -13557,7 +13578,7 @@
         <v>38</v>
       </c>
       <c r="G431" s="51" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
@@ -13744,10 +13765,10 @@
         <v>169</v>
       </c>
       <c r="E442" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F442" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F442" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G442" s="9" t="s">
         <v>8</v>
@@ -13773,7 +13794,7 @@
         <v>6</v>
       </c>
       <c r="G443" s="51" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
@@ -13942,10 +13963,10 @@
         <v>169</v>
       </c>
       <c r="E452" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F452" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F452" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G452" s="9" t="s">
         <v>165</v>
@@ -13971,7 +13992,7 @@
         <v>0</v>
       </c>
       <c r="G453" s="51" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
@@ -14140,10 +14161,10 @@
         <v>169</v>
       </c>
       <c r="E462" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F462" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F462" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G462" s="9" t="s">
         <v>8</v>
@@ -14169,7 +14190,7 @@
         <v>28</v>
       </c>
       <c r="G463" s="51" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
@@ -14338,10 +14359,10 @@
         <v>169</v>
       </c>
       <c r="E472" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F472" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F472" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G472" s="9" t="s">
         <v>8</v>
@@ -14366,8 +14387,8 @@
       <c r="F473" s="5">
         <v>19</v>
       </c>
-      <c r="G473" s="61" t="s">
-        <v>320</v>
+      <c r="G473" s="52" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
@@ -14536,10 +14557,10 @@
         <v>169</v>
       </c>
       <c r="E482" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F482" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F482" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G482" s="9" t="s">
         <v>8</v>
@@ -14565,7 +14586,7 @@
         <v>6</v>
       </c>
       <c r="G483" s="51" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
@@ -14734,10 +14755,10 @@
         <v>169</v>
       </c>
       <c r="E492" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F492" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F492" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G492" s="9" t="s">
         <v>8</v>
@@ -14763,7 +14784,7 @@
         <v>6</v>
       </c>
       <c r="G493" s="51" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
@@ -14932,17 +14953,17 @@
         <v>169</v>
       </c>
       <c r="E502" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F502" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F502" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G502" s="9" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="63" t="s">
+      <c r="A503" s="48" t="s">
         <v>218</v>
       </c>
       <c r="B503" s="2">
@@ -14961,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="G503" s="51" t="s">
-        <v>290</v>
+        <v>325</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -15194,10 +15215,10 @@
         <v>169</v>
       </c>
       <c r="E518" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F518" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F518" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G518" s="9" t="s">
         <v>8</v>
@@ -15223,7 +15244,7 @@
         <v>12</v>
       </c>
       <c r="G519" s="51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="520" spans="1:7" x14ac:dyDescent="0.25">
@@ -15411,10 +15432,10 @@
         <v>169</v>
       </c>
       <c r="E529" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F529" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F529" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G529" s="9" t="s">
         <v>8</v>
@@ -15440,7 +15461,7 @@
         <v>40</v>
       </c>
       <c r="G530" s="51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="531" spans="1:7" x14ac:dyDescent="0.25">
@@ -15609,10 +15630,10 @@
         <v>169</v>
       </c>
       <c r="E539" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F539" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F539" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G539" s="9" t="s">
         <v>8</v>
@@ -15638,7 +15659,7 @@
         <v>16</v>
       </c>
       <c r="G540" s="51" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="541" spans="1:7" x14ac:dyDescent="0.25">
@@ -15826,10 +15847,10 @@
         <v>169</v>
       </c>
       <c r="E550" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F550" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F550" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G550" s="9" t="s">
         <v>8</v>
@@ -15855,7 +15876,7 @@
         <v>39</v>
       </c>
       <c r="G551" s="51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="552" spans="1:7" x14ac:dyDescent="0.25">
@@ -16043,10 +16064,10 @@
         <v>169</v>
       </c>
       <c r="E561" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F561" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F561" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G561" s="9" t="s">
         <v>8</v>
@@ -16072,7 +16093,7 @@
         <v>47</v>
       </c>
       <c r="G562" s="51" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="563" spans="1:7" x14ac:dyDescent="0.25">
@@ -16260,10 +16281,10 @@
         <v>169</v>
       </c>
       <c r="E572" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F572" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F572" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G572" s="9" t="s">
         <v>8</v>
@@ -16289,7 +16310,7 @@
         <v>36</v>
       </c>
       <c r="G573" s="51" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
     <row r="574" spans="1:7" x14ac:dyDescent="0.25">
@@ -16458,10 +16479,10 @@
         <v>169</v>
       </c>
       <c r="E582" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F582" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F582" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G582" s="9" t="s">
         <v>8</v>
@@ -16487,7 +16508,7 @@
         <v>0</v>
       </c>
       <c r="G583" s="51" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="584" spans="1:7" x14ac:dyDescent="0.25">
@@ -16656,10 +16677,10 @@
         <v>169</v>
       </c>
       <c r="E592" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F592" s="26" t="s">
         <v>287</v>
-      </c>
-      <c r="F592" s="26" t="s">
-        <v>288</v>
       </c>
       <c r="G592" s="9" t="s">
         <v>8</v>
@@ -16685,7 +16706,7 @@
         <v>48</v>
       </c>
       <c r="G593" s="51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="594" spans="1:7" x14ac:dyDescent="0.25">
@@ -18326,21 +18347,83 @@
     <row r="2039" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A530:A538"/>
-    <mergeCell ref="A540:A549"/>
-    <mergeCell ref="A551:A560"/>
-    <mergeCell ref="A562:A571"/>
-    <mergeCell ref="A573:A581"/>
-    <mergeCell ref="A583:A591"/>
-    <mergeCell ref="A593:A600"/>
-    <mergeCell ref="A493:A501"/>
-    <mergeCell ref="A443:A451"/>
-    <mergeCell ref="A453:A461"/>
-    <mergeCell ref="A463:A471"/>
-    <mergeCell ref="A473:A481"/>
-    <mergeCell ref="A483:A491"/>
-    <mergeCell ref="A503:A517"/>
-    <mergeCell ref="A519:A528"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="G77:G89"/>
+    <mergeCell ref="G91:G99"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="G66:G75"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="G224:G234"/>
+    <mergeCell ref="G236:G244"/>
+    <mergeCell ref="G200:G211"/>
+    <mergeCell ref="G213:G222"/>
+    <mergeCell ref="G180:G188"/>
+    <mergeCell ref="A180:A188"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="G101:G109"/>
+    <mergeCell ref="G121:G129"/>
+    <mergeCell ref="G141:G148"/>
+    <mergeCell ref="G131:G139"/>
+    <mergeCell ref="A236:A244"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="G160:G168"/>
+    <mergeCell ref="G190:G198"/>
+    <mergeCell ref="G170:G178"/>
+    <mergeCell ref="A190:A198"/>
+    <mergeCell ref="A200:A211"/>
+    <mergeCell ref="A213:A222"/>
+    <mergeCell ref="G305:G313"/>
+    <mergeCell ref="G266:G274"/>
+    <mergeCell ref="G276:G283"/>
+    <mergeCell ref="G285:G293"/>
+    <mergeCell ref="A266:A274"/>
+    <mergeCell ref="G111:G119"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="G150:G158"/>
+    <mergeCell ref="G246:G254"/>
+    <mergeCell ref="A246:A254"/>
+    <mergeCell ref="A276:A283"/>
+    <mergeCell ref="A131:A139"/>
+    <mergeCell ref="G256:G264"/>
+    <mergeCell ref="A256:A264"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="G295:G303"/>
+    <mergeCell ref="A295:A303"/>
+    <mergeCell ref="A285:A293"/>
+    <mergeCell ref="A224:A234"/>
+    <mergeCell ref="A160:A168"/>
+    <mergeCell ref="G346:G354"/>
+    <mergeCell ref="G356:G364"/>
+    <mergeCell ref="G315:G324"/>
+    <mergeCell ref="G326:G334"/>
+    <mergeCell ref="G336:G344"/>
+    <mergeCell ref="G573:G581"/>
+    <mergeCell ref="G583:G591"/>
+    <mergeCell ref="G593:G600"/>
+    <mergeCell ref="G551:G560"/>
+    <mergeCell ref="G562:G571"/>
+    <mergeCell ref="G384:G391"/>
+    <mergeCell ref="G519:G528"/>
+    <mergeCell ref="G530:G538"/>
+    <mergeCell ref="G540:G549"/>
+    <mergeCell ref="G493:G501"/>
+    <mergeCell ref="G503:G517"/>
+    <mergeCell ref="G411:G419"/>
+    <mergeCell ref="G421:G429"/>
     <mergeCell ref="A336:A344"/>
     <mergeCell ref="A326:A334"/>
     <mergeCell ref="A305:A313"/>
@@ -18365,83 +18448,21 @@
     <mergeCell ref="A402:A409"/>
     <mergeCell ref="A411:A419"/>
     <mergeCell ref="A421:A429"/>
-    <mergeCell ref="G346:G354"/>
-    <mergeCell ref="G356:G364"/>
-    <mergeCell ref="G315:G324"/>
-    <mergeCell ref="G326:G334"/>
-    <mergeCell ref="G336:G344"/>
-    <mergeCell ref="G573:G581"/>
-    <mergeCell ref="G583:G591"/>
-    <mergeCell ref="G593:G600"/>
-    <mergeCell ref="G551:G560"/>
-    <mergeCell ref="G562:G571"/>
-    <mergeCell ref="G384:G391"/>
-    <mergeCell ref="G519:G528"/>
-    <mergeCell ref="G530:G538"/>
-    <mergeCell ref="G540:G549"/>
-    <mergeCell ref="G493:G501"/>
-    <mergeCell ref="G503:G517"/>
-    <mergeCell ref="G411:G419"/>
-    <mergeCell ref="G421:G429"/>
-    <mergeCell ref="G305:G313"/>
-    <mergeCell ref="G266:G274"/>
-    <mergeCell ref="G276:G283"/>
-    <mergeCell ref="G285:G293"/>
-    <mergeCell ref="A266:A274"/>
-    <mergeCell ref="G111:G119"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="G150:G158"/>
-    <mergeCell ref="G246:G254"/>
-    <mergeCell ref="A246:A254"/>
-    <mergeCell ref="A276:A283"/>
-    <mergeCell ref="A131:A139"/>
-    <mergeCell ref="G256:G264"/>
-    <mergeCell ref="A256:A264"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="G295:G303"/>
-    <mergeCell ref="A295:A303"/>
-    <mergeCell ref="A285:A293"/>
-    <mergeCell ref="A224:A234"/>
-    <mergeCell ref="A160:A168"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A77:A89"/>
-    <mergeCell ref="G224:G234"/>
-    <mergeCell ref="G236:G244"/>
-    <mergeCell ref="G200:G211"/>
-    <mergeCell ref="G213:G222"/>
-    <mergeCell ref="G180:G188"/>
-    <mergeCell ref="A180:A188"/>
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="G101:G109"/>
-    <mergeCell ref="G121:G129"/>
-    <mergeCell ref="G141:G148"/>
-    <mergeCell ref="G131:G139"/>
-    <mergeCell ref="A236:A244"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="G160:G168"/>
-    <mergeCell ref="G190:G198"/>
-    <mergeCell ref="G170:G178"/>
-    <mergeCell ref="A190:A198"/>
-    <mergeCell ref="A200:A211"/>
-    <mergeCell ref="A213:A222"/>
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="G45:G54"/>
-    <mergeCell ref="G77:G89"/>
-    <mergeCell ref="G91:G99"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="G66:G75"/>
+    <mergeCell ref="A530:A538"/>
+    <mergeCell ref="A540:A549"/>
+    <mergeCell ref="A551:A560"/>
+    <mergeCell ref="A562:A571"/>
+    <mergeCell ref="A573:A581"/>
+    <mergeCell ref="A583:A591"/>
+    <mergeCell ref="A593:A600"/>
+    <mergeCell ref="A493:A501"/>
+    <mergeCell ref="A443:A451"/>
+    <mergeCell ref="A453:A461"/>
+    <mergeCell ref="A463:A471"/>
+    <mergeCell ref="A473:A481"/>
+    <mergeCell ref="A483:A491"/>
+    <mergeCell ref="A503:A517"/>
+    <mergeCell ref="A519:A528"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{19CFF195-F347-4DC1-882D-E27AE52E410C}"/>

--- a/Seasons/Football History.xlsx
+++ b/Seasons/Football History.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Mugs&amp;Fred\Documents\Fred\ROSM\Website\public_html\Seasons\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2055B6C8-DE3C-48C1-B4D2-143C633E1751}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFF1673-2268-4E57-8AB6-EDC95D0D6946}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{A8C7F2BF-BA1F-4802-BC8C-4DC7AFA8B3A8}"/>
   </bookViews>
@@ -2694,30 +2694,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Catholic League Champions
-Paul Janness, former St. Mary athlete (Class of '30) was the head coach as he guided St. Mary's to their second consecutive Catholic League 2nd Division Championship</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>. The only loss was the 18-0 defeat to the powerful Royal Oak High School football team. Royal Oak High went on to win the Class A Football Championship in 1935. Defense was the cornerstone of the St. Mary football team as they gave up only 7 points in Catholic League play. The Daily Tribune article on Dec 4 indicated the team banquet was held at Gurnsey's Chop House in Detroit. Coach Janness is the first alumnus to coach St. Mary's football team.</t>
-    </r>
-  </si>
-  <si>
-    <r>
       <t xml:space="preserve">Joey Smith was the head coach. </t>
     </r>
     <r>
@@ -2837,108 +2813,6 @@
       </rPr>
       <t xml:space="preserve"> The team falls to a 2-6 record for the season. In the 6 losses the team manged to score only 34 points while giving up 122. There a couple of highlights - St. Mary's had been the first team to score against the league leading St. Rita team. A thoroughly convincing 31-0 triumph over Royal Oak Shrine. With only 5 seniors on the team the future was looking brighter for the Irish.
 John French resigns in 1945, but continued in an advisory capacity - according to the Sep 10 1945 Daily Tribune article.</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Catholic League Champions
-Tom Dorais was the head coach. In his only season coaching at St. Mary's, Tom Dorais, the son of Detroit Lions coach Gus Dorais, led the team to the Catholic League 2nd Division Championship.</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> This had been the first championship season since 1935. This was the best football team St. Mary's produced and marks the only season where the team obtained a perfect 9-0 record. The offense scores an astonishing 251 points while the Irish defense allows only 16. In a thrilling championship game they beat St. Paul, scoring with just under 3 minutes to take the lead.
-Post-season platitudes were plenty - </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Tom Dorais </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>was named Coach of the Year while 3 players were named to the All-SOC (South Oakland County) team</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> - Al DuFresne, Ken Barnowski and Bill Wagner. </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>St. Mary's was in the midst of their greatest athletic accomplishments going 39-0 in two sports while winning 3 Catholic League 2nd Divion titles - '46 Basketball (14-0), '46 Football (9-0) and '47 Basketball (16-0).</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
     </r>
   </si>
   <si>
@@ -3183,6 +3057,132 @@
       </rPr>
       <t xml:space="preserve">
 Ken Wright left St. Mary's after 5 seasons with the best overall record of any football coach 24-16-1, going 19-5-1 in his last 3 seasons. He became an assistant coach at Birmingham Seaholm.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catholic League Champions
+Tom Dorais was the head coach. In his only season coaching at St. Mary's, Tom Dorais, the son of Detroit Lions coach Gus Dorais, led the team to the Catholic League 2nd Division Championship.</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> This had been the first championship season since 1935. This was the best football team St. Mary's ever produced and marks the only season where the team obtained a perfect 9-0 record. The offense scores an astonishing 251 points while the Irish defense allows only 16. In a thrilling championship game they beat St. Paul, scoring with just under 3 minutes to take the lead.
+Post-season platitudes were plenty - </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Tom Dorais </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>was named Coach of the Year while 3 players were named to the All-SOC (South Oakland County) team</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> - Al DuFresne, Ken Barnowski and Bill Wagner. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>St. Mary's was in the midst of their greatest athletic accomplishments going 39-0 in two sports while winning 3 Catholic League 2nd Divion titles - '46 Basketball (14-0), '46 Football (9-0) and '47 Basketball (16-0).</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Catholic League Champions
+Paul Janness, former St. Mary athlete (Class of '30) was the head coach as he guided St. Mary's to their second consecutive Catholic League 2nd Division Championship</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>. The only loss was the 18-0 defeat to the powerful Royal Oak High School football team, which went on to win the Class A Football Championship in 1935. Defense was the cornerstone of the St. Mary football team as they gave up only 7 points in Catholic League play.  The Daily Tribune article on Dec 4 indicated the team banquet was held at Gurnsey's Chop House in Detroit. Coach Janness is the first alumnus to coach St. Mary's football team.</t>
     </r>
   </si>
 </sst>
@@ -3642,7 +3642,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3653,10 +3653,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -3666,21 +3663,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3688,6 +3670,24 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -5173,8 +5173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5C2FFFC7-E182-47AD-9B1B-521106FC03D6}">
   <dimension ref="A1:H2039"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G503" sqref="G503:G517"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G91" sqref="G91:G99"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5211,7 +5211,7 @@
       </c>
     </row>
     <row r="2" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="55" t="s">
         <v>168</v>
       </c>
       <c r="B2" s="2">
@@ -5229,12 +5229,12 @@
       <c r="F2" s="7">
         <v>0</v>
       </c>
-      <c r="G2" s="58" t="s">
+      <c r="G2" s="52" t="s">
         <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="61"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="2">
         <v>10152</v>
       </c>
@@ -5250,10 +5250,10 @@
       <c r="F3" s="7">
         <v>12</v>
       </c>
-      <c r="G3" s="54"/>
+      <c r="G3" s="53"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="61"/>
+      <c r="A4" s="55"/>
       <c r="B4" s="2">
         <v>10156</v>
       </c>
@@ -5269,10 +5269,10 @@
       <c r="F4" s="7">
         <v>14</v>
       </c>
-      <c r="G4" s="54"/>
+      <c r="G4" s="53"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="61"/>
+      <c r="A5" s="55"/>
       <c r="B5" s="2">
         <v>10171</v>
       </c>
@@ -5288,37 +5288,37 @@
       <c r="F5" s="7">
         <v>23</v>
       </c>
-      <c r="G5" s="54"/>
+      <c r="G5" s="53"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A6" s="61"/>
+      <c r="A6" s="55"/>
       <c r="B6" s="2"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
       <c r="E6" s="6"/>
       <c r="F6" s="7"/>
-      <c r="G6" s="54"/>
+      <c r="G6" s="53"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A7" s="61"/>
+      <c r="A7" s="55"/>
       <c r="B7" s="2"/>
       <c r="C7" s="3"/>
       <c r="D7" s="3"/>
       <c r="E7" s="6"/>
       <c r="F7" s="7"/>
-      <c r="G7" s="54"/>
+      <c r="G7" s="53"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A8" s="61"/>
+      <c r="A8" s="55"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="6"/>
       <c r="F8" s="7"/>
-      <c r="G8" s="54"/>
+      <c r="G8" s="53"/>
     </row>
     <row r="9" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="61"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="2"/>
       <c r="C9" s="12" t="s">
         <v>37</v>
@@ -5334,7 +5334,7 @@
         <f>SUM(F2:F8)</f>
         <v>49</v>
       </c>
-      <c r="G9" s="55"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
@@ -5360,7 +5360,7 @@
       </c>
     </row>
     <row r="11" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="61" t="s">
+      <c r="A11" s="55" t="s">
         <v>170</v>
       </c>
       <c r="B11" s="2">
@@ -5378,12 +5378,12 @@
       <c r="F11" s="7">
         <v>0</v>
       </c>
-      <c r="G11" s="58" t="s">
+      <c r="G11" s="52" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A12" s="61"/>
+      <c r="A12" s="55"/>
       <c r="B12" s="2">
         <v>10506</v>
       </c>
@@ -5399,10 +5399,10 @@
       <c r="F12" s="7">
         <v>32</v>
       </c>
-      <c r="G12" s="54"/>
+      <c r="G12" s="53"/>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" s="61"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="2">
         <v>10513</v>
       </c>
@@ -5418,10 +5418,10 @@
       <c r="F13" s="7">
         <v>20</v>
       </c>
-      <c r="G13" s="54"/>
+      <c r="G13" s="53"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" s="61"/>
+      <c r="A14" s="55"/>
       <c r="B14" s="2">
         <v>10527</v>
       </c>
@@ -5437,10 +5437,10 @@
       <c r="F14" s="7">
         <v>19</v>
       </c>
-      <c r="G14" s="54"/>
+      <c r="G14" s="53"/>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" s="61"/>
+      <c r="A15" s="55"/>
       <c r="B15" s="2">
         <v>10541</v>
       </c>
@@ -5456,10 +5456,10 @@
       <c r="F15" s="7">
         <v>45</v>
       </c>
-      <c r="G15" s="54"/>
+      <c r="G15" s="53"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="61"/>
+      <c r="A16" s="55"/>
       <c r="B16" s="2">
         <v>10548</v>
       </c>
@@ -5475,10 +5475,10 @@
       <c r="F16" s="7">
         <v>7</v>
       </c>
-      <c r="G16" s="54"/>
+      <c r="G16" s="53"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" s="61"/>
+      <c r="A17" s="55"/>
       <c r="B17" s="2">
         <v>10555</v>
       </c>
@@ -5494,10 +5494,10 @@
       <c r="F17" s="7">
         <v>0</v>
       </c>
-      <c r="G17" s="54"/>
+      <c r="G17" s="53"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" s="61"/>
+      <c r="A18" s="55"/>
       <c r="B18" s="2">
         <v>10561</v>
       </c>
@@ -5513,10 +5513,10 @@
       <c r="F18" s="7">
         <v>6</v>
       </c>
-      <c r="G18" s="54"/>
+      <c r="G18" s="53"/>
     </row>
     <row r="19" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="61"/>
+      <c r="A19" s="55"/>
       <c r="B19" s="2"/>
       <c r="C19" s="16" t="s">
         <v>38</v>
@@ -5532,7 +5532,7 @@
         <f>SUM(F11:F18)</f>
         <v>129</v>
       </c>
-      <c r="G19" s="55"/>
+      <c r="G19" s="54"/>
     </row>
     <row r="20" spans="1:7" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="28" t="s">
@@ -5558,7 +5558,7 @@
       </c>
     </row>
     <row r="21" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="62" t="s">
+      <c r="A21" s="56" t="s">
         <v>171</v>
       </c>
       <c r="B21" s="2">
@@ -5576,12 +5576,12 @@
       <c r="F21" s="7">
         <v>27</v>
       </c>
-      <c r="G21" s="58" t="s">
+      <c r="G21" s="52" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="62"/>
+      <c r="A22" s="56"/>
       <c r="B22" s="2">
         <v>10870</v>
       </c>
@@ -5597,10 +5597,10 @@
       <c r="F22" s="7">
         <v>13</v>
       </c>
-      <c r="G22" s="54"/>
+      <c r="G22" s="53"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="62"/>
+      <c r="A23" s="56"/>
       <c r="B23" s="2">
         <v>10877</v>
       </c>
@@ -5616,10 +5616,10 @@
       <c r="F23" s="7">
         <v>13</v>
       </c>
-      <c r="G23" s="54"/>
+      <c r="G23" s="53"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="62"/>
+      <c r="A24" s="56"/>
       <c r="B24" s="2">
         <v>10884</v>
       </c>
@@ -5635,10 +5635,10 @@
       <c r="F24" s="7">
         <v>18</v>
       </c>
-      <c r="G24" s="54"/>
+      <c r="G24" s="53"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="62"/>
+      <c r="A25" s="56"/>
       <c r="B25" s="2">
         <v>10891</v>
       </c>
@@ -5654,10 +5654,10 @@
       <c r="F25" s="7">
         <v>24</v>
       </c>
-      <c r="G25" s="54"/>
+      <c r="G25" s="53"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="62"/>
+      <c r="A26" s="56"/>
       <c r="B26" s="2">
         <v>10898</v>
       </c>
@@ -5673,10 +5673,10 @@
       <c r="F26" s="7">
         <v>7</v>
       </c>
-      <c r="G26" s="54"/>
+      <c r="G26" s="53"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="62"/>
+      <c r="A27" s="56"/>
       <c r="B27" s="2">
         <v>10905</v>
       </c>
@@ -5692,10 +5692,10 @@
       <c r="F27" s="7">
         <v>0</v>
       </c>
-      <c r="G27" s="54"/>
+      <c r="G27" s="53"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="62"/>
+      <c r="A28" s="56"/>
       <c r="B28" s="2">
         <v>10912</v>
       </c>
@@ -5711,10 +5711,10 @@
       <c r="F28" s="7">
         <v>0</v>
       </c>
-      <c r="G28" s="54"/>
+      <c r="G28" s="53"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="62"/>
+      <c r="A29" s="56"/>
       <c r="B29" s="2" t="s">
         <v>66</v>
       </c>
@@ -5730,10 +5730,10 @@
       <c r="F29" s="7">
         <v>0</v>
       </c>
-      <c r="G29" s="54"/>
+      <c r="G29" s="53"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="62"/>
+      <c r="A30" s="56"/>
       <c r="B30" s="2">
         <v>10917</v>
       </c>
@@ -5749,10 +5749,10 @@
       <c r="F30" s="7">
         <v>0</v>
       </c>
-      <c r="G30" s="54"/>
+      <c r="G30" s="53"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="62"/>
+      <c r="A31" s="56"/>
       <c r="B31" s="2">
         <v>10925</v>
       </c>
@@ -5768,10 +5768,10 @@
       <c r="F31" s="7">
         <v>7</v>
       </c>
-      <c r="G31" s="54"/>
+      <c r="G31" s="53"/>
     </row>
     <row r="32" spans="1:7" s="29" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="63"/>
+      <c r="A32" s="57"/>
       <c r="B32" s="16"/>
       <c r="C32" s="16" t="s">
         <v>39</v>
@@ -5787,7 +5787,7 @@
         <f>SUM(F21:F31)</f>
         <v>109</v>
       </c>
-      <c r="G32" s="55"/>
+      <c r="G32" s="54"/>
     </row>
     <row r="33" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="28" t="s">
@@ -5831,7 +5831,7 @@
       <c r="F34" s="7">
         <v>0</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="G34" s="52" t="s">
         <v>295</v>
       </c>
     </row>
@@ -5852,7 +5852,7 @@
       <c r="F35" s="7">
         <v>0</v>
       </c>
-      <c r="G35" s="54"/>
+      <c r="G35" s="53"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="46"/>
@@ -5871,7 +5871,7 @@
       <c r="F36" s="7">
         <v>0</v>
       </c>
-      <c r="G36" s="54"/>
+      <c r="G36" s="53"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="46"/>
@@ -5890,7 +5890,7 @@
       <c r="F37" s="7">
         <v>0</v>
       </c>
-      <c r="G37" s="54"/>
+      <c r="G37" s="53"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="46"/>
@@ -5909,7 +5909,7 @@
       <c r="F38" s="7">
         <v>6</v>
       </c>
-      <c r="G38" s="54"/>
+      <c r="G38" s="53"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="46"/>
@@ -5928,7 +5928,7 @@
       <c r="F39" s="7">
         <v>0</v>
       </c>
-      <c r="G39" s="54"/>
+      <c r="G39" s="53"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="46"/>
@@ -5947,7 +5947,7 @@
       <c r="F40" s="7">
         <v>0</v>
       </c>
-      <c r="G40" s="54"/>
+      <c r="G40" s="53"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="46"/>
@@ -5966,7 +5966,7 @@
       <c r="F41" s="7">
         <v>0</v>
       </c>
-      <c r="G41" s="54"/>
+      <c r="G41" s="53"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="46"/>
@@ -5985,7 +5985,7 @@
       <c r="F42" s="7">
         <v>0</v>
       </c>
-      <c r="G42" s="54"/>
+      <c r="G42" s="53"/>
     </row>
     <row r="43" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A43" s="47"/>
@@ -6004,7 +6004,7 @@
         <f>SUM(F34:F42)</f>
         <v>6</v>
       </c>
-      <c r="G43" s="55"/>
+      <c r="G43" s="54"/>
     </row>
     <row r="44" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="28" t="s">
@@ -6030,7 +6030,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="60" t="s">
+      <c r="A45" s="48" t="s">
         <v>173</v>
       </c>
       <c r="B45" s="2">
@@ -6656,7 +6656,7 @@
       </c>
     </row>
     <row r="77" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A77" s="56" t="s">
+      <c r="A77" s="59" t="s">
         <v>176</v>
       </c>
       <c r="B77" s="2">
@@ -6674,12 +6674,12 @@
       <c r="F77" s="7">
         <v>6</v>
       </c>
-      <c r="G77" s="58" t="s">
+      <c r="G77" s="52" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="57"/>
+      <c r="A78" s="58"/>
       <c r="B78" s="2">
         <v>12699</v>
       </c>
@@ -6695,10 +6695,10 @@
       <c r="F78" s="7">
         <v>12</v>
       </c>
-      <c r="G78" s="54"/>
+      <c r="G78" s="53"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="57"/>
+      <c r="A79" s="58"/>
       <c r="B79" s="2">
         <v>12705</v>
       </c>
@@ -6714,10 +6714,10 @@
       <c r="F79" s="7">
         <v>15</v>
       </c>
-      <c r="G79" s="54"/>
+      <c r="G79" s="53"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="57"/>
+      <c r="A80" s="58"/>
       <c r="B80" s="2">
         <v>12713</v>
       </c>
@@ -6733,10 +6733,10 @@
       <c r="F80" s="7">
         <v>0</v>
       </c>
-      <c r="G80" s="54"/>
+      <c r="G80" s="53"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="57"/>
+      <c r="A81" s="58"/>
       <c r="B81" s="2">
         <v>12720</v>
       </c>
@@ -6752,10 +6752,10 @@
       <c r="F81" s="7">
         <v>0</v>
       </c>
-      <c r="G81" s="54"/>
+      <c r="G81" s="53"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="57"/>
+      <c r="A82" s="58"/>
       <c r="B82" s="2">
         <v>12727</v>
       </c>
@@ -6771,10 +6771,10 @@
       <c r="F82" s="7">
         <v>0</v>
       </c>
-      <c r="G82" s="54"/>
+      <c r="G82" s="53"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="57"/>
+      <c r="A83" s="58"/>
       <c r="B83" s="40">
         <v>12734</v>
       </c>
@@ -6790,10 +6790,10 @@
       <c r="F83" s="43">
         <v>0</v>
       </c>
-      <c r="G83" s="54"/>
+      <c r="G83" s="53"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="57"/>
+      <c r="A84" s="58"/>
       <c r="B84" s="2">
         <v>12741</v>
       </c>
@@ -6809,35 +6809,35 @@
       <c r="F84" s="7">
         <v>0</v>
       </c>
-      <c r="G84" s="54"/>
+      <c r="G84" s="53"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="57"/>
+      <c r="A85" s="58"/>
       <c r="B85" s="2"/>
       <c r="D85" s="3"/>
       <c r="E85" s="6"/>
       <c r="F85" s="7"/>
-      <c r="G85" s="54"/>
+      <c r="G85" s="53"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="57"/>
+      <c r="A86" s="58"/>
       <c r="B86" s="2"/>
       <c r="D86" s="3"/>
       <c r="E86" s="6"/>
       <c r="F86" s="7"/>
-      <c r="G86" s="54"/>
+      <c r="G86" s="53"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="57"/>
+      <c r="A87" s="58"/>
       <c r="B87" s="3"/>
       <c r="C87" s="20"/>
       <c r="D87" s="21"/>
       <c r="E87" s="22"/>
       <c r="F87" s="23"/>
-      <c r="G87" s="54"/>
+      <c r="G87" s="53"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="57"/>
+      <c r="A88" s="58"/>
       <c r="B88" s="35"/>
       <c r="C88" s="39" t="s">
         <v>256</v>
@@ -6845,10 +6845,10 @@
       <c r="D88" s="36"/>
       <c r="E88" s="37"/>
       <c r="F88" s="38"/>
-      <c r="G88" s="54"/>
+      <c r="G88" s="53"/>
     </row>
     <row r="89" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="57"/>
+      <c r="A89" s="58"/>
       <c r="B89" s="35"/>
       <c r="C89" s="20" t="s">
         <v>35</v>
@@ -6864,7 +6864,7 @@
         <f>SUM(F77:F88)</f>
         <v>33</v>
       </c>
-      <c r="G89" s="55"/>
+      <c r="G89" s="54"/>
     </row>
     <row r="90" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="28" t="s">
@@ -6890,7 +6890,7 @@
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="57" t="s">
+      <c r="A91" s="58" t="s">
         <v>177</v>
       </c>
       <c r="B91" s="2">
@@ -6909,11 +6909,11 @@
         <v>0</v>
       </c>
       <c r="G91" s="51" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="57"/>
+      <c r="A92" s="58"/>
       <c r="B92" s="2">
         <v>13069</v>
       </c>
@@ -6932,7 +6932,7 @@
       <c r="G92" s="51"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="57"/>
+      <c r="A93" s="58"/>
       <c r="B93" s="2">
         <v>13077</v>
       </c>
@@ -6951,7 +6951,7 @@
       <c r="G93" s="51"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="57"/>
+      <c r="A94" s="58"/>
       <c r="B94" s="2">
         <v>13084</v>
       </c>
@@ -6970,7 +6970,7 @@
       <c r="G94" s="51"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="57"/>
+      <c r="A95" s="58"/>
       <c r="B95" s="2">
         <v>13091</v>
       </c>
@@ -6989,7 +6989,7 @@
       <c r="G95" s="51"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="57"/>
+      <c r="A96" s="58"/>
       <c r="B96" s="2">
         <v>13098</v>
       </c>
@@ -7008,7 +7008,7 @@
       <c r="G96" s="51"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="57"/>
+      <c r="A97" s="58"/>
       <c r="B97" s="2">
         <v>13105</v>
       </c>
@@ -7027,7 +7027,7 @@
       <c r="G97" s="51"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="57"/>
+      <c r="A98" s="58"/>
       <c r="B98" s="2">
         <v>13112</v>
       </c>
@@ -7046,7 +7046,7 @@
       <c r="G98" s="51"/>
     </row>
     <row r="99" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A99" s="57"/>
+      <c r="A99" s="58"/>
       <c r="B99" s="3"/>
       <c r="C99" s="20" t="s">
         <v>36</v>
@@ -7701,7 +7701,7 @@
         <v>7</v>
       </c>
       <c r="G131" s="51" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
@@ -8071,7 +8071,7 @@
       <c r="F150" s="7">
         <v>12</v>
       </c>
-      <c r="G150" s="53" t="s">
+      <c r="G150" s="62" t="s">
         <v>260</v>
       </c>
     </row>
@@ -8092,7 +8092,7 @@
       <c r="F151" s="7">
         <v>0</v>
       </c>
-      <c r="G151" s="54"/>
+      <c r="G151" s="53"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A152" s="46"/>
@@ -8111,7 +8111,7 @@
       <c r="F152" s="7">
         <v>13</v>
       </c>
-      <c r="G152" s="54"/>
+      <c r="G152" s="53"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A153" s="46"/>
@@ -8130,7 +8130,7 @@
       <c r="F153" s="7">
         <v>0</v>
       </c>
-      <c r="G153" s="54"/>
+      <c r="G153" s="53"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A154" s="46"/>
@@ -8149,7 +8149,7 @@
       <c r="F154" s="7">
         <v>31</v>
       </c>
-      <c r="G154" s="54"/>
+      <c r="G154" s="53"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A155" s="46"/>
@@ -8168,7 +8168,7 @@
       <c r="F155" s="7">
         <v>13</v>
       </c>
-      <c r="G155" s="54"/>
+      <c r="G155" s="53"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A156" s="46"/>
@@ -8187,7 +8187,7 @@
       <c r="F156" s="7">
         <v>21</v>
       </c>
-      <c r="G156" s="54"/>
+      <c r="G156" s="53"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A157" s="46"/>
@@ -8206,7 +8206,7 @@
       <c r="F157" s="7">
         <v>38</v>
       </c>
-      <c r="G157" s="54"/>
+      <c r="G157" s="53"/>
     </row>
     <row r="158" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A158" s="47"/>
@@ -8225,7 +8225,7 @@
         <f>SUM(F150:F157)</f>
         <v>128</v>
       </c>
-      <c r="G158" s="55"/>
+      <c r="G158" s="54"/>
     </row>
     <row r="159" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="28" t="s">
@@ -8269,7 +8269,7 @@
       <c r="F160" s="5">
         <v>7</v>
       </c>
-      <c r="G160" s="52" t="s">
+      <c r="G160" s="61" t="s">
         <v>300</v>
       </c>
     </row>
@@ -8461,7 +8461,7 @@
       <c r="F170" s="5">
         <v>12</v>
       </c>
-      <c r="G170" s="52" t="s">
+      <c r="G170" s="61" t="s">
         <v>301</v>
       </c>
     </row>
@@ -8660,7 +8660,7 @@
         <v>19</v>
       </c>
       <c r="G180" s="51" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
@@ -8857,7 +8857,7 @@
       <c r="F190" s="5">
         <v>26</v>
       </c>
-      <c r="G190" s="52" t="s">
+      <c r="G190" s="61" t="s">
         <v>302</v>
       </c>
     </row>
@@ -9037,7 +9037,7 @@
       </c>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="60" t="s">
+      <c r="A200" s="48" t="s">
         <v>188</v>
       </c>
       <c r="B200" s="2">
@@ -9055,8 +9055,8 @@
       <c r="F200" s="5">
         <v>7</v>
       </c>
-      <c r="G200" s="59" t="s">
-        <v>323</v>
+      <c r="G200" s="60" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
@@ -9209,7 +9209,7 @@
       <c r="F208" s="5">
         <v>7</v>
       </c>
-      <c r="G208" s="58"/>
+      <c r="G208" s="52"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A209" s="49"/>
@@ -9218,7 +9218,7 @@
       <c r="D209" s="3"/>
       <c r="E209" s="8"/>
       <c r="F209" s="5"/>
-      <c r="G209" s="58"/>
+      <c r="G209" s="52"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A210" s="49"/>
@@ -9227,7 +9227,7 @@
       <c r="D210" s="3"/>
       <c r="E210" s="8"/>
       <c r="F210" s="5"/>
-      <c r="G210" s="58"/>
+      <c r="G210" s="52"/>
     </row>
     <row r="211" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A211" s="50"/>
@@ -9246,7 +9246,7 @@
         <f>SUM(F200:F208)</f>
         <v>16</v>
       </c>
-      <c r="G211" s="58"/>
+      <c r="G211" s="52"/>
     </row>
     <row r="212" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="28" t="s">
@@ -9290,8 +9290,8 @@
       <c r="F213" s="7">
         <v>13</v>
       </c>
-      <c r="G213" s="52" t="s">
-        <v>318</v>
+      <c r="G213" s="61" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
@@ -9489,7 +9489,7 @@
       </c>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="56" t="s">
+      <c r="A224" s="59" t="s">
         <v>190</v>
       </c>
       <c r="B224" s="2">
@@ -9508,11 +9508,11 @@
         <v>6</v>
       </c>
       <c r="G224" s="51" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="57"/>
+      <c r="A225" s="58"/>
       <c r="B225" s="2">
         <v>17802</v>
       </c>
@@ -9531,7 +9531,7 @@
       <c r="G225" s="51"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="57"/>
+      <c r="A226" s="58"/>
       <c r="B226" s="4">
         <v>17809</v>
       </c>
@@ -9550,7 +9550,7 @@
       <c r="G226" s="51"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="57"/>
+      <c r="A227" s="58"/>
       <c r="B227" s="2">
         <v>17814</v>
       </c>
@@ -9569,7 +9569,7 @@
       <c r="G227" s="51"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="57"/>
+      <c r="A228" s="58"/>
       <c r="B228" s="2">
         <v>17822</v>
       </c>
@@ -9588,7 +9588,7 @@
       <c r="G228" s="51"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="57"/>
+      <c r="A229" s="58"/>
       <c r="B229" s="2">
         <v>17830</v>
       </c>
@@ -9607,7 +9607,7 @@
       <c r="G229" s="51"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="57"/>
+      <c r="A230" s="58"/>
       <c r="B230" s="2">
         <v>17844</v>
       </c>
@@ -9626,7 +9626,7 @@
       <c r="G230" s="51"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="57"/>
+      <c r="A231" s="58"/>
       <c r="B231" s="4">
         <v>17852</v>
       </c>
@@ -9645,7 +9645,7 @@
       <c r="G231" s="51"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="57"/>
+      <c r="A232" s="58"/>
       <c r="B232" s="4"/>
       <c r="C232" s="3"/>
       <c r="D232" s="3"/>
@@ -9654,7 +9654,7 @@
       <c r="G232" s="51"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="57"/>
+      <c r="A233" s="58"/>
       <c r="B233" s="4"/>
       <c r="C233" s="3"/>
       <c r="D233" s="3"/>
@@ -9663,7 +9663,7 @@
       <c r="G233" s="51"/>
     </row>
     <row r="234" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A234" s="57"/>
+      <c r="A234" s="58"/>
       <c r="B234" s="3"/>
       <c r="C234" s="20" t="s">
         <v>126</v>
@@ -9877,7 +9877,7 @@
         <f>SUM(F236:F243)</f>
         <v>82</v>
       </c>
-      <c r="G244" s="58"/>
+      <c r="G244" s="52"/>
     </row>
     <row r="245" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="28" t="s">
@@ -9921,7 +9921,7 @@
       <c r="F246" s="5">
         <v>31</v>
       </c>
-      <c r="G246" s="52" t="s">
+      <c r="G246" s="61" t="s">
         <v>264</v>
       </c>
     </row>
@@ -10690,7 +10690,7 @@
       <c r="F285" s="7">
         <v>19</v>
       </c>
-      <c r="G285" s="52" t="s">
+      <c r="G285" s="61" t="s">
         <v>305</v>
       </c>
     </row>
@@ -11086,7 +11086,7 @@
       <c r="F305" s="5">
         <v>12</v>
       </c>
-      <c r="G305" s="52" t="s">
+      <c r="G305" s="61" t="s">
         <v>308</v>
       </c>
     </row>
@@ -11692,7 +11692,7 @@
         <v>20</v>
       </c>
       <c r="G336" s="51" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
@@ -12644,7 +12644,7 @@
         <v>0</v>
       </c>
       <c r="G384" s="51" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="385" spans="1:8" x14ac:dyDescent="0.25">
@@ -14387,7 +14387,7 @@
       <c r="F473" s="5">
         <v>19</v>
       </c>
-      <c r="G473" s="52" t="s">
+      <c r="G473" s="61" t="s">
         <v>315</v>
       </c>
     </row>
@@ -14963,7 +14963,7 @@
       </c>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="48" t="s">
+      <c r="A503" s="63" t="s">
         <v>218</v>
       </c>
       <c r="B503" s="2">
@@ -14982,7 +14982,7 @@
         <v>0</v>
       </c>
       <c r="G503" s="51" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
@@ -18347,83 +18347,21 @@
     <row r="2039" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="116">
-    <mergeCell ref="A34:A43"/>
-    <mergeCell ref="A45:A54"/>
-    <mergeCell ref="A56:A64"/>
-    <mergeCell ref="G45:G54"/>
-    <mergeCell ref="G77:G89"/>
-    <mergeCell ref="G91:G99"/>
-    <mergeCell ref="G56:G64"/>
-    <mergeCell ref="A2:A9"/>
-    <mergeCell ref="A11:A19"/>
-    <mergeCell ref="G2:G9"/>
-    <mergeCell ref="G34:G43"/>
-    <mergeCell ref="G11:G19"/>
-    <mergeCell ref="G21:G32"/>
-    <mergeCell ref="A21:A32"/>
-    <mergeCell ref="A66:A75"/>
-    <mergeCell ref="A91:A99"/>
-    <mergeCell ref="G66:G75"/>
-    <mergeCell ref="A101:A109"/>
-    <mergeCell ref="A77:A89"/>
-    <mergeCell ref="G224:G234"/>
-    <mergeCell ref="G236:G244"/>
-    <mergeCell ref="G200:G211"/>
-    <mergeCell ref="G213:G222"/>
-    <mergeCell ref="G180:G188"/>
-    <mergeCell ref="A180:A188"/>
-    <mergeCell ref="A111:A119"/>
-    <mergeCell ref="G101:G109"/>
-    <mergeCell ref="G121:G129"/>
-    <mergeCell ref="G141:G148"/>
-    <mergeCell ref="G131:G139"/>
-    <mergeCell ref="A236:A244"/>
-    <mergeCell ref="A170:A178"/>
-    <mergeCell ref="G160:G168"/>
-    <mergeCell ref="G190:G198"/>
-    <mergeCell ref="G170:G178"/>
-    <mergeCell ref="A190:A198"/>
-    <mergeCell ref="A200:A211"/>
-    <mergeCell ref="A213:A222"/>
-    <mergeCell ref="G305:G313"/>
-    <mergeCell ref="G266:G274"/>
-    <mergeCell ref="G276:G283"/>
-    <mergeCell ref="G285:G293"/>
-    <mergeCell ref="A266:A274"/>
-    <mergeCell ref="G111:G119"/>
-    <mergeCell ref="A150:A158"/>
-    <mergeCell ref="A141:A148"/>
-    <mergeCell ref="G150:G158"/>
-    <mergeCell ref="G246:G254"/>
-    <mergeCell ref="A246:A254"/>
-    <mergeCell ref="A276:A283"/>
-    <mergeCell ref="A131:A139"/>
-    <mergeCell ref="G256:G264"/>
-    <mergeCell ref="A256:A264"/>
-    <mergeCell ref="A121:A129"/>
-    <mergeCell ref="G295:G303"/>
-    <mergeCell ref="A295:A303"/>
-    <mergeCell ref="A285:A293"/>
-    <mergeCell ref="A224:A234"/>
-    <mergeCell ref="A160:A168"/>
-    <mergeCell ref="G346:G354"/>
-    <mergeCell ref="G356:G364"/>
-    <mergeCell ref="G315:G324"/>
-    <mergeCell ref="G326:G334"/>
-    <mergeCell ref="G336:G344"/>
-    <mergeCell ref="G573:G581"/>
-    <mergeCell ref="G583:G591"/>
-    <mergeCell ref="G593:G600"/>
-    <mergeCell ref="G551:G560"/>
-    <mergeCell ref="G562:G571"/>
-    <mergeCell ref="G384:G391"/>
-    <mergeCell ref="G519:G528"/>
-    <mergeCell ref="G530:G538"/>
-    <mergeCell ref="G540:G549"/>
-    <mergeCell ref="G493:G501"/>
-    <mergeCell ref="G503:G517"/>
-    <mergeCell ref="G411:G419"/>
-    <mergeCell ref="G421:G429"/>
+    <mergeCell ref="A530:A538"/>
+    <mergeCell ref="A540:A549"/>
+    <mergeCell ref="A551:A560"/>
+    <mergeCell ref="A562:A571"/>
+    <mergeCell ref="A573:A581"/>
+    <mergeCell ref="A583:A591"/>
+    <mergeCell ref="A593:A600"/>
+    <mergeCell ref="A493:A501"/>
+    <mergeCell ref="A443:A451"/>
+    <mergeCell ref="A453:A461"/>
+    <mergeCell ref="A463:A471"/>
+    <mergeCell ref="A473:A481"/>
+    <mergeCell ref="A483:A491"/>
+    <mergeCell ref="A503:A517"/>
+    <mergeCell ref="A519:A528"/>
     <mergeCell ref="A336:A344"/>
     <mergeCell ref="A326:A334"/>
     <mergeCell ref="A305:A313"/>
@@ -18448,21 +18386,83 @@
     <mergeCell ref="A402:A409"/>
     <mergeCell ref="A411:A419"/>
     <mergeCell ref="A421:A429"/>
-    <mergeCell ref="A530:A538"/>
-    <mergeCell ref="A540:A549"/>
-    <mergeCell ref="A551:A560"/>
-    <mergeCell ref="A562:A571"/>
-    <mergeCell ref="A573:A581"/>
-    <mergeCell ref="A583:A591"/>
-    <mergeCell ref="A593:A600"/>
-    <mergeCell ref="A493:A501"/>
-    <mergeCell ref="A443:A451"/>
-    <mergeCell ref="A453:A461"/>
-    <mergeCell ref="A463:A471"/>
-    <mergeCell ref="A473:A481"/>
-    <mergeCell ref="A483:A491"/>
-    <mergeCell ref="A503:A517"/>
-    <mergeCell ref="A519:A528"/>
+    <mergeCell ref="G346:G354"/>
+    <mergeCell ref="G356:G364"/>
+    <mergeCell ref="G315:G324"/>
+    <mergeCell ref="G326:G334"/>
+    <mergeCell ref="G336:G344"/>
+    <mergeCell ref="G573:G581"/>
+    <mergeCell ref="G583:G591"/>
+    <mergeCell ref="G593:G600"/>
+    <mergeCell ref="G551:G560"/>
+    <mergeCell ref="G562:G571"/>
+    <mergeCell ref="G384:G391"/>
+    <mergeCell ref="G519:G528"/>
+    <mergeCell ref="G530:G538"/>
+    <mergeCell ref="G540:G549"/>
+    <mergeCell ref="G493:G501"/>
+    <mergeCell ref="G503:G517"/>
+    <mergeCell ref="G411:G419"/>
+    <mergeCell ref="G421:G429"/>
+    <mergeCell ref="G305:G313"/>
+    <mergeCell ref="G266:G274"/>
+    <mergeCell ref="G276:G283"/>
+    <mergeCell ref="G285:G293"/>
+    <mergeCell ref="A266:A274"/>
+    <mergeCell ref="G111:G119"/>
+    <mergeCell ref="A150:A158"/>
+    <mergeCell ref="A141:A148"/>
+    <mergeCell ref="G150:G158"/>
+    <mergeCell ref="G246:G254"/>
+    <mergeCell ref="A246:A254"/>
+    <mergeCell ref="A276:A283"/>
+    <mergeCell ref="A131:A139"/>
+    <mergeCell ref="G256:G264"/>
+    <mergeCell ref="A256:A264"/>
+    <mergeCell ref="A121:A129"/>
+    <mergeCell ref="G295:G303"/>
+    <mergeCell ref="A295:A303"/>
+    <mergeCell ref="A285:A293"/>
+    <mergeCell ref="A224:A234"/>
+    <mergeCell ref="A160:A168"/>
+    <mergeCell ref="A101:A109"/>
+    <mergeCell ref="A77:A89"/>
+    <mergeCell ref="G224:G234"/>
+    <mergeCell ref="G236:G244"/>
+    <mergeCell ref="G200:G211"/>
+    <mergeCell ref="G213:G222"/>
+    <mergeCell ref="G180:G188"/>
+    <mergeCell ref="A180:A188"/>
+    <mergeCell ref="A111:A119"/>
+    <mergeCell ref="G101:G109"/>
+    <mergeCell ref="G121:G129"/>
+    <mergeCell ref="G141:G148"/>
+    <mergeCell ref="G131:G139"/>
+    <mergeCell ref="A236:A244"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="G160:G168"/>
+    <mergeCell ref="G190:G198"/>
+    <mergeCell ref="G170:G178"/>
+    <mergeCell ref="A190:A198"/>
+    <mergeCell ref="A200:A211"/>
+    <mergeCell ref="A213:A222"/>
+    <mergeCell ref="A34:A43"/>
+    <mergeCell ref="A45:A54"/>
+    <mergeCell ref="A56:A64"/>
+    <mergeCell ref="G45:G54"/>
+    <mergeCell ref="G77:G89"/>
+    <mergeCell ref="G91:G99"/>
+    <mergeCell ref="G56:G64"/>
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A11:A19"/>
+    <mergeCell ref="G2:G9"/>
+    <mergeCell ref="G34:G43"/>
+    <mergeCell ref="G11:G19"/>
+    <mergeCell ref="G21:G32"/>
+    <mergeCell ref="A21:A32"/>
+    <mergeCell ref="A66:A75"/>
+    <mergeCell ref="A91:A99"/>
+    <mergeCell ref="G66:G75"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A34:A43" r:id="rId1" display="Click here for the 1930 season football articles " xr:uid="{19CFF195-F347-4DC1-882D-E27AE52E410C}"/>
